--- a/bika/lims/test_setup_data.xlsx
+++ b/bika/lims/test_setup_data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="960" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="14" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="958" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="Lab Users" sheetId="1" state="visible" r:id="rId2"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2115" uniqueCount="1016">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2116" uniqueCount="1017">
   <si>
     <t>Lab users</t>
   </si>
@@ -2017,6 +2017,9 @@
     <t>Analysis Services</t>
   </si>
   <si>
+    <t>No special chars or spaces in keywords.</t>
+  </si>
+  <si>
     <t>Turnaround time</t>
   </si>
   <si>
@@ -2512,7 +2515,7 @@
     <t>Calculations 1</t>
   </si>
   <si>
-    <t>Interim fields</t>
+    <t>Interim fields - No special chars or spaces in keywords.</t>
   </si>
   <si>
     <t>DependentServices</t>
@@ -3101,11 +3104,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt formatCode="GENERAL" numFmtId="164"/>
     <numFmt formatCode="@" numFmtId="165"/>
     <numFmt formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;" numFmtId="166"/>
-    <numFmt formatCode="0.00%" numFmtId="167"/>
+    <numFmt formatCode="GENERAL" numFmtId="167"/>
+    <numFmt formatCode="0.00%" numFmtId="168"/>
   </numFmts>
   <fonts count="15">
     <font>
@@ -3256,7 +3260,7 @@
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
     <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
@@ -3384,7 +3388,7 @@
     <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="166" xfId="0">
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="167" xfId="0">
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0">
@@ -3393,10 +3397,13 @@
     <xf applyAlignment="true" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
     </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+    </xf>
     <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="13" numFmtId="164" xfId="0">
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="167" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="168" xfId="0">
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -3478,19 +3485,19 @@
   </sheetPr>
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100">
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100">
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="11.2078431372549"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.7843137254902"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="10.9176470588235"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="13.6588235294118"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="13.356862745098"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="24.7098039215686"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="18.8117647058824"/>
-    <col collapsed="false" hidden="false" max="257" min="8" style="1" width="11.7294117647059"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="11.2705882352941"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.8470588235294"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="10.9725490196078"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="13.7294117647059"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="13.4235294117647"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="24.8352941176471"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="18.9019607843137"/>
+    <col collapsed="false" hidden="false" max="257" min="8" style="1" width="11.7843137254902"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1" s="3">
@@ -3866,10 +3873,10 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="25.4313725490196"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="1" width="65.9686274509804"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="23.2705882352941"/>
-    <col collapsed="false" hidden="false" max="257" min="5" style="1" width="11.7294117647059"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="25.5607843137255"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="1" width="66.2941176470588"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="23.3882352941176"/>
+    <col collapsed="false" hidden="false" max="257" min="5" style="1" width="11.7843137254902"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1" s="2">
@@ -3898,7 +3905,7 @@
       <c r="U1" s="26"/>
       <c r="V1" s="26"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="13.05" outlineLevel="0" r="2" s="5">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="2" s="5">
       <c r="A2" s="31" t="s">
         <v>135</v>
       </c>
@@ -4155,37 +4162,37 @@
   <dimension ref="A1:AC203"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
+      <selection activeCell="C1" activeCellId="0" pane="topLeft" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="22" width="12.0745098039216"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="22" width="17.9607843137255"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="22" width="9.05490196078431"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="22" width="8.61176470588235"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="22" width="11.7843137254902"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="37" width="7.47058823529412"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="22" width="12.3529411764706"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="22" width="7.6078431372549"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="22" width="5.90588235294118"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="22" width="6.02352941176471"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="22" width="7.18039215686275"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="22" width="5.8078431372549"/>
-    <col collapsed="false" hidden="false" max="15" min="14" style="22" width="6.02352941176471"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="22" width="4.88235294117647"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="22" width="7.89411764705882"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="22" width="7.6078431372549"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="22" width="12.4980392156863"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="22" width="9.63137254901961"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="37" width="7.75294117647059"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="22" width="14.2627450980392"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="17" width="10.7725490196078"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="22" width="11.7294117647059"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="34.2039215686274"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="6.46666666666667"/>
-    <col collapsed="false" hidden="false" max="28" min="27" style="1" width="11.7294117647059"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="28" width="10.7725490196078"/>
-    <col collapsed="false" hidden="false" max="257" min="30" style="28" width="11.7294117647059"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="22" width="12.1372549019608"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="22" width="18.0509803921569"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="22" width="9.09803921568627"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="22" width="8.65490196078431"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="22" width="11.8470588235294"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="37" width="7.50588235294118"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="22" width="12.4196078431373"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="22" width="7.64313725490196"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="22" width="5.94117647058824"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="22" width="6.05882352941176"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="22" width="7.2156862745098"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="22" width="5.83529411764706"/>
+    <col collapsed="false" hidden="false" max="15" min="14" style="22" width="6.05882352941176"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="22" width="4.90980392156863"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="22" width="7.93333333333333"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="22" width="7.64313725490196"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="22" width="12.5607843137255"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="22" width="9.67843137254902"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="37" width="7.79607843137255"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="22" width="14.3333333333333"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="17" width="10.8274509803922"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="22" width="11.7843137254902"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="34.3764705882353"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="6.49411764705882"/>
+    <col collapsed="false" hidden="false" max="28" min="27" style="1" width="11.7843137254902"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="28" width="10.8274509803922"/>
+    <col collapsed="false" hidden="false" max="257" min="30" style="28" width="11.7843137254902"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="24.25" outlineLevel="0" r="1" s="23">
@@ -4193,7 +4200,9 @@
         <v>655</v>
       </c>
       <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
+      <c r="C1" s="18" t="s">
+        <v>656</v>
+      </c>
       <c r="D1" s="19"/>
       <c r="E1" s="19"/>
       <c r="F1" s="19"/>
@@ -4202,7 +4211,7 @@
       <c r="I1" s="19"/>
       <c r="J1" s="19"/>
       <c r="K1" s="39" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="L1" s="39"/>
       <c r="M1" s="39"/>
@@ -4215,7 +4224,7 @@
       <c r="T1" s="19"/>
       <c r="U1" s="38"/>
       <c r="V1" s="18" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="W1" s="40"/>
       <c r="X1" s="18"/>
@@ -4224,7 +4233,7 @@
       <c r="AA1" s="6"/>
       <c r="AB1" s="6"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="24.25" outlineLevel="0" r="2" s="7">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="2" s="7">
       <c r="A2" s="4" t="s">
         <v>135</v>
       </c>
@@ -4232,28 +4241,28 @@
         <v>136</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>65</v>
       </c>
       <c r="G2" s="41" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="K2" s="4" t="s">
         <v>469</v>
@@ -4265,37 +4274,37 @@
         <v>471</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="R2" s="4" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="S2" s="4" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="T2" s="4" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="U2" s="41" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="V2" s="4" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="W2" s="4" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="X2" s="4" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="Y2" s="1"/>
       <c r="Z2" s="1"/>
@@ -4310,28 +4319,28 @@
         <v>139</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="E3" s="20" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="F3" s="20" t="s">
         <v>65</v>
       </c>
       <c r="G3" s="42" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="H3" s="20" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="I3" s="20" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="J3" s="20" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="K3" s="20" t="s">
         <v>469</v>
@@ -4343,37 +4352,37 @@
         <v>471</v>
       </c>
       <c r="N3" s="20" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="O3" s="20" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="P3" s="20" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="Q3" s="20" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="R3" s="20" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="S3" s="20" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="T3" s="20" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="U3" s="42" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="V3" s="20" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="W3" s="20" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="X3" s="20" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="Y3" s="1"/>
       <c r="Z3" s="1"/>
@@ -4381,18 +4390,18 @@
       <c r="AB3" s="1"/>
       <c r="AC3" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="24.25" outlineLevel="0" r="4">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="4">
       <c r="A4" s="22" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="E4" s="17" t="s">
         <v>607</v>
@@ -4400,26 +4409,27 @@
       <c r="F4" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="G4" s="37" t="b">
+      <c r="G4" s="43" t="b">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H4" s="22" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="I4" s="22" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="J4" s="22" t="n">
         <v>2</v>
       </c>
       <c r="K4" s="22" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="L4" s="22" t="n">
         <v>2</v>
       </c>
       <c r="M4" s="22" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="N4" s="22" t="n">
         <v>10</v>
@@ -4433,7 +4443,8 @@
       <c r="T4" s="22" t="n">
         <v>10</v>
       </c>
-      <c r="U4" s="37" t="b">
+      <c r="U4" s="43" t="b">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="V4" s="22" t="n">
@@ -4446,7 +4457,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.05" outlineLevel="0" r="5">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="5">
       <c r="E5" s="17"/>
       <c r="F5" s="17"/>
       <c r="V5" s="22" t="n">
@@ -4459,7 +4470,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.05" outlineLevel="0" r="6">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="6">
       <c r="E6" s="17"/>
       <c r="F6" s="17"/>
       <c r="V6" s="22" t="n">
@@ -4472,7 +4483,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.05" outlineLevel="0" r="7">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="7">
       <c r="E7" s="17"/>
       <c r="F7" s="17"/>
       <c r="V7" s="22" t="n">
@@ -4485,18 +4496,18 @@
         <v>0.4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="24.25" outlineLevel="0" r="8">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="8">
       <c r="A8" s="22" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="E8" s="17" t="s">
         <v>607</v>
@@ -4504,23 +4515,24 @@
       <c r="F8" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="G8" s="37" t="b">
+      <c r="G8" s="43" t="b">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H8" s="22" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="J8" s="22" t="n">
         <v>2</v>
       </c>
       <c r="K8" s="22" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="L8" s="22" t="n">
         <v>2</v>
       </c>
       <c r="M8" s="22" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="N8" s="22" t="n">
         <v>10</v>
@@ -4537,7 +4549,8 @@
       <c r="T8" s="22" t="n">
         <v>10</v>
       </c>
-      <c r="U8" s="37" t="b">
+      <c r="U8" s="43" t="b">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="V8" s="22" t="n">
@@ -4550,7 +4563,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.05" outlineLevel="0" r="9">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="9">
       <c r="E9" s="17"/>
       <c r="F9" s="17"/>
       <c r="Q9" s="17"/>
@@ -4564,7 +4577,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.05" outlineLevel="0" r="10">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="10">
       <c r="E10" s="17"/>
       <c r="F10" s="17"/>
       <c r="Q10" s="17"/>
@@ -4578,7 +4591,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.05" outlineLevel="0" r="11">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="11">
       <c r="E11" s="17"/>
       <c r="F11" s="17"/>
       <c r="Q11" s="17"/>
@@ -4592,18 +4605,18 @@
         <v>0.4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="46.6" outlineLevel="0" r="12">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="46.25" outlineLevel="0" r="12">
       <c r="A12" s="22" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="E12" s="17" t="s">
         <v>605</v>
@@ -4611,26 +4624,27 @@
       <c r="F12" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="G12" s="37" t="b">
+      <c r="G12" s="43" t="b">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H12" s="22" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="I12" s="22" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="J12" s="22" t="n">
         <v>2</v>
       </c>
       <c r="K12" s="22" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="L12" s="22" t="n">
         <v>2</v>
       </c>
       <c r="M12" s="22" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="N12" s="22" t="n">
         <v>10</v>
@@ -4644,7 +4658,8 @@
       <c r="T12" s="22" t="n">
         <v>10</v>
       </c>
-      <c r="U12" s="37" t="b">
+      <c r="U12" s="43" t="b">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="V12" s="22" t="n">
@@ -4657,7 +4672,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.05" outlineLevel="0" r="13">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="13">
       <c r="E13" s="17"/>
       <c r="F13" s="17"/>
       <c r="V13" s="22" t="n">
@@ -4670,7 +4685,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.05" outlineLevel="0" r="14">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="14">
       <c r="E14" s="17"/>
       <c r="F14" s="17"/>
       <c r="V14" s="22" t="n">
@@ -4683,7 +4698,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.05" outlineLevel="0" r="15">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="15">
       <c r="E15" s="17"/>
       <c r="F15" s="17"/>
       <c r="V15" s="22" t="n">
@@ -4696,18 +4711,18 @@
         <v>0.4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="113.8" outlineLevel="0" r="16">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="113.4" outlineLevel="0" r="16">
       <c r="A16" s="22" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="B16" s="22" t="s">
+        <v>700</v>
+      </c>
+      <c r="C16" s="22" t="s">
         <v>699</v>
       </c>
-      <c r="C16" s="22" t="s">
-        <v>698</v>
-      </c>
       <c r="D16" s="22" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="E16" s="17" t="s">
         <v>594</v>
@@ -4715,26 +4730,27 @@
       <c r="F16" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="G16" s="37" t="b">
+      <c r="G16" s="43" t="b">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="H16" s="22" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="I16" s="22" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="J16" s="22" t="n">
         <v>2</v>
       </c>
       <c r="K16" s="22" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="L16" s="22" t="n">
         <v>2</v>
       </c>
       <c r="M16" s="22" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="N16" s="22" t="n">
         <v>10</v>
@@ -4746,12 +4762,13 @@
         <v>14</v>
       </c>
       <c r="S16" s="22" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="T16" s="22" t="n">
         <v>10</v>
       </c>
-      <c r="U16" s="37" t="b">
+      <c r="U16" s="43" t="b">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="V16" s="22" t="n">
@@ -4764,7 +4781,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.05" outlineLevel="0" r="17">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="17">
       <c r="E17" s="17"/>
       <c r="F17" s="17"/>
       <c r="V17" s="22" t="n">
@@ -4777,7 +4794,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.05" outlineLevel="0" r="18">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="18">
       <c r="E18" s="17"/>
       <c r="F18" s="17"/>
       <c r="V18" s="22" t="n">
@@ -4790,7 +4807,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.05" outlineLevel="0" r="19">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="19">
       <c r="E19" s="17"/>
       <c r="F19" s="17"/>
       <c r="V19" s="22" t="n">
@@ -4803,15 +4820,15 @@
         <v>0.4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.05" outlineLevel="0" r="20">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="20">
       <c r="A20" s="22" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="D20" s="22" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="E20" s="17" t="s">
         <v>598</v>
@@ -4819,26 +4836,27 @@
       <c r="F20" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="G20" s="37" t="b">
+      <c r="G20" s="43" t="b">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H20" s="22" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="I20" s="22" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="J20" s="22" t="n">
         <v>2</v>
       </c>
       <c r="K20" s="22" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="L20" s="22" t="n">
         <v>2</v>
       </c>
       <c r="M20" s="22" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="N20" s="22" t="n">
         <v>10</v>
@@ -4861,7 +4879,8 @@
       <c r="T20" s="22" t="n">
         <v>10</v>
       </c>
-      <c r="U20" s="37" t="b">
+      <c r="U20" s="43" t="b">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="V20" s="22" t="n">
@@ -4874,7 +4893,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.05" outlineLevel="0" r="21">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="21">
       <c r="E21" s="17"/>
       <c r="F21" s="17"/>
       <c r="Q21" s="17"/>
@@ -4889,7 +4908,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.05" outlineLevel="0" r="22">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="22">
       <c r="E22" s="17"/>
       <c r="F22" s="17"/>
       <c r="Q22" s="17"/>
@@ -4904,7 +4923,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.05" outlineLevel="0" r="23">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="23">
       <c r="E23" s="17"/>
       <c r="F23" s="17"/>
       <c r="Q23" s="17"/>
@@ -4919,15 +4938,15 @@
         <v>0.4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="24.25" outlineLevel="0" r="24">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="24">
       <c r="A24" s="22" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="D24" s="22" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="E24" s="17" t="s">
         <v>607</v>
@@ -4935,26 +4954,27 @@
       <c r="F24" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="G24" s="37" t="b">
+      <c r="G24" s="43" t="b">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H24" s="22" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="I24" s="22" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="J24" s="22" t="n">
         <v>2</v>
       </c>
       <c r="K24" s="22" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="L24" s="22" t="n">
         <v>2</v>
       </c>
       <c r="M24" s="22" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="N24" s="22" t="n">
         <v>10</v>
@@ -4971,7 +4991,8 @@
       <c r="T24" s="22" t="n">
         <v>10</v>
       </c>
-      <c r="U24" s="37" t="b">
+      <c r="U24" s="43" t="b">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="V24" s="22" t="n">
@@ -4984,7 +5005,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.05" outlineLevel="0" r="25">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="25">
       <c r="E25" s="17"/>
       <c r="F25" s="17"/>
       <c r="R25" s="17"/>
@@ -4998,7 +5019,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.05" outlineLevel="0" r="26">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="26">
       <c r="E26" s="17"/>
       <c r="F26" s="17"/>
       <c r="R26" s="17"/>
@@ -5012,7 +5033,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.05" outlineLevel="0" r="27">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="27">
       <c r="E27" s="17"/>
       <c r="F27" s="17"/>
       <c r="R27" s="17"/>
@@ -5026,15 +5047,15 @@
         <v>0.4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="24.25" outlineLevel="0" r="28">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="28">
       <c r="A28" s="22" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="C28" s="22" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="D28" s="22" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="E28" s="17" t="s">
         <v>607</v>
@@ -5042,26 +5063,27 @@
       <c r="F28" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="G28" s="37" t="b">
+      <c r="G28" s="43" t="b">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H28" s="22" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="I28" s="22" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="J28" s="22" t="n">
         <v>2</v>
       </c>
       <c r="K28" s="22" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="L28" s="22" t="n">
         <v>2</v>
       </c>
       <c r="M28" s="22" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="N28" s="22" t="n">
         <v>10</v>
@@ -5081,7 +5103,8 @@
       <c r="T28" s="22" t="n">
         <v>10</v>
       </c>
-      <c r="U28" s="37" t="b">
+      <c r="U28" s="43" t="b">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="V28" s="22" t="n">
@@ -5094,7 +5117,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.05" outlineLevel="0" r="29">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="29">
       <c r="E29" s="17"/>
       <c r="F29" s="17"/>
       <c r="R29" s="17"/>
@@ -5108,7 +5131,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.05" outlineLevel="0" r="30">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="30">
       <c r="E30" s="17"/>
       <c r="F30" s="17"/>
       <c r="R30" s="17"/>
@@ -5122,7 +5145,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.05" outlineLevel="0" r="31">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="31">
       <c r="E31" s="17"/>
       <c r="F31" s="17"/>
       <c r="R31" s="17"/>
@@ -5136,15 +5159,15 @@
         <v>0.4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="24.25" outlineLevel="0" r="32">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="32">
       <c r="A32" s="22" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="C32" s="22" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="D32" s="22" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="E32" s="17" t="s">
         <v>607</v>
@@ -5152,26 +5175,27 @@
       <c r="F32" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="G32" s="37" t="b">
+      <c r="G32" s="43" t="b">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H32" s="22" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="I32" s="22" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="J32" s="22" t="n">
         <v>2</v>
       </c>
       <c r="K32" s="22" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="L32" s="22" t="n">
         <v>2</v>
       </c>
       <c r="M32" s="22" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="N32" s="22" t="n">
         <v>10</v>
@@ -5185,7 +5209,8 @@
       <c r="T32" s="22" t="n">
         <v>10</v>
       </c>
-      <c r="U32" s="37" t="b">
+      <c r="U32" s="43" t="b">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="V32" s="22" t="n">
@@ -5198,7 +5223,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.05" outlineLevel="0" r="33">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="33">
       <c r="E33" s="17"/>
       <c r="F33" s="17"/>
       <c r="V33" s="22" t="n">
@@ -5211,7 +5236,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.05" outlineLevel="0" r="34">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="34">
       <c r="E34" s="17"/>
       <c r="F34" s="17"/>
       <c r="V34" s="22" t="n">
@@ -5224,7 +5249,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.05" outlineLevel="0" r="35">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="35">
       <c r="E35" s="17"/>
       <c r="F35" s="17"/>
       <c r="V35" s="22" t="n">
@@ -5237,15 +5262,15 @@
         <v>0.4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="24.25" outlineLevel="0" r="36">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="36">
       <c r="A36" s="22" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="C36" s="22" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="D36" s="22" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="E36" s="17" t="s">
         <v>594</v>
@@ -5253,26 +5278,27 @@
       <c r="F36" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="G36" s="37" t="b">
+      <c r="G36" s="43" t="b">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H36" s="22" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="I36" s="22" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="J36" s="22" t="n">
         <v>2</v>
       </c>
       <c r="K36" s="22" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="L36" s="22" t="n">
         <v>2</v>
       </c>
       <c r="M36" s="22" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="N36" s="22" t="n">
         <v>10</v>
@@ -5286,7 +5312,8 @@
       <c r="T36" s="22" t="n">
         <v>10</v>
       </c>
-      <c r="U36" s="37" t="b">
+      <c r="U36" s="43" t="b">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="V36" s="22" t="n">
@@ -5299,7 +5326,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.05" outlineLevel="0" r="37">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="37">
       <c r="E37" s="17"/>
       <c r="F37" s="17"/>
       <c r="V37" s="22" t="n">
@@ -5312,7 +5339,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.05" outlineLevel="0" r="38">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="38">
       <c r="E38" s="17"/>
       <c r="F38" s="17"/>
       <c r="V38" s="22" t="n">
@@ -5325,7 +5352,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.05" outlineLevel="0" r="39">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="39">
       <c r="E39" s="17"/>
       <c r="F39" s="17"/>
       <c r="V39" s="22" t="n">
@@ -5338,15 +5365,15 @@
         <v>0.4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.05" outlineLevel="0" r="40">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="40">
       <c r="A40" s="22" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="C40" s="22" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="D40" s="22" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="E40" s="17" t="s">
         <v>598</v>
@@ -5354,26 +5381,27 @@
       <c r="F40" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="G40" s="37" t="b">
+      <c r="G40" s="43" t="b">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H40" s="22" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="I40" s="22" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="J40" s="22" t="n">
         <v>2</v>
       </c>
       <c r="K40" s="22" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="L40" s="22" t="n">
         <v>2</v>
       </c>
       <c r="M40" s="22" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="N40" s="22" t="n">
         <v>10</v>
@@ -5393,7 +5421,8 @@
       <c r="T40" s="22" t="n">
         <v>10</v>
       </c>
-      <c r="U40" s="37" t="b">
+      <c r="U40" s="43" t="b">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="V40" s="22" t="n">
@@ -5406,7 +5435,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.05" outlineLevel="0" r="41">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="41">
       <c r="E41" s="17"/>
       <c r="F41" s="17"/>
       <c r="Q41" s="17"/>
@@ -5421,7 +5450,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.05" outlineLevel="0" r="42">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="42">
       <c r="E42" s="17"/>
       <c r="F42" s="17"/>
       <c r="Q42" s="17"/>
@@ -5436,7 +5465,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.05" outlineLevel="0" r="43">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="43">
       <c r="E43" s="17"/>
       <c r="F43" s="17"/>
       <c r="Q43" s="17"/>
@@ -5451,15 +5480,15 @@
         <v>0.4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="24.25" outlineLevel="0" r="44">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="44">
       <c r="A44" s="22" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="C44" s="22" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="D44" s="22" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="E44" s="17" t="s">
         <v>594</v>
@@ -5467,26 +5496,27 @@
       <c r="F44" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="G44" s="37" t="b">
+      <c r="G44" s="43" t="b">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H44" s="22" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="I44" s="22" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="J44" s="22" t="n">
         <v>2</v>
       </c>
       <c r="K44" s="22" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="L44" s="22" t="n">
         <v>2</v>
       </c>
       <c r="M44" s="22" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="N44" s="22" t="n">
         <v>10</v>
@@ -5503,7 +5533,8 @@
       <c r="T44" s="22" t="n">
         <v>10</v>
       </c>
-      <c r="U44" s="37" t="b">
+      <c r="U44" s="43" t="b">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="V44" s="22" t="n">
@@ -5516,7 +5547,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.05" outlineLevel="0" r="45">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="45">
       <c r="E45" s="17"/>
       <c r="F45" s="17"/>
       <c r="Q45" s="17"/>
@@ -5530,7 +5561,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.05" outlineLevel="0" r="46">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="46">
       <c r="E46" s="17"/>
       <c r="F46" s="17"/>
       <c r="Q46" s="17"/>
@@ -5544,7 +5575,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.05" outlineLevel="0" r="47">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="47">
       <c r="E47" s="17"/>
       <c r="F47" s="17"/>
       <c r="Q47" s="17"/>
@@ -5558,15 +5589,15 @@
         <v>0.4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="24.25" outlineLevel="0" r="48">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="48">
       <c r="A48" s="22" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="C48" s="22" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="D48" s="22" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="E48" s="17" t="s">
         <v>596</v>
@@ -5574,26 +5605,27 @@
       <c r="F48" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="G48" s="37" t="b">
+      <c r="G48" s="43" t="b">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="H48" s="22" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="I48" s="22" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="J48" s="22" t="n">
         <v>2</v>
       </c>
       <c r="K48" s="22" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="L48" s="22" t="n">
         <v>2</v>
       </c>
       <c r="M48" s="22" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="N48" s="22" t="n">
         <v>10</v>
@@ -5605,12 +5637,13 @@
         <v>14</v>
       </c>
       <c r="S48" s="22" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="T48" s="22" t="n">
         <v>10</v>
       </c>
-      <c r="U48" s="37" t="b">
+      <c r="U48" s="43" t="b">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="V48" s="22" t="n">
@@ -5623,7 +5656,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.05" outlineLevel="0" r="49">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="49">
       <c r="E49" s="17"/>
       <c r="F49" s="17"/>
       <c r="V49" s="22" t="n">
@@ -5636,7 +5669,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.05" outlineLevel="0" r="50">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="50">
       <c r="E50" s="17"/>
       <c r="F50" s="17"/>
       <c r="V50" s="22" t="n">
@@ -5649,7 +5682,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.05" outlineLevel="0" r="51">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="51">
       <c r="E51" s="17"/>
       <c r="F51" s="17"/>
       <c r="V51" s="22" t="n">
@@ -5662,15 +5695,15 @@
         <v>0.4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.05" outlineLevel="0" r="52">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="52">
       <c r="A52" s="22" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="C52" s="22" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="D52" s="22" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="E52" s="17" t="s">
         <v>596</v>
@@ -5678,26 +5711,27 @@
       <c r="F52" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="G52" s="37" t="b">
+      <c r="G52" s="43" t="b">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="H52" s="22" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="I52" s="22" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="J52" s="22" t="n">
         <v>2</v>
       </c>
       <c r="K52" s="22" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="L52" s="22" t="n">
         <v>2</v>
       </c>
       <c r="M52" s="22" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="N52" s="22" t="n">
         <v>10</v>
@@ -5709,12 +5743,13 @@
         <v>14</v>
       </c>
       <c r="S52" s="22" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="T52" s="22" t="n">
         <v>10</v>
       </c>
-      <c r="U52" s="37" t="b">
+      <c r="U52" s="43" t="b">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="V52" s="22" t="n">
@@ -5727,7 +5762,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.05" outlineLevel="0" r="53">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="53">
       <c r="E53" s="17"/>
       <c r="F53" s="17"/>
       <c r="V53" s="22" t="n">
@@ -5740,7 +5775,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.05" outlineLevel="0" r="54">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="54">
       <c r="E54" s="17"/>
       <c r="F54" s="17"/>
       <c r="V54" s="22" t="n">
@@ -5753,7 +5788,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.05" outlineLevel="0" r="55">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="55">
       <c r="E55" s="17"/>
       <c r="F55" s="17"/>
       <c r="V55" s="22" t="n">
@@ -5766,15 +5801,15 @@
         <v>0.4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.05" outlineLevel="0" r="56">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="56">
       <c r="A56" s="22" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="C56" s="22" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="D56" s="22" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="E56" s="17" t="s">
         <v>596</v>
@@ -5782,26 +5817,27 @@
       <c r="F56" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="G56" s="37" t="b">
+      <c r="G56" s="43" t="b">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="H56" s="22" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="I56" s="22" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="J56" s="22" t="n">
         <v>2</v>
       </c>
       <c r="K56" s="22" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="L56" s="22" t="n">
         <v>2</v>
       </c>
       <c r="M56" s="22" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="N56" s="22" t="n">
         <v>10</v>
@@ -5815,7 +5851,8 @@
       <c r="T56" s="22" t="n">
         <v>10</v>
       </c>
-      <c r="U56" s="37" t="b">
+      <c r="U56" s="43" t="b">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="V56" s="22" t="n">
@@ -5828,7 +5865,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.05" outlineLevel="0" r="57">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="57">
       <c r="E57" s="17"/>
       <c r="F57" s="17"/>
       <c r="V57" s="22" t="n">
@@ -5841,7 +5878,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.05" outlineLevel="0" r="58">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="58">
       <c r="E58" s="17"/>
       <c r="F58" s="17"/>
       <c r="V58" s="22" t="n">
@@ -5854,7 +5891,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.05" outlineLevel="0" r="59">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="59">
       <c r="E59" s="17"/>
       <c r="F59" s="17"/>
       <c r="V59" s="22" t="n">
@@ -5867,15 +5904,15 @@
         <v>0.4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="24.25" outlineLevel="0" r="60">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="60">
       <c r="A60" s="22" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="C60" s="22" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="D60" s="22" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="E60" s="17" t="s">
         <v>596</v>
@@ -5883,26 +5920,27 @@
       <c r="F60" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="G60" s="37" t="b">
+      <c r="G60" s="43" t="b">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="H60" s="22" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="I60" s="22" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="J60" s="22" t="n">
         <v>2</v>
       </c>
       <c r="K60" s="22" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="L60" s="22" t="n">
         <v>2</v>
       </c>
       <c r="M60" s="22" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="N60" s="22" t="n">
         <v>10</v>
@@ -5914,12 +5952,13 @@
         <v>14</v>
       </c>
       <c r="S60" s="22" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="T60" s="22" t="n">
         <v>10</v>
       </c>
-      <c r="U60" s="37" t="b">
+      <c r="U60" s="43" t="b">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="V60" s="22" t="n">
@@ -5932,7 +5971,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.05" outlineLevel="0" r="61">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="61">
       <c r="E61" s="17"/>
       <c r="F61" s="17"/>
       <c r="V61" s="22" t="n">
@@ -5945,7 +5984,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.05" outlineLevel="0" r="62">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="62">
       <c r="E62" s="17"/>
       <c r="F62" s="17"/>
       <c r="V62" s="22" t="n">
@@ -5958,7 +5997,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.05" outlineLevel="0" r="63">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="63">
       <c r="E63" s="17"/>
       <c r="F63" s="17"/>
       <c r="V63" s="22" t="n">
@@ -5973,13 +6012,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="24.25" outlineLevel="0" r="64">
       <c r="A64" s="22" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="C64" s="22" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="D64" s="22" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="E64" s="17" t="s">
         <v>598</v>
@@ -5987,26 +6026,27 @@
       <c r="F64" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="G64" s="37" t="b">
+      <c r="G64" s="43" t="b">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H64" s="22" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="I64" s="22" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="J64" s="22" t="n">
         <v>2</v>
       </c>
       <c r="K64" s="22" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="L64" s="22" t="n">
         <v>2</v>
       </c>
       <c r="M64" s="22" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="N64" s="22" t="n">
         <v>10</v>
@@ -6023,7 +6063,8 @@
       <c r="T64" s="22" t="n">
         <v>10</v>
       </c>
-      <c r="U64" s="37" t="b">
+      <c r="U64" s="43" t="b">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="V64" s="22" t="n">
@@ -6036,7 +6077,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.05" outlineLevel="0" r="65">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="65">
       <c r="E65" s="17"/>
       <c r="F65" s="17"/>
       <c r="R65" s="17"/>
@@ -6050,7 +6091,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.05" outlineLevel="0" r="66">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="66">
       <c r="E66" s="17"/>
       <c r="F66" s="17"/>
       <c r="R66" s="17"/>
@@ -6064,7 +6105,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.05" outlineLevel="0" r="67">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="67">
       <c r="E67" s="17"/>
       <c r="F67" s="17"/>
       <c r="R67" s="17"/>
@@ -6078,15 +6119,15 @@
         <v>0.4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.05" outlineLevel="0" r="68">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="68">
       <c r="A68" s="22" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="C68" s="22" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="D68" s="22" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="E68" s="17" t="s">
         <v>598</v>
@@ -6094,26 +6135,27 @@
       <c r="F68" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="G68" s="37" t="b">
+      <c r="G68" s="43" t="b">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H68" s="22" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="I68" s="22" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="J68" s="22" t="n">
         <v>2</v>
       </c>
       <c r="K68" s="22" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="L68" s="22" t="n">
         <v>2</v>
       </c>
       <c r="M68" s="22" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="N68" s="22" t="n">
         <v>10</v>
@@ -6133,7 +6175,8 @@
       <c r="T68" s="22" t="n">
         <v>10</v>
       </c>
-      <c r="U68" s="37" t="b">
+      <c r="U68" s="43" t="b">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="V68" s="22" t="n">
@@ -6146,7 +6189,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.05" outlineLevel="0" r="69">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="69">
       <c r="E69" s="17"/>
       <c r="F69" s="17"/>
       <c r="Q69" s="17"/>
@@ -6161,7 +6204,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.05" outlineLevel="0" r="70">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="70">
       <c r="E70" s="17"/>
       <c r="F70" s="17"/>
       <c r="Q70" s="17"/>
@@ -6176,7 +6219,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.05" outlineLevel="0" r="71">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="71">
       <c r="E71" s="17"/>
       <c r="F71" s="17"/>
       <c r="Q71" s="17"/>
@@ -6191,15 +6234,15 @@
         <v>0.4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="24.25" outlineLevel="0" r="72">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="72">
       <c r="A72" s="22" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="C72" s="22" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="D72" s="22" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="E72" s="17" t="s">
         <v>603</v>
@@ -6207,26 +6250,27 @@
       <c r="F72" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="G72" s="37" t="b">
+      <c r="G72" s="43" t="b">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H72" s="22" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="I72" s="22" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="J72" s="22" t="n">
         <v>2</v>
       </c>
       <c r="K72" s="22" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="L72" s="22" t="n">
         <v>2</v>
       </c>
       <c r="M72" s="22" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="N72" s="22" t="n">
         <v>10</v>
@@ -6238,12 +6282,13 @@
         <v>14</v>
       </c>
       <c r="S72" s="22" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="T72" s="22" t="n">
         <v>10</v>
       </c>
-      <c r="U72" s="37" t="b">
+      <c r="U72" s="43" t="b">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="V72" s="22" t="n">
@@ -6256,7 +6301,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.05" outlineLevel="0" r="73">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="73">
       <c r="E73" s="17"/>
       <c r="F73" s="17"/>
       <c r="V73" s="22" t="n">
@@ -6269,7 +6314,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.05" outlineLevel="0" r="74">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="74">
       <c r="E74" s="17"/>
       <c r="F74" s="17"/>
       <c r="V74" s="22" t="n">
@@ -6282,7 +6327,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.05" outlineLevel="0" r="75">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="75">
       <c r="E75" s="17"/>
       <c r="F75" s="17"/>
       <c r="V75" s="22" t="n">
@@ -6295,15 +6340,15 @@
         <v>0.4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.05" outlineLevel="0" r="76">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="76">
       <c r="A76" s="22" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="C76" s="22" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="D76" s="22" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="E76" s="17" t="s">
         <v>598</v>
@@ -6311,26 +6356,27 @@
       <c r="F76" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="G76" s="37" t="b">
+      <c r="G76" s="43" t="b">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H76" s="22" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="I76" s="22" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="J76" s="22" t="n">
         <v>2</v>
       </c>
       <c r="K76" s="22" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="L76" s="22" t="n">
         <v>2</v>
       </c>
       <c r="M76" s="22" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="N76" s="22" t="n">
         <v>10</v>
@@ -6350,7 +6396,8 @@
       <c r="T76" s="22" t="n">
         <v>10</v>
       </c>
-      <c r="U76" s="37" t="b">
+      <c r="U76" s="43" t="b">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="V76" s="22" t="n">
@@ -6363,7 +6410,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.05" outlineLevel="0" r="77">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="77">
       <c r="E77" s="17"/>
       <c r="F77" s="17"/>
       <c r="Q77" s="17"/>
@@ -6378,7 +6425,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.05" outlineLevel="0" r="78">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="78">
       <c r="E78" s="17"/>
       <c r="F78" s="17"/>
       <c r="Q78" s="17"/>
@@ -6393,7 +6440,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.05" outlineLevel="0" r="79">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="79">
       <c r="E79" s="17"/>
       <c r="F79" s="17"/>
       <c r="Q79" s="17"/>
@@ -6408,15 +6455,15 @@
         <v>0.4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.05" outlineLevel="0" r="80">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="80">
       <c r="A80" s="22" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="C80" s="22" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="D80" s="22" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="E80" s="17" t="s">
         <v>598</v>
@@ -6424,26 +6471,27 @@
       <c r="F80" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="G80" s="37" t="b">
+      <c r="G80" s="43" t="b">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H80" s="22" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="I80" s="22" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="J80" s="22" t="n">
         <v>2</v>
       </c>
       <c r="K80" s="22" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="L80" s="22" t="n">
         <v>2</v>
       </c>
       <c r="M80" s="22" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="N80" s="22" t="n">
         <v>10</v>
@@ -6463,7 +6511,8 @@
       <c r="T80" s="22" t="n">
         <v>10</v>
       </c>
-      <c r="U80" s="37" t="b">
+      <c r="U80" s="43" t="b">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="V80" s="22" t="n">
@@ -6476,7 +6525,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.05" outlineLevel="0" r="81">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="81">
       <c r="E81" s="17"/>
       <c r="F81" s="17"/>
       <c r="Q81" s="17"/>
@@ -6491,7 +6540,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.05" outlineLevel="0" r="82">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="82">
       <c r="E82" s="17"/>
       <c r="F82" s="17"/>
       <c r="Q82" s="17"/>
@@ -6506,7 +6555,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.05" outlineLevel="0" r="83">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="83">
       <c r="E83" s="17"/>
       <c r="F83" s="17"/>
       <c r="Q83" s="17"/>
@@ -6521,18 +6570,18 @@
         <v>0.4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="80.2" outlineLevel="0" r="84">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="79.85" outlineLevel="0" r="84">
       <c r="A84" s="22" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="B84" s="22" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="C84" s="22" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="D84" s="22" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="E84" s="17" t="s">
         <v>601</v>
@@ -6540,26 +6589,27 @@
       <c r="F84" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="G84" s="37" t="b">
+      <c r="G84" s="43" t="b">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H84" s="22" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="I84" s="22" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="J84" s="22" t="n">
         <v>2</v>
       </c>
       <c r="K84" s="22" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="L84" s="22" t="n">
         <v>2</v>
       </c>
       <c r="M84" s="22" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="N84" s="22" t="n">
         <v>10</v>
@@ -6571,12 +6621,13 @@
         <v>14</v>
       </c>
       <c r="S84" s="22" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="T84" s="22" t="n">
         <v>10</v>
       </c>
-      <c r="U84" s="37" t="b">
+      <c r="U84" s="43" t="b">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="V84" s="22" t="n">
@@ -6589,7 +6640,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.05" outlineLevel="0" r="85">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="85">
       <c r="E85" s="17"/>
       <c r="F85" s="17"/>
       <c r="V85" s="22" t="n">
@@ -6602,7 +6653,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.05" outlineLevel="0" r="86">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="86">
       <c r="E86" s="17"/>
       <c r="F86" s="17"/>
       <c r="V86" s="22" t="n">
@@ -6615,7 +6666,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.05" outlineLevel="0" r="87">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="87">
       <c r="E87" s="17"/>
       <c r="F87" s="17"/>
       <c r="V87" s="22" t="n">
@@ -6628,15 +6679,15 @@
         <v>0.4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="24.25" outlineLevel="0" r="88">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="88">
       <c r="A88" s="22" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="C88" s="22" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D88" s="22" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="E88" s="17" t="s">
         <v>598</v>
@@ -6644,26 +6695,27 @@
       <c r="F88" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="G88" s="37" t="b">
+      <c r="G88" s="43" t="b">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H88" s="22" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="I88" s="22" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="J88" s="22" t="n">
         <v>2</v>
       </c>
       <c r="K88" s="22" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="L88" s="22" t="n">
         <v>2</v>
       </c>
       <c r="M88" s="22" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="N88" s="22" t="n">
         <v>10</v>
@@ -6677,7 +6729,8 @@
       <c r="T88" s="22" t="n">
         <v>10</v>
       </c>
-      <c r="U88" s="37" t="b">
+      <c r="U88" s="43" t="b">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="V88" s="22" t="n">
@@ -6690,7 +6743,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.05" outlineLevel="0" r="89">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="89">
       <c r="E89" s="17"/>
       <c r="F89" s="17"/>
       <c r="V89" s="22" t="n">
@@ -6703,7 +6756,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.05" outlineLevel="0" r="90">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="90">
       <c r="E90" s="17"/>
       <c r="F90" s="17"/>
       <c r="V90" s="22" t="n">
@@ -6716,7 +6769,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.05" outlineLevel="0" r="91">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="91">
       <c r="E91" s="17"/>
       <c r="F91" s="17"/>
       <c r="V91" s="22" t="n">
@@ -6729,15 +6782,15 @@
         <v>0.4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.05" outlineLevel="0" r="92">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="92">
       <c r="A92" s="22" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="C92" s="22" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="D92" s="22" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="E92" s="17" t="s">
         <v>598</v>
@@ -6745,26 +6798,27 @@
       <c r="F92" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="G92" s="37" t="b">
+      <c r="G92" s="43" t="b">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H92" s="22" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="I92" s="22" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="J92" s="22" t="n">
         <v>2</v>
       </c>
       <c r="K92" s="22" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="L92" s="22" t="n">
         <v>2</v>
       </c>
       <c r="M92" s="22" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="N92" s="22" t="n">
         <v>10</v>
@@ -6784,7 +6838,8 @@
       <c r="T92" s="22" t="n">
         <v>10</v>
       </c>
-      <c r="U92" s="37" t="b">
+      <c r="U92" s="43" t="b">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="V92" s="22" t="n">
@@ -6797,7 +6852,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.05" outlineLevel="0" r="93">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="93">
       <c r="E93" s="17"/>
       <c r="F93" s="17"/>
       <c r="Q93" s="17"/>
@@ -6812,7 +6867,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.05" outlineLevel="0" r="94">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="94">
       <c r="E94" s="17"/>
       <c r="F94" s="17"/>
       <c r="Q94" s="17"/>
@@ -6827,7 +6882,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.05" outlineLevel="0" r="95">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="95">
       <c r="E95" s="17"/>
       <c r="F95" s="17"/>
       <c r="Q95" s="17"/>
@@ -6842,15 +6897,15 @@
         <v>0.4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="24.25" outlineLevel="0" r="96">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="96">
       <c r="A96" s="22" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="C96" s="22" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="D96" s="22" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="E96" s="17" t="s">
         <v>594</v>
@@ -6858,23 +6913,24 @@
       <c r="F96" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="G96" s="37" t="b">
+      <c r="G96" s="43" t="b">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H96" s="22" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="J96" s="22" t="n">
         <v>2</v>
       </c>
       <c r="K96" s="22" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="L96" s="22" t="n">
         <v>2</v>
       </c>
       <c r="M96" s="22" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="N96" s="22" t="n">
         <v>10</v>
@@ -6891,7 +6947,8 @@
       <c r="T96" s="22" t="n">
         <v>10</v>
       </c>
-      <c r="U96" s="37" t="b">
+      <c r="U96" s="43" t="b">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="V96" s="22" t="n">
@@ -6904,7 +6961,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.05" outlineLevel="0" r="97">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="97">
       <c r="E97" s="17"/>
       <c r="F97" s="17"/>
       <c r="Q97" s="17"/>
@@ -6918,7 +6975,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.05" outlineLevel="0" r="98">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="98">
       <c r="E98" s="17"/>
       <c r="F98" s="17"/>
       <c r="Q98" s="17"/>
@@ -6932,7 +6989,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.05" outlineLevel="0" r="99">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="99">
       <c r="E99" s="17"/>
       <c r="F99" s="17"/>
       <c r="Q99" s="17"/>
@@ -6946,15 +7003,15 @@
         <v>0.4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="24.25" outlineLevel="0" r="100">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="100">
       <c r="A100" s="22" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="C100" s="22" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="D100" s="22" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="E100" s="17" t="s">
         <v>594</v>
@@ -6962,26 +7019,27 @@
       <c r="F100" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="G100" s="37" t="b">
+      <c r="G100" s="43" t="b">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H100" s="22" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="I100" s="22" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="J100" s="22" t="n">
         <v>2</v>
       </c>
       <c r="K100" s="22" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="L100" s="22" t="n">
         <v>2</v>
       </c>
       <c r="M100" s="22" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="N100" s="22" t="n">
         <v>10</v>
@@ -6995,7 +7053,8 @@
       <c r="T100" s="22" t="n">
         <v>10</v>
       </c>
-      <c r="U100" s="37" t="b">
+      <c r="U100" s="43" t="b">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="V100" s="22" t="n">
@@ -7008,7 +7067,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.05" outlineLevel="0" r="101">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="101">
       <c r="E101" s="17"/>
       <c r="F101" s="17"/>
       <c r="V101" s="22" t="n">
@@ -7021,7 +7080,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.05" outlineLevel="0" r="102">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="102">
       <c r="E102" s="17"/>
       <c r="F102" s="17"/>
       <c r="V102" s="22" t="n">
@@ -7034,7 +7093,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.05" outlineLevel="0" r="103">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="103">
       <c r="E103" s="17"/>
       <c r="F103" s="17"/>
       <c r="V103" s="22" t="n">
@@ -7047,15 +7106,15 @@
         <v>0.4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.4" outlineLevel="0" r="104">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="104">
       <c r="A104" s="22" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="C104" s="22" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="D104" s="22" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="E104" s="17" t="s">
         <v>603</v>
@@ -7063,26 +7122,27 @@
       <c r="F104" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="G104" s="37" t="b">
+      <c r="G104" s="43" t="b">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H104" s="22" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="I104" s="22" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="J104" s="22" t="n">
         <v>2</v>
       </c>
       <c r="K104" s="22" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="L104" s="22" t="n">
         <v>2</v>
       </c>
       <c r="M104" s="22" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="N104" s="22" t="n">
         <v>10</v>
@@ -7099,7 +7159,8 @@
       <c r="T104" s="22" t="n">
         <v>10</v>
       </c>
-      <c r="U104" s="37" t="b">
+      <c r="U104" s="43" t="b">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="V104" s="22" t="n">
@@ -7112,7 +7173,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.05" outlineLevel="0" r="105">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="105">
       <c r="E105" s="17"/>
       <c r="F105" s="17"/>
       <c r="V105" s="22" t="n">
@@ -7125,7 +7186,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.05" outlineLevel="0" r="106">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="106">
       <c r="E106" s="17"/>
       <c r="F106" s="17"/>
       <c r="V106" s="22" t="n">
@@ -7138,7 +7199,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.05" outlineLevel="0" r="107">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="107">
       <c r="E107" s="17"/>
       <c r="F107" s="17"/>
       <c r="V107" s="22" t="n">
@@ -7151,15 +7212,15 @@
         <v>0.4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.4" outlineLevel="0" r="108">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="108">
       <c r="A108" s="22" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="C108" s="22" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="D108" s="22" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="E108" s="17" t="s">
         <v>603</v>
@@ -7167,26 +7228,27 @@
       <c r="F108" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="G108" s="37" t="b">
+      <c r="G108" s="43" t="b">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H108" s="22" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="I108" s="22" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="J108" s="22" t="n">
         <v>2</v>
       </c>
       <c r="K108" s="22" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="L108" s="22" t="n">
         <v>2</v>
       </c>
       <c r="M108" s="22" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="N108" s="22" t="n">
         <v>10</v>
@@ -7206,7 +7268,8 @@
       <c r="T108" s="22" t="n">
         <v>10</v>
       </c>
-      <c r="U108" s="37" t="b">
+      <c r="U108" s="43" t="b">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="V108" s="22" t="n">
@@ -7219,7 +7282,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.05" outlineLevel="0" r="109">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="109">
       <c r="E109" s="17"/>
       <c r="F109" s="17"/>
       <c r="V109" s="22" t="n">
@@ -7232,7 +7295,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.05" outlineLevel="0" r="110">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="110">
       <c r="E110" s="17"/>
       <c r="F110" s="17"/>
       <c r="V110" s="22" t="n">
@@ -7245,7 +7308,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.05" outlineLevel="0" r="111">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="111">
       <c r="E111" s="17"/>
       <c r="F111" s="17"/>
       <c r="V111" s="22" t="n">
@@ -7258,18 +7321,18 @@
         <v>0.4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.4" outlineLevel="0" r="112">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="112">
       <c r="A112" s="22" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="B112" s="22" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="C112" s="22" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="D112" s="22" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="E112" s="17" t="s">
         <v>603</v>
@@ -7277,26 +7340,27 @@
       <c r="F112" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="G112" s="37" t="b">
+      <c r="G112" s="43" t="b">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H112" s="22" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="I112" s="22" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="J112" s="22" t="n">
         <v>2</v>
       </c>
       <c r="K112" s="22" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="L112" s="22" t="n">
         <v>2</v>
       </c>
       <c r="M112" s="22" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="N112" s="22" t="n">
         <v>10</v>
@@ -7313,7 +7377,8 @@
       <c r="T112" s="22" t="n">
         <v>10</v>
       </c>
-      <c r="U112" s="37" t="b">
+      <c r="U112" s="43" t="b">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="V112" s="22" t="n">
@@ -7326,7 +7391,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.05" outlineLevel="0" r="113">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="113">
       <c r="E113" s="17"/>
       <c r="F113" s="17"/>
       <c r="V113" s="22" t="n">
@@ -7339,7 +7404,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.05" outlineLevel="0" r="114">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="114">
       <c r="E114" s="17"/>
       <c r="F114" s="17"/>
       <c r="V114" s="22" t="n">
@@ -7352,7 +7417,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.05" outlineLevel="0" r="115">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="115">
       <c r="E115" s="17"/>
       <c r="F115" s="17"/>
       <c r="V115" s="22" t="n">
@@ -7365,18 +7430,18 @@
         <v>0.4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="147.35" outlineLevel="0" r="116">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="147" outlineLevel="0" r="116">
       <c r="A116" s="22" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="B116" s="22" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="C116" s="22" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="D116" s="22" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="E116" s="17" t="s">
         <v>603</v>
@@ -7384,26 +7449,27 @@
       <c r="F116" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="G116" s="37" t="b">
+      <c r="G116" s="43" t="b">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H116" s="22" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="I116" s="22" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="J116" s="22" t="n">
         <v>2</v>
       </c>
       <c r="K116" s="22" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="L116" s="22" t="n">
         <v>2</v>
       </c>
       <c r="M116" s="22" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="N116" s="22" t="n">
         <v>10</v>
@@ -7420,7 +7486,8 @@
       <c r="T116" s="22" t="n">
         <v>10</v>
       </c>
-      <c r="U116" s="37" t="b">
+      <c r="U116" s="43" t="b">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="V116" s="22" t="n">
@@ -7433,7 +7500,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.05" outlineLevel="0" r="117">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="117">
       <c r="E117" s="17"/>
       <c r="F117" s="17"/>
       <c r="V117" s="22" t="n">
@@ -7446,7 +7513,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.05" outlineLevel="0" r="118">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="118">
       <c r="E118" s="17"/>
       <c r="F118" s="17"/>
       <c r="V118" s="22" t="n">
@@ -7459,7 +7526,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.05" outlineLevel="0" r="119">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="119">
       <c r="E119" s="17"/>
       <c r="F119" s="17"/>
       <c r="V119" s="22" t="n">
@@ -7472,15 +7539,15 @@
         <v>0.4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.4" outlineLevel="0" r="120">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="120">
       <c r="A120" s="22" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="C120" s="22" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="D120" s="22" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="E120" s="17" t="s">
         <v>603</v>
@@ -7488,26 +7555,27 @@
       <c r="F120" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="G120" s="37" t="b">
+      <c r="G120" s="43" t="b">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H120" s="22" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="I120" s="22" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="J120" s="22" t="n">
         <v>2</v>
       </c>
       <c r="K120" s="22" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="L120" s="22" t="n">
         <v>2</v>
       </c>
       <c r="M120" s="22" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="N120" s="22" t="n">
         <v>10</v>
@@ -7524,7 +7592,8 @@
       <c r="T120" s="22" t="n">
         <v>10</v>
       </c>
-      <c r="U120" s="37" t="b">
+      <c r="U120" s="43" t="b">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="V120" s="22" t="n">
@@ -7537,7 +7606,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.05" outlineLevel="0" r="121">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="121">
       <c r="E121" s="17"/>
       <c r="F121" s="17"/>
       <c r="V121" s="22" t="n">
@@ -7550,7 +7619,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.05" outlineLevel="0" r="122">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="122">
       <c r="E122" s="17"/>
       <c r="F122" s="17"/>
       <c r="V122" s="22" t="n">
@@ -7563,7 +7632,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.05" outlineLevel="0" r="123">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="123">
       <c r="E123" s="17"/>
       <c r="F123" s="17"/>
       <c r="V123" s="22" t="n">
@@ -7576,15 +7645,15 @@
         <v>0.4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.05" outlineLevel="0" r="124">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="124">
       <c r="A124" s="22" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="C124" s="22" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="D124" s="22" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="E124" s="17" t="s">
         <v>598</v>
@@ -7592,26 +7661,27 @@
       <c r="F124" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="G124" s="37" t="b">
+      <c r="G124" s="43" t="b">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H124" s="22" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="I124" s="22" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="J124" s="22" t="n">
         <v>2</v>
       </c>
       <c r="K124" s="22" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="L124" s="22" t="n">
         <v>2</v>
       </c>
       <c r="M124" s="22" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="N124" s="22" t="n">
         <v>10</v>
@@ -7631,7 +7701,8 @@
       <c r="T124" s="22" t="n">
         <v>10</v>
       </c>
-      <c r="U124" s="37" t="b">
+      <c r="U124" s="43" t="b">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="V124" s="22" t="n">
@@ -7644,7 +7715,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.05" outlineLevel="0" r="125">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="125">
       <c r="E125" s="17"/>
       <c r="F125" s="17"/>
       <c r="Q125" s="17"/>
@@ -7659,7 +7730,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.05" outlineLevel="0" r="126">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="126">
       <c r="E126" s="17"/>
       <c r="F126" s="17"/>
       <c r="Q126" s="17"/>
@@ -7674,7 +7745,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.05" outlineLevel="0" r="127">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="127">
       <c r="E127" s="17"/>
       <c r="F127" s="17"/>
       <c r="Q127" s="17"/>
@@ -7689,15 +7760,15 @@
         <v>0.4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.05" outlineLevel="0" r="128">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="128">
       <c r="A128" s="22" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="C128" s="22" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="D128" s="22" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="E128" s="17" t="s">
         <v>596</v>
@@ -7705,26 +7776,27 @@
       <c r="F128" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="G128" s="37" t="b">
+      <c r="G128" s="43" t="b">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H128" s="22" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="I128" s="22" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="J128" s="22" t="n">
         <v>2</v>
       </c>
       <c r="K128" s="22" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="L128" s="22" t="n">
         <v>2</v>
       </c>
       <c r="M128" s="22" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="N128" s="22" t="n">
         <v>10</v>
@@ -7738,7 +7810,8 @@
       <c r="T128" s="22" t="n">
         <v>10</v>
       </c>
-      <c r="U128" s="37" t="b">
+      <c r="U128" s="43" t="b">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="V128" s="22" t="n">
@@ -7751,7 +7824,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.05" outlineLevel="0" r="129">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="129">
       <c r="E129" s="17"/>
       <c r="F129" s="17"/>
       <c r="V129" s="22" t="n">
@@ -7764,7 +7837,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.05" outlineLevel="0" r="130">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="130">
       <c r="E130" s="17"/>
       <c r="F130" s="17"/>
       <c r="V130" s="22" t="n">
@@ -7777,7 +7850,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.05" outlineLevel="0" r="131">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="131">
       <c r="E131" s="17"/>
       <c r="F131" s="17"/>
       <c r="V131" s="22" t="n">
@@ -7790,18 +7863,18 @@
         <v>0.4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="24.25" outlineLevel="0" r="132">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="132">
       <c r="A132" s="22" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="B132" s="22" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="C132" s="22" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="D132" s="22" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="E132" s="17" t="s">
         <v>596</v>
@@ -7809,26 +7882,27 @@
       <c r="F132" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="G132" s="37" t="b">
+      <c r="G132" s="43" t="b">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H132" s="22" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="I132" s="22" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="J132" s="22" t="n">
         <v>2</v>
       </c>
       <c r="K132" s="22" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="L132" s="22" t="n">
         <v>2</v>
       </c>
       <c r="M132" s="22" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="N132" s="22" t="n">
         <v>10</v>
@@ -7845,7 +7919,8 @@
       <c r="T132" s="22" t="n">
         <v>10</v>
       </c>
-      <c r="U132" s="37" t="b">
+      <c r="U132" s="43" t="b">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="V132" s="22" t="n">
@@ -7858,7 +7933,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.05" outlineLevel="0" r="133">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="133">
       <c r="E133" s="17"/>
       <c r="F133" s="17"/>
       <c r="Q133" s="17"/>
@@ -7872,7 +7947,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.05" outlineLevel="0" r="134">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="134">
       <c r="E134" s="17"/>
       <c r="F134" s="17"/>
       <c r="Q134" s="17"/>
@@ -7886,7 +7961,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.05" outlineLevel="0" r="135">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="135">
       <c r="E135" s="17"/>
       <c r="F135" s="17"/>
       <c r="Q135" s="17"/>
@@ -7900,15 +7975,15 @@
         <v>0.4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="24.25" outlineLevel="0" r="136">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="136">
       <c r="A136" s="22" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="C136" s="22" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="D136" s="22" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="E136" s="17" t="s">
         <v>594</v>
@@ -7916,26 +7991,27 @@
       <c r="F136" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="G136" s="37" t="b">
+      <c r="G136" s="43" t="b">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H136" s="22" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="I136" s="22" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="J136" s="22" t="n">
         <v>2</v>
       </c>
       <c r="K136" s="22" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="L136" s="22" t="n">
         <v>2</v>
       </c>
       <c r="M136" s="22" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="N136" s="22" t="n">
         <v>10</v>
@@ -7955,7 +8031,8 @@
       <c r="T136" s="22" t="n">
         <v>10</v>
       </c>
-      <c r="U136" s="37" t="b">
+      <c r="U136" s="43" t="b">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="V136" s="22" t="n">
@@ -7968,7 +8045,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.05" outlineLevel="0" r="137">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="137">
       <c r="E137" s="17"/>
       <c r="F137" s="17"/>
       <c r="Q137" s="17"/>
@@ -7983,7 +8060,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.05" outlineLevel="0" r="138">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="138">
       <c r="E138" s="17"/>
       <c r="F138" s="17"/>
       <c r="Q138" s="17"/>
@@ -7998,7 +8075,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.05" outlineLevel="0" r="139">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="139">
       <c r="E139" s="17"/>
       <c r="F139" s="17"/>
       <c r="Q139" s="17"/>
@@ -8013,18 +8090,18 @@
         <v>0.4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="24.25" outlineLevel="0" r="140">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="140">
       <c r="A140" s="22" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="B140" s="22" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="C140" s="22" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="D140" s="22" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="E140" s="17" t="s">
         <v>607</v>
@@ -8032,26 +8109,27 @@
       <c r="F140" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="G140" s="37" t="b">
+      <c r="G140" s="43" t="b">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H140" s="22" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="I140" s="22" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="J140" s="22" t="n">
         <v>2</v>
       </c>
       <c r="K140" s="22" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="L140" s="22" t="n">
         <v>2</v>
       </c>
       <c r="M140" s="22" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="N140" s="22" t="n">
         <v>10</v>
@@ -8065,7 +8143,8 @@
       <c r="T140" s="22" t="n">
         <v>10</v>
       </c>
-      <c r="U140" s="37" t="b">
+      <c r="U140" s="43" t="b">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="V140" s="22" t="n">
@@ -8078,7 +8157,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.05" outlineLevel="0" r="141">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="141">
       <c r="E141" s="17"/>
       <c r="F141" s="17"/>
       <c r="V141" s="22" t="n">
@@ -8091,7 +8170,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.05" outlineLevel="0" r="142">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="142">
       <c r="E142" s="17"/>
       <c r="F142" s="17"/>
       <c r="V142" s="22" t="n">
@@ -8104,7 +8183,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.05" outlineLevel="0" r="143">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="143">
       <c r="E143" s="17"/>
       <c r="F143" s="17"/>
       <c r="V143" s="22" t="n">
@@ -8117,15 +8196,15 @@
         <v>0.4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="24.25" outlineLevel="0" r="144">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="144">
       <c r="A144" s="22" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="C144" s="22" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="D144" s="22" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="E144" s="17" t="s">
         <v>607</v>
@@ -8133,26 +8212,27 @@
       <c r="F144" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="G144" s="37" t="b">
+      <c r="G144" s="43" t="b">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H144" s="22" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="I144" s="22" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="J144" s="22" t="n">
         <v>2</v>
       </c>
       <c r="K144" s="22" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="L144" s="22" t="n">
         <v>2</v>
       </c>
       <c r="M144" s="22" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="N144" s="22" t="n">
         <v>10</v>
@@ -8166,7 +8246,8 @@
       <c r="T144" s="22" t="n">
         <v>10</v>
       </c>
-      <c r="U144" s="37" t="b">
+      <c r="U144" s="43" t="b">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="V144" s="22" t="n">
@@ -8179,7 +8260,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.05" outlineLevel="0" r="145">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="145">
       <c r="E145" s="17"/>
       <c r="F145" s="17"/>
       <c r="V145" s="22" t="n">
@@ -8192,7 +8273,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.05" outlineLevel="0" r="146">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="146">
       <c r="E146" s="17"/>
       <c r="F146" s="17"/>
       <c r="V146" s="22" t="n">
@@ -8205,7 +8286,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.05" outlineLevel="0" r="147">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="147">
       <c r="E147" s="17"/>
       <c r="F147" s="17"/>
       <c r="V147" s="22" t="n">
@@ -8218,15 +8299,15 @@
         <v>0.4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="24.25" outlineLevel="0" r="148">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="148">
       <c r="A148" s="22" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="C148" s="22" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="D148" s="22" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="E148" s="17" t="s">
         <v>607</v>
@@ -8234,26 +8315,27 @@
       <c r="F148" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="G148" s="37" t="b">
+      <c r="G148" s="43" t="b">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H148" s="22" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="I148" s="22" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="J148" s="22" t="n">
         <v>2</v>
       </c>
       <c r="K148" s="22" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="L148" s="22" t="n">
         <v>2</v>
       </c>
       <c r="M148" s="22" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="N148" s="22" t="n">
         <v>10</v>
@@ -8267,7 +8349,8 @@
       <c r="T148" s="22" t="n">
         <v>10</v>
       </c>
-      <c r="U148" s="37" t="b">
+      <c r="U148" s="43" t="b">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="V148" s="22" t="n">
@@ -8280,7 +8363,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.05" outlineLevel="0" r="149">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="149">
       <c r="E149" s="17"/>
       <c r="F149" s="17"/>
       <c r="V149" s="22" t="n">
@@ -8293,7 +8376,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.05" outlineLevel="0" r="150">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="150">
       <c r="E150" s="17"/>
       <c r="F150" s="17"/>
       <c r="V150" s="22" t="n">
@@ -8306,7 +8389,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.05" outlineLevel="0" r="151">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="151">
       <c r="E151" s="17"/>
       <c r="F151" s="17"/>
       <c r="V151" s="22" t="n">
@@ -8319,15 +8402,15 @@
         <v>0.4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.4" outlineLevel="0" r="152">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="152">
       <c r="A152" s="22" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="C152" s="22" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="D152" s="22" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="E152" s="17" t="s">
         <v>607</v>
@@ -8335,26 +8418,27 @@
       <c r="F152" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="G152" s="37" t="b">
+      <c r="G152" s="43" t="b">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H152" s="22" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="I152" s="22" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="J152" s="22" t="n">
         <v>2</v>
       </c>
       <c r="K152" s="22" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="L152" s="22" t="n">
         <v>2</v>
       </c>
       <c r="M152" s="22" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="N152" s="22" t="n">
         <v>10</v>
@@ -8368,7 +8452,8 @@
       <c r="T152" s="22" t="n">
         <v>10</v>
       </c>
-      <c r="U152" s="37" t="b">
+      <c r="U152" s="43" t="b">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="V152" s="22" t="n">
@@ -8381,7 +8466,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.05" outlineLevel="0" r="153">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="153">
       <c r="E153" s="17"/>
       <c r="F153" s="17"/>
       <c r="V153" s="22" t="n">
@@ -8394,7 +8479,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.05" outlineLevel="0" r="154">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="154">
       <c r="E154" s="17"/>
       <c r="F154" s="17"/>
       <c r="V154" s="22" t="n">
@@ -8407,7 +8492,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.05" outlineLevel="0" r="155">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="155">
       <c r="E155" s="17"/>
       <c r="F155" s="17"/>
       <c r="V155" s="22" t="n">
@@ -8420,15 +8505,15 @@
         <v>0.4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="24.25" outlineLevel="0" r="156">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="156">
       <c r="A156" s="22" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="C156" s="22" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="D156" s="22" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="E156" s="17" t="s">
         <v>594</v>
@@ -8436,26 +8521,27 @@
       <c r="F156" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="G156" s="37" t="b">
+      <c r="G156" s="43" t="b">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H156" s="22" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="I156" s="22" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="J156" s="22" t="n">
         <v>2</v>
       </c>
       <c r="K156" s="22" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="L156" s="22" t="n">
         <v>2</v>
       </c>
       <c r="M156" s="22" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="N156" s="22" t="n">
         <v>10</v>
@@ -8472,7 +8558,8 @@
       <c r="T156" s="22" t="n">
         <v>10</v>
       </c>
-      <c r="U156" s="37" t="b">
+      <c r="U156" s="43" t="b">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="V156" s="22" t="n">
@@ -8485,7 +8572,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.05" outlineLevel="0" r="157">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="157">
       <c r="E157" s="17"/>
       <c r="F157" s="17"/>
       <c r="R157" s="17"/>
@@ -8499,7 +8586,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.05" outlineLevel="0" r="158">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="158">
       <c r="E158" s="17"/>
       <c r="F158" s="17"/>
       <c r="R158" s="17"/>
@@ -8513,7 +8600,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.05" outlineLevel="0" r="159">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="159">
       <c r="E159" s="17"/>
       <c r="F159" s="17"/>
       <c r="R159" s="17"/>
@@ -8527,15 +8614,15 @@
         <v>0.4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.05" outlineLevel="0" r="160">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="160">
       <c r="A160" s="22" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="C160" s="22" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="D160" s="22" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="E160" s="17" t="s">
         <v>598</v>
@@ -8543,26 +8630,27 @@
       <c r="F160" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="G160" s="37" t="b">
+      <c r="G160" s="43" t="b">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H160" s="22" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="I160" s="22" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="J160" s="22" t="n">
         <v>2</v>
       </c>
       <c r="K160" s="22" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="L160" s="22" t="n">
         <v>2</v>
       </c>
       <c r="M160" s="22" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="N160" s="22" t="n">
         <v>10</v>
@@ -8582,7 +8670,8 @@
       <c r="T160" s="22" t="n">
         <v>10</v>
       </c>
-      <c r="U160" s="37" t="b">
+      <c r="U160" s="43" t="b">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="V160" s="22" t="n">
@@ -8595,7 +8684,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.05" outlineLevel="0" r="161">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="161">
       <c r="E161" s="17"/>
       <c r="F161" s="17"/>
       <c r="Q161" s="17"/>
@@ -8610,7 +8699,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.05" outlineLevel="0" r="162">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="162">
       <c r="E162" s="17"/>
       <c r="F162" s="17"/>
       <c r="Q162" s="17"/>
@@ -8625,7 +8714,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.05" outlineLevel="0" r="163">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="163">
       <c r="E163" s="17"/>
       <c r="F163" s="17"/>
       <c r="Q163" s="17"/>
@@ -8640,18 +8729,18 @@
         <v>0.4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="46.6" outlineLevel="0" r="164">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="46.25" outlineLevel="0" r="164">
       <c r="A164" s="22" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="B164" s="22" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="C164" s="22" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="D164" s="22" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="E164" s="17" t="s">
         <v>594</v>
@@ -8659,43 +8748,45 @@
       <c r="F164" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="G164" s="37" t="b">
+      <c r="G164" s="43" t="b">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H164" s="22" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="I164" s="22" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="J164" s="22" t="n">
         <v>2</v>
       </c>
       <c r="K164" s="22" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="L164" s="22" t="n">
         <v>2</v>
       </c>
       <c r="M164" s="22" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="N164" s="22" t="n">
         <v>10</v>
       </c>
       <c r="O164" s="22" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="P164" s="22" t="n">
         <v>14</v>
       </c>
       <c r="S164" s="22" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="T164" s="22" t="n">
         <v>10</v>
       </c>
-      <c r="U164" s="37" t="b">
+      <c r="U164" s="43" t="b">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="V164" s="22" t="n">
@@ -8708,7 +8799,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.05" outlineLevel="0" r="165">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="165">
       <c r="E165" s="17"/>
       <c r="V165" s="22" t="n">
         <v>2.01</v>
@@ -8720,7 +8811,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.05" outlineLevel="0" r="166">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="166">
       <c r="E166" s="17"/>
       <c r="V166" s="22" t="n">
         <v>4.01</v>
@@ -8732,7 +8823,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.05" outlineLevel="0" r="167">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="167">
       <c r="E167" s="17"/>
       <c r="V167" s="22" t="n">
         <v>6.01</v>
@@ -8744,18 +8835,18 @@
         <v>0.4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="57.8" outlineLevel="0" r="168">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="57.45" outlineLevel="0" r="168">
       <c r="A168" s="22" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="B168" s="22" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="C168" s="22" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="D168" s="22" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="E168" s="22" t="s">
         <v>596</v>
@@ -8763,43 +8854,45 @@
       <c r="F168" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="G168" s="37" t="b">
+      <c r="G168" s="43" t="b">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="H168" s="22" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="I168" s="22" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="J168" s="22" t="n">
         <v>2</v>
       </c>
       <c r="K168" s="22" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="L168" s="22" t="n">
         <v>2</v>
       </c>
       <c r="M168" s="22" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="N168" s="22" t="n">
         <v>10</v>
       </c>
       <c r="O168" s="22" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="P168" s="22" t="n">
         <v>14</v>
       </c>
       <c r="S168" s="22" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="T168" s="22" t="n">
         <v>10</v>
       </c>
-      <c r="U168" s="37" t="b">
+      <c r="U168" s="43" t="b">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="V168" s="22" t="n">
@@ -8812,7 +8905,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.05" outlineLevel="0" r="169">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="169">
       <c r="V169" s="22" t="n">
         <v>2.01</v>
       </c>
@@ -8823,7 +8916,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.05" outlineLevel="0" r="170">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="170">
       <c r="V170" s="22" t="n">
         <v>4.01</v>
       </c>
@@ -8834,7 +8927,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.05" outlineLevel="0" r="171">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="171">
       <c r="V171" s="22" t="n">
         <v>6.01</v>
       </c>
@@ -8845,18 +8938,18 @@
         <v>0.4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.4" outlineLevel="0" r="172">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="172">
       <c r="A172" s="22" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="B172" s="22" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="C172" s="22" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="D172" s="22" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="E172" s="22" t="s">
         <v>596</v>
@@ -8864,43 +8957,45 @@
       <c r="F172" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="G172" s="37" t="b">
+      <c r="G172" s="43" t="b">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="H172" s="22" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="I172" s="22" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="J172" s="22" t="n">
         <v>2</v>
       </c>
       <c r="K172" s="22" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="L172" s="22" t="n">
         <v>2</v>
       </c>
       <c r="M172" s="22" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="N172" s="22" t="n">
         <v>10</v>
       </c>
       <c r="O172" s="22" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="P172" s="22" t="n">
         <v>14</v>
       </c>
       <c r="S172" s="22" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="T172" s="22" t="n">
         <v>10</v>
       </c>
-      <c r="U172" s="37" t="b">
+      <c r="U172" s="43" t="b">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="V172" s="22" t="n">
@@ -8913,7 +9008,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.05" outlineLevel="0" r="173">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="173">
       <c r="V173" s="22" t="n">
         <v>2.01</v>
       </c>
@@ -8924,7 +9019,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.05" outlineLevel="0" r="174">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="174">
       <c r="V174" s="22" t="n">
         <v>4.01</v>
       </c>
@@ -8935,7 +9030,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.05" outlineLevel="0" r="175">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="175">
       <c r="V175" s="22" t="n">
         <v>6.01</v>
       </c>
@@ -8946,18 +9041,18 @@
         <v>0.4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="46.6" outlineLevel="0" r="176">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="46.25" outlineLevel="0" r="176">
       <c r="A176" s="22" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="B176" s="22" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="C176" s="22" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="D176" s="22" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="E176" s="22" t="s">
         <v>596</v>
@@ -8965,43 +9060,45 @@
       <c r="F176" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="G176" s="37" t="b">
+      <c r="G176" s="43" t="b">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H176" s="22" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="I176" s="22" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="J176" s="22" t="n">
         <v>2</v>
       </c>
       <c r="K176" s="22" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="L176" s="22" t="n">
         <v>2</v>
       </c>
       <c r="M176" s="22" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="N176" s="22" t="n">
         <v>10</v>
       </c>
       <c r="O176" s="22" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="P176" s="22" t="n">
         <v>14</v>
       </c>
       <c r="S176" s="22" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="T176" s="22" t="n">
         <v>10</v>
       </c>
-      <c r="U176" s="37" t="b">
+      <c r="U176" s="43" t="b">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="V176" s="22" t="n">
@@ -9014,7 +9111,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.05" outlineLevel="0" r="177">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="177">
       <c r="V177" s="22" t="n">
         <v>2.01</v>
       </c>
@@ -9025,7 +9122,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.05" outlineLevel="0" r="178">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="178">
       <c r="V178" s="22" t="n">
         <v>4.01</v>
       </c>
@@ -9036,7 +9133,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.05" outlineLevel="0" r="179">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="179">
       <c r="V179" s="22" t="n">
         <v>6.01</v>
       </c>
@@ -9047,18 +9144,18 @@
         <v>0.4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.4" outlineLevel="0" r="180">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="180">
       <c r="A180" s="22" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="B180" s="22" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="C180" s="22" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="D180" s="22" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="E180" s="22" t="s">
         <v>596</v>
@@ -9066,43 +9163,45 @@
       <c r="F180" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="G180" s="37" t="b">
+      <c r="G180" s="43" t="b">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H180" s="22" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="I180" s="22" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="J180" s="22" t="n">
         <v>2</v>
       </c>
       <c r="K180" s="22" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="L180" s="22" t="n">
         <v>2</v>
       </c>
       <c r="M180" s="22" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="N180" s="22" t="n">
         <v>10</v>
       </c>
       <c r="O180" s="22" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="P180" s="22" t="n">
         <v>14</v>
       </c>
       <c r="S180" s="22" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="T180" s="22" t="n">
         <v>10</v>
       </c>
-      <c r="U180" s="37" t="b">
+      <c r="U180" s="43" t="b">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="V180" s="22" t="n">
@@ -9115,7 +9214,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.05" outlineLevel="0" r="181">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="181">
       <c r="V181" s="22" t="n">
         <v>2.01</v>
       </c>
@@ -9126,7 +9225,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.05" outlineLevel="0" r="182">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="182">
       <c r="V182" s="22" t="n">
         <v>4.01</v>
       </c>
@@ -9137,7 +9236,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.05" outlineLevel="0" r="183">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="183">
       <c r="V183" s="22" t="n">
         <v>6.01</v>
       </c>
@@ -9148,18 +9247,18 @@
         <v>0.4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.4" outlineLevel="0" r="184">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="184">
       <c r="A184" s="22" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="B184" s="22" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="C184" s="22" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="D184" s="22" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="E184" s="22" t="s">
         <v>596</v>
@@ -9167,43 +9266,44 @@
       <c r="F184" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="G184" s="37" t="b">
+      <c r="G184" s="43" t="b">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H184" s="22" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="I184" s="22" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="J184" s="22" t="n">
         <v>2</v>
       </c>
       <c r="K184" s="22" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="L184" s="22" t="n">
         <v>2</v>
       </c>
       <c r="M184" s="22" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="N184" s="22" t="n">
         <v>10</v>
       </c>
       <c r="O184" s="22" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="P184" s="22" t="n">
         <v>14</v>
       </c>
       <c r="S184" s="22" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="T184" s="22" t="n">
         <v>10</v>
       </c>
-      <c r="U184" s="43" t="b">
+      <c r="U184" s="37" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -9217,7 +9317,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.05" outlineLevel="0" r="185">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="185">
       <c r="V185" s="22" t="n">
         <v>2.01</v>
       </c>
@@ -9228,7 +9328,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.05" outlineLevel="0" r="186">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="186">
       <c r="V186" s="22" t="n">
         <v>4.01</v>
       </c>
@@ -9239,7 +9339,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.05" outlineLevel="0" r="187">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="187">
       <c r="V187" s="22" t="n">
         <v>6.01</v>
       </c>
@@ -9250,18 +9350,18 @@
         <v>0.4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.4" outlineLevel="0" r="188">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="188">
       <c r="A188" s="22" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="B188" s="22" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="C188" s="22" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="D188" s="22" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="E188" s="22" t="s">
         <v>81</v>
@@ -9269,56 +9369,57 @@
       <c r="F188" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="G188" s="37" t="b">
+      <c r="G188" s="43" t="b">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H188" s="22" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="J188" s="22" t="n">
         <v>2</v>
       </c>
       <c r="K188" s="22" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="L188" s="22" t="n">
         <v>2</v>
       </c>
       <c r="M188" s="22" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="N188" s="22" t="n">
         <v>10</v>
       </c>
       <c r="O188" s="22" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="P188" s="22" t="n">
         <v>14</v>
       </c>
       <c r="T188" s="22" t="s">
-        <v>808</v>
-      </c>
-      <c r="U188" s="43" t="b">
+        <v>809</v>
+      </c>
+      <c r="U188" s="37" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="W188" s="22" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.4" outlineLevel="0" r="189">
+        <v>810</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="189">
       <c r="A189" s="22" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="B189" s="22" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="C189" s="22" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="D189" s="22" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="E189" s="22" t="s">
         <v>81</v>
@@ -9326,56 +9427,57 @@
       <c r="F189" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="G189" s="37" t="b">
+      <c r="G189" s="43" t="b">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H189" s="22" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="J189" s="22" t="n">
         <v>2</v>
       </c>
       <c r="K189" s="22" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="L189" s="22" t="n">
         <v>2</v>
       </c>
       <c r="M189" s="22" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="N189" s="22" t="n">
         <v>10</v>
       </c>
       <c r="O189" s="22" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="P189" s="22" t="n">
         <v>14</v>
       </c>
       <c r="T189" s="22" t="s">
-        <v>808</v>
-      </c>
-      <c r="U189" s="43" t="b">
+        <v>809</v>
+      </c>
+      <c r="U189" s="37" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="W189" s="22" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.4" outlineLevel="0" r="190">
+        <v>810</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="190">
       <c r="A190" s="22" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="B190" s="22" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="C190" s="22" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="D190" s="22" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="E190" s="22" t="s">
         <v>81</v>
@@ -9383,56 +9485,57 @@
       <c r="F190" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="G190" s="37" t="b">
+      <c r="G190" s="43" t="b">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H190" s="22" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="J190" s="22" t="n">
         <v>2</v>
       </c>
       <c r="K190" s="22" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="L190" s="22" t="n">
         <v>2</v>
       </c>
       <c r="M190" s="22" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="N190" s="22" t="n">
         <v>10</v>
       </c>
       <c r="O190" s="22" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="P190" s="22" t="n">
         <v>14</v>
       </c>
       <c r="T190" s="22" t="s">
-        <v>808</v>
-      </c>
-      <c r="U190" s="43" t="b">
+        <v>809</v>
+      </c>
+      <c r="U190" s="37" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="W190" s="22" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.4" outlineLevel="0" r="191">
+        <v>810</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="191">
       <c r="A191" s="22" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="B191" s="22" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="C191" s="22" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="D191" s="22" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="E191" s="22" t="s">
         <v>81</v>
@@ -9440,56 +9543,57 @@
       <c r="F191" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="G191" s="37" t="b">
+      <c r="G191" s="43" t="b">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H191" s="22" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="J191" s="22" t="n">
         <v>2</v>
       </c>
       <c r="K191" s="22" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="L191" s="22" t="n">
         <v>2</v>
       </c>
       <c r="M191" s="22" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="N191" s="22" t="n">
         <v>10</v>
       </c>
       <c r="O191" s="22" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="P191" s="22" t="n">
         <v>14</v>
       </c>
       <c r="T191" s="22" t="s">
-        <v>808</v>
-      </c>
-      <c r="U191" s="43" t="b">
+        <v>809</v>
+      </c>
+      <c r="U191" s="37" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="W191" s="22" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="24.25" outlineLevel="0" r="192">
+        <v>810</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="192">
       <c r="A192" s="22" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="B192" s="22" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="C192" s="22" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="D192" s="22" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="E192" s="22" t="s">
         <v>81</v>
@@ -9497,37 +9601,38 @@
       <c r="F192" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="G192" s="37" t="b">
+      <c r="G192" s="43" t="b">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H192" s="22" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="J192" s="22" t="n">
         <v>2</v>
       </c>
       <c r="K192" s="22" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="L192" s="22" t="n">
         <v>2</v>
       </c>
       <c r="M192" s="22" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="N192" s="22" t="n">
         <v>10</v>
       </c>
       <c r="O192" s="22" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="P192" s="22" t="n">
         <v>14</v>
       </c>
       <c r="T192" s="22" t="s">
-        <v>808</v>
-      </c>
-      <c r="U192" s="43" t="b">
+        <v>809</v>
+      </c>
+      <c r="U192" s="37" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -9580,18 +9685,18 @@
         <v>0.4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="24.25" outlineLevel="0" r="196">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="196">
       <c r="A196" s="22" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="B196" s="22" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="C196" s="22" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="D196" s="22" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="E196" s="22" t="s">
         <v>81</v>
@@ -9599,37 +9704,38 @@
       <c r="F196" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="G196" s="37" t="b">
+      <c r="G196" s="43" t="b">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H196" s="22" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="J196" s="22" t="n">
         <v>2</v>
       </c>
       <c r="K196" s="22" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="L196" s="22" t="n">
         <v>2</v>
       </c>
       <c r="M196" s="22" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="N196" s="22" t="n">
         <v>10</v>
       </c>
       <c r="O196" s="22" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="P196" s="22" t="n">
         <v>14</v>
       </c>
       <c r="T196" s="22" t="s">
-        <v>808</v>
-      </c>
-      <c r="U196" s="43" t="b">
+        <v>809</v>
+      </c>
+      <c r="U196" s="37" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -9682,18 +9788,18 @@
         <v>0.4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.4" outlineLevel="0" r="200">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="200">
       <c r="A200" s="22" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="B200" s="22" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="C200" s="22" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="D200" s="22" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="E200" s="22" t="s">
         <v>81</v>
@@ -9701,37 +9807,38 @@
       <c r="F200" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="G200" s="37" t="b">
+      <c r="G200" s="43" t="b">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H200" s="22" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="J200" s="22" t="n">
         <v>2</v>
       </c>
       <c r="K200" s="22" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="L200" s="22" t="n">
         <v>2</v>
       </c>
       <c r="M200" s="22" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="N200" s="22" t="n">
         <v>10</v>
       </c>
       <c r="O200" s="22" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="P200" s="22" t="n">
         <v>14</v>
       </c>
       <c r="T200" s="22" t="s">
-        <v>808</v>
-      </c>
-      <c r="U200" s="43" t="b">
+        <v>809</v>
+      </c>
+      <c r="U200" s="37" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -9745,7 +9852,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.05" outlineLevel="0" r="201">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="201">
       <c r="V201" s="22" t="n">
         <v>2.01</v>
       </c>
@@ -9756,7 +9863,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.05" outlineLevel="0" r="202">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="202">
       <c r="V202" s="22" t="n">
         <v>4.01</v>
       </c>
@@ -9767,7 +9874,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.05" outlineLevel="0" r="203">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="203">
       <c r="V203" s="22" t="n">
         <v>6.01</v>
       </c>
@@ -9800,31 +9907,31 @@
   <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
+      <selection activeCell="K9" activeCellId="0" pane="topLeft" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="18.243137254902"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="19.2549019607843"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="13.356862745098"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="40.9450980392157"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="11.2078431372549"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="14.0823529411765"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="6.02352941176471"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="7.18039215686275"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="5.02745098039216"/>
-    <col collapsed="false" hidden="false" max="257" min="10" style="1" width="11.7294117647059"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="18.3333333333333"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="19.3529411764706"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="13.4235294117647"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="41.1529411764706"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="11.2705882352941"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="14.1529411764706"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="6.05882352941176"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="7.2156862745098"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="5.25490196078431"/>
+    <col collapsed="false" hidden="false" max="257" min="10" style="1" width="11.7843137254902"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="16.55" outlineLevel="0" r="1" s="2">
       <c r="A1" s="23" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="B1" s="26"/>
       <c r="C1" s="26"/>
       <c r="D1" s="26"/>
       <c r="E1" s="44" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="F1" s="44"/>
       <c r="G1" s="44"/>
@@ -9833,7 +9940,7 @@
       <c r="J1" s="26"/>
       <c r="K1" s="26"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="35.4" outlineLevel="0" r="2" s="5">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="2" s="5">
       <c r="A2" s="31" t="s">
         <v>135</v>
       </c>
@@ -9841,30 +9948,30 @@
         <v>136</v>
       </c>
       <c r="C2" s="31" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="D2" s="31" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="E2" s="31" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="F2" s="31" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="G2" s="31" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="H2" s="31" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="I2" s="31" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="J2" s="31"/>
       <c r="K2" s="31"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="13.05" outlineLevel="0" r="3" s="5">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="3" s="5">
       <c r="A3" s="7" t="s">
         <v>138</v>
       </c>
@@ -9872,13 +9979,13 @@
         <v>139</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>138</v>
@@ -9887,10 +9994,10 @@
         <v>359</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
@@ -9900,26 +10007,26 @@
         <v>614</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="C4" s="28"/>
       <c r="D4" s="28" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="F4" s="28" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="H4" s="28" t="n">
         <v>0</v>
       </c>
       <c r="I4" s="28" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="5">
@@ -9928,13 +10035,13 @@
       <c r="C5" s="28"/>
       <c r="D5" s="28"/>
       <c r="E5" s="28" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="F5" s="28" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="G5" s="28" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="H5" s="28" t="n">
         <v>0</v>
@@ -9943,29 +10050,29 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="6">
       <c r="A6" s="28" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="B6" s="28" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="C6" s="28"/>
       <c r="D6" s="28" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="E6" s="28" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="F6" s="28" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="G6" s="28" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="H6" s="28" t="n">
         <v>0</v>
       </c>
       <c r="I6" s="28" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="7">
@@ -9974,19 +10081,19 @@
       <c r="C7" s="28"/>
       <c r="D7" s="28"/>
       <c r="E7" s="28" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="F7" s="28" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="G7" s="28" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="H7" s="28" t="n">
         <v>0</v>
       </c>
       <c r="I7" s="28" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="8">
@@ -9995,46 +10102,46 @@
       <c r="C8" s="28"/>
       <c r="D8" s="28"/>
       <c r="E8" s="28" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="F8" s="28" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="G8" s="28" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="H8" s="28" t="n">
         <v>0</v>
       </c>
       <c r="I8" s="28" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="9">
       <c r="A9" s="28" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="C9" s="28"/>
       <c r="D9" s="28" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="E9" s="28" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="F9" s="28" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="G9" s="28" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="H9" s="28" t="n">
         <v>0</v>
       </c>
       <c r="I9" s="28" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="10">
@@ -10043,19 +10150,19 @@
       <c r="C10" s="28"/>
       <c r="D10" s="28"/>
       <c r="E10" s="28" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="F10" s="28" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="G10" s="28" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="H10" s="28" t="n">
         <v>0</v>
       </c>
       <c r="I10" s="28" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="11">
@@ -10064,46 +10171,46 @@
       <c r="C11" s="28"/>
       <c r="D11" s="28"/>
       <c r="E11" s="28" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="F11" s="28" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="G11" s="28" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="H11" s="28" t="n">
         <v>0</v>
       </c>
       <c r="I11" s="28" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="12">
       <c r="A12" s="28" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="C12" s="28"/>
       <c r="D12" s="28" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="E12" s="28" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="F12" s="28" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="G12" s="28" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="H12" s="28" t="n">
         <v>0</v>
       </c>
       <c r="I12" s="28" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="13">
@@ -10112,19 +10219,19 @@
       <c r="C13" s="28"/>
       <c r="D13" s="28"/>
       <c r="E13" s="28" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="F13" s="28" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="G13" s="28" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="H13" s="28" t="n">
         <v>0</v>
       </c>
       <c r="I13" s="28" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="14">
@@ -10133,46 +10240,46 @@
       <c r="C14" s="28"/>
       <c r="D14" s="28"/>
       <c r="E14" s="28" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="F14" s="28" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="G14" s="28" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="H14" s="28" t="n">
         <v>0</v>
       </c>
       <c r="I14" s="28" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="15">
       <c r="A15" s="28" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="B15" s="28" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="C15" s="28"/>
       <c r="D15" s="28" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="E15" s="28" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="F15" s="28" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="G15" s="28" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="H15" s="28" t="n">
         <v>0</v>
       </c>
       <c r="I15" s="28" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="16">
@@ -10181,19 +10288,19 @@
       <c r="C16" s="28"/>
       <c r="D16" s="28"/>
       <c r="E16" s="28" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="F16" s="28" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="G16" s="28" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="H16" s="28" t="n">
         <v>0</v>
       </c>
       <c r="I16" s="28" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="17">
@@ -10202,33 +10309,33 @@
       <c r="C17" s="28"/>
       <c r="D17" s="28"/>
       <c r="E17" s="28" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="F17" s="28" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="G17" s="28" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="H17" s="28" t="n">
         <v>0</v>
       </c>
       <c r="I17" s="28" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="18">
       <c r="A18" s="28" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="B18" s="28" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="C18" s="28" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="D18" s="28" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="E18" s="28"/>
       <c r="F18" s="28"/>
@@ -10238,16 +10345,16 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="57.45" outlineLevel="0" r="19">
       <c r="A19" s="28" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="B19" s="28" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="C19" s="28" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="D19" s="28" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="E19" s="28"/>
       <c r="F19" s="28"/>
@@ -10255,18 +10362,18 @@
       <c r="H19" s="28"/>
       <c r="I19" s="28"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="24.25" outlineLevel="0" r="20">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="20">
       <c r="A20" s="28" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="B20" s="28" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="C20" s="28" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="D20" s="28" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="E20" s="28"/>
       <c r="F20" s="28"/>
@@ -10276,16 +10383,16 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="21">
       <c r="A21" s="28" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="B21" s="28" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="C21" s="28" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="D21" s="28" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="E21" s="28"/>
       <c r="F21" s="28"/>
@@ -10295,16 +10402,16 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="22">
       <c r="A22" s="28" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="B22" s="28" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="C22" s="28" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="D22" s="28" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="E22" s="28"/>
       <c r="F22" s="28"/>
@@ -10314,16 +10421,16 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="23">
       <c r="A23" s="28" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="B23" s="28" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="C23" s="28" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="D23" s="28" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="E23" s="28"/>
       <c r="F23" s="28"/>
@@ -10357,16 +10464,16 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.1137254901961"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="32.3333333333333"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.7294117647059"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="30.5960784313725"/>
-    <col collapsed="false" hidden="false" max="257" min="5" style="0" width="11.7294117647059"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.2156862745098"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="32.4980392156863"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.7843137254902"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="30.7490196078431"/>
+    <col collapsed="false" hidden="false" max="257" min="5" style="0" width="11.7843137254902"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1" s="45">
       <c r="A1" s="10" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
@@ -10398,10 +10505,10 @@
         <v>136</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="D2" s="35" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="E2" s="35"/>
       <c r="F2" s="35"/>
@@ -10430,10 +10537,10 @@
         <v>139</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="E3" s="13"/>
       <c r="F3" s="13"/>
@@ -10456,58 +10563,58 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="4">
       <c r="A4" s="28" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="5">
       <c r="A5" s="28" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="C5" s="28" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="D5" s="28" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.05" outlineLevel="0" r="6">
+        <v>878</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="6">
       <c r="A6" s="28" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="B6" s="28" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="D6" s="28" t="s">
-        <v>881</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.05" outlineLevel="0" r="7">
+        <v>882</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="7">
       <c r="A7" s="28" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="B7" s="28" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="C7" s="28" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="D7" s="28" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
     </row>
   </sheetData>
@@ -10533,15 +10640,15 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="19.2549019607843"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="47.843137254902"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="47.2745098039216"/>
-    <col collapsed="false" hidden="false" max="257" min="4" style="1" width="11.7294117647059"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="19.3529411764706"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="48.078431372549"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="47.5098039215686"/>
+    <col collapsed="false" hidden="false" max="257" min="4" style="1" width="11.7843137254902"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1" s="6">
       <c r="A1" s="23" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="B1" s="26"/>
       <c r="C1" s="26"/>
@@ -10623,18 +10730,18 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="4">
       <c r="A4" s="1" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="5">
       <c r="A5" s="1" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
     </row>
   </sheetData>
@@ -10655,31 +10762,31 @@
   </sheetPr>
   <dimension ref="A1:W79"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100">
+      <selection activeCell="E78" activeCellId="0" pane="topLeft" sqref="E78"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="28" width="20.3960784313725"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="28" width="31.0392156862745"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="28" width="11.7294117647059"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="28" width="11.556862745098"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="28" width="8.1843137254902"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="28" width="6.60392156862745"/>
-    <col collapsed="false" hidden="false" max="257" min="9" style="28" width="11.7294117647059"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="28" width="20.5019607843137"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="28" width="31.1921568627451"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="28" width="11.7843137254902"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="28" width="11.6117647058824"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="28" width="8.21960784313725"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="28" width="6.63921568627451"/>
+    <col collapsed="false" hidden="false" max="257" min="9" style="28" width="11.7843137254902"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1" s="27">
       <c r="A1" s="23" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="B1" s="26"/>
       <c r="C1" s="26"/>
       <c r="D1" s="26"/>
       <c r="E1" s="23" t="s">
-        <v>892</v>
-      </c>
-      <c r="F1" s="45"/>
+        <v>893</v>
+      </c>
+      <c r="F1" s="46"/>
       <c r="G1" s="26"/>
       <c r="H1" s="26"/>
       <c r="I1" s="26"/>
@@ -10698,7 +10805,7 @@
       <c r="V1" s="26"/>
       <c r="W1" s="26"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.05" outlineLevel="0" r="2">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="2">
       <c r="A2" s="31" t="s">
         <v>135</v>
       </c>
@@ -10706,22 +10813,22 @@
         <v>136</v>
       </c>
       <c r="C2" s="31" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="D2" s="31" t="s">
         <v>508</v>
       </c>
       <c r="E2" s="31" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="F2" s="31" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="G2" s="31" t="s">
         <v>483</v>
       </c>
       <c r="H2" s="31" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="I2" s="31"/>
       <c r="J2" s="31"/>
@@ -10747,22 +10854,22 @@
         <v>139</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>508</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
@@ -10782,10 +10889,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="4">
       <c r="A4" s="28" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="C4" s="28" t="b">
         <f aca="false">TRUE()</f>
@@ -10795,7 +10902,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="F4" s="28" t="n">
         <v>0</v>
@@ -10809,7 +10916,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="5">
       <c r="E5" s="28" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="F5" s="28" t="n">
         <v>0</v>
@@ -10823,7 +10930,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="6">
       <c r="E6" s="28" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="F6" s="28" t="n">
         <v>0</v>
@@ -10837,7 +10944,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="7">
       <c r="E7" s="28" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="F7" s="28" t="n">
         <v>0</v>
@@ -10851,7 +10958,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="8">
       <c r="E8" s="28" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="F8" s="28" t="n">
         <v>0</v>
@@ -10865,7 +10972,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="9">
       <c r="E9" s="28" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="F9" s="28" t="n">
         <v>0</v>
@@ -10879,7 +10986,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="10">
       <c r="E10" s="28" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="F10" s="28" t="n">
         <v>0</v>
@@ -10893,7 +11000,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="11">
       <c r="E11" s="28" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="F11" s="28" t="n">
         <v>0</v>
@@ -10907,7 +11014,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="12">
       <c r="E12" s="28" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="F12" s="28" t="n">
         <v>0</v>
@@ -10921,7 +11028,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="13">
       <c r="E13" s="28" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="F13" s="28" t="n">
         <v>0</v>
@@ -10935,7 +11042,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="14">
       <c r="E14" s="28" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="F14" s="28" t="n">
         <v>0</v>
@@ -10947,9 +11054,9 @@
         <v>1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.05" outlineLevel="0" r="15">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="15">
       <c r="E15" s="28" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="F15" s="28" t="n">
         <v>0</v>
@@ -10963,7 +11070,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="16">
       <c r="E16" s="28" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="F16" s="28" t="n">
         <v>0</v>
@@ -10977,7 +11084,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="17">
       <c r="E17" s="28" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="F17" s="28" t="n">
         <v>0</v>
@@ -10991,7 +11098,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="18">
       <c r="E18" s="28" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="F18" s="28" t="n">
         <v>0</v>
@@ -11005,7 +11112,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="19">
       <c r="E19" s="28" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="F19" s="28" t="n">
         <v>0</v>
@@ -11019,7 +11126,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="20">
       <c r="E20" s="28" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="F20" s="28" t="n">
         <v>0</v>
@@ -11033,7 +11140,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="21">
       <c r="E21" s="28" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="F21" s="28" t="n">
         <v>0</v>
@@ -11047,7 +11154,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="22">
       <c r="E22" s="28" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="F22" s="28" t="n">
         <v>0</v>
@@ -11061,12 +11168,21 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.05" outlineLevel="0" r="23">
       <c r="E23" s="28" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.05" outlineLevel="0" r="24">
+        <v>811</v>
+      </c>
+      <c r="F23" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" s="28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="24">
       <c r="E24" s="28" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="F24" s="28" t="n">
         <v>0</v>
@@ -11080,7 +11196,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="25">
       <c r="E25" s="28" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="F25" s="28" t="n">
         <v>0</v>
@@ -11094,7 +11210,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="26">
       <c r="E26" s="28" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="F26" s="28" t="n">
         <v>0</v>
@@ -11108,7 +11224,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="27">
       <c r="E27" s="28" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="F27" s="28" t="n">
         <v>0</v>
@@ -11120,9 +11236,9 @@
         <v>1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.05" outlineLevel="0" r="28">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="28">
       <c r="E28" s="28" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="F28" s="28" t="n">
         <v>0</v>
@@ -11134,9 +11250,9 @@
         <v>1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.05" outlineLevel="0" r="29">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="29">
       <c r="E29" s="28" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="F29" s="28" t="n">
         <v>0</v>
@@ -11150,7 +11266,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="30">
       <c r="E30" s="28" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="F30" s="28" t="n">
         <v>0</v>
@@ -11164,7 +11280,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="31">
       <c r="E31" s="28" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="F31" s="28" t="n">
         <v>0</v>
@@ -11178,7 +11294,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="32">
       <c r="E32" s="28" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="F32" s="28" t="n">
         <v>0</v>
@@ -11192,7 +11308,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="33">
       <c r="E33" s="28" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="F33" s="28" t="n">
         <v>0</v>
@@ -11206,7 +11322,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="34">
       <c r="E34" s="28" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="F34" s="28" t="n">
         <v>0</v>
@@ -11220,7 +11336,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="35">
       <c r="E35" s="28" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="F35" s="28" t="n">
         <v>0</v>
@@ -11234,7 +11350,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="36">
       <c r="E36" s="28" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="F36" s="28" t="n">
         <v>0</v>
@@ -11248,7 +11364,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="37">
       <c r="E37" s="28" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="F37" s="28" t="n">
         <v>0</v>
@@ -11262,7 +11378,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="38">
       <c r="E38" s="28" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="F38" s="28" t="n">
         <v>0</v>
@@ -11276,7 +11392,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="39">
       <c r="E39" s="28" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="F39" s="28" t="n">
         <v>0</v>
@@ -11290,7 +11406,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="40">
       <c r="E40" s="28" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="F40" s="28" t="n">
         <v>0</v>
@@ -11304,7 +11420,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="41">
       <c r="E41" s="28" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="F41" s="28" t="n">
         <v>0</v>
@@ -11318,7 +11434,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="42">
       <c r="E42" s="28" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="F42" s="28" t="n">
         <v>0</v>
@@ -11332,7 +11448,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="43">
       <c r="E43" s="28" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="F43" s="28" t="n">
         <v>0</v>
@@ -11346,7 +11462,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="44">
       <c r="E44" s="28" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="F44" s="28" t="n">
         <v>0</v>
@@ -11360,7 +11476,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="45">
       <c r="E45" s="28" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="F45" s="28" t="n">
         <v>0</v>
@@ -11374,7 +11490,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="46">
       <c r="E46" s="28" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="F46" s="28" t="n">
         <v>0</v>
@@ -11388,7 +11504,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="47">
       <c r="E47" s="28" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="F47" s="28" t="n">
         <v>0</v>
@@ -11402,7 +11518,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="48">
       <c r="E48" s="28" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="F48" s="28" t="n">
         <v>0</v>
@@ -11416,7 +11532,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="49">
       <c r="E49" s="28" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="F49" s="28" t="n">
         <v>0</v>
@@ -11430,7 +11546,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="50">
       <c r="E50" s="28" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="F50" s="28" t="n">
         <v>0</v>
@@ -11444,7 +11560,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="51">
       <c r="E51" s="28" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="F51" s="28" t="n">
         <v>0</v>
@@ -11458,7 +11574,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="52">
       <c r="E52" s="28" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="F52" s="28" t="n">
         <v>0</v>
@@ -11472,7 +11588,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="53">
       <c r="E53" s="28" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="F53" s="28" t="n">
         <v>0</v>
@@ -11486,7 +11602,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="54">
       <c r="E54" s="28" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="F54" s="28" t="n">
         <v>0</v>
@@ -11500,7 +11616,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="55">
       <c r="E55" s="28" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="F55" s="28" t="n">
         <v>0</v>
@@ -11514,10 +11630,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="56">
       <c r="A56" s="28" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="B56" s="28" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="C56" s="28" t="b">
         <f aca="false">FALSE()</f>
@@ -11528,7 +11644,7 @@
         <v>0</v>
       </c>
       <c r="E56" s="28" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="F56" s="28" t="n">
         <v>9</v>
@@ -11542,7 +11658,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="57">
       <c r="E57" s="28" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="F57" s="28" t="n">
         <v>9</v>
@@ -11556,7 +11672,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="58">
       <c r="E58" s="28" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="F58" s="28" t="n">
         <v>9</v>
@@ -11570,7 +11686,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="59">
       <c r="E59" s="28" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="F59" s="28" t="n">
         <v>9</v>
@@ -11584,7 +11700,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="60">
       <c r="E60" s="28" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="F60" s="28" t="n">
         <v>9</v>
@@ -11598,7 +11714,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="61">
       <c r="E61" s="28" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="F61" s="28" t="n">
         <v>9</v>
@@ -11612,7 +11728,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="62">
       <c r="E62" s="28" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="F62" s="28" t="n">
         <v>9</v>
@@ -11626,10 +11742,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="63">
       <c r="A63" s="28" t="s">
+        <v>904</v>
+      </c>
+      <c r="B63" s="28" t="s">
         <v>903</v>
-      </c>
-      <c r="B63" s="28" t="s">
-        <v>902</v>
       </c>
       <c r="C63" s="28" t="b">
         <f aca="false">FALSE()</f>
@@ -11640,7 +11756,7 @@
         <v>1</v>
       </c>
       <c r="E63" s="28" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="F63" s="28" t="n">
         <v>9</v>
@@ -11654,7 +11770,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="64">
       <c r="E64" s="28" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="F64" s="28" t="n">
         <v>9</v>
@@ -11668,7 +11784,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="65">
       <c r="E65" s="28" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="F65" s="28" t="n">
         <v>9</v>
@@ -11682,7 +11798,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="66">
       <c r="E66" s="28" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="F66" s="28" t="n">
         <v>9</v>
@@ -11696,7 +11812,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="67">
       <c r="E67" s="28" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="F67" s="28" t="n">
         <v>9</v>
@@ -11710,7 +11826,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="68">
       <c r="E68" s="28" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="F68" s="28" t="n">
         <v>9</v>
@@ -11724,7 +11840,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="69">
       <c r="E69" s="28" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="F69" s="28" t="n">
         <v>9</v>
@@ -11738,7 +11854,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="70">
       <c r="A70" s="28" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="B70" s="28" t="s">
         <v>589</v>
@@ -11752,7 +11868,7 @@
         <v>1</v>
       </c>
       <c r="E70" s="28" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="F70" s="28" t="n">
         <v>9</v>
@@ -11766,7 +11882,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="71">
       <c r="E71" s="28" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="F71" s="28" t="n">
         <v>9</v>
@@ -11780,7 +11896,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="72">
       <c r="E72" s="28" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="F72" s="28" t="n">
         <v>9</v>
@@ -11794,7 +11910,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="73">
       <c r="E73" s="28" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="F73" s="28" t="n">
         <v>9</v>
@@ -11808,7 +11924,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="74">
       <c r="E74" s="28" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="F74" s="28" t="n">
         <v>9</v>
@@ -11822,7 +11938,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="75">
       <c r="E75" s="28" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="F75" s="28" t="n">
         <v>9</v>
@@ -11836,7 +11952,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="76">
       <c r="E76" s="28" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="F76" s="28" t="n">
         <v>9</v>
@@ -11848,12 +11964,12 @@
         <v>11</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.05" outlineLevel="0" r="77">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="77">
       <c r="A77" s="28" t="s">
         <v>81</v>
       </c>
       <c r="B77" s="28" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="C77" s="28" t="b">
         <f aca="false">FALSE()</f>
@@ -11864,7 +11980,7 @@
         <v>1</v>
       </c>
       <c r="E77" s="28" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="F77" s="28" t="n">
         <v>9</v>
@@ -11878,7 +11994,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="78">
       <c r="E78" s="28" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="F78" s="28" t="n">
         <v>9</v>
@@ -11892,7 +12008,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="79">
       <c r="E79" s="28" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="F79" s="28" t="n">
         <v>9</v>
@@ -11927,19 +12043,19 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="33" width="11.3411764705882"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="33" width="17.9607843137255"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="33" width="19.3921568627451"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="33" width="15.2235294117647"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="33" width="15.078431372549"/>
-    <col collapsed="false" hidden="false" max="8" min="6" style="33" width="11.7294117647059"/>
-    <col collapsed="false" hidden="false" max="10" min="9" style="33" width="28.1647058823529"/>
-    <col collapsed="false" hidden="false" max="257" min="11" style="33" width="11.7294117647059"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="33" width="11.3960784313726"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="33" width="18.0509803921569"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="33" width="19.4901960784314"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="33" width="15.3019607843137"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="33" width="15.1490196078431"/>
+    <col collapsed="false" hidden="false" max="8" min="6" style="33" width="11.7843137254902"/>
+    <col collapsed="false" hidden="false" max="10" min="9" style="33" width="28.2980392156863"/>
+    <col collapsed="false" hidden="false" max="257" min="11" style="33" width="11.7843137254902"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="1" s="34">
       <c r="A1" s="10" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
@@ -11975,7 +12091,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="35" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="E2" s="35" t="s">
         <v>69</v>
@@ -12001,7 +12117,7 @@
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="3" s="36">
       <c r="A3" s="13" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>149</v>
@@ -12034,71 +12150,71 @@
       <c r="V3" s="13"/>
       <c r="W3" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="4">
-      <c r="A4" s="46" t="n">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="4">
+      <c r="A4" s="47" t="n">
         <v>1</v>
       </c>
-      <c r="B4" s="46" t="s">
-        <v>909</v>
-      </c>
-      <c r="C4" s="46" t="s">
+      <c r="B4" s="47" t="s">
         <v>910</v>
       </c>
-      <c r="D4" s="46" t="s">
+      <c r="C4" s="47" t="s">
         <v>911</v>
       </c>
-      <c r="E4" s="46" t="s">
+      <c r="D4" s="47" t="s">
         <v>912</v>
       </c>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="5">
-      <c r="A5" s="46" t="n">
+      <c r="E4" s="47" t="s">
+        <v>913</v>
+      </c>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="5">
+      <c r="A5" s="47" t="n">
         <v>2</v>
       </c>
-      <c r="B5" s="46" t="s">
-        <v>913</v>
-      </c>
-      <c r="C5" s="46" t="s">
+      <c r="B5" s="47" t="s">
         <v>914</v>
       </c>
-      <c r="D5" s="46" t="s">
+      <c r="C5" s="47" t="s">
         <v>915</v>
       </c>
-      <c r="E5" s="46" t="s">
+      <c r="D5" s="47" t="s">
         <v>916</v>
       </c>
-      <c r="F5" s="46"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="46"/>
-      <c r="I5" s="46"/>
-      <c r="J5" s="46"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="6">
-      <c r="A6" s="46" t="n">
+      <c r="E5" s="47" t="s">
+        <v>917</v>
+      </c>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="47"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="6">
+      <c r="A6" s="47" t="n">
         <v>3</v>
       </c>
-      <c r="B6" s="46" t="s">
-        <v>917</v>
-      </c>
-      <c r="C6" s="46" t="s">
+      <c r="B6" s="47" t="s">
         <v>918</v>
       </c>
-      <c r="D6" s="46" t="s">
+      <c r="C6" s="47" t="s">
         <v>919</v>
       </c>
-      <c r="E6" s="46" t="s">
+      <c r="D6" s="47" t="s">
         <v>920</v>
       </c>
-      <c r="F6" s="46"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="46"/>
-      <c r="I6" s="46"/>
-      <c r="J6" s="46"/>
+      <c r="E6" s="47" t="s">
+        <v>921</v>
+      </c>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="47"/>
+      <c r="J6" s="47"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -12123,20 +12239,20 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="33" width="21.5450980392157"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="33" width="17.9607843137255"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="33" width="19.3921568627451"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="33" width="15.2235294117647"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="33" width="15.078431372549"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="33" width="24.8705882352941"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="33" width="11.7294117647059"/>
-    <col collapsed="false" hidden="false" max="10" min="9" style="33" width="28.1647058823529"/>
-    <col collapsed="false" hidden="false" max="257" min="11" style="33" width="11.7294117647059"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="33" width="21.6509803921569"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="33" width="18.0509803921569"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="33" width="19.4901960784314"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="33" width="15.3019607843137"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="33" width="15.1490196078431"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="33" width="25"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="33" width="11.7843137254902"/>
+    <col collapsed="false" hidden="false" max="10" min="9" style="33" width="28.2980392156863"/>
+    <col collapsed="false" hidden="false" max="257" min="11" style="33" width="11.7843137254902"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="1" s="34">
       <c r="A1" s="10" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
@@ -12161,9 +12277,9 @@
       <c r="V1" s="11"/>
       <c r="W1" s="11"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="22.35" outlineLevel="0" r="2" s="36">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="2" s="36">
       <c r="A2" s="35" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="B2" s="35" t="s">
         <v>2</v>
@@ -12180,10 +12296,6 @@
       <c r="F2" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="0"/>
-      <c r="H2" s="0"/>
-      <c r="I2" s="0"/>
-      <c r="J2" s="0"/>
       <c r="K2" s="35"/>
       <c r="L2" s="35"/>
       <c r="M2" s="35"/>
@@ -12200,7 +12312,7 @@
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="3" s="36">
       <c r="A3" s="13" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>67</v>
@@ -12215,10 +12327,6 @@
       <c r="F3" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="0"/>
-      <c r="H3" s="0"/>
-      <c r="I3" s="0"/>
-      <c r="J3" s="0"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="13"/>
@@ -12233,77 +12341,65 @@
       <c r="V3" s="13"/>
       <c r="W3" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="4">
-      <c r="A4" s="46" t="s">
-        <v>909</v>
-      </c>
-      <c r="B4" s="46" t="s">
-        <v>924</v>
-      </c>
-      <c r="C4" s="46" t="s">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="4">
+      <c r="A4" s="47" t="s">
+        <v>910</v>
+      </c>
+      <c r="B4" s="47" t="s">
+        <v>925</v>
+      </c>
+      <c r="C4" s="47" t="s">
         <v>74</v>
       </c>
-      <c r="D4" s="46" t="s">
-        <v>925</v>
-      </c>
-      <c r="E4" s="46" t="s">
+      <c r="D4" s="47" t="s">
         <v>926</v>
       </c>
-      <c r="F4" s="46" t="s">
+      <c r="E4" s="47" t="s">
         <v>927</v>
       </c>
-      <c r="G4" s="0"/>
-      <c r="H4" s="0"/>
-      <c r="I4" s="0"/>
-      <c r="J4" s="0"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="5">
-      <c r="A5" s="46" t="s">
-        <v>913</v>
-      </c>
-      <c r="B5" s="46" t="s">
+      <c r="F4" s="47" t="s">
         <v>928</v>
       </c>
-      <c r="C5" s="46" t="s">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="5">
+      <c r="A5" s="47" t="s">
+        <v>914</v>
+      </c>
+      <c r="B5" s="47" t="s">
         <v>929</v>
       </c>
-      <c r="D5" s="46" t="s">
+      <c r="C5" s="47" t="s">
         <v>930</v>
       </c>
-      <c r="E5" s="46" t="s">
+      <c r="D5" s="47" t="s">
         <v>931</v>
       </c>
-      <c r="F5" s="46" t="s">
+      <c r="E5" s="47" t="s">
         <v>932</v>
       </c>
-      <c r="G5" s="0"/>
-      <c r="H5" s="0"/>
-      <c r="I5" s="0"/>
-      <c r="J5" s="0"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="6">
-      <c r="A6" s="46" t="s">
-        <v>917</v>
-      </c>
-      <c r="B6" s="46" t="s">
+      <c r="F5" s="47" t="s">
         <v>933</v>
       </c>
-      <c r="C6" s="46" t="s">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="6">
+      <c r="A6" s="47" t="s">
+        <v>918</v>
+      </c>
+      <c r="B6" s="47" t="s">
         <v>934</v>
       </c>
-      <c r="D6" s="46" t="s">
+      <c r="C6" s="47" t="s">
         <v>935</v>
       </c>
-      <c r="E6" s="46" t="s">
+      <c r="D6" s="47" t="s">
         <v>936</v>
       </c>
-      <c r="F6" s="46" t="s">
+      <c r="E6" s="47" t="s">
         <v>937</v>
       </c>
-      <c r="G6" s="0"/>
-      <c r="H6" s="0"/>
-      <c r="I6" s="0"/>
-      <c r="J6" s="0"/>
+      <c r="F6" s="47" t="s">
+        <v>938</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -12328,14 +12424,14 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="19.2549019607843"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="34.7764705882353"/>
-    <col collapsed="false" hidden="false" max="257" min="3" style="1" width="11.7294117647059"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="19.3529411764706"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="34.9490196078431"/>
+    <col collapsed="false" hidden="false" max="257" min="3" style="1" width="11.7843137254902"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1" s="6">
       <c r="A1" s="23" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="B1" s="26"/>
       <c r="C1" s="26"/>
@@ -12359,7 +12455,7 @@
       <c r="U1" s="26"/>
       <c r="V1" s="26"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.05" outlineLevel="0" r="2">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="2">
       <c r="A2" s="31" t="s">
         <v>135</v>
       </c>
@@ -12417,18 +12513,18 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="4">
       <c r="A4" s="1" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="5">
       <c r="A5" s="1" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="6">
@@ -12436,15 +12532,15 @@
         <v>405</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="20.85" outlineLevel="0" r="7">
       <c r="A7" s="1" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
     </row>
   </sheetData>
@@ -12470,16 +12566,16 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="39.0901960784314"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="23.9960784313725"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="1" width="11.7294117647059"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="15.2235294117647"/>
-    <col collapsed="false" hidden="false" max="257" min="6" style="1" width="11.7294117647059"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="39.2901960784314"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="24.1137254901961"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="1" width="11.7843137254902"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="15.3019607843137"/>
+    <col collapsed="false" hidden="false" max="257" min="6" style="1" width="11.7843137254902"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1" s="6">
       <c r="A1" s="23" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="B1" s="26"/>
       <c r="C1" s="26"/>
@@ -12503,7 +12599,7 @@
       <c r="U1" s="26"/>
       <c r="V1" s="26"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.05" outlineLevel="0" r="2">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="2">
       <c r="A2" s="31" t="s">
         <v>135</v>
       </c>
@@ -12511,13 +12607,13 @@
         <v>136</v>
       </c>
       <c r="C2" s="31" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="D2" s="31" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="E2" s="31" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="F2" s="31"/>
       <c r="G2" s="31"/>
@@ -12537,7 +12633,7 @@
       <c r="U2" s="31"/>
       <c r="V2" s="31"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.05" outlineLevel="0" r="3">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="3">
       <c r="A3" s="7" t="s">
         <v>138</v>
       </c>
@@ -12545,13 +12641,13 @@
         <v>139</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
@@ -12573,16 +12669,16 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="4">
       <c r="A4" s="28" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="C4" s="28" t="n">
         <v>2</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="E4" s="28" t="n">
         <v>56</v>
@@ -12590,16 +12686,16 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="5">
       <c r="A5" s="28" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="C5" s="28" t="n">
         <v>5</v>
       </c>
       <c r="D5" s="28" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="E5" s="28" t="n">
         <v>20</v>
@@ -12607,13 +12703,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="6">
       <c r="A6" s="28" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="C6" s="28" t="n">
         <v>1</v>
       </c>
       <c r="D6" s="28" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="E6" s="28" t="n">
         <v>30</v>
@@ -12621,16 +12717,16 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="7">
       <c r="A7" s="28" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="B7" s="28" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="C7" s="28" t="n">
         <v>500</v>
       </c>
       <c r="D7" s="28" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="E7" s="28" t="n">
         <v>35</v>
@@ -12638,33 +12734,33 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="8">
       <c r="A8" s="28" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="C8" s="28" t="n">
         <v>100</v>
       </c>
       <c r="D8" s="28" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="E8" s="28" t="n">
         <v>55</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.05" outlineLevel="0" r="9">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="9">
       <c r="A9" s="28" t="s">
-        <v>960</v>
-      </c>
-      <c r="B9" s="47" t="n">
+        <v>961</v>
+      </c>
+      <c r="B9" s="48" t="n">
         <v>0.96</v>
       </c>
       <c r="C9" s="28" t="n">
         <v>1000</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="E9" s="28" t="n">
         <v>30</v>
@@ -12672,14 +12768,14 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="10">
       <c r="A10" s="28" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="B10" s="28"/>
       <c r="C10" s="28" t="n">
         <v>1000</v>
       </c>
       <c r="D10" s="28" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="E10" s="28" t="n">
         <v>22.75</v>
@@ -12687,14 +12783,14 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="11">
       <c r="A11" s="28" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="B11" s="28"/>
       <c r="C11" s="28" t="n">
         <v>500</v>
       </c>
       <c r="D11" s="28" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="E11" s="28" t="n">
         <v>180</v>
@@ -12702,14 +12798,14 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="12">
       <c r="A12" s="28" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="B12" s="28"/>
       <c r="C12" s="28" t="n">
         <v>500</v>
       </c>
       <c r="D12" s="28" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="E12" s="28" t="n">
         <v>20</v>
@@ -12717,16 +12813,16 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="13">
       <c r="A13" s="28" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="B13" s="28" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="C13" s="28" t="n">
         <v>100</v>
       </c>
       <c r="D13" s="28" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="E13" s="28" t="n">
         <v>20</v>
@@ -12734,14 +12830,14 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="14">
       <c r="A14" s="28" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="B14" s="28"/>
       <c r="C14" s="28" t="n">
         <v>2.5</v>
       </c>
       <c r="D14" s="28" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="E14" s="28" t="n">
         <v>520</v>
@@ -12749,14 +12845,14 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="15">
       <c r="A15" s="28" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="B15" s="28"/>
       <c r="C15" s="28" t="n">
         <v>5</v>
       </c>
       <c r="D15" s="28" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="E15" s="28" t="n">
         <v>329</v>
@@ -12764,14 +12860,14 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="16">
       <c r="A16" s="28" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="B16" s="28"/>
       <c r="C16" s="28" t="n">
         <v>500</v>
       </c>
       <c r="D16" s="28" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="E16" s="28" t="n">
         <v>250</v>
@@ -12779,13 +12875,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="17">
       <c r="A17" s="28" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="C17" s="28" t="n">
         <v>500</v>
       </c>
       <c r="D17" s="28" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="E17" s="28" t="n">
         <v>180</v>
@@ -12793,14 +12889,14 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="18">
       <c r="A18" s="28" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="B18" s="28"/>
       <c r="C18" s="28" t="n">
         <v>500</v>
       </c>
       <c r="D18" s="28" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="E18" s="28" t="n">
         <v>245</v>
@@ -12808,14 +12904,14 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="19">
       <c r="A19" s="28" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="B19" s="28"/>
       <c r="C19" s="28" t="n">
         <v>500</v>
       </c>
       <c r="D19" s="28" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="E19" s="28" t="n">
         <v>186</v>
@@ -12823,16 +12919,16 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="20">
       <c r="A20" s="28" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="B20" s="28" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="C20" s="28" t="n">
         <v>1</v>
       </c>
       <c r="D20" s="28" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="E20" s="28" t="n">
         <v>20</v>
@@ -12840,16 +12936,16 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="21">
       <c r="A21" s="28" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="B21" s="28" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="C21" s="28" t="n">
         <v>1</v>
       </c>
       <c r="D21" s="28" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="E21" s="28" t="n">
         <v>13.6</v>
@@ -12857,16 +12953,16 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="22">
       <c r="A22" s="28" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="B22" s="28" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="C22" s="28" t="n">
         <v>1</v>
       </c>
       <c r="D22" s="28" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="E22" s="28" t="n">
         <v>90</v>
@@ -12874,13 +12970,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="23">
       <c r="A23" s="28" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="C23" s="28" t="n">
         <v>1</v>
       </c>
       <c r="D23" s="28" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="E23" s="28" t="n">
         <v>35</v>
@@ -12905,22 +13001,22 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
+      <selection activeCell="G28" activeCellId="0" pane="topLeft" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="14.2980392156863"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.4588235294118"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="10.4117647058824"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="22.4588235294118"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="16.7764705882353"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="14.1254901960784"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="16.3686274509804"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="14.2980392156863"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="18.1960784313725"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="13.7764705882353"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="41.9019607843137"/>
-    <col collapsed="false" hidden="false" max="257" min="12" style="1" width="11.7294117647059"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="14.3725490196078"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.5137254901961"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="10.4627450980392"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="22.5764705882353"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="16.8588235294118"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="14.2"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="16.4509803921569"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="14.3725490196078"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="18.2862745098039"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="13.8470588235294"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="42.1098039215686"/>
+    <col collapsed="false" hidden="false" max="257" min="12" style="1" width="11.7843137254902"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1" s="6">
@@ -13266,23 +13362,23 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="28" width="19.121568627451"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="28" width="19.3921568627451"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="28" width="24.2745098039216"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="28" width="9.76078431372549"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="28" width="6.75686274509804"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="28" width="20.9725490196078"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="28" width="13.8"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="9.76078431372549"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="6.75686274509804"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="20.9725490196078"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="13.8"/>
-    <col collapsed="false" hidden="false" max="257" min="12" style="28" width="11.7294117647059"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="28" width="19.2196078431373"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="28" width="19.4901960784314"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="28" width="24.3921568627451"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="28" width="9.81176470588235"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="28" width="6.7921568627451"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="28" width="21.0823529411765"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="28" width="13.8745098039216"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="9.81176470588235"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="6.7921568627451"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="21.0823529411765"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="13.8745098039216"/>
+    <col collapsed="false" hidden="false" max="257" min="12" style="28" width="11.7843137254902"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1" s="27">
       <c r="A1" s="23" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="B1" s="26"/>
       <c r="C1" s="26"/>
@@ -13290,10 +13386,6 @@
       <c r="E1" s="26"/>
       <c r="F1" s="26"/>
       <c r="G1" s="26"/>
-      <c r="H1" s="0"/>
-      <c r="I1" s="0"/>
-      <c r="J1" s="0"/>
-      <c r="K1" s="0"/>
       <c r="L1" s="26"/>
       <c r="M1" s="26"/>
       <c r="N1" s="26"/>
@@ -13314,19 +13406,19 @@
         <v>136</v>
       </c>
       <c r="C2" s="31" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="D2" s="31" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="E2" s="31" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="F2" s="31" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="G2" s="31" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="L2" s="31"/>
       <c r="M2" s="31"/>
@@ -13348,19 +13440,19 @@
         <v>139</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>359</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="L3" s="7"/>
       <c r="M3" s="7"/>
@@ -13376,19 +13468,19 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="4">
       <c r="A4" s="28" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="D4" s="28" t="n">
         <v>1</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="5">
@@ -13396,10 +13488,10 @@
         <v>2</v>
       </c>
       <c r="E5" s="28" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="F5" s="28" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="6">
@@ -13407,7 +13499,7 @@
         <v>3</v>
       </c>
       <c r="E6" s="28" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="7">
@@ -13415,7 +13507,7 @@
         <v>4</v>
       </c>
       <c r="E7" s="28" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="8">
@@ -13423,7 +13515,7 @@
         <v>5</v>
       </c>
       <c r="E8" s="28" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="9">
@@ -13431,7 +13523,7 @@
         <v>6</v>
       </c>
       <c r="E9" s="28" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="10">
@@ -13439,7 +13531,7 @@
         <v>7</v>
       </c>
       <c r="E10" s="28" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="11">
@@ -13447,7 +13539,7 @@
         <v>8</v>
       </c>
       <c r="E11" s="28" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="12">
@@ -13455,7 +13547,7 @@
         <v>9</v>
       </c>
       <c r="E12" s="28" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="13">
@@ -13463,7 +13555,7 @@
         <v>10</v>
       </c>
       <c r="E13" s="28" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="G13" s="28" t="n">
         <v>3</v>
@@ -13471,19 +13563,19 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="14">
       <c r="A14" s="28" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="C14" s="28" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="D14" s="28" t="n">
         <v>1</v>
       </c>
       <c r="E14" s="28" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="15">
@@ -13491,10 +13583,10 @@
         <v>2</v>
       </c>
       <c r="E15" s="28" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="F15" s="28" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="16">
@@ -13502,7 +13594,7 @@
         <v>3</v>
       </c>
       <c r="E16" s="28" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="17">
@@ -13510,7 +13602,7 @@
         <v>4</v>
       </c>
       <c r="E17" s="28" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="18">
@@ -13518,7 +13610,7 @@
         <v>5</v>
       </c>
       <c r="E18" s="28" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="19">
@@ -13526,7 +13618,7 @@
         <v>6</v>
       </c>
       <c r="E19" s="28" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="20">
@@ -13534,7 +13626,7 @@
         <v>7</v>
       </c>
       <c r="E20" s="28" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="21">
@@ -13542,7 +13634,7 @@
         <v>8</v>
       </c>
       <c r="E21" s="28" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="22">
@@ -13550,7 +13642,7 @@
         <v>9</v>
       </c>
       <c r="E22" s="28" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="23">
@@ -13558,7 +13650,7 @@
         <v>10</v>
       </c>
       <c r="E23" s="28" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="G23" s="28" t="n">
         <v>3</v>
@@ -13566,19 +13658,19 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="24">
       <c r="A24" s="28" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="B24" s="28" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="C24" s="28" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="D24" s="28" t="n">
         <v>1</v>
       </c>
       <c r="E24" s="28" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="25">
@@ -13586,10 +13678,10 @@
         <v>2</v>
       </c>
       <c r="E25" s="28" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="F25" s="28" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="26">
@@ -13597,7 +13689,7 @@
         <v>3</v>
       </c>
       <c r="E26" s="28" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="27">
@@ -13605,7 +13697,7 @@
         <v>4</v>
       </c>
       <c r="E27" s="28" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="28">
@@ -13613,7 +13705,7 @@
         <v>5</v>
       </c>
       <c r="E28" s="28" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="29">
@@ -13621,7 +13713,7 @@
         <v>6</v>
       </c>
       <c r="E29" s="28" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="30">
@@ -13629,7 +13721,7 @@
         <v>7</v>
       </c>
       <c r="E30" s="28" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="31">
@@ -13637,7 +13729,7 @@
         <v>8</v>
       </c>
       <c r="E31" s="28" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="32">
@@ -13645,7 +13737,7 @@
         <v>9</v>
       </c>
       <c r="E32" s="28" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="33">
@@ -13653,7 +13745,7 @@
         <v>10</v>
       </c>
       <c r="E33" s="28" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="G33" s="28" t="n">
         <v>3</v>
@@ -13661,19 +13753,19 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="34">
       <c r="A34" s="1" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="B34" s="28" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="C34" s="28" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="D34" s="28" t="n">
         <v>1</v>
       </c>
       <c r="E34" s="28" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="35">
@@ -13681,10 +13773,10 @@
         <v>2</v>
       </c>
       <c r="E35" s="28" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="F35" s="28" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="36">
@@ -13692,7 +13784,7 @@
         <v>3</v>
       </c>
       <c r="E36" s="28" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="37">
@@ -13700,7 +13792,7 @@
         <v>4</v>
       </c>
       <c r="E37" s="28" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="38">
@@ -13708,7 +13800,7 @@
         <v>5</v>
       </c>
       <c r="E38" s="28" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="39">
@@ -13716,7 +13808,7 @@
         <v>6</v>
       </c>
       <c r="E39" s="28" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="40">
@@ -13724,7 +13816,7 @@
         <v>7</v>
       </c>
       <c r="E40" s="28" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="41">
@@ -13732,7 +13824,7 @@
         <v>8</v>
       </c>
       <c r="E41" s="28" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="42">
@@ -13740,7 +13832,7 @@
         <v>9</v>
       </c>
       <c r="E42" s="28" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="43">
@@ -13748,7 +13840,7 @@
         <v>10</v>
       </c>
       <c r="E43" s="28" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="G43" s="28" t="n">
         <v>3</v>
@@ -13777,14 +13869,14 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="19.2549019607843"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="12.7882352941176"/>
-    <col collapsed="false" hidden="false" max="257" min="3" style="1" width="11.7294117647059"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="19.3529411764706"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="12.8509803921569"/>
+    <col collapsed="false" hidden="false" max="257" min="3" style="1" width="11.7843137254902"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1" s="6">
       <c r="A1" s="23" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="B1" s="26"/>
       <c r="C1" s="26"/>
@@ -13810,13 +13902,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="2">
       <c r="A2" s="31" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="C2" s="31" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="D2" s="31"/>
       <c r="E2" s="31"/>
@@ -13840,13 +13932,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="3">
       <c r="A3" s="7" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -13870,10 +13962,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="4">
       <c r="A4" s="28" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="C4" s="28" t="n">
         <v>4</v>
@@ -13881,10 +13973,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="5">
       <c r="A5" s="28" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="C5" s="28" t="n">
         <v>4</v>
@@ -13892,10 +13984,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="6">
       <c r="A6" s="28" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="B6" s="28" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="C6" s="28" t="n">
         <v>3</v>
@@ -13903,10 +13995,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="7">
       <c r="A7" s="28" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="B7" s="28" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="C7" s="28" t="n">
         <v>3</v>
@@ -13914,10 +14006,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="8">
       <c r="A8" s="28" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="C8" s="28" t="n">
         <v>4</v>
@@ -13925,10 +14017,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="9">
       <c r="A9" s="28" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="C9" s="28" t="n">
         <v>3</v>
@@ -13936,10 +14028,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="10">
       <c r="A10" s="28" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="B10" s="28" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="C10" s="28" t="n">
         <v>4</v>
@@ -13947,10 +14039,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="11">
       <c r="A11" s="28" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="B11" s="28" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="C11" s="28" t="n">
         <v>4</v>
@@ -13979,10 +14071,10 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="17.9607843137255"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="32.6235294117647"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="24.2313725490196"/>
-    <col collapsed="false" hidden="false" max="257" min="4" style="1" width="11.7294117647059"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="18.0509803921569"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="32.7843137254902"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="24.3490196078431"/>
+    <col collapsed="false" hidden="false" max="257" min="4" style="1" width="11.7843137254902"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1" s="2">
@@ -14015,7 +14107,7 @@
         <v>80</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.05" outlineLevel="0" r="4">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="4">
       <c r="A4" s="1" t="s">
         <v>140</v>
       </c>
@@ -14071,13 +14163,13 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="8" width="14.678431372549"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="9" width="19.8352941176471"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="9" width="13.3764705882353"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="9" width="22.1137254901961"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="9" width="13.5019607843137"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="9" width="14.5058823529412"/>
-    <col collapsed="false" hidden="false" max="257" min="7" style="9" width="11.7294117647059"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="8" width="14.7529411764706"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="9" width="19.9333333333333"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="9" width="13.4392156862745"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="9" width="22.2235294117647"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="9" width="13.5647058823529"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="9" width="14.5803921568627"/>
+    <col collapsed="false" hidden="false" max="257" min="7" style="9" width="11.7843137254902"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="11.6" outlineLevel="0" r="1" s="12">
@@ -14338,27 +14430,27 @@
   <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
+      <selection activeCell="C11" activeCellId="0" pane="topLeft" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="9" width="19.8352941176471"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="9" width="11.7294117647059"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="9" width="9.47843137254902"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="9" width="15.2235294117647"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="9" width="19.2549019607843"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="9" width="16.6588235294118"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="9" width="12.9254901960784"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="9" width="13.356862745098"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="9" width="13.0705882352941"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="9" width="13.8"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="9" width="10.9176470588235"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="9" width="16.6588235294118"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="9" width="25.0078431372549"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="9" width="11.7843137254902"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="9" width="11.7294117647059"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="14" width="16.5254901960784"/>
-    <col collapsed="false" hidden="false" max="257" min="17" style="9" width="11.7294117647059"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="9" width="19.9333333333333"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="9" width="11.7843137254902"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="9" width="9.52549019607843"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="9" width="15.3019607843137"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="9" width="19.3529411764706"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="9" width="16.7411764705882"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="9" width="12.9882352941176"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="9" width="13.4235294117647"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="9" width="13.1333333333333"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="9" width="13.8745098039216"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="9" width="10.9725490196078"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="9" width="16.7411764705882"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="9" width="25.1333333333333"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="9" width="11.8470588235294"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="9" width="11.7843137254902"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="14" width="16.6039215686275"/>
+    <col collapsed="false" hidden="false" max="257" min="17" style="9" width="11.7843137254902"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="11.6" outlineLevel="0" r="1" s="12">
@@ -15424,15 +15516,15 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="17" width="24.2745098039216"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="17" width="34.9098039215686"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="17" width="39.2156862745098"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="17" width="16.2352941176471"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="17" width="27.7372549019608"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="17" width="11.7294117647059"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="17" width="21.843137254902"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="17" width="19.8705882352941"/>
-    <col collapsed="false" hidden="false" max="257" min="9" style="17" width="11.7294117647059"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="17" width="24.3921568627451"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="17" width="35.0823529411765"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="17" width="39.4078431372549"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="17" width="16.3176470588235"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="17" width="27.8745098039216"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="17" width="11.7843137254902"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="17" width="21.9490196078431"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="17" width="19.9686274509804"/>
+    <col collapsed="false" hidden="false" max="257" min="9" style="17" width="11.7843137254902"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1" s="19">
@@ -16047,16 +16139,16 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="15.9529411764706"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="23.7058823529412"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="6.02352941176471"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="7.03529411764706"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="8.90980392156863"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="11.4392156862745"/>
-    <col collapsed="false" hidden="false" max="10" min="7" style="1" width="5.16470588235294"/>
-    <col collapsed="false" hidden="false" max="14" min="11" style="1" width="6.02352941176471"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="10.7725490196078"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="1" width="11.7294117647059"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="16.0352941176471"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="23.8235294117647"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="6.05882352941176"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="7.07450980392157"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="8.95294117647059"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="11.4941176470588"/>
+    <col collapsed="false" hidden="false" max="10" min="7" style="1" width="5.1921568627451"/>
+    <col collapsed="false" hidden="false" max="14" min="11" style="1" width="6.05882352941176"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="10.8274509803922"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="1" width="11.7843137254902"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="13.05" outlineLevel="0" r="1" s="2">
@@ -16799,10 +16891,10 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="27.0156862745098"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="35.6352941176471"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="14.5058823529412"/>
-    <col collapsed="false" hidden="false" max="257" min="4" style="1" width="11.7294117647059"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="27.1529411764706"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="35.8156862745098"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="14.5803921568627"/>
+    <col collapsed="false" hidden="false" max="257" min="4" style="1" width="11.7843137254902"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1" s="2">
@@ -17102,7 +17194,7 @@
         <v>513</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.05" outlineLevel="0" r="21">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="21">
       <c r="A21" s="1" t="s">
         <v>546</v>
       </c>
@@ -17186,7 +17278,7 @@
         <v>513</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.05" outlineLevel="0" r="27">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="27">
       <c r="A27" s="1" t="s">
         <v>556</v>
       </c>
@@ -17200,7 +17292,7 @@
         <v>513</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.05" outlineLevel="0" r="28">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="28">
       <c r="A28" s="1" t="s">
         <v>558</v>
       </c>
@@ -17242,7 +17334,7 @@
         <v>513</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.05" outlineLevel="0" r="31">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="31">
       <c r="A31" s="1" t="s">
         <v>562</v>
       </c>
@@ -17256,7 +17348,7 @@
         <v>513</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.05" outlineLevel="0" r="32">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="32">
       <c r="A32" s="1" t="s">
         <v>564</v>
       </c>
@@ -17503,10 +17595,10 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="33" width="19.5450980392157"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="33" width="43.4039215686275"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="33" width="23.4235294117647"/>
-    <col collapsed="false" hidden="false" max="257" min="4" style="33" width="11.7294117647059"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="33" width="19.643137254902"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="33" width="43.6196078431373"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="33" width="23.5411764705882"/>
+    <col collapsed="false" hidden="false" max="257" min="4" style="33" width="11.7843137254902"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="1" s="34">

--- a/bika/lims/test_setup_data.xlsx
+++ b/bika/lims/test_setup_data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="14" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="958" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="1" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="955" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="Lab Users" sheetId="1" state="visible" r:id="rId2"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2116" uniqueCount="1017">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2115" uniqueCount="1016">
   <si>
     <t>Lab users</t>
   </si>
@@ -280,7 +280,7 @@
     <t>Manager</t>
   </si>
   <si>
-    <t>Micro-Biology</t>
+    <t>Microbiology</t>
   </si>
   <si>
     <t>Mary</t>
@@ -455,9 +455,6 @@
   </si>
   <si>
     <t>Description</t>
-  </si>
-  <si>
-    <t>Microbiology</t>
   </si>
   <si>
     <t>Microbiology department</t>
@@ -850,6 +847,9 @@
     <t>Moeketsi</t>
   </si>
   <si>
+    <t>Micro-Biology</t>
+  </si>
+  <si>
     <t>031 572 4880</t>
   </si>
   <si>
@@ -1876,7 +1876,7 @@
     <t>These apply to water only</t>
   </si>
   <si>
-    <t>methods</t>
+    <t>Methods</t>
   </si>
   <si>
     <t>Instructions</t>
@@ -1885,9 +1885,6 @@
     <t>MethodDocument</t>
   </si>
   <si>
-    <t>Methods</t>
-  </si>
-  <si>
     <t>Document</t>
   </si>
   <si>
@@ -2743,10 +2740,10 @@
     <t>max</t>
   </si>
   <si>
+    <t>Min</t>
+  </si>
+  <si>
     <t>Result</t>
-  </si>
-  <si>
-    <t>Min</t>
   </si>
   <si>
     <t>Max</t>
@@ -3104,12 +3101,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
+  <numFmts count="4">
     <numFmt formatCode="GENERAL" numFmtId="164"/>
     <numFmt formatCode="@" numFmtId="165"/>
     <numFmt formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;" numFmtId="166"/>
-    <numFmt formatCode="GENERAL" numFmtId="167"/>
-    <numFmt formatCode="0.00%" numFmtId="168"/>
+    <numFmt formatCode="0.00%" numFmtId="167"/>
   </numFmts>
   <fonts count="15">
     <font>
@@ -3260,7 +3256,7 @@
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="48">
     <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
     <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
@@ -3388,9 +3384,6 @@
     <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="166" xfId="0">
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="167" xfId="0">
-      <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
-    </xf>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0">
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="false"/>
     </xf>
@@ -3403,7 +3396,7 @@
     <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="13" numFmtId="164" xfId="0">
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="168" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="167" xfId="0">
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -3486,18 +3479,18 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
+      <selection activeCell="A1" activeCellId="1" pane="topLeft" sqref="J5 A1"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="11.2705882352941"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.8470588235294"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="10.9725490196078"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="13.7294117647059"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="13.4235294117647"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="24.8352941176471"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="18.9019607843137"/>
-    <col collapsed="false" hidden="false" max="257" min="8" style="1" width="11.7843137254902"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="11.3764705882353"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.9647058823529"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="11.078431372549"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="13.8745098039216"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="13.5647058823529"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="25.078431372549"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="19.0823529411765"/>
+    <col collapsed="false" hidden="false" max="257" min="8" style="1" width="11.9019607843137"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1" s="3">
@@ -3866,21 +3859,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V15"/>
+  <dimension ref="A1:V14"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
+      <selection activeCell="B6" activeCellId="1" pane="topLeft" sqref="J5 B6"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="25.5607843137255"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="1" width="66.2941176470588"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="23.3882352941176"/>
-    <col collapsed="false" hidden="false" max="257" min="5" style="1" width="11.7843137254902"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="25.8117647058824"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="1" width="66.964705882353"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="23.6235294117647"/>
+    <col collapsed="false" hidden="false" max="257" min="5" style="1" width="11.9019607843137"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1" s="2">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="7" t="s">
         <v>609</v>
       </c>
       <c r="B1" s="26"/>
@@ -3939,208 +3932,182 @@
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="3" s="5">
       <c r="A3" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>610</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>612</v>
       </c>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
       <c r="L3" s="7"/>
-      <c r="M3" s="31"/>
-      <c r="N3" s="31"/>
-      <c r="O3" s="31"/>
-      <c r="P3" s="31"/>
-      <c r="Q3" s="31"/>
-      <c r="R3" s="31"/>
-      <c r="S3" s="31"/>
-      <c r="T3" s="31"/>
-      <c r="U3" s="31"/>
-      <c r="V3" s="31"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="4" s="5">
-      <c r="A4" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>610</v>
-      </c>
-      <c r="D4" s="7" t="s">
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7"/>
+      <c r="V3" s="7"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="46.25" outlineLevel="0" r="4">
+      <c r="A4" s="1" t="s">
         <v>613</v>
       </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="7"/>
-      <c r="S4" s="7"/>
-      <c r="T4" s="7"/>
-      <c r="U4" s="7"/>
-      <c r="V4" s="7"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="46.25" outlineLevel="0" r="5">
+      <c r="B4" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="57.45" outlineLevel="0" r="5">
       <c r="A5" s="1" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="57.45" outlineLevel="0" r="6">
+        <v>618</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="68.65" outlineLevel="0" r="6">
       <c r="A6" s="1" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="68.65" outlineLevel="0" r="7">
+        <v>623</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="147" outlineLevel="0" r="7">
       <c r="A7" s="1" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="147" outlineLevel="0" r="8">
+        <v>627</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="46.25" outlineLevel="0" r="8">
       <c r="A8" s="1" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>626</v>
+        <v>629</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="46.25" outlineLevel="0" r="9">
+        <v>631</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="91" outlineLevel="0" r="9">
       <c r="A9" s="1" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>630</v>
+        <v>633</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>631</v>
+        <v>634</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="91" outlineLevel="0" r="10">
+        <v>635</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="68.65" outlineLevel="0" r="10">
       <c r="A10" s="1" t="s">
-        <v>633</v>
+        <v>636</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>634</v>
+        <v>637</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="68.65" outlineLevel="0" r="11">
+        <v>639</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="11">
       <c r="A11" s="1" t="s">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>638</v>
+        <v>641</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>639</v>
+        <v>642</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="12">
+        <v>643</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="68.65" outlineLevel="0" r="12">
       <c r="A12" s="1" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>642</v>
+        <v>645</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>643</v>
+        <v>646</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>644</v>
+        <v>647</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="68.65" outlineLevel="0" r="13">
       <c r="A13" s="1" t="s">
-        <v>645</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="68.65" outlineLevel="0" r="14">
       <c r="A14" s="1" t="s">
-        <v>649</v>
+        <v>651</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>652</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>650</v>
+        <v>634</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="68.65" outlineLevel="0" r="15">
-      <c r="A15" s="1" t="s">
-        <v>652</v>
-      </c>
-      <c r="B15" s="1" t="s">
         <v>653</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>635</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>654</v>
       </c>
     </row>
   </sheetData>
@@ -4162,46 +4129,46 @@
   <dimension ref="A1:AC203"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100">
-      <selection activeCell="C1" activeCellId="0" pane="topLeft" sqref="C1"/>
+      <selection activeCell="C1" activeCellId="1" pane="topLeft" sqref="J5 C1"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="22" width="12.1372549019608"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="22" width="18.0509803921569"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="22" width="9.09803921568627"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="22" width="8.65490196078431"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="22" width="11.8470588235294"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="37" width="7.50588235294118"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="22" width="12.4196078431373"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="22" width="7.64313725490196"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="22" width="5.94117647058824"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="22" width="6.05882352941176"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="22" width="7.2156862745098"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="22" width="5.83529411764706"/>
-    <col collapsed="false" hidden="false" max="15" min="14" style="22" width="6.05882352941176"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="22" width="4.90980392156863"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="22" width="7.93333333333333"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="22" width="7.64313725490196"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="22" width="12.5607843137255"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="22" width="9.67843137254902"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="37" width="7.79607843137255"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="22" width="14.3333333333333"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="17" width="10.8274509803922"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="22" width="11.7843137254902"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="34.3764705882353"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="6.49411764705882"/>
-    <col collapsed="false" hidden="false" max="28" min="27" style="1" width="11.7843137254902"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="28" width="10.8274509803922"/>
-    <col collapsed="false" hidden="false" max="257" min="30" style="28" width="11.7843137254902"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="22" width="12.2627450980392"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="22" width="18.2352941176471"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="22" width="9.18823529411765"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="22" width="8.74509803921569"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="22" width="11.9647058823529"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="37" width="7.58039215686275"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="22" width="12.5450980392157"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="22" width="7.71372549019608"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="22" width="5.99607843137255"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="22" width="6.12156862745098"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="22" width="7.29019607843137"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="22" width="5.90588235294118"/>
+    <col collapsed="false" hidden="false" max="15" min="14" style="22" width="6.12156862745098"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="22" width="4.95686274509804"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="22" width="8.01176470588235"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="22" width="7.71372549019608"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="22" width="12.6901960784314"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="22" width="9.76862745098039"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="37" width="7.86666666666667"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="22" width="14.478431372549"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="17" width="10.9333333333333"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="22" width="11.9019607843137"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="34.721568627451"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="6.56470588235294"/>
+    <col collapsed="false" hidden="false" max="28" min="27" style="1" width="11.9019607843137"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="28" width="10.9333333333333"/>
+    <col collapsed="false" hidden="false" max="257" min="30" style="28" width="11.9019607843137"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="24.25" outlineLevel="0" r="1" s="23">
       <c r="A1" s="18" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B1" s="19"/>
       <c r="C1" s="18" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="D1" s="19"/>
       <c r="E1" s="19"/>
@@ -4211,7 +4178,7 @@
       <c r="I1" s="19"/>
       <c r="J1" s="19"/>
       <c r="K1" s="39" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="L1" s="39"/>
       <c r="M1" s="39"/>
@@ -4224,7 +4191,7 @@
       <c r="T1" s="19"/>
       <c r="U1" s="38"/>
       <c r="V1" s="18" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="W1" s="40"/>
       <c r="X1" s="18"/>
@@ -4241,28 +4208,28 @@
         <v>136</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>658</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>659</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>660</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>661</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>65</v>
       </c>
       <c r="G2" s="41" t="s">
+        <v>661</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>662</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>663</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="J2" s="4" t="s">
         <v>664</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>665</v>
       </c>
       <c r="K2" s="4" t="s">
         <v>469</v>
@@ -4274,37 +4241,37 @@
         <v>471</v>
       </c>
       <c r="N2" s="4" t="s">
+        <v>665</v>
+      </c>
+      <c r="O2" s="4" t="s">
         <v>666</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="P2" s="4" t="s">
         <v>667</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="Q2" s="4" t="s">
         <v>668</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="R2" s="4" t="s">
         <v>669</v>
       </c>
-      <c r="R2" s="4" t="s">
+      <c r="S2" s="4" t="s">
         <v>670</v>
       </c>
-      <c r="S2" s="4" t="s">
+      <c r="T2" s="4" t="s">
         <v>671</v>
       </c>
-      <c r="T2" s="4" t="s">
+      <c r="U2" s="41" t="s">
         <v>672</v>
       </c>
-      <c r="U2" s="41" t="s">
+      <c r="V2" s="4" t="s">
         <v>673</v>
       </c>
-      <c r="V2" s="4" t="s">
+      <c r="W2" s="4" t="s">
         <v>674</v>
       </c>
-      <c r="W2" s="4" t="s">
+      <c r="X2" s="4" t="s">
         <v>675</v>
-      </c>
-      <c r="X2" s="4" t="s">
-        <v>676</v>
       </c>
       <c r="Y2" s="1"/>
       <c r="Z2" s="1"/>
@@ -4319,28 +4286,28 @@
         <v>139</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="E3" s="20" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="F3" s="20" t="s">
         <v>65</v>
       </c>
       <c r="G3" s="42" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="H3" s="20" t="s">
+        <v>662</v>
+      </c>
+      <c r="I3" s="20" t="s">
         <v>663</v>
       </c>
-      <c r="I3" s="20" t="s">
+      <c r="J3" s="20" t="s">
         <v>664</v>
-      </c>
-      <c r="J3" s="20" t="s">
-        <v>665</v>
       </c>
       <c r="K3" s="20" t="s">
         <v>469</v>
@@ -4352,37 +4319,37 @@
         <v>471</v>
       </c>
       <c r="N3" s="20" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="O3" s="20" t="s">
+        <v>678</v>
+      </c>
+      <c r="P3" s="20" t="s">
+        <v>667</v>
+      </c>
+      <c r="Q3" s="20" t="s">
+        <v>668</v>
+      </c>
+      <c r="R3" s="20" t="s">
+        <v>669</v>
+      </c>
+      <c r="S3" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="T3" s="20" t="s">
         <v>679</v>
       </c>
-      <c r="P3" s="20" t="s">
-        <v>668</v>
-      </c>
-      <c r="Q3" s="20" t="s">
-        <v>669</v>
-      </c>
-      <c r="R3" s="20" t="s">
-        <v>670</v>
-      </c>
-      <c r="S3" s="20" t="s">
-        <v>671</v>
-      </c>
-      <c r="T3" s="20" t="s">
+      <c r="U3" s="42" t="s">
+        <v>672</v>
+      </c>
+      <c r="V3" s="20" t="s">
         <v>680</v>
       </c>
-      <c r="U3" s="42" t="s">
-        <v>673</v>
-      </c>
-      <c r="V3" s="20" t="s">
+      <c r="W3" s="20" t="s">
         <v>681</v>
       </c>
-      <c r="W3" s="20" t="s">
+      <c r="X3" s="20" t="s">
         <v>682</v>
-      </c>
-      <c r="X3" s="20" t="s">
-        <v>683</v>
       </c>
       <c r="Y3" s="1"/>
       <c r="Z3" s="1"/>
@@ -4392,16 +4359,16 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="4">
       <c r="A4" s="22" t="s">
+        <v>683</v>
+      </c>
+      <c r="B4" s="22" t="s">
         <v>684</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="C4" s="22" t="s">
         <v>685</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="D4" s="22" t="s">
         <v>686</v>
-      </c>
-      <c r="D4" s="22" t="s">
-        <v>687</v>
       </c>
       <c r="E4" s="17" t="s">
         <v>607</v>
@@ -4409,27 +4376,27 @@
       <c r="F4" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="G4" s="43" t="b">
+      <c r="G4" s="37" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H4" s="22" t="s">
+        <v>687</v>
+      </c>
+      <c r="I4" s="22" t="s">
         <v>688</v>
-      </c>
-      <c r="I4" s="22" t="s">
-        <v>689</v>
       </c>
       <c r="J4" s="22" t="n">
         <v>2</v>
       </c>
       <c r="K4" s="22" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="L4" s="22" t="n">
         <v>2</v>
       </c>
       <c r="M4" s="22" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="N4" s="22" t="n">
         <v>10</v>
@@ -4443,7 +4410,7 @@
       <c r="T4" s="22" t="n">
         <v>10</v>
       </c>
-      <c r="U4" s="43" t="b">
+      <c r="U4" s="37" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -4498,16 +4465,16 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="8">
       <c r="A8" s="22" t="s">
+        <v>690</v>
+      </c>
+      <c r="B8" s="22" t="s">
         <v>691</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="C8" s="22" t="s">
         <v>692</v>
       </c>
-      <c r="C8" s="22" t="s">
-        <v>693</v>
-      </c>
       <c r="D8" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="E8" s="17" t="s">
         <v>607</v>
@@ -4515,24 +4482,24 @@
       <c r="F8" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="G8" s="43" t="b">
+      <c r="G8" s="37" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H8" s="22" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="J8" s="22" t="n">
         <v>2</v>
       </c>
       <c r="K8" s="22" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="L8" s="22" t="n">
         <v>2</v>
       </c>
       <c r="M8" s="22" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="N8" s="22" t="n">
         <v>10</v>
@@ -4544,12 +4511,12 @@
         <v>14</v>
       </c>
       <c r="Q8" s="17" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="T8" s="22" t="n">
         <v>10</v>
       </c>
-      <c r="U8" s="43" t="b">
+      <c r="U8" s="37" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -4607,16 +4574,16 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="46.25" outlineLevel="0" r="12">
       <c r="A12" s="22" t="s">
+        <v>693</v>
+      </c>
+      <c r="B12" s="22" t="s">
         <v>694</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="C12" s="22" t="s">
         <v>695</v>
       </c>
-      <c r="C12" s="22" t="s">
+      <c r="D12" s="22" t="s">
         <v>696</v>
-      </c>
-      <c r="D12" s="22" t="s">
-        <v>697</v>
       </c>
       <c r="E12" s="17" t="s">
         <v>605</v>
@@ -4624,27 +4591,27 @@
       <c r="F12" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="G12" s="43" t="b">
+      <c r="G12" s="37" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H12" s="22" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="I12" s="22" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="J12" s="22" t="n">
         <v>2</v>
       </c>
       <c r="K12" s="22" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="L12" s="22" t="n">
         <v>2</v>
       </c>
       <c r="M12" s="22" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="N12" s="22" t="n">
         <v>10</v>
@@ -4658,7 +4625,7 @@
       <c r="T12" s="22" t="n">
         <v>10</v>
       </c>
-      <c r="U12" s="43" t="b">
+      <c r="U12" s="37" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -4713,16 +4680,16 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="113.4" outlineLevel="0" r="16">
       <c r="A16" s="22" t="s">
+        <v>698</v>
+      </c>
+      <c r="B16" s="22" t="s">
         <v>699</v>
       </c>
-      <c r="B16" s="22" t="s">
-        <v>700</v>
-      </c>
       <c r="C16" s="22" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="D16" s="22" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="E16" s="17" t="s">
         <v>594</v>
@@ -4730,27 +4697,27 @@
       <c r="F16" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="G16" s="43" t="b">
+      <c r="G16" s="37" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="H16" s="22" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="I16" s="22" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="J16" s="22" t="n">
         <v>2</v>
       </c>
       <c r="K16" s="22" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="L16" s="22" t="n">
         <v>2</v>
       </c>
       <c r="M16" s="22" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="N16" s="22" t="n">
         <v>10</v>
@@ -4762,12 +4729,12 @@
         <v>14</v>
       </c>
       <c r="S16" s="22" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="T16" s="22" t="n">
         <v>10</v>
       </c>
-      <c r="U16" s="43" t="b">
+      <c r="U16" s="37" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -4822,13 +4789,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="20">
       <c r="A20" s="22" t="s">
+        <v>702</v>
+      </c>
+      <c r="C20" s="22" t="s">
         <v>703</v>
       </c>
-      <c r="C20" s="22" t="s">
-        <v>704</v>
-      </c>
       <c r="D20" s="22" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="E20" s="17" t="s">
         <v>598</v>
@@ -4836,27 +4803,27 @@
       <c r="F20" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="G20" s="43" t="b">
+      <c r="G20" s="37" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H20" s="22" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="I20" s="22" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="J20" s="22" t="n">
         <v>2</v>
       </c>
       <c r="K20" s="22" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="L20" s="22" t="n">
         <v>2</v>
       </c>
       <c r="M20" s="22" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="N20" s="22" t="n">
         <v>10</v>
@@ -4868,18 +4835,18 @@
         <v>14</v>
       </c>
       <c r="Q20" s="17" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="R20" s="17" t="s">
         <v>381</v>
       </c>
       <c r="S20" s="22" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="T20" s="22" t="n">
         <v>10</v>
       </c>
-      <c r="U20" s="43" t="b">
+      <c r="U20" s="37" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -4940,13 +4907,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="24">
       <c r="A24" s="22" t="s">
+        <v>704</v>
+      </c>
+      <c r="C24" s="22" t="s">
         <v>705</v>
       </c>
-      <c r="C24" s="22" t="s">
-        <v>706</v>
-      </c>
       <c r="D24" s="22" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="E24" s="17" t="s">
         <v>607</v>
@@ -4954,27 +4921,27 @@
       <c r="F24" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="G24" s="43" t="b">
+      <c r="G24" s="37" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H24" s="22" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="I24" s="22" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="J24" s="22" t="n">
         <v>2</v>
       </c>
       <c r="K24" s="22" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="L24" s="22" t="n">
         <v>2</v>
       </c>
       <c r="M24" s="22" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="N24" s="22" t="n">
         <v>10</v>
@@ -4991,7 +4958,7 @@
       <c r="T24" s="22" t="n">
         <v>10</v>
       </c>
-      <c r="U24" s="43" t="b">
+      <c r="U24" s="37" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5049,13 +5016,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="28">
       <c r="A28" s="22" t="s">
+        <v>706</v>
+      </c>
+      <c r="C28" s="22" t="s">
         <v>707</v>
       </c>
-      <c r="C28" s="22" t="s">
-        <v>708</v>
-      </c>
       <c r="D28" s="22" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="E28" s="17" t="s">
         <v>607</v>
@@ -5063,27 +5030,27 @@
       <c r="F28" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="G28" s="43" t="b">
+      <c r="G28" s="37" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H28" s="22" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="I28" s="22" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="J28" s="22" t="n">
         <v>2</v>
       </c>
       <c r="K28" s="22" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="L28" s="22" t="n">
         <v>2</v>
       </c>
       <c r="M28" s="22" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="N28" s="22" t="n">
         <v>10</v>
@@ -5098,12 +5065,12 @@
         <v>423</v>
       </c>
       <c r="S28" s="22" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="T28" s="22" t="n">
         <v>10</v>
       </c>
-      <c r="U28" s="43" t="b">
+      <c r="U28" s="37" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5161,13 +5128,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="32">
       <c r="A32" s="22" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C32" s="22" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="D32" s="22" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="E32" s="17" t="s">
         <v>607</v>
@@ -5175,27 +5142,27 @@
       <c r="F32" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="G32" s="43" t="b">
+      <c r="G32" s="37" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H32" s="22" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="I32" s="22" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="J32" s="22" t="n">
         <v>2</v>
       </c>
       <c r="K32" s="22" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="L32" s="22" t="n">
         <v>2</v>
       </c>
       <c r="M32" s="22" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="N32" s="22" t="n">
         <v>10</v>
@@ -5209,7 +5176,7 @@
       <c r="T32" s="22" t="n">
         <v>10</v>
       </c>
-      <c r="U32" s="43" t="b">
+      <c r="U32" s="37" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5264,13 +5231,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="36">
       <c r="A36" s="22" t="s">
+        <v>709</v>
+      </c>
+      <c r="C36" s="22" t="s">
         <v>710</v>
       </c>
-      <c r="C36" s="22" t="s">
-        <v>711</v>
-      </c>
       <c r="D36" s="22" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="E36" s="17" t="s">
         <v>594</v>
@@ -5278,27 +5245,27 @@
       <c r="F36" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="G36" s="43" t="b">
+      <c r="G36" s="37" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H36" s="22" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="I36" s="22" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="J36" s="22" t="n">
         <v>2</v>
       </c>
       <c r="K36" s="22" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="L36" s="22" t="n">
         <v>2</v>
       </c>
       <c r="M36" s="22" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="N36" s="22" t="n">
         <v>10</v>
@@ -5312,7 +5279,7 @@
       <c r="T36" s="22" t="n">
         <v>10</v>
       </c>
-      <c r="U36" s="43" t="b">
+      <c r="U36" s="37" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5367,13 +5334,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="40">
       <c r="A40" s="22" t="s">
+        <v>712</v>
+      </c>
+      <c r="C40" s="22" t="s">
         <v>713</v>
       </c>
-      <c r="C40" s="22" t="s">
-        <v>714</v>
-      </c>
       <c r="D40" s="22" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="E40" s="17" t="s">
         <v>598</v>
@@ -5381,27 +5348,27 @@
       <c r="F40" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="G40" s="43" t="b">
+      <c r="G40" s="37" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H40" s="22" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="I40" s="22" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="J40" s="22" t="n">
         <v>2</v>
       </c>
       <c r="K40" s="22" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="L40" s="22" t="n">
         <v>2</v>
       </c>
       <c r="M40" s="22" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="N40" s="22" t="n">
         <v>10</v>
@@ -5413,7 +5380,7 @@
         <v>14</v>
       </c>
       <c r="Q40" s="17" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="R40" s="17" t="s">
         <v>381</v>
@@ -5421,7 +5388,7 @@
       <c r="T40" s="22" t="n">
         <v>10</v>
       </c>
-      <c r="U40" s="43" t="b">
+      <c r="U40" s="37" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5482,13 +5449,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="44">
       <c r="A44" s="22" t="s">
+        <v>714</v>
+      </c>
+      <c r="C44" s="22" t="s">
         <v>715</v>
       </c>
-      <c r="C44" s="22" t="s">
-        <v>716</v>
-      </c>
       <c r="D44" s="22" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="E44" s="17" t="s">
         <v>594</v>
@@ -5496,27 +5463,27 @@
       <c r="F44" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="G44" s="43" t="b">
+      <c r="G44" s="37" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H44" s="22" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="I44" s="22" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="J44" s="22" t="n">
         <v>2</v>
       </c>
       <c r="K44" s="22" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="L44" s="22" t="n">
         <v>2</v>
       </c>
       <c r="M44" s="22" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="N44" s="22" t="n">
         <v>10</v>
@@ -5528,12 +5495,12 @@
         <v>14</v>
       </c>
       <c r="Q44" s="17" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="T44" s="22" t="n">
         <v>10</v>
       </c>
-      <c r="U44" s="43" t="b">
+      <c r="U44" s="37" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5591,13 +5558,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="48">
       <c r="A48" s="22" t="s">
+        <v>716</v>
+      </c>
+      <c r="C48" s="22" t="s">
         <v>717</v>
       </c>
-      <c r="C48" s="22" t="s">
-        <v>718</v>
-      </c>
       <c r="D48" s="22" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="E48" s="17" t="s">
         <v>596</v>
@@ -5605,27 +5572,27 @@
       <c r="F48" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="G48" s="43" t="b">
+      <c r="G48" s="37" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="H48" s="22" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="I48" s="22" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="J48" s="22" t="n">
         <v>2</v>
       </c>
       <c r="K48" s="22" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="L48" s="22" t="n">
         <v>2</v>
       </c>
       <c r="M48" s="22" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="N48" s="22" t="n">
         <v>10</v>
@@ -5637,12 +5604,12 @@
         <v>14</v>
       </c>
       <c r="S48" s="22" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="T48" s="22" t="n">
         <v>10</v>
       </c>
-      <c r="U48" s="43" t="b">
+      <c r="U48" s="37" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5697,13 +5664,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="52">
       <c r="A52" s="22" t="s">
+        <v>719</v>
+      </c>
+      <c r="C52" s="22" t="s">
         <v>720</v>
       </c>
-      <c r="C52" s="22" t="s">
-        <v>721</v>
-      </c>
       <c r="D52" s="22" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="E52" s="17" t="s">
         <v>596</v>
@@ -5711,27 +5678,27 @@
       <c r="F52" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="G52" s="43" t="b">
+      <c r="G52" s="37" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="H52" s="22" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="I52" s="22" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="J52" s="22" t="n">
         <v>2</v>
       </c>
       <c r="K52" s="22" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="L52" s="22" t="n">
         <v>2</v>
       </c>
       <c r="M52" s="22" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="N52" s="22" t="n">
         <v>10</v>
@@ -5743,12 +5710,12 @@
         <v>14</v>
       </c>
       <c r="S52" s="22" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="T52" s="22" t="n">
         <v>10</v>
       </c>
-      <c r="U52" s="43" t="b">
+      <c r="U52" s="37" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -5803,13 +5770,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="56">
       <c r="A56" s="22" t="s">
+        <v>722</v>
+      </c>
+      <c r="C56" s="22" t="s">
         <v>723</v>
       </c>
-      <c r="C56" s="22" t="s">
-        <v>724</v>
-      </c>
       <c r="D56" s="22" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="E56" s="17" t="s">
         <v>596</v>
@@ -5817,27 +5784,27 @@
       <c r="F56" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="G56" s="43" t="b">
+      <c r="G56" s="37" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="H56" s="22" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="I56" s="22" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="J56" s="22" t="n">
         <v>2</v>
       </c>
       <c r="K56" s="22" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="L56" s="22" t="n">
         <v>2</v>
       </c>
       <c r="M56" s="22" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="N56" s="22" t="n">
         <v>10</v>
@@ -5851,7 +5818,7 @@
       <c r="T56" s="22" t="n">
         <v>10</v>
       </c>
-      <c r="U56" s="43" t="b">
+      <c r="U56" s="37" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -5906,13 +5873,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="60">
       <c r="A60" s="22" t="s">
+        <v>724</v>
+      </c>
+      <c r="C60" s="22" t="s">
         <v>725</v>
       </c>
-      <c r="C60" s="22" t="s">
-        <v>726</v>
-      </c>
       <c r="D60" s="22" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="E60" s="17" t="s">
         <v>596</v>
@@ -5920,27 +5887,27 @@
       <c r="F60" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="G60" s="43" t="b">
+      <c r="G60" s="37" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="H60" s="22" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="I60" s="22" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="J60" s="22" t="n">
         <v>2</v>
       </c>
       <c r="K60" s="22" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="L60" s="22" t="n">
         <v>2</v>
       </c>
       <c r="M60" s="22" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="N60" s="22" t="n">
         <v>10</v>
@@ -5952,12 +5919,12 @@
         <v>14</v>
       </c>
       <c r="S60" s="22" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="T60" s="22" t="n">
         <v>10</v>
       </c>
-      <c r="U60" s="43" t="b">
+      <c r="U60" s="37" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -6010,15 +5977,15 @@
         <v>0.4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="24.25" outlineLevel="0" r="64">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="64">
       <c r="A64" s="22" t="s">
+        <v>727</v>
+      </c>
+      <c r="C64" s="22" t="s">
         <v>728</v>
       </c>
-      <c r="C64" s="22" t="s">
-        <v>729</v>
-      </c>
       <c r="D64" s="22" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="E64" s="17" t="s">
         <v>598</v>
@@ -6026,27 +5993,27 @@
       <c r="F64" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="G64" s="43" t="b">
+      <c r="G64" s="37" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H64" s="22" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="I64" s="22" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="J64" s="22" t="n">
         <v>2</v>
       </c>
       <c r="K64" s="22" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="L64" s="22" t="n">
         <v>2</v>
       </c>
       <c r="M64" s="22" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="N64" s="22" t="n">
         <v>10</v>
@@ -6063,7 +6030,7 @@
       <c r="T64" s="22" t="n">
         <v>10</v>
       </c>
-      <c r="U64" s="43" t="b">
+      <c r="U64" s="37" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -6121,13 +6088,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="68">
       <c r="A68" s="22" t="s">
+        <v>729</v>
+      </c>
+      <c r="C68" s="22" t="s">
         <v>730</v>
       </c>
-      <c r="C68" s="22" t="s">
-        <v>731</v>
-      </c>
       <c r="D68" s="22" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="E68" s="17" t="s">
         <v>598</v>
@@ -6135,27 +6102,27 @@
       <c r="F68" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="G68" s="43" t="b">
+      <c r="G68" s="37" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H68" s="22" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="I68" s="22" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="J68" s="22" t="n">
         <v>2</v>
       </c>
       <c r="K68" s="22" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="L68" s="22" t="n">
         <v>2</v>
       </c>
       <c r="M68" s="22" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="N68" s="22" t="n">
         <v>10</v>
@@ -6167,7 +6134,7 @@
         <v>14</v>
       </c>
       <c r="Q68" s="17" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="R68" s="17" t="s">
         <v>381</v>
@@ -6175,7 +6142,7 @@
       <c r="T68" s="22" t="n">
         <v>10</v>
       </c>
-      <c r="U68" s="43" t="b">
+      <c r="U68" s="37" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -6236,13 +6203,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="72">
       <c r="A72" s="22" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="C72" s="22" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="D72" s="22" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="E72" s="17" t="s">
         <v>603</v>
@@ -6250,27 +6217,27 @@
       <c r="F72" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="G72" s="43" t="b">
+      <c r="G72" s="37" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H72" s="22" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="I72" s="22" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="J72" s="22" t="n">
         <v>2</v>
       </c>
       <c r="K72" s="22" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="L72" s="22" t="n">
         <v>2</v>
       </c>
       <c r="M72" s="22" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="N72" s="22" t="n">
         <v>10</v>
@@ -6282,12 +6249,12 @@
         <v>14</v>
       </c>
       <c r="S72" s="22" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="T72" s="22" t="n">
         <v>10</v>
       </c>
-      <c r="U72" s="43" t="b">
+      <c r="U72" s="37" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -6342,13 +6309,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="76">
       <c r="A76" s="22" t="s">
+        <v>732</v>
+      </c>
+      <c r="C76" s="22" t="s">
         <v>733</v>
       </c>
-      <c r="C76" s="22" t="s">
-        <v>734</v>
-      </c>
       <c r="D76" s="22" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="E76" s="17" t="s">
         <v>598</v>
@@ -6356,27 +6323,27 @@
       <c r="F76" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="G76" s="43" t="b">
+      <c r="G76" s="37" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H76" s="22" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="I76" s="22" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="J76" s="22" t="n">
         <v>2</v>
       </c>
       <c r="K76" s="22" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="L76" s="22" t="n">
         <v>2</v>
       </c>
       <c r="M76" s="22" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="N76" s="22" t="n">
         <v>10</v>
@@ -6388,7 +6355,7 @@
         <v>14</v>
       </c>
       <c r="Q76" s="17" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="R76" s="17" t="s">
         <v>381</v>
@@ -6396,7 +6363,7 @@
       <c r="T76" s="22" t="n">
         <v>10</v>
       </c>
-      <c r="U76" s="43" t="b">
+      <c r="U76" s="37" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -6457,13 +6424,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="80">
       <c r="A80" s="22" t="s">
+        <v>734</v>
+      </c>
+      <c r="C80" s="22" t="s">
         <v>735</v>
       </c>
-      <c r="C80" s="22" t="s">
-        <v>736</v>
-      </c>
       <c r="D80" s="22" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="E80" s="17" t="s">
         <v>598</v>
@@ -6471,27 +6438,27 @@
       <c r="F80" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="G80" s="43" t="b">
+      <c r="G80" s="37" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H80" s="22" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="I80" s="22" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="J80" s="22" t="n">
         <v>2</v>
       </c>
       <c r="K80" s="22" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="L80" s="22" t="n">
         <v>2</v>
       </c>
       <c r="M80" s="22" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="N80" s="22" t="n">
         <v>10</v>
@@ -6503,7 +6470,7 @@
         <v>14</v>
       </c>
       <c r="Q80" s="17" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="R80" s="17" t="s">
         <v>381</v>
@@ -6511,7 +6478,7 @@
       <c r="T80" s="22" t="n">
         <v>10</v>
       </c>
-      <c r="U80" s="43" t="b">
+      <c r="U80" s="37" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -6572,16 +6539,16 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="79.85" outlineLevel="0" r="84">
       <c r="A84" s="22" t="s">
+        <v>736</v>
+      </c>
+      <c r="B84" s="22" t="s">
         <v>737</v>
       </c>
-      <c r="B84" s="22" t="s">
+      <c r="C84" s="22" t="s">
         <v>738</v>
       </c>
-      <c r="C84" s="22" t="s">
-        <v>739</v>
-      </c>
       <c r="D84" s="22" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="E84" s="17" t="s">
         <v>601</v>
@@ -6589,27 +6556,27 @@
       <c r="F84" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="G84" s="43" t="b">
+      <c r="G84" s="37" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H84" s="22" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="I84" s="22" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="J84" s="22" t="n">
         <v>2</v>
       </c>
       <c r="K84" s="22" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="L84" s="22" t="n">
         <v>2</v>
       </c>
       <c r="M84" s="22" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="N84" s="22" t="n">
         <v>10</v>
@@ -6621,12 +6588,12 @@
         <v>14</v>
       </c>
       <c r="S84" s="22" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="T84" s="22" t="n">
         <v>10</v>
       </c>
-      <c r="U84" s="43" t="b">
+      <c r="U84" s="37" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -6681,13 +6648,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="88">
       <c r="A88" s="22" t="s">
+        <v>739</v>
+      </c>
+      <c r="C88" s="22" t="s">
         <v>740</v>
       </c>
-      <c r="C88" s="22" t="s">
-        <v>741</v>
-      </c>
       <c r="D88" s="22" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="E88" s="17" t="s">
         <v>598</v>
@@ -6695,27 +6662,27 @@
       <c r="F88" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="G88" s="43" t="b">
+      <c r="G88" s="37" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H88" s="22" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="I88" s="22" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="J88" s="22" t="n">
         <v>2</v>
       </c>
       <c r="K88" s="22" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="L88" s="22" t="n">
         <v>2</v>
       </c>
       <c r="M88" s="22" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="N88" s="22" t="n">
         <v>10</v>
@@ -6729,7 +6696,7 @@
       <c r="T88" s="22" t="n">
         <v>10</v>
       </c>
-      <c r="U88" s="43" t="b">
+      <c r="U88" s="37" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -6784,13 +6751,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="92">
       <c r="A92" s="22" t="s">
+        <v>741</v>
+      </c>
+      <c r="C92" s="22" t="s">
         <v>742</v>
       </c>
-      <c r="C92" s="22" t="s">
-        <v>743</v>
-      </c>
       <c r="D92" s="22" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="E92" s="17" t="s">
         <v>598</v>
@@ -6798,27 +6765,27 @@
       <c r="F92" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="G92" s="43" t="b">
+      <c r="G92" s="37" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H92" s="22" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="I92" s="22" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="J92" s="22" t="n">
         <v>2</v>
       </c>
       <c r="K92" s="22" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="L92" s="22" t="n">
         <v>2</v>
       </c>
       <c r="M92" s="22" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="N92" s="22" t="n">
         <v>10</v>
@@ -6830,7 +6797,7 @@
         <v>14</v>
       </c>
       <c r="Q92" s="17" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="R92" s="17" t="s">
         <v>381</v>
@@ -6838,7 +6805,7 @@
       <c r="T92" s="22" t="n">
         <v>10</v>
       </c>
-      <c r="U92" s="43" t="b">
+      <c r="U92" s="37" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -6899,13 +6866,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="96">
       <c r="A96" s="22" t="s">
+        <v>743</v>
+      </c>
+      <c r="C96" s="22" t="s">
         <v>744</v>
       </c>
-      <c r="C96" s="22" t="s">
-        <v>745</v>
-      </c>
       <c r="D96" s="22" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="E96" s="17" t="s">
         <v>594</v>
@@ -6913,24 +6880,24 @@
       <c r="F96" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="G96" s="43" t="b">
+      <c r="G96" s="37" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H96" s="22" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="J96" s="22" t="n">
         <v>2</v>
       </c>
       <c r="K96" s="22" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="L96" s="22" t="n">
         <v>2</v>
       </c>
       <c r="M96" s="22" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="N96" s="22" t="n">
         <v>10</v>
@@ -6942,12 +6909,12 @@
         <v>14</v>
       </c>
       <c r="Q96" s="17" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="T96" s="22" t="n">
         <v>10</v>
       </c>
-      <c r="U96" s="43" t="b">
+      <c r="U96" s="37" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -7005,13 +6972,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="100">
       <c r="A100" s="22" t="s">
+        <v>745</v>
+      </c>
+      <c r="C100" s="22" t="s">
         <v>746</v>
       </c>
-      <c r="C100" s="22" t="s">
-        <v>747</v>
-      </c>
       <c r="D100" s="22" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="E100" s="17" t="s">
         <v>594</v>
@@ -7019,27 +6986,27 @@
       <c r="F100" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="G100" s="43" t="b">
+      <c r="G100" s="37" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H100" s="22" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="I100" s="22" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="J100" s="22" t="n">
         <v>2</v>
       </c>
       <c r="K100" s="22" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="L100" s="22" t="n">
         <v>2</v>
       </c>
       <c r="M100" s="22" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="N100" s="22" t="n">
         <v>10</v>
@@ -7053,7 +7020,7 @@
       <c r="T100" s="22" t="n">
         <v>10</v>
       </c>
-      <c r="U100" s="43" t="b">
+      <c r="U100" s="37" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -7106,15 +7073,15 @@
         <v>0.4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="104">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="104">
       <c r="A104" s="22" t="s">
+        <v>747</v>
+      </c>
+      <c r="C104" s="22" t="s">
         <v>748</v>
       </c>
-      <c r="C104" s="22" t="s">
-        <v>749</v>
-      </c>
       <c r="D104" s="22" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="E104" s="17" t="s">
         <v>603</v>
@@ -7122,27 +7089,27 @@
       <c r="F104" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="G104" s="43" t="b">
+      <c r="G104" s="37" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H104" s="22" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="I104" s="22" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="J104" s="22" t="n">
         <v>2</v>
       </c>
       <c r="K104" s="22" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="L104" s="22" t="n">
         <v>2</v>
       </c>
       <c r="M104" s="22" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="N104" s="22" t="n">
         <v>10</v>
@@ -7159,7 +7126,7 @@
       <c r="T104" s="22" t="n">
         <v>10</v>
       </c>
-      <c r="U104" s="43" t="b">
+      <c r="U104" s="37" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -7212,15 +7179,15 @@
         <v>0.4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="108">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="108">
       <c r="A108" s="22" t="s">
+        <v>749</v>
+      </c>
+      <c r="C108" s="22" t="s">
         <v>750</v>
       </c>
-      <c r="C108" s="22" t="s">
-        <v>751</v>
-      </c>
       <c r="D108" s="22" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="E108" s="17" t="s">
         <v>603</v>
@@ -7228,27 +7195,27 @@
       <c r="F108" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="G108" s="43" t="b">
+      <c r="G108" s="37" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H108" s="22" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="I108" s="22" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="J108" s="22" t="n">
         <v>2</v>
       </c>
       <c r="K108" s="22" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="L108" s="22" t="n">
         <v>2</v>
       </c>
       <c r="M108" s="22" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="N108" s="22" t="n">
         <v>10</v>
@@ -7263,12 +7230,12 @@
         <v>418</v>
       </c>
       <c r="S108" s="22" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="T108" s="22" t="n">
         <v>10</v>
       </c>
-      <c r="U108" s="43" t="b">
+      <c r="U108" s="37" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -7323,16 +7290,16 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="112">
       <c r="A112" s="22" t="s">
+        <v>751</v>
+      </c>
+      <c r="B112" s="22" t="s">
         <v>752</v>
       </c>
-      <c r="B112" s="22" t="s">
+      <c r="C112" s="22" t="s">
         <v>753</v>
       </c>
-      <c r="C112" s="22" t="s">
-        <v>754</v>
-      </c>
       <c r="D112" s="22" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="E112" s="17" t="s">
         <v>603</v>
@@ -7340,27 +7307,27 @@
       <c r="F112" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="G112" s="43" t="b">
+      <c r="G112" s="37" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H112" s="22" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="I112" s="22" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="J112" s="22" t="n">
         <v>2</v>
       </c>
       <c r="K112" s="22" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="L112" s="22" t="n">
         <v>2</v>
       </c>
       <c r="M112" s="22" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="N112" s="22" t="n">
         <v>10</v>
@@ -7377,7 +7344,7 @@
       <c r="T112" s="22" t="n">
         <v>10</v>
       </c>
-      <c r="U112" s="43" t="b">
+      <c r="U112" s="37" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -7432,16 +7399,16 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="147" outlineLevel="0" r="116">
       <c r="A116" s="22" t="s">
+        <v>754</v>
+      </c>
+      <c r="B116" s="22" t="s">
         <v>755</v>
       </c>
-      <c r="B116" s="22" t="s">
+      <c r="C116" s="22" t="s">
         <v>756</v>
       </c>
-      <c r="C116" s="22" t="s">
-        <v>757</v>
-      </c>
       <c r="D116" s="22" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="E116" s="17" t="s">
         <v>603</v>
@@ -7449,27 +7416,27 @@
       <c r="F116" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="G116" s="43" t="b">
+      <c r="G116" s="37" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H116" s="22" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="I116" s="22" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="J116" s="22" t="n">
         <v>2</v>
       </c>
       <c r="K116" s="22" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="L116" s="22" t="n">
         <v>2</v>
       </c>
       <c r="M116" s="22" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="N116" s="22" t="n">
         <v>10</v>
@@ -7486,7 +7453,7 @@
       <c r="T116" s="22" t="n">
         <v>10</v>
       </c>
-      <c r="U116" s="43" t="b">
+      <c r="U116" s="37" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -7539,15 +7506,15 @@
         <v>0.4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="120">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="120">
       <c r="A120" s="22" t="s">
+        <v>757</v>
+      </c>
+      <c r="C120" s="22" t="s">
         <v>758</v>
       </c>
-      <c r="C120" s="22" t="s">
-        <v>759</v>
-      </c>
       <c r="D120" s="22" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="E120" s="17" t="s">
         <v>603</v>
@@ -7555,27 +7522,27 @@
       <c r="F120" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="G120" s="43" t="b">
+      <c r="G120" s="37" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H120" s="22" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="I120" s="22" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="J120" s="22" t="n">
         <v>2</v>
       </c>
       <c r="K120" s="22" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="L120" s="22" t="n">
         <v>2</v>
       </c>
       <c r="M120" s="22" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="N120" s="22" t="n">
         <v>10</v>
@@ -7592,7 +7559,7 @@
       <c r="T120" s="22" t="n">
         <v>10</v>
       </c>
-      <c r="U120" s="43" t="b">
+      <c r="U120" s="37" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -7647,13 +7614,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="124">
       <c r="A124" s="22" t="s">
+        <v>759</v>
+      </c>
+      <c r="C124" s="22" t="s">
         <v>760</v>
       </c>
-      <c r="C124" s="22" t="s">
-        <v>761</v>
-      </c>
       <c r="D124" s="22" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="E124" s="17" t="s">
         <v>598</v>
@@ -7661,27 +7628,27 @@
       <c r="F124" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="G124" s="43" t="b">
+      <c r="G124" s="37" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H124" s="22" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="I124" s="22" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="J124" s="22" t="n">
         <v>2</v>
       </c>
       <c r="K124" s="22" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="L124" s="22" t="n">
         <v>2</v>
       </c>
       <c r="M124" s="22" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="N124" s="22" t="n">
         <v>10</v>
@@ -7693,7 +7660,7 @@
         <v>14</v>
       </c>
       <c r="Q124" s="17" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="R124" s="17" t="s">
         <v>381</v>
@@ -7701,7 +7668,7 @@
       <c r="T124" s="22" t="n">
         <v>10</v>
       </c>
-      <c r="U124" s="43" t="b">
+      <c r="U124" s="37" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -7762,13 +7729,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="128">
       <c r="A128" s="22" t="s">
+        <v>761</v>
+      </c>
+      <c r="C128" s="22" t="s">
         <v>762</v>
       </c>
-      <c r="C128" s="22" t="s">
-        <v>763</v>
-      </c>
       <c r="D128" s="22" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="E128" s="17" t="s">
         <v>596</v>
@@ -7776,27 +7743,27 @@
       <c r="F128" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="G128" s="43" t="b">
+      <c r="G128" s="37" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H128" s="22" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="I128" s="22" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="J128" s="22" t="n">
         <v>2</v>
       </c>
       <c r="K128" s="22" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="L128" s="22" t="n">
         <v>2</v>
       </c>
       <c r="M128" s="22" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="N128" s="22" t="n">
         <v>10</v>
@@ -7810,7 +7777,7 @@
       <c r="T128" s="22" t="n">
         <v>10</v>
       </c>
-      <c r="U128" s="43" t="b">
+      <c r="U128" s="37" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -7865,16 +7832,16 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="132">
       <c r="A132" s="22" t="s">
+        <v>763</v>
+      </c>
+      <c r="B132" s="22" t="s">
         <v>764</v>
       </c>
-      <c r="B132" s="22" t="s">
+      <c r="C132" s="22" t="s">
         <v>765</v>
       </c>
-      <c r="C132" s="22" t="s">
-        <v>766</v>
-      </c>
       <c r="D132" s="22" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="E132" s="17" t="s">
         <v>596</v>
@@ -7882,27 +7849,27 @@
       <c r="F132" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="G132" s="43" t="b">
+      <c r="G132" s="37" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H132" s="22" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="I132" s="22" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="J132" s="22" t="n">
         <v>2</v>
       </c>
       <c r="K132" s="22" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="L132" s="22" t="n">
         <v>2</v>
       </c>
       <c r="M132" s="22" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="N132" s="22" t="n">
         <v>10</v>
@@ -7914,12 +7881,12 @@
         <v>14</v>
       </c>
       <c r="Q132" s="17" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="T132" s="22" t="n">
         <v>10</v>
       </c>
-      <c r="U132" s="43" t="b">
+      <c r="U132" s="37" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -7977,13 +7944,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="136">
       <c r="A136" s="22" t="s">
+        <v>766</v>
+      </c>
+      <c r="C136" s="22" t="s">
         <v>767</v>
       </c>
-      <c r="C136" s="22" t="s">
-        <v>768</v>
-      </c>
       <c r="D136" s="22" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="E136" s="17" t="s">
         <v>594</v>
@@ -7991,27 +7958,27 @@
       <c r="F136" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="G136" s="43" t="b">
+      <c r="G136" s="37" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H136" s="22" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="I136" s="22" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="J136" s="22" t="n">
         <v>2</v>
       </c>
       <c r="K136" s="22" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="L136" s="22" t="n">
         <v>2</v>
       </c>
       <c r="M136" s="22" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="N136" s="22" t="n">
         <v>10</v>
@@ -8023,7 +7990,7 @@
         <v>14</v>
       </c>
       <c r="Q136" s="17" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="R136" s="17" t="s">
         <v>381</v>
@@ -8031,7 +7998,7 @@
       <c r="T136" s="22" t="n">
         <v>10</v>
       </c>
-      <c r="U136" s="43" t="b">
+      <c r="U136" s="37" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -8092,16 +8059,16 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="140">
       <c r="A140" s="22" t="s">
+        <v>768</v>
+      </c>
+      <c r="B140" s="22" t="s">
         <v>769</v>
       </c>
-      <c r="B140" s="22" t="s">
+      <c r="C140" s="22" t="s">
         <v>770</v>
       </c>
-      <c r="C140" s="22" t="s">
-        <v>771</v>
-      </c>
       <c r="D140" s="22" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="E140" s="17" t="s">
         <v>607</v>
@@ -8109,27 +8076,27 @@
       <c r="F140" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="G140" s="43" t="b">
+      <c r="G140" s="37" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H140" s="22" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="I140" s="22" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="J140" s="22" t="n">
         <v>2</v>
       </c>
       <c r="K140" s="22" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="L140" s="22" t="n">
         <v>2</v>
       </c>
       <c r="M140" s="22" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="N140" s="22" t="n">
         <v>10</v>
@@ -8143,7 +8110,7 @@
       <c r="T140" s="22" t="n">
         <v>10</v>
       </c>
-      <c r="U140" s="43" t="b">
+      <c r="U140" s="37" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -8198,13 +8165,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="144">
       <c r="A144" s="22" t="s">
+        <v>771</v>
+      </c>
+      <c r="C144" s="22" t="s">
         <v>772</v>
       </c>
-      <c r="C144" s="22" t="s">
-        <v>773</v>
-      </c>
       <c r="D144" s="22" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="E144" s="17" t="s">
         <v>607</v>
@@ -8212,27 +8179,27 @@
       <c r="F144" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="G144" s="43" t="b">
+      <c r="G144" s="37" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H144" s="22" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="I144" s="22" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="J144" s="22" t="n">
         <v>2</v>
       </c>
       <c r="K144" s="22" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="L144" s="22" t="n">
         <v>2</v>
       </c>
       <c r="M144" s="22" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="N144" s="22" t="n">
         <v>10</v>
@@ -8246,7 +8213,7 @@
       <c r="T144" s="22" t="n">
         <v>10</v>
       </c>
-      <c r="U144" s="43" t="b">
+      <c r="U144" s="37" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -8301,13 +8268,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="148">
       <c r="A148" s="22" t="s">
+        <v>773</v>
+      </c>
+      <c r="C148" s="22" t="s">
         <v>774</v>
       </c>
-      <c r="C148" s="22" t="s">
-        <v>775</v>
-      </c>
       <c r="D148" s="22" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="E148" s="17" t="s">
         <v>607</v>
@@ -8315,27 +8282,27 @@
       <c r="F148" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="G148" s="43" t="b">
+      <c r="G148" s="37" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H148" s="22" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="I148" s="22" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="J148" s="22" t="n">
         <v>2</v>
       </c>
       <c r="K148" s="22" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="L148" s="22" t="n">
         <v>2</v>
       </c>
       <c r="M148" s="22" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="N148" s="22" t="n">
         <v>10</v>
@@ -8349,7 +8316,7 @@
       <c r="T148" s="22" t="n">
         <v>10</v>
       </c>
-      <c r="U148" s="43" t="b">
+      <c r="U148" s="37" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -8404,13 +8371,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="152">
       <c r="A152" s="22" t="s">
+        <v>775</v>
+      </c>
+      <c r="C152" s="22" t="s">
         <v>776</v>
       </c>
-      <c r="C152" s="22" t="s">
-        <v>777</v>
-      </c>
       <c r="D152" s="22" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="E152" s="17" t="s">
         <v>607</v>
@@ -8418,27 +8385,27 @@
       <c r="F152" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="G152" s="43" t="b">
+      <c r="G152" s="37" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H152" s="22" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="I152" s="22" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="J152" s="22" t="n">
         <v>2</v>
       </c>
       <c r="K152" s="22" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="L152" s="22" t="n">
         <v>2</v>
       </c>
       <c r="M152" s="22" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="N152" s="22" t="n">
         <v>10</v>
@@ -8452,7 +8419,7 @@
       <c r="T152" s="22" t="n">
         <v>10</v>
       </c>
-      <c r="U152" s="43" t="b">
+      <c r="U152" s="37" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -8507,13 +8474,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="156">
       <c r="A156" s="22" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="C156" s="22" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="D156" s="22" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="E156" s="17" t="s">
         <v>594</v>
@@ -8521,27 +8488,27 @@
       <c r="F156" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="G156" s="43" t="b">
+      <c r="G156" s="37" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H156" s="22" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="I156" s="22" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="J156" s="22" t="n">
         <v>2</v>
       </c>
       <c r="K156" s="22" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="L156" s="22" t="n">
         <v>2</v>
       </c>
       <c r="M156" s="22" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="N156" s="22" t="n">
         <v>10</v>
@@ -8558,7 +8525,7 @@
       <c r="T156" s="22" t="n">
         <v>10</v>
       </c>
-      <c r="U156" s="43" t="b">
+      <c r="U156" s="37" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -8616,13 +8583,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="160">
       <c r="A160" s="22" t="s">
+        <v>778</v>
+      </c>
+      <c r="C160" s="22" t="s">
         <v>779</v>
       </c>
-      <c r="C160" s="22" t="s">
-        <v>780</v>
-      </c>
       <c r="D160" s="22" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="E160" s="17" t="s">
         <v>598</v>
@@ -8630,27 +8597,27 @@
       <c r="F160" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="G160" s="43" t="b">
+      <c r="G160" s="37" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H160" s="22" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="I160" s="22" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="J160" s="22" t="n">
         <v>2</v>
       </c>
       <c r="K160" s="22" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="L160" s="22" t="n">
         <v>2</v>
       </c>
       <c r="M160" s="22" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="N160" s="22" t="n">
         <v>10</v>
@@ -8662,7 +8629,7 @@
         <v>14</v>
       </c>
       <c r="Q160" s="17" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="R160" s="17" t="s">
         <v>381</v>
@@ -8670,7 +8637,7 @@
       <c r="T160" s="22" t="n">
         <v>10</v>
       </c>
-      <c r="U160" s="43" t="b">
+      <c r="U160" s="37" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -8731,16 +8698,16 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="46.25" outlineLevel="0" r="164">
       <c r="A164" s="22" t="s">
+        <v>780</v>
+      </c>
+      <c r="B164" s="22" t="s">
         <v>781</v>
       </c>
-      <c r="B164" s="22" t="s">
+      <c r="C164" s="22" t="s">
         <v>782</v>
       </c>
-      <c r="C164" s="22" t="s">
-        <v>783</v>
-      </c>
       <c r="D164" s="22" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="E164" s="17" t="s">
         <v>594</v>
@@ -8748,44 +8715,44 @@
       <c r="F164" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="G164" s="43" t="b">
+      <c r="G164" s="37" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H164" s="22" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="I164" s="22" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="J164" s="22" t="n">
         <v>2</v>
       </c>
       <c r="K164" s="22" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="L164" s="22" t="n">
         <v>2</v>
       </c>
       <c r="M164" s="22" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="N164" s="22" t="n">
         <v>10</v>
       </c>
       <c r="O164" s="22" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="P164" s="22" t="n">
         <v>14</v>
       </c>
       <c r="S164" s="22" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="T164" s="22" t="n">
         <v>10</v>
       </c>
-      <c r="U164" s="43" t="b">
+      <c r="U164" s="37" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -8837,16 +8804,16 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="57.45" outlineLevel="0" r="168">
       <c r="A168" s="22" t="s">
+        <v>784</v>
+      </c>
+      <c r="B168" s="22" t="s">
         <v>785</v>
       </c>
-      <c r="B168" s="22" t="s">
+      <c r="C168" s="22" t="s">
         <v>786</v>
       </c>
-      <c r="C168" s="22" t="s">
-        <v>787</v>
-      </c>
       <c r="D168" s="22" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="E168" s="22" t="s">
         <v>596</v>
@@ -8854,44 +8821,44 @@
       <c r="F168" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="G168" s="43" t="b">
+      <c r="G168" s="37" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="H168" s="22" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="I168" s="22" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="J168" s="22" t="n">
         <v>2</v>
       </c>
       <c r="K168" s="22" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="L168" s="22" t="n">
         <v>2</v>
       </c>
       <c r="M168" s="22" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="N168" s="22" t="n">
         <v>10</v>
       </c>
       <c r="O168" s="22" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="P168" s="22" t="n">
         <v>14</v>
       </c>
       <c r="S168" s="22" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="T168" s="22" t="n">
         <v>10</v>
       </c>
-      <c r="U168" s="43" t="b">
+      <c r="U168" s="37" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -8940,16 +8907,16 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="172">
       <c r="A172" s="22" t="s">
+        <v>789</v>
+      </c>
+      <c r="B172" s="22" t="s">
         <v>790</v>
       </c>
-      <c r="B172" s="22" t="s">
+      <c r="C172" s="22" t="s">
         <v>791</v>
       </c>
-      <c r="C172" s="22" t="s">
-        <v>792</v>
-      </c>
       <c r="D172" s="22" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="E172" s="22" t="s">
         <v>596</v>
@@ -8957,44 +8924,44 @@
       <c r="F172" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="G172" s="43" t="b">
+      <c r="G172" s="37" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="H172" s="22" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="I172" s="22" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="J172" s="22" t="n">
         <v>2</v>
       </c>
       <c r="K172" s="22" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="L172" s="22" t="n">
         <v>2</v>
       </c>
       <c r="M172" s="22" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="N172" s="22" t="n">
         <v>10</v>
       </c>
       <c r="O172" s="22" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="P172" s="22" t="n">
         <v>14</v>
       </c>
       <c r="S172" s="22" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="T172" s="22" t="n">
         <v>10</v>
       </c>
-      <c r="U172" s="43" t="b">
+      <c r="U172" s="37" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -9041,18 +9008,18 @@
         <v>0.4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="46.25" outlineLevel="0" r="176">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="176">
       <c r="A176" s="22" t="s">
+        <v>794</v>
+      </c>
+      <c r="B176" s="22" t="s">
         <v>795</v>
       </c>
-      <c r="B176" s="22" t="s">
+      <c r="C176" s="22" t="s">
         <v>796</v>
       </c>
-      <c r="C176" s="22" t="s">
-        <v>797</v>
-      </c>
       <c r="D176" s="22" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="E176" s="22" t="s">
         <v>596</v>
@@ -9060,44 +9027,44 @@
       <c r="F176" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="G176" s="43" t="b">
+      <c r="G176" s="37" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H176" s="22" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="I176" s="22" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="J176" s="22" t="n">
         <v>2</v>
       </c>
       <c r="K176" s="22" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="L176" s="22" t="n">
         <v>2</v>
       </c>
       <c r="M176" s="22" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="N176" s="22" t="n">
         <v>10</v>
       </c>
       <c r="O176" s="22" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="P176" s="22" t="n">
         <v>14</v>
       </c>
       <c r="S176" s="22" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="T176" s="22" t="n">
         <v>10</v>
       </c>
-      <c r="U176" s="43" t="b">
+      <c r="U176" s="37" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -9146,16 +9113,16 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="180">
       <c r="A180" s="22" t="s">
+        <v>798</v>
+      </c>
+      <c r="B180" s="22" t="s">
         <v>799</v>
       </c>
-      <c r="B180" s="22" t="s">
+      <c r="C180" s="22" t="s">
         <v>800</v>
       </c>
-      <c r="C180" s="22" t="s">
-        <v>801</v>
-      </c>
       <c r="D180" s="22" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="E180" s="22" t="s">
         <v>596</v>
@@ -9163,44 +9130,44 @@
       <c r="F180" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="G180" s="43" t="b">
+      <c r="G180" s="37" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H180" s="22" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="I180" s="22" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="J180" s="22" t="n">
         <v>2</v>
       </c>
       <c r="K180" s="22" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="L180" s="22" t="n">
         <v>2</v>
       </c>
       <c r="M180" s="22" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="N180" s="22" t="n">
         <v>10</v>
       </c>
       <c r="O180" s="22" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="P180" s="22" t="n">
         <v>14</v>
       </c>
       <c r="S180" s="22" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="T180" s="22" t="n">
         <v>10</v>
       </c>
-      <c r="U180" s="43" t="b">
+      <c r="U180" s="37" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -9249,16 +9216,16 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="184">
       <c r="A184" s="22" t="s">
+        <v>802</v>
+      </c>
+      <c r="B184" s="22" t="s">
         <v>803</v>
       </c>
-      <c r="B184" s="22" t="s">
+      <c r="C184" s="22" t="s">
         <v>804</v>
       </c>
-      <c r="C184" s="22" t="s">
-        <v>805</v>
-      </c>
       <c r="D184" s="22" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="E184" s="22" t="s">
         <v>596</v>
@@ -9266,39 +9233,39 @@
       <c r="F184" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="G184" s="43" t="b">
+      <c r="G184" s="37" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H184" s="22" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="I184" s="22" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="J184" s="22" t="n">
         <v>2</v>
       </c>
       <c r="K184" s="22" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="L184" s="22" t="n">
         <v>2</v>
       </c>
       <c r="M184" s="22" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="N184" s="22" t="n">
         <v>10</v>
       </c>
       <c r="O184" s="22" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="P184" s="22" t="n">
         <v>14</v>
       </c>
       <c r="S184" s="22" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="T184" s="22" t="n">
         <v>10</v>
@@ -9352,285 +9319,285 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="188">
       <c r="A188" s="22" t="s">
+        <v>805</v>
+      </c>
+      <c r="B188" s="22" t="s">
         <v>806</v>
       </c>
-      <c r="B188" s="22" t="s">
+      <c r="C188" s="22" t="s">
         <v>807</v>
       </c>
-      <c r="C188" s="22" t="s">
-        <v>808</v>
-      </c>
       <c r="D188" s="22" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="E188" s="22" t="s">
-        <v>81</v>
+        <v>266</v>
       </c>
       <c r="F188" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="G188" s="43" t="b">
+        <v>266</v>
+      </c>
+      <c r="G188" s="37" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H188" s="22" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="J188" s="22" t="n">
         <v>2</v>
       </c>
       <c r="K188" s="22" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="L188" s="22" t="n">
         <v>2</v>
       </c>
       <c r="M188" s="22" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="N188" s="22" t="n">
         <v>10</v>
       </c>
       <c r="O188" s="22" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="P188" s="22" t="n">
         <v>14</v>
       </c>
       <c r="T188" s="22" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="U188" s="37" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="W188" s="22" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="189">
       <c r="A189" s="22" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="B189" s="22" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="C189" s="22" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="D189" s="22" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="E189" s="22" t="s">
-        <v>81</v>
+        <v>266</v>
       </c>
       <c r="F189" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="G189" s="43" t="b">
+        <v>266</v>
+      </c>
+      <c r="G189" s="37" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H189" s="22" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="J189" s="22" t="n">
         <v>2</v>
       </c>
       <c r="K189" s="22" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="L189" s="22" t="n">
         <v>2</v>
       </c>
       <c r="M189" s="22" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="N189" s="22" t="n">
         <v>10</v>
       </c>
       <c r="O189" s="22" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="P189" s="22" t="n">
         <v>14</v>
       </c>
       <c r="T189" s="22" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="U189" s="37" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="W189" s="22" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="190">
       <c r="A190" s="22" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B190" s="22" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="C190" s="22" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="D190" s="22" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="E190" s="22" t="s">
-        <v>81</v>
+        <v>266</v>
       </c>
       <c r="F190" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="G190" s="43" t="b">
+        <v>266</v>
+      </c>
+      <c r="G190" s="37" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H190" s="22" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="J190" s="22" t="n">
         <v>2</v>
       </c>
       <c r="K190" s="22" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="L190" s="22" t="n">
         <v>2</v>
       </c>
       <c r="M190" s="22" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="N190" s="22" t="n">
         <v>10</v>
       </c>
       <c r="O190" s="22" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="P190" s="22" t="n">
         <v>14</v>
       </c>
       <c r="T190" s="22" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="U190" s="37" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="W190" s="22" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="191">
       <c r="A191" s="22" t="s">
+        <v>812</v>
+      </c>
+      <c r="B191" s="22" t="s">
+        <v>806</v>
+      </c>
+      <c r="C191" s="22" t="s">
         <v>813</v>
       </c>
-      <c r="B191" s="22" t="s">
-        <v>807</v>
-      </c>
-      <c r="C191" s="22" t="s">
-        <v>814</v>
-      </c>
       <c r="D191" s="22" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="E191" s="22" t="s">
-        <v>81</v>
+        <v>266</v>
       </c>
       <c r="F191" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="G191" s="43" t="b">
+        <v>266</v>
+      </c>
+      <c r="G191" s="37" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H191" s="22" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="J191" s="22" t="n">
         <v>2</v>
       </c>
       <c r="K191" s="22" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="L191" s="22" t="n">
         <v>2</v>
       </c>
       <c r="M191" s="22" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="N191" s="22" t="n">
         <v>10</v>
       </c>
       <c r="O191" s="22" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="P191" s="22" t="n">
         <v>14</v>
       </c>
       <c r="T191" s="22" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="U191" s="37" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="W191" s="22" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="192">
       <c r="A192" s="22" t="s">
+        <v>814</v>
+      </c>
+      <c r="B192" s="22" t="s">
+        <v>806</v>
+      </c>
+      <c r="C192" s="22" t="s">
         <v>815</v>
       </c>
-      <c r="B192" s="22" t="s">
-        <v>807</v>
-      </c>
-      <c r="C192" s="22" t="s">
-        <v>816</v>
-      </c>
       <c r="D192" s="22" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="E192" s="22" t="s">
-        <v>81</v>
+        <v>266</v>
       </c>
       <c r="F192" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="G192" s="43" t="b">
+        <v>266</v>
+      </c>
+      <c r="G192" s="37" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H192" s="22" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="J192" s="22" t="n">
         <v>2</v>
       </c>
       <c r="K192" s="22" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="L192" s="22" t="n">
         <v>2</v>
       </c>
       <c r="M192" s="22" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="N192" s="22" t="n">
         <v>10</v>
       </c>
       <c r="O192" s="22" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="P192" s="22" t="n">
         <v>14</v>
       </c>
       <c r="T192" s="22" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="U192" s="37" t="b">
         <f aca="false">TRUE()</f>
@@ -9687,53 +9654,53 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="196">
       <c r="A196" s="22" t="s">
+        <v>816</v>
+      </c>
+      <c r="B196" s="22" t="s">
+        <v>806</v>
+      </c>
+      <c r="C196" s="22" t="s">
         <v>817</v>
       </c>
-      <c r="B196" s="22" t="s">
-        <v>807</v>
-      </c>
-      <c r="C196" s="22" t="s">
-        <v>818</v>
-      </c>
       <c r="D196" s="22" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="E196" s="22" t="s">
-        <v>81</v>
+        <v>266</v>
       </c>
       <c r="F196" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="G196" s="43" t="b">
+        <v>266</v>
+      </c>
+      <c r="G196" s="37" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H196" s="22" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="J196" s="22" t="n">
         <v>2</v>
       </c>
       <c r="K196" s="22" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="L196" s="22" t="n">
         <v>2</v>
       </c>
       <c r="M196" s="22" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="N196" s="22" t="n">
         <v>10</v>
       </c>
       <c r="O196" s="22" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="P196" s="22" t="n">
         <v>14</v>
       </c>
       <c r="T196" s="22" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="U196" s="37" t="b">
         <f aca="false">TRUE()</f>
@@ -9790,53 +9757,53 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="200">
       <c r="A200" s="22" t="s">
+        <v>818</v>
+      </c>
+      <c r="B200" s="22" t="s">
+        <v>806</v>
+      </c>
+      <c r="C200" s="22" t="s">
         <v>819</v>
       </c>
-      <c r="B200" s="22" t="s">
-        <v>807</v>
-      </c>
-      <c r="C200" s="22" t="s">
-        <v>820</v>
-      </c>
       <c r="D200" s="22" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="E200" s="22" t="s">
-        <v>81</v>
+        <v>266</v>
       </c>
       <c r="F200" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="G200" s="43" t="b">
+        <v>266</v>
+      </c>
+      <c r="G200" s="37" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H200" s="22" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="J200" s="22" t="n">
         <v>2</v>
       </c>
       <c r="K200" s="22" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="L200" s="22" t="n">
         <v>2</v>
       </c>
       <c r="M200" s="22" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="N200" s="22" t="n">
         <v>10</v>
       </c>
       <c r="O200" s="22" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="P200" s="22" t="n">
         <v>14</v>
       </c>
       <c r="T200" s="22" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="U200" s="37" t="b">
         <f aca="false">TRUE()</f>
@@ -9907,36 +9874,36 @@
   <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100">
-      <selection activeCell="K9" activeCellId="0" pane="topLeft" sqref="K9"/>
+      <selection activeCell="K9" activeCellId="1" pane="topLeft" sqref="J5 K9"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="18.3333333333333"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="19.3529411764706"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="13.4235294117647"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="41.1529411764706"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="11.2705882352941"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="14.1529411764706"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="6.05882352941176"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="7.2156862745098"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="5.25490196078431"/>
-    <col collapsed="false" hidden="false" max="257" min="10" style="1" width="11.7843137254902"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="18.5137254901961"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="19.5450980392157"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="13.5647058823529"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="41.5686274509804"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="11.3764705882353"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="14.2980392156863"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="6.12156862745098"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="7.29019607843137"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="5.30980392156863"/>
+    <col collapsed="false" hidden="false" max="257" min="10" style="1" width="11.9019607843137"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="16.55" outlineLevel="0" r="1" s="2">
       <c r="A1" s="23" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="B1" s="26"/>
       <c r="C1" s="26"/>
       <c r="D1" s="26"/>
-      <c r="E1" s="44" t="s">
-        <v>822</v>
-      </c>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
+      <c r="E1" s="43" t="s">
+        <v>821</v>
+      </c>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
       <c r="J1" s="26"/>
       <c r="K1" s="26"/>
     </row>
@@ -9948,25 +9915,25 @@
         <v>136</v>
       </c>
       <c r="C2" s="31" t="s">
+        <v>822</v>
+      </c>
+      <c r="D2" s="31" t="s">
         <v>823</v>
       </c>
-      <c r="D2" s="31" t="s">
+      <c r="E2" s="31" t="s">
         <v>824</v>
       </c>
-      <c r="E2" s="31" t="s">
+      <c r="F2" s="31" t="s">
         <v>825</v>
       </c>
-      <c r="F2" s="31" t="s">
+      <c r="G2" s="31" t="s">
         <v>826</v>
       </c>
-      <c r="G2" s="31" t="s">
+      <c r="H2" s="31" t="s">
         <v>827</v>
       </c>
-      <c r="H2" s="31" t="s">
+      <c r="I2" s="31" t="s">
         <v>828</v>
-      </c>
-      <c r="I2" s="31" t="s">
-        <v>829</v>
       </c>
       <c r="J2" s="31"/>
       <c r="K2" s="31"/>
@@ -9979,13 +9946,13 @@
         <v>139</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>138</v>
@@ -9994,39 +9961,39 @@
         <v>359</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="4">
       <c r="A4" s="28" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="C4" s="28"/>
       <c r="D4" s="28" t="s">
+        <v>832</v>
+      </c>
+      <c r="E4" s="28" t="s">
         <v>833</v>
       </c>
-      <c r="E4" s="28" t="s">
+      <c r="F4" s="28" t="s">
         <v>834</v>
       </c>
-      <c r="F4" s="28" t="s">
+      <c r="G4" s="28" t="s">
         <v>835</v>
       </c>
-      <c r="G4" s="28" t="s">
+      <c r="H4" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" s="28" t="s">
         <v>836</v>
-      </c>
-      <c r="H4" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" s="28" t="s">
-        <v>837</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="5">
@@ -10035,13 +10002,13 @@
       <c r="C5" s="28"/>
       <c r="D5" s="28"/>
       <c r="E5" s="28" t="s">
+        <v>837</v>
+      </c>
+      <c r="F5" s="28" t="s">
         <v>838</v>
       </c>
-      <c r="F5" s="28" t="s">
-        <v>839</v>
-      </c>
       <c r="G5" s="28" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="H5" s="28" t="n">
         <v>0</v>
@@ -10050,29 +10017,29 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="6">
       <c r="A6" s="28" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B6" s="28" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="C6" s="28"/>
       <c r="D6" s="28" t="s">
+        <v>840</v>
+      </c>
+      <c r="E6" s="28" t="s">
         <v>841</v>
       </c>
-      <c r="E6" s="28" t="s">
+      <c r="F6" s="28" t="s">
         <v>842</v>
       </c>
-      <c r="F6" s="28" t="s">
-        <v>843</v>
-      </c>
       <c r="G6" s="28" t="s">
+        <v>835</v>
+      </c>
+      <c r="H6" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" s="28" t="s">
         <v>836</v>
-      </c>
-      <c r="H6" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" s="28" t="s">
-        <v>837</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="7">
@@ -10081,19 +10048,19 @@
       <c r="C7" s="28"/>
       <c r="D7" s="28"/>
       <c r="E7" s="28" t="s">
+        <v>843</v>
+      </c>
+      <c r="F7" s="28" t="s">
         <v>844</v>
       </c>
-      <c r="F7" s="28" t="s">
-        <v>845</v>
-      </c>
       <c r="G7" s="28" t="s">
+        <v>835</v>
+      </c>
+      <c r="H7" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" s="28" t="s">
         <v>836</v>
-      </c>
-      <c r="H7" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" s="28" t="s">
-        <v>837</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="8">
@@ -10102,46 +10069,46 @@
       <c r="C8" s="28"/>
       <c r="D8" s="28"/>
       <c r="E8" s="28" t="s">
+        <v>845</v>
+      </c>
+      <c r="F8" s="28" t="s">
         <v>846</v>
       </c>
-      <c r="F8" s="28" t="s">
-        <v>847</v>
-      </c>
       <c r="G8" s="28" t="s">
+        <v>835</v>
+      </c>
+      <c r="H8" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" s="28" t="s">
         <v>836</v>
-      </c>
-      <c r="H8" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" s="28" t="s">
-        <v>837</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="9">
       <c r="A9" s="28" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="C9" s="28"/>
       <c r="D9" s="28" t="s">
+        <v>848</v>
+      </c>
+      <c r="E9" s="28" t="s">
         <v>849</v>
       </c>
-      <c r="E9" s="28" t="s">
+      <c r="F9" s="28" t="s">
         <v>850</v>
       </c>
-      <c r="F9" s="28" t="s">
-        <v>851</v>
-      </c>
       <c r="G9" s="28" t="s">
+        <v>835</v>
+      </c>
+      <c r="H9" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" s="28" t="s">
         <v>836</v>
-      </c>
-      <c r="H9" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" s="28" t="s">
-        <v>837</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="10">
@@ -10150,19 +10117,19 @@
       <c r="C10" s="28"/>
       <c r="D10" s="28"/>
       <c r="E10" s="28" t="s">
+        <v>843</v>
+      </c>
+      <c r="F10" s="28" t="s">
         <v>844</v>
       </c>
-      <c r="F10" s="28" t="s">
-        <v>845</v>
-      </c>
       <c r="G10" s="28" t="s">
+        <v>835</v>
+      </c>
+      <c r="H10" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" s="28" t="s">
         <v>836</v>
-      </c>
-      <c r="H10" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" s="28" t="s">
-        <v>837</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="11">
@@ -10171,46 +10138,46 @@
       <c r="C11" s="28"/>
       <c r="D11" s="28"/>
       <c r="E11" s="28" t="s">
+        <v>845</v>
+      </c>
+      <c r="F11" s="28" t="s">
         <v>846</v>
       </c>
-      <c r="F11" s="28" t="s">
-        <v>847</v>
-      </c>
       <c r="G11" s="28" t="s">
+        <v>835</v>
+      </c>
+      <c r="H11" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" s="28" t="s">
         <v>836</v>
-      </c>
-      <c r="H11" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" s="28" t="s">
-        <v>837</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="12">
       <c r="A12" s="28" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="C12" s="28"/>
       <c r="D12" s="28" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="E12" s="28" t="s">
+        <v>841</v>
+      </c>
+      <c r="F12" s="28" t="s">
         <v>842</v>
       </c>
-      <c r="F12" s="28" t="s">
-        <v>843</v>
-      </c>
       <c r="G12" s="28" t="s">
+        <v>835</v>
+      </c>
+      <c r="H12" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" s="28" t="s">
         <v>836</v>
-      </c>
-      <c r="H12" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" s="28" t="s">
-        <v>837</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="13">
@@ -10219,19 +10186,19 @@
       <c r="C13" s="28"/>
       <c r="D13" s="28"/>
       <c r="E13" s="28" t="s">
+        <v>843</v>
+      </c>
+      <c r="F13" s="28" t="s">
         <v>844</v>
       </c>
-      <c r="F13" s="28" t="s">
-        <v>845</v>
-      </c>
       <c r="G13" s="28" t="s">
+        <v>835</v>
+      </c>
+      <c r="H13" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" s="28" t="s">
         <v>836</v>
-      </c>
-      <c r="H13" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" s="28" t="s">
-        <v>837</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="14">
@@ -10240,46 +10207,46 @@
       <c r="C14" s="28"/>
       <c r="D14" s="28"/>
       <c r="E14" s="28" t="s">
+        <v>845</v>
+      </c>
+      <c r="F14" s="28" t="s">
         <v>846</v>
       </c>
-      <c r="F14" s="28" t="s">
-        <v>847</v>
-      </c>
       <c r="G14" s="28" t="s">
+        <v>835</v>
+      </c>
+      <c r="H14" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" s="28" t="s">
         <v>836</v>
-      </c>
-      <c r="H14" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" s="28" t="s">
-        <v>837</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="15">
       <c r="A15" s="28" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B15" s="28" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="C15" s="28"/>
       <c r="D15" s="28" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="E15" s="28" t="s">
+        <v>849</v>
+      </c>
+      <c r="F15" s="28" t="s">
         <v>850</v>
       </c>
-      <c r="F15" s="28" t="s">
-        <v>851</v>
-      </c>
       <c r="G15" s="28" t="s">
+        <v>835</v>
+      </c>
+      <c r="H15" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" s="28" t="s">
         <v>836</v>
-      </c>
-      <c r="H15" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" s="28" t="s">
-        <v>837</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="16">
@@ -10288,19 +10255,19 @@
       <c r="C16" s="28"/>
       <c r="D16" s="28"/>
       <c r="E16" s="28" t="s">
+        <v>843</v>
+      </c>
+      <c r="F16" s="28" t="s">
         <v>844</v>
       </c>
-      <c r="F16" s="28" t="s">
-        <v>845</v>
-      </c>
       <c r="G16" s="28" t="s">
+        <v>835</v>
+      </c>
+      <c r="H16" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" s="28" t="s">
         <v>836</v>
-      </c>
-      <c r="H16" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" s="28" t="s">
-        <v>837</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="17">
@@ -10309,33 +10276,33 @@
       <c r="C17" s="28"/>
       <c r="D17" s="28"/>
       <c r="E17" s="28" t="s">
+        <v>845</v>
+      </c>
+      <c r="F17" s="28" t="s">
         <v>846</v>
       </c>
-      <c r="F17" s="28" t="s">
-        <v>847</v>
-      </c>
       <c r="G17" s="28" t="s">
+        <v>835</v>
+      </c>
+      <c r="H17" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" s="28" t="s">
         <v>836</v>
-      </c>
-      <c r="H17" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" s="28" t="s">
-        <v>837</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="18">
       <c r="A18" s="28" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="B18" s="28" t="s">
+        <v>855</v>
+      </c>
+      <c r="C18" s="28" t="s">
+        <v>738</v>
+      </c>
+      <c r="D18" s="28" t="s">
         <v>856</v>
-      </c>
-      <c r="C18" s="28" t="s">
-        <v>739</v>
-      </c>
-      <c r="D18" s="28" t="s">
-        <v>857</v>
       </c>
       <c r="E18" s="28"/>
       <c r="F18" s="28"/>
@@ -10345,16 +10312,16 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="57.45" outlineLevel="0" r="19">
       <c r="A19" s="28" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="B19" s="28" t="s">
+        <v>857</v>
+      </c>
+      <c r="C19" s="28" t="s">
         <v>858</v>
       </c>
-      <c r="C19" s="28" t="s">
+      <c r="D19" s="28" t="s">
         <v>859</v>
-      </c>
-      <c r="D19" s="28" t="s">
-        <v>860</v>
       </c>
       <c r="E19" s="28"/>
       <c r="F19" s="28"/>
@@ -10364,16 +10331,16 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="20">
       <c r="A20" s="28" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="B20" s="28" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="C20" s="28" t="s">
+        <v>860</v>
+      </c>
+      <c r="D20" s="28" t="s">
         <v>861</v>
-      </c>
-      <c r="D20" s="28" t="s">
-        <v>862</v>
       </c>
       <c r="E20" s="28"/>
       <c r="F20" s="28"/>
@@ -10383,16 +10350,16 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="21">
       <c r="A21" s="28" t="s">
+        <v>794</v>
+      </c>
+      <c r="B21" s="28" t="s">
         <v>795</v>
       </c>
-      <c r="B21" s="28" t="s">
-        <v>796</v>
-      </c>
       <c r="C21" s="28" t="s">
+        <v>862</v>
+      </c>
+      <c r="D21" s="28" t="s">
         <v>863</v>
-      </c>
-      <c r="D21" s="28" t="s">
-        <v>864</v>
       </c>
       <c r="E21" s="28"/>
       <c r="F21" s="28"/>
@@ -10402,16 +10369,16 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="22">
       <c r="A22" s="28" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="B22" s="28" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="C22" s="28" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="D22" s="28" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="E22" s="28"/>
       <c r="F22" s="28"/>
@@ -10421,16 +10388,16 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="23">
       <c r="A23" s="28" t="s">
+        <v>802</v>
+      </c>
+      <c r="B23" s="28" t="s">
         <v>803</v>
       </c>
-      <c r="B23" s="28" t="s">
-        <v>804</v>
-      </c>
       <c r="C23" s="28" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="D23" s="28" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="E23" s="28"/>
       <c r="F23" s="28"/>
@@ -10460,20 +10427,20 @@
   <dimension ref="A1:V7"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
+      <selection activeCell="A1" activeCellId="1" pane="topLeft" sqref="J5 A1"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.2156862745098"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="32.4980392156863"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.7843137254902"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="30.7490196078431"/>
-    <col collapsed="false" hidden="false" max="257" min="5" style="0" width="11.7843137254902"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.4117647058824"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="32.8235294117647"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.9019607843137"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="31.0588235294118"/>
+    <col collapsed="false" hidden="false" max="257" min="5" style="0" width="11.9019607843137"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1" s="45">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1" s="44">
       <c r="A1" s="10" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
@@ -10505,10 +10472,10 @@
         <v>136</v>
       </c>
       <c r="C2" s="35" t="s">
+        <v>867</v>
+      </c>
+      <c r="D2" s="35" t="s">
         <v>868</v>
-      </c>
-      <c r="D2" s="35" t="s">
-        <v>869</v>
       </c>
       <c r="E2" s="35"/>
       <c r="F2" s="35"/>
@@ -10537,10 +10504,10 @@
         <v>139</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E3" s="13"/>
       <c r="F3" s="13"/>
@@ -10563,58 +10530,58 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="4">
       <c r="A4" s="28" t="s">
+        <v>870</v>
+      </c>
+      <c r="B4" s="28" t="s">
         <v>871</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="C4" s="28" t="s">
         <v>872</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="D4" s="28" t="s">
         <v>873</v>
-      </c>
-      <c r="D4" s="28" t="s">
-        <v>874</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="5">
       <c r="A5" s="28" t="s">
+        <v>874</v>
+      </c>
+      <c r="B5" s="28" t="s">
         <v>875</v>
       </c>
-      <c r="B5" s="28" t="s">
+      <c r="C5" s="28" t="s">
         <v>876</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="D5" s="28" t="s">
         <v>877</v>
-      </c>
-      <c r="D5" s="28" t="s">
-        <v>878</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="6">
       <c r="A6" s="28" t="s">
+        <v>878</v>
+      </c>
+      <c r="B6" s="28" t="s">
         <v>879</v>
       </c>
-      <c r="B6" s="28" t="s">
+      <c r="C6" s="28" t="s">
         <v>880</v>
       </c>
-      <c r="C6" s="28" t="s">
+      <c r="D6" s="28" t="s">
         <v>881</v>
-      </c>
-      <c r="D6" s="28" t="s">
-        <v>882</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="7">
       <c r="A7" s="28" t="s">
+        <v>882</v>
+      </c>
+      <c r="B7" s="28" t="s">
         <v>883</v>
       </c>
-      <c r="B7" s="28" t="s">
+      <c r="C7" s="28" t="s">
         <v>884</v>
       </c>
-      <c r="C7" s="28" t="s">
+      <c r="D7" s="28" t="s">
         <v>885</v>
-      </c>
-      <c r="D7" s="28" t="s">
-        <v>886</v>
       </c>
     </row>
   </sheetData>
@@ -10636,19 +10603,19 @@
   <dimension ref="A1:V5"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
+      <selection activeCell="A1" activeCellId="1" pane="topLeft" sqref="J5 A1"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="19.3529411764706"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="48.078431372549"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="47.5098039215686"/>
-    <col collapsed="false" hidden="false" max="257" min="4" style="1" width="11.7843137254902"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="19.5450980392157"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="48.5490196078431"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="47.9803921568627"/>
+    <col collapsed="false" hidden="false" max="257" min="4" style="1" width="11.9019607843137"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1" s="6">
       <c r="A1" s="23" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="B1" s="26"/>
       <c r="C1" s="26"/>
@@ -10730,18 +10697,18 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="4">
       <c r="A4" s="1" t="s">
+        <v>887</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>888</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>889</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="5">
       <c r="A5" s="1" t="s">
+        <v>889</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>890</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>891</v>
       </c>
     </row>
   </sheetData>
@@ -10762,31 +10729,31 @@
   </sheetPr>
   <dimension ref="A1:W79"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100">
-      <selection activeCell="E78" activeCellId="0" pane="topLeft" sqref="E78"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100">
+      <selection activeCell="G3" activeCellId="1" pane="topLeft" sqref="J5 G3"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="28" width="20.5019607843137"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="28" width="31.1921568627451"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="28" width="11.7843137254902"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="28" width="11.6117647058824"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="28" width="8.21960784313725"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="28" width="6.63921568627451"/>
-    <col collapsed="false" hidden="false" max="257" min="9" style="28" width="11.7843137254902"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="28" width="20.7019607843137"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="28" width="31.5019607843137"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="28" width="11.9019607843137"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="28" width="11.7294117647059"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="28" width="8.30196078431373"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="28" width="6.70980392156863"/>
+    <col collapsed="false" hidden="false" max="257" min="9" style="28" width="11.9019607843137"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1" s="27">
       <c r="A1" s="23" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="B1" s="26"/>
       <c r="C1" s="26"/>
       <c r="D1" s="26"/>
       <c r="E1" s="23" t="s">
-        <v>893</v>
-      </c>
-      <c r="F1" s="46"/>
+        <v>892</v>
+      </c>
+      <c r="F1" s="45"/>
       <c r="G1" s="26"/>
       <c r="H1" s="26"/>
       <c r="I1" s="26"/>
@@ -10805,7 +10772,7 @@
       <c r="V1" s="26"/>
       <c r="W1" s="26"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="2">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.05" outlineLevel="0" r="2">
       <c r="A2" s="31" t="s">
         <v>135</v>
       </c>
@@ -10813,22 +10780,22 @@
         <v>136</v>
       </c>
       <c r="C2" s="31" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="D2" s="31" t="s">
         <v>508</v>
       </c>
       <c r="E2" s="31" t="s">
+        <v>894</v>
+      </c>
+      <c r="F2" s="31" t="s">
+        <v>483</v>
+      </c>
+      <c r="G2" s="31" t="s">
         <v>895</v>
       </c>
-      <c r="F2" s="31" t="s">
+      <c r="H2" s="31" t="s">
         <v>896</v>
-      </c>
-      <c r="G2" s="31" t="s">
-        <v>483</v>
-      </c>
-      <c r="H2" s="31" t="s">
-        <v>897</v>
       </c>
       <c r="I2" s="31"/>
       <c r="J2" s="31"/>
@@ -10846,7 +10813,7 @@
       <c r="V2" s="31"/>
       <c r="W2" s="31"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="3">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.05" outlineLevel="0" r="3">
       <c r="A3" s="7" t="s">
         <v>138</v>
       </c>
@@ -10854,22 +10821,22 @@
         <v>139</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>508</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="F3" s="7" t="s">
+        <v>897</v>
+      </c>
+      <c r="G3" s="7" t="s">
         <v>898</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="H3" s="7" t="s">
         <v>899</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>900</v>
       </c>
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
@@ -10889,10 +10856,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="4">
       <c r="A4" s="28" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="C4" s="28" t="b">
         <f aca="false">TRUE()</f>
@@ -10902,7 +10869,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="F4" s="28" t="n">
         <v>0</v>
@@ -10916,7 +10883,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="5">
       <c r="E5" s="28" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="F5" s="28" t="n">
         <v>0</v>
@@ -10930,7 +10897,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="6">
       <c r="E6" s="28" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="F6" s="28" t="n">
         <v>0</v>
@@ -10944,7 +10911,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="7">
       <c r="E7" s="28" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="F7" s="28" t="n">
         <v>0</v>
@@ -10958,7 +10925,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="8">
       <c r="E8" s="28" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="F8" s="28" t="n">
         <v>0</v>
@@ -10972,7 +10939,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="9">
       <c r="E9" s="28" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="F9" s="28" t="n">
         <v>0</v>
@@ -10986,7 +10953,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="10">
       <c r="E10" s="28" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="F10" s="28" t="n">
         <v>0</v>
@@ -11000,7 +10967,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="11">
       <c r="E11" s="28" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="F11" s="28" t="n">
         <v>0</v>
@@ -11014,7 +10981,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="12">
       <c r="E12" s="28" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="F12" s="28" t="n">
         <v>0</v>
@@ -11028,7 +10995,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="13">
       <c r="E13" s="28" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="F13" s="28" t="n">
         <v>0</v>
@@ -11042,7 +11009,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="14">
       <c r="E14" s="28" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="F14" s="28" t="n">
         <v>0</v>
@@ -11056,7 +11023,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="15">
       <c r="E15" s="28" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="F15" s="28" t="n">
         <v>0</v>
@@ -11070,7 +11037,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="16">
       <c r="E16" s="28" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="F16" s="28" t="n">
         <v>0</v>
@@ -11084,7 +11051,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="17">
       <c r="E17" s="28" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="F17" s="28" t="n">
         <v>0</v>
@@ -11098,7 +11065,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="18">
       <c r="E18" s="28" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="F18" s="28" t="n">
         <v>0</v>
@@ -11112,7 +11079,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="19">
       <c r="E19" s="28" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="F19" s="28" t="n">
         <v>0</v>
@@ -11126,7 +11093,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="20">
       <c r="E20" s="28" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="F20" s="28" t="n">
         <v>0</v>
@@ -11140,7 +11107,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="21">
       <c r="E21" s="28" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="F21" s="28" t="n">
         <v>0</v>
@@ -11154,7 +11121,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="22">
       <c r="E22" s="28" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="F22" s="28" t="n">
         <v>0</v>
@@ -11166,9 +11133,9 @@
         <v>1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.05" outlineLevel="0" r="23">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="23">
       <c r="E23" s="28" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="F23" s="28" t="n">
         <v>0</v>
@@ -11182,7 +11149,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="24">
       <c r="E24" s="28" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="F24" s="28" t="n">
         <v>0</v>
@@ -11196,7 +11163,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="25">
       <c r="E25" s="28" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="F25" s="28" t="n">
         <v>0</v>
@@ -11210,7 +11177,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="26">
       <c r="E26" s="28" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="F26" s="28" t="n">
         <v>0</v>
@@ -11224,7 +11191,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="27">
       <c r="E27" s="28" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="F27" s="28" t="n">
         <v>0</v>
@@ -11238,7 +11205,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="28">
       <c r="E28" s="28" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="F28" s="28" t="n">
         <v>0</v>
@@ -11252,7 +11219,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="29">
       <c r="E29" s="28" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="F29" s="28" t="n">
         <v>0</v>
@@ -11266,7 +11233,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="30">
       <c r="E30" s="28" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="F30" s="28" t="n">
         <v>0</v>
@@ -11280,7 +11247,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="31">
       <c r="E31" s="28" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="F31" s="28" t="n">
         <v>0</v>
@@ -11294,7 +11261,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="32">
       <c r="E32" s="28" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="F32" s="28" t="n">
         <v>0</v>
@@ -11308,7 +11275,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="33">
       <c r="E33" s="28" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="F33" s="28" t="n">
         <v>0</v>
@@ -11322,7 +11289,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="34">
       <c r="E34" s="28" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="F34" s="28" t="n">
         <v>0</v>
@@ -11336,7 +11303,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="35">
       <c r="E35" s="28" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="F35" s="28" t="n">
         <v>0</v>
@@ -11350,7 +11317,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="36">
       <c r="E36" s="28" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="F36" s="28" t="n">
         <v>0</v>
@@ -11364,7 +11331,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="37">
       <c r="E37" s="28" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="F37" s="28" t="n">
         <v>0</v>
@@ -11378,7 +11345,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="38">
       <c r="E38" s="28" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="F38" s="28" t="n">
         <v>0</v>
@@ -11392,7 +11359,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="39">
       <c r="E39" s="28" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="F39" s="28" t="n">
         <v>0</v>
@@ -11406,7 +11373,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="40">
       <c r="E40" s="28" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="F40" s="28" t="n">
         <v>0</v>
@@ -11420,7 +11387,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="41">
       <c r="E41" s="28" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F41" s="28" t="n">
         <v>0</v>
@@ -11434,7 +11401,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="42">
       <c r="E42" s="28" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="F42" s="28" t="n">
         <v>0</v>
@@ -11448,7 +11415,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="43">
       <c r="E43" s="28" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="F43" s="28" t="n">
         <v>0</v>
@@ -11462,7 +11429,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="44">
       <c r="E44" s="28" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="F44" s="28" t="n">
         <v>0</v>
@@ -11476,7 +11443,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="45">
       <c r="E45" s="28" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="F45" s="28" t="n">
         <v>0</v>
@@ -11490,7 +11457,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="46">
       <c r="E46" s="28" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="F46" s="28" t="n">
         <v>0</v>
@@ -11504,7 +11471,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="47">
       <c r="E47" s="28" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="F47" s="28" t="n">
         <v>0</v>
@@ -11518,7 +11485,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="48">
       <c r="E48" s="28" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="F48" s="28" t="n">
         <v>0</v>
@@ -11532,7 +11499,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="49">
       <c r="E49" s="28" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="F49" s="28" t="n">
         <v>0</v>
@@ -11546,7 +11513,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="50">
       <c r="E50" s="28" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="F50" s="28" t="n">
         <v>0</v>
@@ -11560,7 +11527,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="51">
       <c r="E51" s="28" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="F51" s="28" t="n">
         <v>0</v>
@@ -11574,7 +11541,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="52">
       <c r="E52" s="28" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="F52" s="28" t="n">
         <v>0</v>
@@ -11588,7 +11555,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="53">
       <c r="E53" s="28" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="F53" s="28" t="n">
         <v>0</v>
@@ -11602,7 +11569,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="54">
       <c r="E54" s="28" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="F54" s="28" t="n">
         <v>0</v>
@@ -11616,7 +11583,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="55">
       <c r="E55" s="28" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="F55" s="28" t="n">
         <v>0</v>
@@ -11630,10 +11597,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="56">
       <c r="A56" s="28" t="s">
+        <v>901</v>
+      </c>
+      <c r="B56" s="28" t="s">
         <v>902</v>
-      </c>
-      <c r="B56" s="28" t="s">
-        <v>903</v>
       </c>
       <c r="C56" s="28" t="b">
         <f aca="false">FALSE()</f>
@@ -11644,7 +11611,7 @@
         <v>0</v>
       </c>
       <c r="E56" s="28" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="F56" s="28" t="n">
         <v>9</v>
@@ -11658,7 +11625,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="57">
       <c r="E57" s="28" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="F57" s="28" t="n">
         <v>9</v>
@@ -11672,7 +11639,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="58">
       <c r="E58" s="28" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="F58" s="28" t="n">
         <v>9</v>
@@ -11686,7 +11653,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="59">
       <c r="E59" s="28" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="F59" s="28" t="n">
         <v>9</v>
@@ -11700,7 +11667,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="60">
       <c r="E60" s="28" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="F60" s="28" t="n">
         <v>9</v>
@@ -11714,7 +11681,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="61">
       <c r="E61" s="28" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="F61" s="28" t="n">
         <v>9</v>
@@ -11728,7 +11695,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="62">
       <c r="E62" s="28" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="F62" s="28" t="n">
         <v>9</v>
@@ -11742,10 +11709,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="63">
       <c r="A63" s="28" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="B63" s="28" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="C63" s="28" t="b">
         <f aca="false">FALSE()</f>
@@ -11756,7 +11723,7 @@
         <v>1</v>
       </c>
       <c r="E63" s="28" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="F63" s="28" t="n">
         <v>9</v>
@@ -11770,7 +11737,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="64">
       <c r="E64" s="28" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="F64" s="28" t="n">
         <v>9</v>
@@ -11784,7 +11751,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="65">
       <c r="E65" s="28" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="F65" s="28" t="n">
         <v>9</v>
@@ -11798,7 +11765,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="66">
       <c r="E66" s="28" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="F66" s="28" t="n">
         <v>9</v>
@@ -11812,7 +11779,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="67">
       <c r="E67" s="28" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="F67" s="28" t="n">
         <v>9</v>
@@ -11826,7 +11793,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="68">
       <c r="E68" s="28" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="F68" s="28" t="n">
         <v>9</v>
@@ -11840,7 +11807,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="69">
       <c r="E69" s="28" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="F69" s="28" t="n">
         <v>9</v>
@@ -11854,7 +11821,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="70">
       <c r="A70" s="28" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="B70" s="28" t="s">
         <v>589</v>
@@ -11868,7 +11835,7 @@
         <v>1</v>
       </c>
       <c r="E70" s="28" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="F70" s="28" t="n">
         <v>9</v>
@@ -11882,7 +11849,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="71">
       <c r="E71" s="28" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="F71" s="28" t="n">
         <v>9</v>
@@ -11896,7 +11863,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="72">
       <c r="E72" s="28" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="F72" s="28" t="n">
         <v>9</v>
@@ -11910,7 +11877,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="73">
       <c r="E73" s="28" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="F73" s="28" t="n">
         <v>9</v>
@@ -11924,7 +11891,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="74">
       <c r="E74" s="28" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="F74" s="28" t="n">
         <v>9</v>
@@ -11938,7 +11905,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="75">
       <c r="E75" s="28" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="F75" s="28" t="n">
         <v>9</v>
@@ -11952,7 +11919,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="76">
       <c r="E76" s="28" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="F76" s="28" t="n">
         <v>9</v>
@@ -11966,10 +11933,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="77">
       <c r="A77" s="28" t="s">
-        <v>81</v>
+        <v>266</v>
       </c>
       <c r="B77" s="28" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C77" s="28" t="b">
         <f aca="false">FALSE()</f>
@@ -11980,7 +11947,7 @@
         <v>1</v>
       </c>
       <c r="E77" s="28" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="F77" s="28" t="n">
         <v>9</v>
@@ -11994,7 +11961,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="78">
       <c r="E78" s="28" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="F78" s="28" t="n">
         <v>9</v>
@@ -12008,7 +11975,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="79">
       <c r="E79" s="28" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="F79" s="28" t="n">
         <v>9</v>
@@ -12039,23 +12006,23 @@
   <dimension ref="A1:W6"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
+      <selection activeCell="A1" activeCellId="1" pane="topLeft" sqref="J5 A1"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="33" width="11.3960784313726"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="33" width="18.0509803921569"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="33" width="19.4901960784314"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="33" width="15.3019607843137"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="33" width="15.1490196078431"/>
-    <col collapsed="false" hidden="false" max="8" min="6" style="33" width="11.7843137254902"/>
-    <col collapsed="false" hidden="false" max="10" min="9" style="33" width="28.2980392156863"/>
-    <col collapsed="false" hidden="false" max="257" min="11" style="33" width="11.7843137254902"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="33" width="11.5137254901961"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="33" width="18.2352941176471"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="33" width="19.6823529411765"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="33" width="15.4549019607843"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="33" width="15.3019607843137"/>
+    <col collapsed="false" hidden="false" max="8" min="6" style="33" width="11.9019607843137"/>
+    <col collapsed="false" hidden="false" max="10" min="9" style="33" width="28.5725490196078"/>
+    <col collapsed="false" hidden="false" max="257" min="11" style="33" width="11.9019607843137"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="1" s="34">
       <c r="A1" s="10" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
@@ -12082,16 +12049,16 @@
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="22.35" outlineLevel="0" r="2" s="36">
       <c r="A2" s="35" t="s">
+        <v>147</v>
+      </c>
+      <c r="B2" s="35" t="s">
         <v>148</v>
-      </c>
-      <c r="B2" s="35" t="s">
-        <v>149</v>
       </c>
       <c r="C2" s="35" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="35" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="E2" s="35" t="s">
         <v>69</v>
@@ -12117,10 +12084,10 @@
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="3" s="36">
       <c r="A3" s="13" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C3" s="13" t="s">
         <v>11</v>
@@ -12151,70 +12118,70 @@
       <c r="W3" s="13"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="4">
-      <c r="A4" s="47" t="n">
+      <c r="A4" s="46" t="n">
         <v>1</v>
       </c>
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="46" t="s">
+        <v>909</v>
+      </c>
+      <c r="C4" s="46" t="s">
         <v>910</v>
       </c>
-      <c r="C4" s="47" t="s">
+      <c r="D4" s="46" t="s">
         <v>911</v>
       </c>
-      <c r="D4" s="47" t="s">
+      <c r="E4" s="46" t="s">
         <v>912</v>
       </c>
-      <c r="E4" s="47" t="s">
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="5">
+      <c r="A5" s="46" t="n">
+        <v>2</v>
+      </c>
+      <c r="B5" s="46" t="s">
         <v>913</v>
       </c>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="47"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="5">
-      <c r="A5" s="47" t="n">
-        <v>2</v>
-      </c>
-      <c r="B5" s="47" t="s">
+      <c r="C5" s="46" t="s">
         <v>914</v>
       </c>
-      <c r="C5" s="47" t="s">
+      <c r="D5" s="46" t="s">
         <v>915</v>
       </c>
-      <c r="D5" s="47" t="s">
+      <c r="E5" s="46" t="s">
         <v>916</v>
       </c>
-      <c r="E5" s="47" t="s">
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="46"/>
+      <c r="J5" s="46"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="6">
+      <c r="A6" s="46" t="n">
+        <v>3</v>
+      </c>
+      <c r="B6" s="46" t="s">
         <v>917</v>
       </c>
-      <c r="F5" s="47"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="47"/>
-      <c r="I5" s="47"/>
-      <c r="J5" s="47"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="6">
-      <c r="A6" s="47" t="n">
-        <v>3</v>
-      </c>
-      <c r="B6" s="47" t="s">
+      <c r="C6" s="46" t="s">
         <v>918</v>
       </c>
-      <c r="C6" s="47" t="s">
+      <c r="D6" s="46" t="s">
         <v>919</v>
       </c>
-      <c r="D6" s="47" t="s">
+      <c r="E6" s="46" t="s">
         <v>920</v>
       </c>
-      <c r="E6" s="47" t="s">
-        <v>921</v>
-      </c>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="47"/>
-      <c r="J6" s="47"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="46"/>
+      <c r="J6" s="46"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -12235,24 +12202,24 @@
   <dimension ref="A1:W6"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
+      <selection activeCell="A1" activeCellId="1" pane="topLeft" sqref="J5 A1"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="33" width="21.6509803921569"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="33" width="18.0509803921569"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="33" width="19.4901960784314"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="33" width="15.3019607843137"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="33" width="15.1490196078431"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="33" width="25"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="33" width="11.7843137254902"/>
-    <col collapsed="false" hidden="false" max="10" min="9" style="33" width="28.2980392156863"/>
-    <col collapsed="false" hidden="false" max="257" min="11" style="33" width="11.7843137254902"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="33" width="21.8705882352941"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="33" width="18.2352941176471"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="33" width="19.6823529411765"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="33" width="15.4549019607843"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="33" width="15.3019607843137"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="33" width="25.2509803921569"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="33" width="11.9019607843137"/>
+    <col collapsed="false" hidden="false" max="10" min="9" style="33" width="28.5725490196078"/>
+    <col collapsed="false" hidden="false" max="257" min="11" style="33" width="11.9019607843137"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="1" s="34">
       <c r="A1" s="10" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
@@ -12279,7 +12246,7 @@
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="2" s="36">
       <c r="A2" s="35" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="B2" s="35" t="s">
         <v>2</v>
@@ -12312,7 +12279,7 @@
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="3" s="36">
       <c r="A3" s="13" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>67</v>
@@ -12342,63 +12309,63 @@
       <c r="W3" s="13"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="4">
-      <c r="A4" s="47" t="s">
-        <v>910</v>
-      </c>
-      <c r="B4" s="47" t="s">
+      <c r="A4" s="46" t="s">
+        <v>909</v>
+      </c>
+      <c r="B4" s="46" t="s">
+        <v>924</v>
+      </c>
+      <c r="C4" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="D4" s="46" t="s">
         <v>925</v>
       </c>
-      <c r="C4" s="47" t="s">
-        <v>74</v>
-      </c>
-      <c r="D4" s="47" t="s">
+      <c r="E4" s="46" t="s">
         <v>926</v>
       </c>
-      <c r="E4" s="47" t="s">
+      <c r="F4" s="46" t="s">
         <v>927</v>
       </c>
-      <c r="F4" s="47" t="s">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="5">
+      <c r="A5" s="46" t="s">
+        <v>913</v>
+      </c>
+      <c r="B5" s="46" t="s">
         <v>928</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="5">
-      <c r="A5" s="47" t="s">
-        <v>914</v>
-      </c>
-      <c r="B5" s="47" t="s">
+      <c r="C5" s="46" t="s">
         <v>929</v>
       </c>
-      <c r="C5" s="47" t="s">
+      <c r="D5" s="46" t="s">
         <v>930</v>
       </c>
-      <c r="D5" s="47" t="s">
+      <c r="E5" s="46" t="s">
         <v>931</v>
       </c>
-      <c r="E5" s="47" t="s">
+      <c r="F5" s="46" t="s">
         <v>932</v>
       </c>
-      <c r="F5" s="47" t="s">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="6">
+      <c r="A6" s="46" t="s">
+        <v>917</v>
+      </c>
+      <c r="B6" s="46" t="s">
         <v>933</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="6">
-      <c r="A6" s="47" t="s">
-        <v>918</v>
-      </c>
-      <c r="B6" s="47" t="s">
+      <c r="C6" s="46" t="s">
         <v>934</v>
       </c>
-      <c r="C6" s="47" t="s">
+      <c r="D6" s="46" t="s">
         <v>935</v>
       </c>
-      <c r="D6" s="47" t="s">
+      <c r="E6" s="46" t="s">
         <v>936</v>
       </c>
-      <c r="E6" s="47" t="s">
+      <c r="F6" s="46" t="s">
         <v>937</v>
-      </c>
-      <c r="F6" s="47" t="s">
-        <v>938</v>
       </c>
     </row>
   </sheetData>
@@ -12420,18 +12387,18 @@
   <dimension ref="A1:V7"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
+      <selection activeCell="A1" activeCellId="1" pane="topLeft" sqref="J5 A1"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="19.3529411764706"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="34.9490196078431"/>
-    <col collapsed="false" hidden="false" max="257" min="3" style="1" width="11.7843137254902"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="19.5450980392157"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="35.2901960784314"/>
+    <col collapsed="false" hidden="false" max="257" min="3" style="1" width="11.9019607843137"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1" s="6">
       <c r="A1" s="23" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="B1" s="26"/>
       <c r="C1" s="26"/>
@@ -12513,18 +12480,18 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="4">
       <c r="A4" s="1" t="s">
+        <v>939</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>940</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>941</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="5">
       <c r="A5" s="1" t="s">
+        <v>941</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>942</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>943</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="6">
@@ -12532,15 +12499,15 @@
         <v>405</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="20.85" outlineLevel="0" r="7">
       <c r="A7" s="1" t="s">
+        <v>944</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>945</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>946</v>
       </c>
     </row>
   </sheetData>
@@ -12562,20 +12529,20 @@
   <dimension ref="A1:V23"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
+      <selection activeCell="A1" activeCellId="1" pane="topLeft" sqref="J5 A1"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="39.2901960784314"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="24.1137254901961"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="1" width="11.7843137254902"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="15.3019607843137"/>
-    <col collapsed="false" hidden="false" max="257" min="6" style="1" width="11.7843137254902"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="39.678431372549"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="24.3490196078431"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="1" width="11.9019607843137"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="15.4549019607843"/>
+    <col collapsed="false" hidden="false" max="257" min="6" style="1" width="11.9019607843137"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1" s="6">
       <c r="A1" s="23" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="B1" s="26"/>
       <c r="C1" s="26"/>
@@ -12607,13 +12574,13 @@
         <v>136</v>
       </c>
       <c r="C2" s="31" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="D2" s="31" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="E2" s="31" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F2" s="31"/>
       <c r="G2" s="31"/>
@@ -12641,13 +12608,13 @@
         <v>139</v>
       </c>
       <c r="C3" s="7" t="s">
+        <v>947</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>663</v>
+      </c>
+      <c r="E3" s="7" t="s">
         <v>948</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>664</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>949</v>
       </c>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
@@ -12669,16 +12636,16 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="4">
       <c r="A4" s="28" t="s">
+        <v>949</v>
+      </c>
+      <c r="B4" s="28" t="s">
         <v>950</v>
-      </c>
-      <c r="B4" s="28" t="s">
-        <v>951</v>
       </c>
       <c r="C4" s="28" t="n">
         <v>2</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="E4" s="28" t="n">
         <v>56</v>
@@ -12686,16 +12653,16 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="5">
       <c r="A5" s="28" t="s">
+        <v>952</v>
+      </c>
+      <c r="B5" s="28" t="s">
         <v>953</v>
-      </c>
-      <c r="B5" s="28" t="s">
-        <v>954</v>
       </c>
       <c r="C5" s="28" t="n">
         <v>5</v>
       </c>
       <c r="D5" s="28" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="E5" s="28" t="n">
         <v>20</v>
@@ -12703,13 +12670,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="6">
       <c r="A6" s="28" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="C6" s="28" t="n">
         <v>1</v>
       </c>
       <c r="D6" s="28" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="E6" s="28" t="n">
         <v>30</v>
@@ -12717,16 +12684,16 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="7">
       <c r="A7" s="28" t="s">
+        <v>955</v>
+      </c>
+      <c r="B7" s="28" t="s">
         <v>956</v>
-      </c>
-      <c r="B7" s="28" t="s">
-        <v>957</v>
       </c>
       <c r="C7" s="28" t="n">
         <v>500</v>
       </c>
       <c r="D7" s="28" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="E7" s="28" t="n">
         <v>35</v>
@@ -12734,16 +12701,16 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="8">
       <c r="A8" s="28" t="s">
+        <v>958</v>
+      </c>
+      <c r="B8" s="28" t="s">
         <v>959</v>
-      </c>
-      <c r="B8" s="28" t="s">
-        <v>960</v>
       </c>
       <c r="C8" s="28" t="n">
         <v>100</v>
       </c>
       <c r="D8" s="28" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="E8" s="28" t="n">
         <v>55</v>
@@ -12751,16 +12718,16 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="9">
       <c r="A9" s="28" t="s">
-        <v>961</v>
-      </c>
-      <c r="B9" s="48" t="n">
+        <v>960</v>
+      </c>
+      <c r="B9" s="47" t="n">
         <v>0.96</v>
       </c>
       <c r="C9" s="28" t="n">
         <v>1000</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="E9" s="28" t="n">
         <v>30</v>
@@ -12768,14 +12735,14 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="10">
       <c r="A10" s="28" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="B10" s="28"/>
       <c r="C10" s="28" t="n">
         <v>1000</v>
       </c>
       <c r="D10" s="28" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="E10" s="28" t="n">
         <v>22.75</v>
@@ -12783,14 +12750,14 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="11">
       <c r="A11" s="28" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="B11" s="28"/>
       <c r="C11" s="28" t="n">
         <v>500</v>
       </c>
       <c r="D11" s="28" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="E11" s="28" t="n">
         <v>180</v>
@@ -12798,14 +12765,14 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="12">
       <c r="A12" s="28" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="B12" s="28"/>
       <c r="C12" s="28" t="n">
         <v>500</v>
       </c>
       <c r="D12" s="28" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="E12" s="28" t="n">
         <v>20</v>
@@ -12813,16 +12780,16 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="13">
       <c r="A13" s="28" t="s">
+        <v>964</v>
+      </c>
+      <c r="B13" s="28" t="s">
         <v>965</v>
-      </c>
-      <c r="B13" s="28" t="s">
-        <v>966</v>
       </c>
       <c r="C13" s="28" t="n">
         <v>100</v>
       </c>
       <c r="D13" s="28" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="E13" s="28" t="n">
         <v>20</v>
@@ -12830,14 +12797,14 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="14">
       <c r="A14" s="28" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="B14" s="28"/>
       <c r="C14" s="28" t="n">
         <v>2.5</v>
       </c>
       <c r="D14" s="28" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="E14" s="28" t="n">
         <v>520</v>
@@ -12845,14 +12812,14 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="15">
       <c r="A15" s="28" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="B15" s="28"/>
       <c r="C15" s="28" t="n">
         <v>5</v>
       </c>
       <c r="D15" s="28" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="E15" s="28" t="n">
         <v>329</v>
@@ -12860,14 +12827,14 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="16">
       <c r="A16" s="28" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="B16" s="28"/>
       <c r="C16" s="28" t="n">
         <v>500</v>
       </c>
       <c r="D16" s="28" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="E16" s="28" t="n">
         <v>250</v>
@@ -12875,13 +12842,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="17">
       <c r="A17" s="28" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="C17" s="28" t="n">
         <v>500</v>
       </c>
       <c r="D17" s="28" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="E17" s="28" t="n">
         <v>180</v>
@@ -12889,14 +12856,14 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="18">
       <c r="A18" s="28" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="B18" s="28"/>
       <c r="C18" s="28" t="n">
         <v>500</v>
       </c>
       <c r="D18" s="28" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="E18" s="28" t="n">
         <v>245</v>
@@ -12904,14 +12871,14 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="19">
       <c r="A19" s="28" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="B19" s="28"/>
       <c r="C19" s="28" t="n">
         <v>500</v>
       </c>
       <c r="D19" s="28" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="E19" s="28" t="n">
         <v>186</v>
@@ -12919,16 +12886,16 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="20">
       <c r="A20" s="28" t="s">
+        <v>972</v>
+      </c>
+      <c r="B20" s="28" t="s">
         <v>973</v>
-      </c>
-      <c r="B20" s="28" t="s">
-        <v>974</v>
       </c>
       <c r="C20" s="28" t="n">
         <v>1</v>
       </c>
       <c r="D20" s="28" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="E20" s="28" t="n">
         <v>20</v>
@@ -12936,16 +12903,16 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="21">
       <c r="A21" s="28" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="B21" s="28" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="C21" s="28" t="n">
         <v>1</v>
       </c>
       <c r="D21" s="28" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="E21" s="28" t="n">
         <v>13.6</v>
@@ -12953,16 +12920,16 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="22">
       <c r="A22" s="28" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="B22" s="28" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="C22" s="28" t="n">
         <v>1</v>
       </c>
       <c r="D22" s="28" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="E22" s="28" t="n">
         <v>90</v>
@@ -12970,13 +12937,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="23">
       <c r="A23" s="28" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="C23" s="28" t="n">
         <v>1</v>
       </c>
       <c r="D23" s="28" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="E23" s="28" t="n">
         <v>35</v>
@@ -13000,23 +12967,23 @@
   </sheetPr>
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100">
-      <selection activeCell="G28" activeCellId="0" pane="topLeft" sqref="G28"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100">
+      <selection activeCell="J5" activeCellId="0" pane="topLeft" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="14.3725490196078"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.5137254901961"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="10.4627450980392"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="22.5764705882353"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="16.8588235294118"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="14.2"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="16.4509803921569"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="14.3725490196078"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="18.2862745098039"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="13.8470588235294"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="42.1098039215686"/>
-    <col collapsed="false" hidden="false" max="257" min="12" style="1" width="11.7843137254902"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="14.5176470588235"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.6313725490196"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="10.5647058823529"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="22.8117647058824"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="17.0196078431373"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="14.3450980392157"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="16.6156862745098"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="14.5176470588235"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="18.4666666666667"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="13.9921568627451"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="42.5254901960784"/>
+    <col collapsed="false" hidden="false" max="257" min="12" style="1" width="11.9019607843137"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1" s="6">
@@ -13097,7 +13064,7 @@
         <v>66</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="4">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.05" outlineLevel="0" r="4">
       <c r="A4" s="1" t="s">
         <v>19</v>
       </c>
@@ -13129,7 +13096,7 @@
         <v>81</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="5">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.05" outlineLevel="0" r="5">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -13358,27 +13325,27 @@
   <dimension ref="A1:V43"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
+      <selection activeCell="A1" activeCellId="1" pane="topLeft" sqref="J5 A1"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="28" width="19.2196078431373"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="28" width="19.4901960784314"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="28" width="24.3921568627451"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="28" width="9.81176470588235"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="28" width="6.7921568627451"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="28" width="21.0823529411765"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="28" width="13.8745098039216"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="9.81176470588235"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="6.7921568627451"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="21.0823529411765"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="13.8745098039216"/>
-    <col collapsed="false" hidden="false" max="257" min="12" style="28" width="11.7843137254902"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="28" width="19.4078431372549"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="28" width="19.6823529411765"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="28" width="24.6352941176471"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="28" width="9.90196078431373"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="28" width="6.86274509803922"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="28" width="21.2980392156863"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="28" width="14.0078431372549"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="9.90196078431373"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="6.86274509803922"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="21.2980392156863"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="14.0078431372549"/>
+    <col collapsed="false" hidden="false" max="257" min="12" style="28" width="11.9019607843137"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1" s="27">
       <c r="A1" s="23" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="B1" s="26"/>
       <c r="C1" s="26"/>
@@ -13406,19 +13373,19 @@
         <v>136</v>
       </c>
       <c r="C2" s="31" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="D2" s="31" t="s">
+        <v>979</v>
+      </c>
+      <c r="E2" s="31" t="s">
         <v>980</v>
       </c>
-      <c r="E2" s="31" t="s">
+      <c r="F2" s="31" t="s">
         <v>981</v>
       </c>
-      <c r="F2" s="31" t="s">
+      <c r="G2" s="31" t="s">
         <v>982</v>
-      </c>
-      <c r="G2" s="31" t="s">
-        <v>983</v>
       </c>
       <c r="L2" s="31"/>
       <c r="M2" s="31"/>
@@ -13440,19 +13407,19 @@
         <v>139</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>359</v>
       </c>
       <c r="F3" s="7" t="s">
+        <v>984</v>
+      </c>
+      <c r="G3" s="7" t="s">
         <v>985</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>986</v>
       </c>
       <c r="L3" s="7"/>
       <c r="M3" s="7"/>
@@ -13468,19 +13435,19 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="4">
       <c r="A4" s="28" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="D4" s="28" t="n">
         <v>1</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="5">
@@ -13488,10 +13455,10 @@
         <v>2</v>
       </c>
       <c r="E5" s="28" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="F5" s="28" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="6">
@@ -13499,7 +13466,7 @@
         <v>3</v>
       </c>
       <c r="E6" s="28" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="7">
@@ -13507,7 +13474,7 @@
         <v>4</v>
       </c>
       <c r="E7" s="28" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="8">
@@ -13515,7 +13482,7 @@
         <v>5</v>
       </c>
       <c r="E8" s="28" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="9">
@@ -13523,7 +13490,7 @@
         <v>6</v>
       </c>
       <c r="E9" s="28" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="10">
@@ -13531,7 +13498,7 @@
         <v>7</v>
       </c>
       <c r="E10" s="28" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="11">
@@ -13539,7 +13506,7 @@
         <v>8</v>
       </c>
       <c r="E11" s="28" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="12">
@@ -13547,7 +13514,7 @@
         <v>9</v>
       </c>
       <c r="E12" s="28" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="13">
@@ -13555,7 +13522,7 @@
         <v>10</v>
       </c>
       <c r="E13" s="28" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="G13" s="28" t="n">
         <v>3</v>
@@ -13563,19 +13530,19 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="14">
       <c r="A14" s="28" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="C14" s="28" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="D14" s="28" t="n">
         <v>1</v>
       </c>
       <c r="E14" s="28" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="15">
@@ -13583,10 +13550,10 @@
         <v>2</v>
       </c>
       <c r="E15" s="28" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="F15" s="28" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="16">
@@ -13594,7 +13561,7 @@
         <v>3</v>
       </c>
       <c r="E16" s="28" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="17">
@@ -13602,7 +13569,7 @@
         <v>4</v>
       </c>
       <c r="E17" s="28" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="18">
@@ -13610,7 +13577,7 @@
         <v>5</v>
       </c>
       <c r="E18" s="28" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="19">
@@ -13618,7 +13585,7 @@
         <v>6</v>
       </c>
       <c r="E19" s="28" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="20">
@@ -13626,7 +13593,7 @@
         <v>7</v>
       </c>
       <c r="E20" s="28" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="21">
@@ -13634,7 +13601,7 @@
         <v>8</v>
       </c>
       <c r="E21" s="28" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="22">
@@ -13642,7 +13609,7 @@
         <v>9</v>
       </c>
       <c r="E22" s="28" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="23">
@@ -13650,7 +13617,7 @@
         <v>10</v>
       </c>
       <c r="E23" s="28" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="G23" s="28" t="n">
         <v>3</v>
@@ -13658,19 +13625,19 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="24">
       <c r="A24" s="28" t="s">
+        <v>874</v>
+      </c>
+      <c r="B24" s="28" t="s">
         <v>875</v>
       </c>
-      <c r="B24" s="28" t="s">
-        <v>876</v>
-      </c>
       <c r="C24" s="28" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="D24" s="28" t="n">
         <v>1</v>
       </c>
       <c r="E24" s="28" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="25">
@@ -13678,10 +13645,10 @@
         <v>2</v>
       </c>
       <c r="E25" s="28" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="F25" s="28" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="26">
@@ -13689,7 +13656,7 @@
         <v>3</v>
       </c>
       <c r="E26" s="28" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="27">
@@ -13697,7 +13664,7 @@
         <v>4</v>
       </c>
       <c r="E27" s="28" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="28">
@@ -13705,7 +13672,7 @@
         <v>5</v>
       </c>
       <c r="E28" s="28" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="29">
@@ -13713,7 +13680,7 @@
         <v>6</v>
       </c>
       <c r="E29" s="28" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="30">
@@ -13721,7 +13688,7 @@
         <v>7</v>
       </c>
       <c r="E30" s="28" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="31">
@@ -13729,7 +13696,7 @@
         <v>8</v>
       </c>
       <c r="E31" s="28" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="32">
@@ -13737,7 +13704,7 @@
         <v>9</v>
       </c>
       <c r="E32" s="28" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="33">
@@ -13745,7 +13712,7 @@
         <v>10</v>
       </c>
       <c r="E33" s="28" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="G33" s="28" t="n">
         <v>3</v>
@@ -13753,19 +13720,19 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="34">
       <c r="A34" s="1" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="B34" s="28" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="C34" s="28" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="D34" s="28" t="n">
         <v>1</v>
       </c>
       <c r="E34" s="28" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="35">
@@ -13773,10 +13740,10 @@
         <v>2</v>
       </c>
       <c r="E35" s="28" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="F35" s="28" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="36">
@@ -13784,7 +13751,7 @@
         <v>3</v>
       </c>
       <c r="E36" s="28" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="37">
@@ -13792,7 +13759,7 @@
         <v>4</v>
       </c>
       <c r="E37" s="28" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="38">
@@ -13800,7 +13767,7 @@
         <v>5</v>
       </c>
       <c r="E38" s="28" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="39">
@@ -13808,7 +13775,7 @@
         <v>6</v>
       </c>
       <c r="E39" s="28" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="40">
@@ -13816,7 +13783,7 @@
         <v>7</v>
       </c>
       <c r="E40" s="28" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="41">
@@ -13824,7 +13791,7 @@
         <v>8</v>
       </c>
       <c r="E41" s="28" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="42">
@@ -13832,7 +13799,7 @@
         <v>9</v>
       </c>
       <c r="E42" s="28" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="43">
@@ -13840,7 +13807,7 @@
         <v>10</v>
       </c>
       <c r="E43" s="28" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="G43" s="28" t="n">
         <v>3</v>
@@ -13865,18 +13832,18 @@
   <dimension ref="A1:V11"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
+      <selection activeCell="A1" activeCellId="1" pane="topLeft" sqref="J5 A1"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="19.3529411764706"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="12.8509803921569"/>
-    <col collapsed="false" hidden="false" max="257" min="3" style="1" width="11.7843137254902"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="19.5450980392157"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="12.9803921568627"/>
+    <col collapsed="false" hidden="false" max="257" min="3" style="1" width="11.9019607843137"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1" s="6">
       <c r="A1" s="23" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="B1" s="26"/>
       <c r="C1" s="26"/>
@@ -13902,13 +13869,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="2">
       <c r="A2" s="31" t="s">
+        <v>994</v>
+      </c>
+      <c r="B2" s="31" t="s">
         <v>995</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="C2" s="31" t="s">
         <v>996</v>
-      </c>
-      <c r="C2" s="31" t="s">
-        <v>997</v>
       </c>
       <c r="D2" s="31"/>
       <c r="E2" s="31"/>
@@ -13932,13 +13899,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="3">
       <c r="A3" s="7" t="s">
+        <v>997</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>998</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="C3" s="7" t="s">
         <v>999</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>1000</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -13962,10 +13929,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="4">
       <c r="A4" s="28" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B4" s="28" t="s">
         <v>1001</v>
-      </c>
-      <c r="B4" s="28" t="s">
-        <v>1002</v>
       </c>
       <c r="C4" s="28" t="n">
         <v>4</v>
@@ -13973,10 +13940,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="5">
       <c r="A5" s="28" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B5" s="28" t="s">
         <v>1003</v>
-      </c>
-      <c r="B5" s="28" t="s">
-        <v>1004</v>
       </c>
       <c r="C5" s="28" t="n">
         <v>4</v>
@@ -13984,10 +13951,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="6">
       <c r="A6" s="28" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B6" s="28" t="s">
         <v>1005</v>
-      </c>
-      <c r="B6" s="28" t="s">
-        <v>1006</v>
       </c>
       <c r="C6" s="28" t="n">
         <v>3</v>
@@ -13995,10 +13962,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="7">
       <c r="A7" s="28" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B7" s="28" t="s">
         <v>1007</v>
-      </c>
-      <c r="B7" s="28" t="s">
-        <v>1008</v>
       </c>
       <c r="C7" s="28" t="n">
         <v>3</v>
@@ -14006,10 +13973,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="8">
       <c r="A8" s="28" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B8" s="28" t="s">
         <v>1009</v>
-      </c>
-      <c r="B8" s="28" t="s">
-        <v>1010</v>
       </c>
       <c r="C8" s="28" t="n">
         <v>4</v>
@@ -14017,10 +13984,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="9">
       <c r="A9" s="28" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B9" s="28" t="s">
         <v>1011</v>
-      </c>
-      <c r="B9" s="28" t="s">
-        <v>1012</v>
       </c>
       <c r="C9" s="28" t="n">
         <v>3</v>
@@ -14028,10 +13995,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="10">
       <c r="A10" s="28" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B10" s="28" t="s">
         <v>1013</v>
-      </c>
-      <c r="B10" s="28" t="s">
-        <v>1014</v>
       </c>
       <c r="C10" s="28" t="n">
         <v>4</v>
@@ -14039,10 +14006,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="11">
       <c r="A11" s="28" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B11" s="28" t="s">
         <v>1015</v>
-      </c>
-      <c r="B11" s="28" t="s">
-        <v>1016</v>
       </c>
       <c r="C11" s="28" t="n">
         <v>4</v>
@@ -14067,14 +14034,14 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
+      <selection activeCell="A4" activeCellId="1" pane="topLeft" sqref="J5 A4"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="18.0509803921569"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="32.7843137254902"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="24.3490196078431"/>
-    <col collapsed="false" hidden="false" max="257" min="4" style="1" width="11.7843137254902"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="18.2352941176471"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="33.1098039215686"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="24.5843137254902"/>
+    <col collapsed="false" hidden="false" max="257" min="4" style="1" width="11.9019607843137"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1" s="2">
@@ -14109,13 +14076,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="4">
       <c r="A4" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>141</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>142</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="5">
@@ -14123,10 +14090,10 @@
         <v>97</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>143</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>144</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="6">
@@ -14134,10 +14101,10 @@
         <v>114</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>145</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -14159,22 +14126,22 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
+      <selection activeCell="A1" activeCellId="1" pane="topLeft" sqref="J5 A1"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="8" width="14.7529411764706"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="9" width="19.9333333333333"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="9" width="13.4392156862745"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="9" width="22.2235294117647"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="9" width="13.5647058823529"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="9" width="14.5803921568627"/>
-    <col collapsed="false" hidden="false" max="257" min="7" style="9" width="11.7843137254902"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="8" width="14.9058823529412"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="9" width="20.1333333333333"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="9" width="13.5647058823529"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="9" width="22.4588235294118"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="9" width="13.7019607843137"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="9" width="14.7254901960784"/>
+    <col collapsed="false" hidden="false" max="257" min="7" style="9" width="11.9019607843137"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="11.6" outlineLevel="0" r="1" s="12">
       <c r="A1" s="10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="10"/>
@@ -14184,13 +14151,13 @@
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="13.95" outlineLevel="0" r="2" s="4">
       <c r="A2" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="4" t="s">
         <v>149</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>150</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>6</v>
@@ -14204,13 +14171,13 @@
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="11.9" outlineLevel="0" r="3" s="8">
       <c r="A3" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="C3" s="13" t="s">
         <v>151</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>152</v>
       </c>
       <c r="D3" s="13" t="s">
         <v>11</v>
@@ -14227,20 +14194,20 @@
         <v>320</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C4" s="14" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D4" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="E4" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="F4" s="14" t="s">
         <v>155</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>156</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="5">
@@ -14248,20 +14215,20 @@
         <v>330</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C5" s="14" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="D5" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="E5" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="F5" s="14" t="s">
         <v>159</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>160</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="6">
@@ -14269,20 +14236,20 @@
         <v>370</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C6" s="14" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D6" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="E6" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="E6" s="14" t="s">
-        <v>163</v>
-      </c>
       <c r="F6" s="14" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="7">
@@ -14290,20 +14257,20 @@
         <v>470</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C7" s="14" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D7" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="E7" s="14" t="s">
         <v>165</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="F7" s="14" t="s">
         <v>166</v>
-      </c>
-      <c r="F7" s="14" t="s">
-        <v>167</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="8">
@@ -14311,20 +14278,20 @@
         <v>410</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C8" s="14" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D8" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="E8" s="14" t="s">
         <v>169</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="F8" s="14" t="s">
         <v>170</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>171</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="9">
@@ -14332,20 +14299,20 @@
         <v>420</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C9" s="14" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D9" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="E9" s="14" t="s">
         <v>173</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="F9" s="14" t="s">
         <v>174</v>
-      </c>
-      <c r="F9" s="14" t="s">
-        <v>175</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="10">
@@ -14353,20 +14320,20 @@
         <v>440</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C10" s="14" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D10" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="E10" s="14" t="s">
         <v>177</v>
       </c>
-      <c r="E10" s="14" t="s">
-        <v>178</v>
-      </c>
       <c r="F10" s="14" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="11">
@@ -14374,20 +14341,20 @@
         <v>1624</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C11" s="14" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="D11" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="E11" s="14" t="s">
         <v>180</v>
       </c>
-      <c r="E11" s="14" t="s">
+      <c r="F11" s="14" t="s">
         <v>181</v>
-      </c>
-      <c r="F11" s="14" t="s">
-        <v>182</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="12">
@@ -14395,20 +14362,20 @@
         <v>480</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C12" s="14" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D12" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="E12" s="14" t="s">
         <v>184</v>
       </c>
-      <c r="E12" s="14" t="s">
+      <c r="F12" s="14" t="s">
         <v>185</v>
-      </c>
-      <c r="F12" s="14" t="s">
-        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -14430,39 +14397,39 @@
   <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100">
-      <selection activeCell="C11" activeCellId="0" pane="topLeft" sqref="C11"/>
+      <selection activeCell="C11" activeCellId="1" pane="topLeft" sqref="J5 C11"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="9" width="19.9333333333333"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="9" width="11.7843137254902"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="9" width="9.52549019607843"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="9" width="15.3019607843137"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="9" width="19.3529411764706"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="9" width="16.7411764705882"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="9" width="12.9882352941176"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="9" width="13.4235294117647"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="9" width="13.1333333333333"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="9" width="13.8745098039216"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="9" width="10.9725490196078"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="9" width="16.7411764705882"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="9" width="25.1333333333333"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="9" width="11.8470588235294"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="9" width="11.7843137254902"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="14" width="16.6039215686275"/>
-    <col collapsed="false" hidden="false" max="257" min="17" style="9" width="11.7843137254902"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="9" width="20.1333333333333"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="9" width="11.9019607843137"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="9" width="9.6156862745098"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="9" width="15.4549019607843"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="9" width="19.5450980392157"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="9" width="16.9019607843137"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="9" width="13.1137254901961"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="9" width="13.5647058823529"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="9" width="13.2588235294118"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="9" width="14.0078431372549"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="9" width="11.078431372549"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="9" width="16.9019607843137"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="9" width="25.3882352941176"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="9" width="11.9647058823529"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="9" width="11.9019607843137"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="14" width="16.7686274509804"/>
+    <col collapsed="false" hidden="false" max="257" min="17" style="9" width="11.9019607843137"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="11.6" outlineLevel="0" r="1" s="12">
       <c r="A1" s="10" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
       <c r="E1" s="11"/>
       <c r="F1" s="10" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G1" s="11"/>
       <c r="H1" s="11"/>
@@ -14477,7 +14444,7 @@
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="2" s="16">
       <c r="A2" s="15" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>1</v>
@@ -14516,18 +14483,18 @@
         <v>6</v>
       </c>
       <c r="N2" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="O2" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="P2" s="4" t="s">
         <v>191</v>
-      </c>
-      <c r="P2" s="4" t="s">
-        <v>192</v>
       </c>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="22.35" outlineLevel="0" r="3" s="8">
       <c r="A3" s="13" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>1</v>
@@ -14551,7 +14518,7 @@
         <v>69</v>
       </c>
       <c r="I3" s="13" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J3" s="13" t="s">
         <v>71</v>
@@ -14566,60 +14533,60 @@
         <v>11</v>
       </c>
       <c r="N3" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="O3" s="13" t="s">
         <v>195</v>
       </c>
-      <c r="O3" s="13" t="s">
+      <c r="P3" s="13" t="s">
         <v>196</v>
-      </c>
-      <c r="P3" s="13" t="s">
-        <v>197</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="4">
       <c r="A4" s="14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B4" s="14" t="s">
         <v>19</v>
       </c>
       <c r="C4" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="D4" s="14" t="s">
         <v>198</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="E4" s="14" t="s">
         <v>199</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>200</v>
       </c>
       <c r="F4" s="14" t="s">
         <v>97</v>
       </c>
       <c r="G4" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="H4" s="14" t="s">
         <v>201</v>
       </c>
-      <c r="H4" s="14" t="s">
+      <c r="I4" s="14" t="s">
         <v>202</v>
       </c>
-      <c r="I4" s="14" t="s">
+      <c r="J4" s="14" t="s">
         <v>203</v>
       </c>
-      <c r="J4" s="14" t="s">
+      <c r="K4" s="14" t="s">
         <v>204</v>
       </c>
-      <c r="K4" s="14" t="s">
+      <c r="L4" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="M4" s="14" t="s">
         <v>205</v>
       </c>
-      <c r="L4" s="14" t="s">
-        <v>205</v>
-      </c>
-      <c r="M4" s="14" t="s">
+      <c r="N4" s="14" t="s">
         <v>206</v>
       </c>
-      <c r="N4" s="14" t="s">
+      <c r="O4" s="14" t="s">
         <v>207</v>
-      </c>
-      <c r="O4" s="14" t="s">
-        <v>208</v>
       </c>
       <c r="P4" s="14" t="b">
         <f aca="false">TRUE()</f>
@@ -14628,49 +14595,49 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="5">
       <c r="A5" s="14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B5" s="14" t="s">
         <v>19</v>
       </c>
       <c r="C5" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="D5" s="14" t="s">
         <v>209</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="E5" s="14" t="s">
         <v>210</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="F5" s="14" t="s">
         <v>211</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="G5" s="14" t="s">
         <v>212</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="H5" s="14" t="s">
         <v>213</v>
       </c>
-      <c r="H5" s="14" t="s">
+      <c r="I5" s="14" t="s">
         <v>214</v>
       </c>
-      <c r="I5" s="14" t="s">
+      <c r="J5" s="14" t="s">
         <v>215</v>
       </c>
-      <c r="J5" s="14" t="s">
+      <c r="K5" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="L5" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="M5" s="14" t="s">
         <v>216</v>
       </c>
-      <c r="K5" s="14" t="s">
-        <v>208</v>
-      </c>
-      <c r="L5" s="14" t="s">
-        <v>208</v>
-      </c>
-      <c r="M5" s="14" t="s">
-        <v>217</v>
-      </c>
       <c r="N5" s="14" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="O5" s="14" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="P5" s="14" t="b">
         <f aca="false">TRUE()</f>
@@ -14679,49 +14646,49 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="6">
       <c r="A6" s="14" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B6" s="14" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="14" t="s">
+        <v>217</v>
+      </c>
+      <c r="D6" s="14" t="s">
         <v>218</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="E6" s="14" t="s">
         <v>219</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>220</v>
       </c>
       <c r="F6" s="14" t="s">
         <v>97</v>
       </c>
       <c r="G6" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="H6" s="14" t="s">
         <v>221</v>
       </c>
-      <c r="H6" s="14" t="s">
+      <c r="I6" s="14" t="s">
         <v>222</v>
       </c>
-      <c r="I6" s="14" t="s">
+      <c r="J6" s="14" t="s">
         <v>223</v>
       </c>
-      <c r="J6" s="14" t="s">
+      <c r="K6" s="14" t="s">
         <v>224</v>
       </c>
-      <c r="K6" s="14" t="s">
+      <c r="L6" s="14" t="s">
+        <v>224</v>
+      </c>
+      <c r="M6" s="14" t="s">
         <v>225</v>
       </c>
-      <c r="L6" s="14" t="s">
-        <v>225</v>
-      </c>
-      <c r="M6" s="14" t="s">
+      <c r="N6" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="O6" s="14" t="s">
         <v>226</v>
-      </c>
-      <c r="N6" s="14" t="s">
-        <v>207</v>
-      </c>
-      <c r="O6" s="14" t="s">
-        <v>227</v>
       </c>
       <c r="P6" s="14" t="b">
         <f aca="false">TRUE()</f>
@@ -14730,49 +14697,49 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="7">
       <c r="A7" s="14" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B7" s="14" t="s">
         <v>13</v>
       </c>
       <c r="C7" s="14" t="s">
+        <v>227</v>
+      </c>
+      <c r="D7" s="14" t="s">
         <v>228</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="E7" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="F7" s="14" t="s">
         <v>229</v>
       </c>
-      <c r="E7" s="14" t="s">
-        <v>200</v>
-      </c>
-      <c r="F7" s="14" t="s">
+      <c r="G7" s="14" t="s">
         <v>230</v>
       </c>
-      <c r="G7" s="14" t="s">
+      <c r="H7" s="14" t="s">
         <v>231</v>
       </c>
-      <c r="H7" s="14" t="s">
+      <c r="I7" s="14" t="s">
         <v>232</v>
       </c>
-      <c r="I7" s="14" t="s">
+      <c r="J7" s="14" t="s">
         <v>233</v>
       </c>
-      <c r="J7" s="14" t="s">
+      <c r="K7" s="14" t="s">
+        <v>226</v>
+      </c>
+      <c r="L7" s="14" t="s">
+        <v>226</v>
+      </c>
+      <c r="M7" s="14" t="s">
         <v>234</v>
       </c>
-      <c r="K7" s="14" t="s">
-        <v>227</v>
-      </c>
-      <c r="L7" s="14" t="s">
-        <v>227</v>
-      </c>
-      <c r="M7" s="14" t="s">
-        <v>235</v>
-      </c>
       <c r="N7" s="14" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="O7" s="14" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="P7" s="14" t="b">
         <f aca="false">TRUE()</f>
@@ -14781,49 +14748,49 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="8">
       <c r="A8" s="14" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B8" s="14" t="s">
         <v>19</v>
       </c>
       <c r="C8" s="14" t="s">
+        <v>235</v>
+      </c>
+      <c r="D8" s="14" t="s">
         <v>236</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="E8" s="14" t="s">
         <v>237</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>238</v>
       </c>
       <c r="F8" s="14" t="s">
         <v>97</v>
       </c>
       <c r="G8" s="14" t="s">
+        <v>238</v>
+      </c>
+      <c r="H8" s="14" t="s">
         <v>239</v>
       </c>
-      <c r="H8" s="14" t="s">
+      <c r="I8" s="14" t="s">
         <v>240</v>
       </c>
-      <c r="I8" s="14" t="s">
+      <c r="J8" s="14" t="s">
         <v>241</v>
       </c>
-      <c r="J8" s="14" t="s">
+      <c r="K8" s="14" t="s">
         <v>242</v>
       </c>
-      <c r="K8" s="14" t="s">
+      <c r="L8" s="14" t="s">
+        <v>242</v>
+      </c>
+      <c r="M8" s="14" t="s">
         <v>243</v>
       </c>
-      <c r="L8" s="14" t="s">
-        <v>243</v>
-      </c>
-      <c r="M8" s="14" t="s">
+      <c r="N8" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="O8" s="14" t="s">
         <v>244</v>
-      </c>
-      <c r="N8" s="14" t="s">
-        <v>207</v>
-      </c>
-      <c r="O8" s="14" t="s">
-        <v>245</v>
       </c>
       <c r="P8" s="14" t="b">
         <f aca="false">TRUE()</f>
@@ -14832,100 +14799,100 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="22.35" outlineLevel="0" r="9">
       <c r="A9" s="14" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B9" s="14" t="s">
         <v>13</v>
       </c>
       <c r="C9" s="14" t="s">
+        <v>245</v>
+      </c>
+      <c r="D9" s="14" t="s">
         <v>246</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="E9" s="14" t="s">
         <v>247</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="F9" s="14" t="s">
         <v>248</v>
       </c>
-      <c r="F9" s="14" t="s">
+      <c r="G9" s="14" t="s">
         <v>249</v>
       </c>
-      <c r="G9" s="14" t="s">
+      <c r="H9" s="14" t="s">
         <v>250</v>
       </c>
-      <c r="H9" s="14" t="s">
+      <c r="I9" s="14" t="s">
         <v>251</v>
       </c>
-      <c r="I9" s="14" t="s">
+      <c r="J9" s="14" t="s">
         <v>252</v>
       </c>
-      <c r="J9" s="14" t="s">
+      <c r="K9" s="14" t="s">
+        <v>244</v>
+      </c>
+      <c r="L9" s="14" t="s">
+        <v>244</v>
+      </c>
+      <c r="M9" s="14" t="s">
         <v>253</v>
       </c>
-      <c r="K9" s="14" t="s">
-        <v>245</v>
-      </c>
-      <c r="L9" s="14" t="s">
-        <v>245</v>
-      </c>
-      <c r="M9" s="14" t="s">
-        <v>254</v>
-      </c>
       <c r="N9" s="14" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="O9" s="14" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="P9" s="14" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="22.35" outlineLevel="0" r="10">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="10">
       <c r="A10" s="14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B10" s="14" t="s">
         <v>19</v>
       </c>
       <c r="C10" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="D10" s="14" t="s">
         <v>255</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="E10" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="F10" s="14" t="s">
         <v>256</v>
       </c>
-      <c r="E10" s="14" t="s">
-        <v>211</v>
-      </c>
-      <c r="F10" s="14" t="s">
+      <c r="G10" s="14" t="s">
         <v>257</v>
       </c>
-      <c r="G10" s="14" t="s">
+      <c r="H10" s="14" t="s">
         <v>258</v>
       </c>
-      <c r="H10" s="14" t="s">
+      <c r="I10" s="14" t="s">
         <v>259</v>
       </c>
-      <c r="I10" s="14" t="s">
+      <c r="J10" s="14" t="s">
         <v>260</v>
       </c>
-      <c r="J10" s="14" t="s">
+      <c r="K10" s="14" t="s">
         <v>261</v>
       </c>
-      <c r="K10" s="14" t="s">
+      <c r="L10" s="14" t="s">
+        <v>261</v>
+      </c>
+      <c r="M10" s="14" t="s">
         <v>262</v>
       </c>
-      <c r="L10" s="14" t="s">
-        <v>262</v>
-      </c>
-      <c r="M10" s="14" t="s">
+      <c r="N10" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="O10" s="14" t="s">
         <v>263</v>
-      </c>
-      <c r="N10" s="14" t="s">
-        <v>207</v>
-      </c>
-      <c r="O10" s="14" t="s">
-        <v>264</v>
       </c>
       <c r="P10" s="14" t="b">
         <f aca="false">TRUE()</f>
@@ -14934,22 +14901,22 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="11">
       <c r="A11" s="14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B11" s="14" t="s">
         <v>13</v>
       </c>
       <c r="C11" s="14" t="s">
+        <v>264</v>
+      </c>
+      <c r="D11" s="14" t="s">
         <v>265</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="E11" s="14" t="s">
+        <v>219</v>
+      </c>
+      <c r="F11" s="14" t="s">
         <v>266</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>220</v>
-      </c>
-      <c r="F11" s="14" t="s">
-        <v>81</v>
       </c>
       <c r="G11" s="14" t="s">
         <v>267</v>
@@ -14964,19 +14931,19 @@
         <v>270</v>
       </c>
       <c r="K11" s="14" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L11" s="14" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="M11" s="14" t="s">
         <v>271</v>
       </c>
       <c r="N11" s="14" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="O11" s="14" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="P11" s="14" t="b">
         <f aca="false">TRUE()</f>
@@ -14985,7 +14952,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="22.35" outlineLevel="0" r="12">
       <c r="A12" s="14" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B12" s="14" t="s">
         <v>19</v>
@@ -15000,7 +14967,7 @@
         <v>274</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G12" s="14" t="s">
         <v>275</v>
@@ -15024,7 +14991,7 @@
         <v>280</v>
       </c>
       <c r="N12" s="14" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="O12" s="14" t="s">
         <v>281</v>
@@ -15036,7 +15003,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="13">
       <c r="A13" s="14" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B13" s="14" t="s">
         <v>282</v>
@@ -15048,7 +15015,7 @@
         <v>284</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F13" s="14" t="s">
         <v>97</v>
@@ -15075,7 +15042,7 @@
         <v>289</v>
       </c>
       <c r="N13" s="14" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="O13" s="14" t="s">
         <v>279</v>
@@ -15085,9 +15052,9 @@
         <v>1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="22.35" outlineLevel="0" r="14">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="14">
       <c r="A14" s="14" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B14" s="14" t="s">
         <v>19</v>
@@ -15099,10 +15066,10 @@
         <v>291</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F14" s="14" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G14" s="14" t="s">
         <v>292</v>
@@ -15126,7 +15093,7 @@
         <v>297</v>
       </c>
       <c r="N14" s="14" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="O14" s="14" t="s">
         <v>298</v>
@@ -15138,7 +15105,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="15">
       <c r="A15" s="14" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B15" s="14" t="s">
         <v>13</v>
@@ -15177,7 +15144,7 @@
         <v>306</v>
       </c>
       <c r="N15" s="14" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="O15" s="14" t="s">
         <v>296</v>
@@ -15189,7 +15156,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="16">
       <c r="A16" s="14" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B16" s="14" t="s">
         <v>13</v>
@@ -15201,7 +15168,7 @@
         <v>308</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F16" s="14" t="s">
         <v>97</v>
@@ -15228,7 +15195,7 @@
         <v>314</v>
       </c>
       <c r="N16" s="14" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="O16" s="14" t="s">
         <v>315</v>
@@ -15240,7 +15207,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="22.35" outlineLevel="0" r="17">
       <c r="A17" s="14" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B17" s="14" t="s">
         <v>19</v>
@@ -15279,7 +15246,7 @@
         <v>323</v>
       </c>
       <c r="N17" s="14" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="O17" s="14" t="s">
         <v>313</v>
@@ -15291,7 +15258,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="18">
       <c r="A18" s="14" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B18" s="14" t="s">
         <v>19</v>
@@ -15303,10 +15270,10 @@
         <v>325</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F18" s="14" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G18" s="14" t="s">
         <v>326</v>
@@ -15330,7 +15297,7 @@
         <v>331</v>
       </c>
       <c r="N18" s="14" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="O18" s="14" t="s">
         <v>332</v>
@@ -15340,9 +15307,9 @@
         <v>1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="22.35" outlineLevel="0" r="19">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="19">
       <c r="A19" s="14" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B19" s="14" t="s">
         <v>13</v>
@@ -15357,7 +15324,7 @@
         <v>335</v>
       </c>
       <c r="F19" s="14" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G19" s="14" t="s">
         <v>336</v>
@@ -15381,7 +15348,7 @@
         <v>340</v>
       </c>
       <c r="N19" s="14" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="O19" s="14" t="s">
         <v>330</v>
@@ -15393,7 +15360,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="22.35" outlineLevel="0" r="20">
       <c r="A20" s="14" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B20" s="14" t="s">
         <v>13</v>
@@ -15405,10 +15372,10 @@
         <v>342</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F20" s="14" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G20" s="14" t="s">
         <v>343</v>
@@ -15432,7 +15399,7 @@
         <v>348</v>
       </c>
       <c r="N20" s="14" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="O20" s="14" t="s">
         <v>349</v>
@@ -15444,7 +15411,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="21">
       <c r="A21" s="14" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B21" s="14" t="s">
         <v>282</v>
@@ -15483,7 +15450,7 @@
         <v>357</v>
       </c>
       <c r="N21" s="14" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="O21" s="14" t="s">
         <v>347</v>
@@ -15512,19 +15479,19 @@
   <dimension ref="A1:T23"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
+      <selection activeCell="A1" activeCellId="1" pane="topLeft" sqref="J5 A1"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="17" width="24.3921568627451"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="17" width="35.0823529411765"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="17" width="39.4078431372549"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="17" width="16.3176470588235"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="17" width="27.8745098039216"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="17" width="11.7843137254902"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="17" width="21.9490196078431"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="17" width="19.9686274509804"/>
-    <col collapsed="false" hidden="false" max="257" min="9" style="17" width="11.7843137254902"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="17" width="24.6352941176471"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="17" width="35.4274509803922"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="17" width="39.8039215686275"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="17" width="16.478431372549"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="17" width="28.1450980392157"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="17" width="11.9019607843137"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="17" width="22.1686274509804"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="17" width="20.1686274509804"/>
+    <col collapsed="false" hidden="false" max="257" min="9" style="17" width="11.9019607843137"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1" s="19">
@@ -16135,20 +16102,20 @@
   <dimension ref="A1:T14"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
+      <selection activeCell="A1" activeCellId="1" pane="topLeft" sqref="J5 A1"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="16.0352941176471"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="23.8235294117647"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="6.05882352941176"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="7.07450980392157"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="8.95294117647059"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="11.4941176470588"/>
-    <col collapsed="false" hidden="false" max="10" min="7" style="1" width="5.1921568627451"/>
-    <col collapsed="false" hidden="false" max="14" min="11" style="1" width="6.05882352941176"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="10.8274509803922"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="1" width="11.7843137254902"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="16.2"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="24.0588235294118"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="6.12156862745098"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="7.14509803921569"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="9.04313725490196"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="11.6117647058824"/>
+    <col collapsed="false" hidden="false" max="10" min="7" style="1" width="5.24705882352941"/>
+    <col collapsed="false" hidden="false" max="14" min="11" style="1" width="6.12156862745098"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="10.9333333333333"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="1" width="11.9019607843137"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="13.05" outlineLevel="0" r="1" s="2">
@@ -16887,14 +16854,14 @@
   <dimension ref="A1:L47"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
+      <selection activeCell="A1" activeCellId="1" pane="topLeft" sqref="J5 A1"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="27.1529411764706"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="35.8156862745098"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="14.5803921568627"/>
-    <col collapsed="false" hidden="false" max="257" min="4" style="1" width="11.7843137254902"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="27.4235294117647"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="36.1764705882353"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="14.7254901960784"/>
+    <col collapsed="false" hidden="false" max="257" min="4" style="1" width="11.9019607843137"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1" s="2">
@@ -17591,14 +17558,14 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
+      <selection activeCell="A1" activeCellId="1" pane="topLeft" sqref="J5 A1"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="33" width="19.643137254902"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="33" width="43.6196078431373"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="33" width="23.5411764705882"/>
-    <col collapsed="false" hidden="false" max="257" min="4" style="33" width="11.7843137254902"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="33" width="19.843137254902"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="33" width="44.0549019607843"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="33" width="23.7764705882353"/>
+    <col collapsed="false" hidden="false" max="257" min="4" style="33" width="11.9019607843137"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="1" s="34">
@@ -17689,13 +17656,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="7">
       <c r="A7" s="1" t="s">
-        <v>81</v>
+        <v>266</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>600</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>140</v>
+        <v>81</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="8">

--- a/bika/lims/test_setup_data.xlsx
+++ b/bika/lims/test_setup_data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="955" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="22" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="955" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="Setup" sheetId="1" state="visible" r:id="rId2"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2158" uniqueCount="1052">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2158" uniqueCount="1051">
   <si>
     <t>Password lifetime</t>
   </si>
@@ -84,7 +84,7 @@
     <t>DM</t>
   </si>
   <si>
-    <t>Moist </t>
+    <t>Moist</t>
   </si>
   <si>
     <t>Classic</t>
@@ -2379,9 +2379,6 @@
     <t>dry sample and container are captured. The result is determined by the formula: (wet sample - dry sample) / (wet sample - container)</t>
   </si>
   <si>
-    <t>Moist</t>
-  </si>
-  <si>
     <t>Nitrates &amp; Nitrites</t>
   </si>
   <si>
@@ -3214,7 +3211,7 @@
   <numFmts count="5">
     <numFmt formatCode="GENERAL" numFmtId="164"/>
     <numFmt formatCode="@" numFmtId="165"/>
-    <numFmt formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;" numFmtId="166"/>
+    <numFmt formatCode="GENERAL" numFmtId="166"/>
     <numFmt formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;" numFmtId="167"/>
     <numFmt formatCode="0.00%" numFmtId="168"/>
   </numFmts>
@@ -3379,7 +3376,9 @@
     <xf applyAlignment="true" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
+    </xf>
     <xf applyAlignment="true" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0">
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
     </xf>
@@ -3609,12 +3608,12 @@
   </sheetPr>
   <dimension ref="A3:N4"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="N7" activeCellId="0" pane="topLeft" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="257" min="1" style="1" width="11.6235294117647"/>
+    <col collapsed="false" hidden="false" max="257" min="1" style="1" width="11.6745098039216"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="51.45" outlineLevel="0" r="3">
@@ -3725,10 +3724,10 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="10" width="27.556862745098"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="6" width="36.356862745098"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="6" width="14.7960784313726"/>
-    <col collapsed="false" hidden="false" max="257" min="4" style="6" width="11.9647058823529"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="10" width="27.6941176470588"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="6" width="36.5372549019608"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="6" width="14.8705882352941"/>
+    <col collapsed="false" hidden="false" max="257" min="4" style="6" width="12.0196078431373"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="13.55" outlineLevel="0" r="1" s="7">
@@ -4429,10 +4428,10 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="38" width="19.9411764705882"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="38" width="44.2705882352941"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="38" width="23.8941176470588"/>
-    <col collapsed="false" hidden="false" max="257" min="4" style="38" width="11.9647058823529"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="38" width="20.043137254902"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="38" width="44.4901960784314"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="38" width="24.0117647058824"/>
+    <col collapsed="false" hidden="false" max="257" min="4" style="38" width="12.0196078431373"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.75" outlineLevel="0" r="1" s="39">
@@ -4599,10 +4598,10 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="6" width="25.9372549019608"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="6" width="67.2980392156863"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="6" width="23.7411764705882"/>
-    <col collapsed="false" hidden="false" max="257" min="5" style="6" width="11.9647058823529"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="6" width="26.0666666666667"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="6" width="67.6352941176471"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="6" width="23.8588235294118"/>
+    <col collapsed="false" hidden="false" max="257" min="5" style="6" width="12.0196078431373"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="13.55" outlineLevel="0" r="1" s="7">
@@ -4790,7 +4789,7 @@
         <v>678</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="144.75" outlineLevel="0" r="11">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="132.8" outlineLevel="0" r="11">
       <c r="A11" s="6" t="s">
         <v>679</v>
       </c>
@@ -4866,33 +4865,33 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="27" width="12.3176470588235"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="27" width="18.3254901960784"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="27" width="9.23529411764706"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="27" width="8.7921568627451"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="27" width="12.0196078431373"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="42" width="7.6156862745098"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="27" width="12.6078431372549"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="27" width="7.75294117647059"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="27" width="6.02352941176471"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="27" width="6.14901960784314"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="27" width="7.32549019607843"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="27" width="5.94117647058824"/>
-    <col collapsed="false" hidden="false" max="15" min="14" style="27" width="6.14901960784314"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="27" width="4.9843137254902"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="27" width="8.05098039215686"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="27" width="7.75294117647059"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="27" width="12.7529411764706"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="27" width="9.82352941176471"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="42" width="7.90588235294118"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="27" width="14.5529411764706"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="22" width="10.9882352941176"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="27" width="11.9647058823529"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="6" width="34.8941176470588"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="6" width="6.60392156862745"/>
-    <col collapsed="false" hidden="false" max="28" min="27" style="6" width="11.9647058823529"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="33" width="10.9882352941176"/>
-    <col collapsed="false" hidden="false" max="257" min="30" style="33" width="11.9647058823529"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="27" width="12.3803921568627"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="27" width="18.4156862745098"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="27" width="9.27843137254902"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="27" width="8.83529411764706"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="27" width="12.0823529411765"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="42" width="7.65098039215686"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="27" width="12.6705882352941"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="27" width="7.79607843137255"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="27" width="6.05882352941176"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="27" width="6.17647058823529"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="27" width="7.36078431372549"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="27" width="5.96862745098039"/>
+    <col collapsed="false" hidden="false" max="15" min="14" style="27" width="6.17647058823529"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="27" width="5.01176470588235"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="27" width="8.09411764705882"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="27" width="7.79607843137255"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="27" width="12.8156862745098"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="27" width="9.86666666666667"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="42" width="7.94901960784314"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="27" width="14.6235294117647"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="22" width="11.043137254902"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="27" width="12.0196078431373"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="6" width="35.0666666666667"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="6" width="6.63921568627451"/>
+    <col collapsed="false" hidden="false" max="28" min="27" style="6" width="12.0196078431373"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="33" width="11.043137254902"/>
+    <col collapsed="false" hidden="false" max="257" min="30" style="33" width="12.0196078431373"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="24.25" outlineLevel="0" r="1" s="28">
@@ -7278,7 +7277,7 @@
         <v>775</v>
       </c>
       <c r="C84" s="27" t="s">
-        <v>776</v>
+        <v>15</v>
       </c>
       <c r="D84" s="27" t="s">
         <v>734</v>
@@ -7381,10 +7380,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="25.35" outlineLevel="0" r="88">
       <c r="A88" s="27" t="s">
+        <v>776</v>
+      </c>
+      <c r="C88" s="27" t="s">
         <v>777</v>
-      </c>
-      <c r="C88" s="27" t="s">
-        <v>778</v>
       </c>
       <c r="D88" s="27" t="s">
         <v>734</v>
@@ -7484,10 +7483,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.55" outlineLevel="0" r="92">
       <c r="A92" s="27" t="s">
+        <v>778</v>
+      </c>
+      <c r="C92" s="27" t="s">
         <v>779</v>
-      </c>
-      <c r="C92" s="27" t="s">
-        <v>780</v>
       </c>
       <c r="D92" s="27" t="s">
         <v>734</v>
@@ -7599,10 +7598,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="25.35" outlineLevel="0" r="96">
       <c r="A96" s="27" t="s">
+        <v>780</v>
+      </c>
+      <c r="C96" s="27" t="s">
         <v>781</v>
-      </c>
-      <c r="C96" s="27" t="s">
-        <v>782</v>
       </c>
       <c r="D96" s="27" t="s">
         <v>734</v>
@@ -7705,10 +7704,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="25.35" outlineLevel="0" r="100">
       <c r="A100" s="27" t="s">
+        <v>782</v>
+      </c>
+      <c r="C100" s="27" t="s">
         <v>783</v>
-      </c>
-      <c r="C100" s="27" t="s">
-        <v>784</v>
       </c>
       <c r="D100" s="27" t="s">
         <v>734</v>
@@ -7808,10 +7807,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="37.3" outlineLevel="0" r="104">
       <c r="A104" s="27" t="s">
+        <v>784</v>
+      </c>
+      <c r="C104" s="27" t="s">
         <v>785</v>
-      </c>
-      <c r="C104" s="27" t="s">
-        <v>786</v>
       </c>
       <c r="D104" s="27" t="s">
         <v>734</v>
@@ -7914,10 +7913,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="37.3" outlineLevel="0" r="108">
       <c r="A108" s="27" t="s">
+        <v>786</v>
+      </c>
+      <c r="C108" s="27" t="s">
         <v>787</v>
-      </c>
-      <c r="C108" s="27" t="s">
-        <v>788</v>
       </c>
       <c r="D108" s="27" t="s">
         <v>734</v>
@@ -8023,13 +8022,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="37.3" outlineLevel="0" r="112">
       <c r="A112" s="27" t="s">
+        <v>788</v>
+      </c>
+      <c r="B112" s="27" t="s">
         <v>789</v>
       </c>
-      <c r="B112" s="27" t="s">
+      <c r="C112" s="27" t="s">
         <v>790</v>
-      </c>
-      <c r="C112" s="27" t="s">
-        <v>791</v>
       </c>
       <c r="D112" s="27" t="s">
         <v>734</v>
@@ -8132,13 +8131,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="156.7" outlineLevel="0" r="116">
       <c r="A116" s="27" t="s">
+        <v>791</v>
+      </c>
+      <c r="B116" s="27" t="s">
         <v>792</v>
       </c>
-      <c r="B116" s="27" t="s">
+      <c r="C116" s="27" t="s">
         <v>793</v>
-      </c>
-      <c r="C116" s="27" t="s">
-        <v>794</v>
       </c>
       <c r="D116" s="27" t="s">
         <v>734</v>
@@ -8241,10 +8240,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="37.3" outlineLevel="0" r="120">
       <c r="A120" s="27" t="s">
+        <v>794</v>
+      </c>
+      <c r="C120" s="27" t="s">
         <v>795</v>
-      </c>
-      <c r="C120" s="27" t="s">
-        <v>796</v>
       </c>
       <c r="D120" s="27" t="s">
         <v>734</v>
@@ -8347,10 +8346,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.55" outlineLevel="0" r="124">
       <c r="A124" s="27" t="s">
+        <v>796</v>
+      </c>
+      <c r="C124" s="27" t="s">
         <v>797</v>
-      </c>
-      <c r="C124" s="27" t="s">
-        <v>798</v>
       </c>
       <c r="D124" s="27" t="s">
         <v>734</v>
@@ -8462,10 +8461,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.55" outlineLevel="0" r="128">
       <c r="A128" s="27" t="s">
+        <v>798</v>
+      </c>
+      <c r="C128" s="27" t="s">
         <v>799</v>
-      </c>
-      <c r="C128" s="27" t="s">
-        <v>800</v>
       </c>
       <c r="D128" s="27" t="s">
         <v>734</v>
@@ -8565,13 +8564,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="25.35" outlineLevel="0" r="132">
       <c r="A132" s="27" t="s">
+        <v>800</v>
+      </c>
+      <c r="B132" s="27" t="s">
         <v>801</v>
       </c>
-      <c r="B132" s="27" t="s">
+      <c r="C132" s="27" t="s">
         <v>802</v>
-      </c>
-      <c r="C132" s="27" t="s">
-        <v>803</v>
       </c>
       <c r="D132" s="27" t="s">
         <v>734</v>
@@ -8677,10 +8676,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="25.35" outlineLevel="0" r="136">
       <c r="A136" s="27" t="s">
+        <v>803</v>
+      </c>
+      <c r="C136" s="27" t="s">
         <v>804</v>
-      </c>
-      <c r="C136" s="27" t="s">
-        <v>805</v>
       </c>
       <c r="D136" s="27" t="s">
         <v>734</v>
@@ -8792,13 +8791,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="25.35" outlineLevel="0" r="140">
       <c r="A140" s="27" t="s">
+        <v>805</v>
+      </c>
+      <c r="B140" s="27" t="s">
         <v>806</v>
       </c>
-      <c r="B140" s="27" t="s">
+      <c r="C140" s="27" t="s">
         <v>807</v>
-      </c>
-      <c r="C140" s="27" t="s">
-        <v>808</v>
       </c>
       <c r="D140" s="27" t="s">
         <v>734</v>
@@ -8898,10 +8897,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="25.35" outlineLevel="0" r="144">
       <c r="A144" s="27" t="s">
+        <v>808</v>
+      </c>
+      <c r="C144" s="27" t="s">
         <v>809</v>
-      </c>
-      <c r="C144" s="27" t="s">
-        <v>810</v>
       </c>
       <c r="D144" s="27" t="s">
         <v>734</v>
@@ -9001,10 +9000,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="25.35" outlineLevel="0" r="148">
       <c r="A148" s="27" t="s">
+        <v>810</v>
+      </c>
+      <c r="C148" s="27" t="s">
         <v>811</v>
-      </c>
-      <c r="C148" s="27" t="s">
-        <v>812</v>
       </c>
       <c r="D148" s="27" t="s">
         <v>734</v>
@@ -9104,10 +9103,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="25.35" outlineLevel="0" r="152">
       <c r="A152" s="27" t="s">
+        <v>812</v>
+      </c>
+      <c r="C152" s="27" t="s">
         <v>813</v>
-      </c>
-      <c r="C152" s="27" t="s">
-        <v>814</v>
       </c>
       <c r="D152" s="27" t="s">
         <v>734</v>
@@ -9207,10 +9206,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="25.35" outlineLevel="0" r="156">
       <c r="A156" s="27" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C156" s="27" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D156" s="27" t="s">
         <v>734</v>
@@ -9316,10 +9315,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.55" outlineLevel="0" r="160">
       <c r="A160" s="27" t="s">
+        <v>815</v>
+      </c>
+      <c r="C160" s="27" t="s">
         <v>816</v>
-      </c>
-      <c r="C160" s="27" t="s">
-        <v>817</v>
       </c>
       <c r="D160" s="27" t="s">
         <v>734</v>
@@ -9431,10 +9430,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="49.25" outlineLevel="0" r="164">
       <c r="A164" s="27" t="s">
+        <v>817</v>
+      </c>
+      <c r="B164" s="27" t="s">
         <v>818</v>
-      </c>
-      <c r="B164" s="27" t="s">
-        <v>819</v>
       </c>
       <c r="C164" s="27" t="s">
         <v>14</v>
@@ -9474,13 +9473,13 @@
         <v>10</v>
       </c>
       <c r="O164" s="27" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="P164" s="27" t="n">
         <v>14</v>
       </c>
       <c r="S164" s="27" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="T164" s="27" t="n">
         <v>10</v>
@@ -9537,13 +9536,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="61.15" outlineLevel="0" r="168">
       <c r="A168" s="27" t="s">
+        <v>820</v>
+      </c>
+      <c r="B168" s="27" t="s">
         <v>821</v>
       </c>
-      <c r="B168" s="27" t="s">
+      <c r="C168" s="27" t="s">
         <v>822</v>
-      </c>
-      <c r="C168" s="27" t="s">
-        <v>823</v>
       </c>
       <c r="D168" s="27" t="s">
         <v>734</v>
@@ -9562,7 +9561,7 @@
         <v>17</v>
       </c>
       <c r="I168" s="27" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="J168" s="27" t="n">
         <v>2</v>
@@ -9580,13 +9579,13 @@
         <v>10</v>
       </c>
       <c r="O168" s="27" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="P168" s="27" t="n">
         <v>14</v>
       </c>
       <c r="S168" s="27" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="T168" s="27" t="n">
         <v>10</v>
@@ -9640,13 +9639,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="37.3" outlineLevel="0" r="172">
       <c r="A172" s="27" t="s">
+        <v>825</v>
+      </c>
+      <c r="B172" s="27" t="s">
         <v>826</v>
       </c>
-      <c r="B172" s="27" t="s">
+      <c r="C172" s="27" t="s">
         <v>827</v>
-      </c>
-      <c r="C172" s="27" t="s">
-        <v>828</v>
       </c>
       <c r="D172" s="27" t="s">
         <v>734</v>
@@ -9665,7 +9664,7 @@
         <v>17</v>
       </c>
       <c r="I172" s="27" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="J172" s="27" t="n">
         <v>2</v>
@@ -9683,13 +9682,13 @@
         <v>10</v>
       </c>
       <c r="O172" s="27" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="P172" s="27" t="n">
         <v>14</v>
       </c>
       <c r="S172" s="27" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="T172" s="27" t="n">
         <v>10</v>
@@ -9741,15 +9740,15 @@
         <v>0.4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="49.25" outlineLevel="0" r="176">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="37.3" outlineLevel="0" r="176">
       <c r="A176" s="27" t="s">
+        <v>830</v>
+      </c>
+      <c r="B176" s="27" t="s">
         <v>831</v>
       </c>
-      <c r="B176" s="27" t="s">
+      <c r="C176" s="27" t="s">
         <v>832</v>
-      </c>
-      <c r="C176" s="27" t="s">
-        <v>833</v>
       </c>
       <c r="D176" s="27" t="s">
         <v>734</v>
@@ -9768,7 +9767,7 @@
         <v>17</v>
       </c>
       <c r="I176" s="27" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="J176" s="27" t="n">
         <v>2</v>
@@ -9786,13 +9785,13 @@
         <v>10</v>
       </c>
       <c r="O176" s="27" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="P176" s="27" t="n">
         <v>14</v>
       </c>
       <c r="S176" s="27" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="T176" s="27" t="n">
         <v>10</v>
@@ -9846,13 +9845,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="37.3" outlineLevel="0" r="180">
       <c r="A180" s="27" t="s">
+        <v>834</v>
+      </c>
+      <c r="B180" s="27" t="s">
         <v>835</v>
       </c>
-      <c r="B180" s="27" t="s">
+      <c r="C180" s="27" t="s">
         <v>836</v>
-      </c>
-      <c r="C180" s="27" t="s">
-        <v>837</v>
       </c>
       <c r="D180" s="27" t="s">
         <v>734</v>
@@ -9871,7 +9870,7 @@
         <v>17</v>
       </c>
       <c r="I180" s="27" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="J180" s="27" t="n">
         <v>2</v>
@@ -9889,13 +9888,13 @@
         <v>10</v>
       </c>
       <c r="O180" s="27" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="P180" s="27" t="n">
         <v>14</v>
       </c>
       <c r="S180" s="27" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="T180" s="27" t="n">
         <v>10</v>
@@ -9949,13 +9948,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="37.3" outlineLevel="0" r="184">
       <c r="A184" s="27" t="s">
+        <v>838</v>
+      </c>
+      <c r="B184" s="27" t="s">
         <v>839</v>
       </c>
-      <c r="B184" s="27" t="s">
+      <c r="C184" s="27" t="s">
         <v>840</v>
-      </c>
-      <c r="C184" s="27" t="s">
-        <v>841</v>
       </c>
       <c r="D184" s="27" t="s">
         <v>734</v>
@@ -9974,7 +9973,7 @@
         <v>17</v>
       </c>
       <c r="I184" s="27" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="J184" s="27" t="n">
         <v>2</v>
@@ -9992,13 +9991,13 @@
         <v>10</v>
       </c>
       <c r="O184" s="27" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="P184" s="27" t="n">
         <v>14</v>
       </c>
       <c r="S184" s="27" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="T184" s="27" t="n">
         <v>10</v>
@@ -10052,13 +10051,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="37.3" outlineLevel="0" r="188">
       <c r="A188" s="27" t="s">
+        <v>841</v>
+      </c>
+      <c r="B188" s="27" t="s">
         <v>842</v>
       </c>
-      <c r="B188" s="27" t="s">
+      <c r="C188" s="27" t="s">
         <v>843</v>
-      </c>
-      <c r="C188" s="27" t="s">
-        <v>844</v>
       </c>
       <c r="D188" s="27" t="s">
         <v>734</v>
@@ -10092,31 +10091,31 @@
         <v>10</v>
       </c>
       <c r="O188" s="27" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="P188" s="27" t="n">
         <v>14</v>
       </c>
       <c r="T188" s="27" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="U188" s="42" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="W188" s="27" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="37.3" outlineLevel="0" r="189">
       <c r="A189" s="27" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="B189" s="27" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="C189" s="27" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="D189" s="27" t="s">
         <v>734</v>
@@ -10150,31 +10149,31 @@
         <v>10</v>
       </c>
       <c r="O189" s="27" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="P189" s="27" t="n">
         <v>14</v>
       </c>
       <c r="T189" s="27" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="U189" s="42" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="W189" s="27" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="37.3" outlineLevel="0" r="190">
       <c r="A190" s="27" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="B190" s="27" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="C190" s="27" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="D190" s="27" t="s">
         <v>734</v>
@@ -10208,31 +10207,31 @@
         <v>10</v>
       </c>
       <c r="O190" s="27" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="P190" s="27" t="n">
         <v>14</v>
       </c>
       <c r="T190" s="27" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="U190" s="42" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="W190" s="27" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="37.3" outlineLevel="0" r="191">
       <c r="A191" s="27" t="s">
+        <v>848</v>
+      </c>
+      <c r="B191" s="27" t="s">
+        <v>842</v>
+      </c>
+      <c r="C191" s="27" t="s">
         <v>849</v>
-      </c>
-      <c r="B191" s="27" t="s">
-        <v>843</v>
-      </c>
-      <c r="C191" s="27" t="s">
-        <v>850</v>
       </c>
       <c r="D191" s="27" t="s">
         <v>734</v>
@@ -10266,31 +10265,31 @@
         <v>10</v>
       </c>
       <c r="O191" s="27" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="P191" s="27" t="n">
         <v>14</v>
       </c>
       <c r="T191" s="27" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="U191" s="42" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="W191" s="27" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="25.35" outlineLevel="0" r="192">
       <c r="A192" s="27" t="s">
+        <v>850</v>
+      </c>
+      <c r="B192" s="27" t="s">
+        <v>842</v>
+      </c>
+      <c r="C192" s="27" t="s">
         <v>851</v>
-      </c>
-      <c r="B192" s="27" t="s">
-        <v>843</v>
-      </c>
-      <c r="C192" s="27" t="s">
-        <v>852</v>
       </c>
       <c r="D192" s="27" t="s">
         <v>734</v>
@@ -10324,13 +10323,13 @@
         <v>10</v>
       </c>
       <c r="O192" s="27" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="P192" s="27" t="n">
         <v>14</v>
       </c>
       <c r="T192" s="27" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="U192" s="42" t="b">
         <f aca="false">TRUE()</f>
@@ -10387,13 +10386,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="25.35" outlineLevel="0" r="196">
       <c r="A196" s="27" t="s">
+        <v>852</v>
+      </c>
+      <c r="B196" s="27" t="s">
+        <v>842</v>
+      </c>
+      <c r="C196" s="27" t="s">
         <v>853</v>
-      </c>
-      <c r="B196" s="27" t="s">
-        <v>843</v>
-      </c>
-      <c r="C196" s="27" t="s">
-        <v>854</v>
       </c>
       <c r="D196" s="27" t="s">
         <v>734</v>
@@ -10427,13 +10426,13 @@
         <v>10</v>
       </c>
       <c r="O196" s="27" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="P196" s="27" t="n">
         <v>14</v>
       </c>
       <c r="T196" s="27" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="U196" s="42" t="b">
         <f aca="false">TRUE()</f>
@@ -10490,13 +10489,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="37.3" outlineLevel="0" r="200">
       <c r="A200" s="27" t="s">
+        <v>854</v>
+      </c>
+      <c r="B200" s="27" t="s">
+        <v>842</v>
+      </c>
+      <c r="C200" s="27" t="s">
         <v>855</v>
-      </c>
-      <c r="B200" s="27" t="s">
-        <v>843</v>
-      </c>
-      <c r="C200" s="27" t="s">
-        <v>856</v>
       </c>
       <c r="D200" s="27" t="s">
         <v>734</v>
@@ -10530,13 +10529,13 @@
         <v>10</v>
       </c>
       <c r="O200" s="27" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="P200" s="27" t="n">
         <v>14</v>
       </c>
       <c r="T200" s="27" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="U200" s="42" t="b">
         <f aca="false">TRUE()</f>
@@ -10611,27 +10610,27 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="6" width="18.6039215686275"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="6" width="19.643137254902"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="6" width="13.6313725490196"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="6" width="41.7764705882353"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="6" width="11.4313725490196"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="6" width="14.3725490196078"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="6" width="6.14901960784314"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="6" width="7.32549019607843"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="6" width="5.33725490196078"/>
-    <col collapsed="false" hidden="false" max="257" min="10" style="6" width="11.9647058823529"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="6" width="18.6941176470588"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="6" width="19.7450980392157"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="6" width="13.7019607843137"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="6" width="41.9843137254902"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="6" width="11.4862745098039"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="6" width="14.443137254902"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="6" width="6.17647058823529"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="6" width="7.36078431372549"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="6" width="5.36470588235294"/>
+    <col collapsed="false" hidden="false" max="257" min="10" style="6" width="12.0196078431373"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="16.55" outlineLevel="0" r="1" s="7">
       <c r="A1" s="28" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
       <c r="D1" s="31"/>
       <c r="E1" s="48" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="F1" s="48"/>
       <c r="G1" s="48"/>
@@ -10648,25 +10647,25 @@
         <v>176</v>
       </c>
       <c r="C2" s="36" t="s">
+        <v>858</v>
+      </c>
+      <c r="D2" s="36" t="s">
         <v>859</v>
       </c>
-      <c r="D2" s="36" t="s">
+      <c r="E2" s="36" t="s">
         <v>860</v>
       </c>
-      <c r="E2" s="36" t="s">
+      <c r="F2" s="36" t="s">
         <v>861</v>
       </c>
-      <c r="F2" s="36" t="s">
+      <c r="G2" s="36" t="s">
         <v>862</v>
       </c>
-      <c r="G2" s="36" t="s">
+      <c r="H2" s="36" t="s">
         <v>863</v>
       </c>
-      <c r="H2" s="36" t="s">
+      <c r="I2" s="36" t="s">
         <v>864</v>
-      </c>
-      <c r="I2" s="36" t="s">
-        <v>865</v>
       </c>
       <c r="J2" s="36"/>
       <c r="K2" s="36"/>
@@ -10679,10 +10678,10 @@
         <v>179</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>697</v>
@@ -10694,7 +10693,7 @@
         <v>398</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="I3" s="12" t="s">
         <v>702</v>
@@ -10707,26 +10706,26 @@
         <v>652</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="C4" s="33"/>
       <c r="D4" s="33" t="s">
+        <v>868</v>
+      </c>
+      <c r="E4" s="33" t="s">
         <v>869</v>
       </c>
-      <c r="E4" s="33" t="s">
+      <c r="F4" s="33" t="s">
         <v>870</v>
       </c>
-      <c r="F4" s="33" t="s">
+      <c r="G4" s="33" t="s">
         <v>871</v>
       </c>
-      <c r="G4" s="33" t="s">
+      <c r="H4" s="33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" s="33" t="s">
         <v>872</v>
-      </c>
-      <c r="H4" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" s="33" t="s">
-        <v>873</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.55" outlineLevel="0" r="5">
@@ -10735,13 +10734,13 @@
       <c r="C5" s="33"/>
       <c r="D5" s="33"/>
       <c r="E5" s="33" t="s">
+        <v>873</v>
+      </c>
+      <c r="F5" s="33" t="s">
         <v>874</v>
       </c>
-      <c r="F5" s="33" t="s">
-        <v>875</v>
-      </c>
       <c r="G5" s="33" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="H5" s="33" t="n">
         <v>0</v>
@@ -10753,26 +10752,26 @@
         <v>759</v>
       </c>
       <c r="B6" s="33" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="C6" s="33"/>
       <c r="D6" s="33" t="s">
+        <v>876</v>
+      </c>
+      <c r="E6" s="33" t="s">
         <v>877</v>
       </c>
-      <c r="E6" s="33" t="s">
+      <c r="F6" s="33" t="s">
         <v>878</v>
       </c>
-      <c r="F6" s="33" t="s">
-        <v>879</v>
-      </c>
       <c r="G6" s="33" t="s">
+        <v>871</v>
+      </c>
+      <c r="H6" s="33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" s="33" t="s">
         <v>872</v>
-      </c>
-      <c r="H6" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" s="33" t="s">
-        <v>873</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.55" outlineLevel="0" r="7">
@@ -10781,19 +10780,19 @@
       <c r="C7" s="33"/>
       <c r="D7" s="33"/>
       <c r="E7" s="33" t="s">
+        <v>879</v>
+      </c>
+      <c r="F7" s="33" t="s">
         <v>880</v>
       </c>
-      <c r="F7" s="33" t="s">
-        <v>881</v>
-      </c>
       <c r="G7" s="33" t="s">
+        <v>871</v>
+      </c>
+      <c r="H7" s="33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" s="33" t="s">
         <v>872</v>
-      </c>
-      <c r="H7" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" s="33" t="s">
-        <v>873</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.55" outlineLevel="0" r="8">
@@ -10802,19 +10801,19 @@
       <c r="C8" s="33"/>
       <c r="D8" s="33"/>
       <c r="E8" s="33" t="s">
+        <v>881</v>
+      </c>
+      <c r="F8" s="33" t="s">
         <v>882</v>
       </c>
-      <c r="F8" s="33" t="s">
-        <v>883</v>
-      </c>
       <c r="G8" s="33" t="s">
+        <v>871</v>
+      </c>
+      <c r="H8" s="33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" s="33" t="s">
         <v>872</v>
-      </c>
-      <c r="H8" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" s="33" t="s">
-        <v>873</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="25.35" outlineLevel="0" r="9">
@@ -10822,26 +10821,26 @@
         <v>756</v>
       </c>
       <c r="B9" s="33" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C9" s="33"/>
       <c r="D9" s="33" t="s">
+        <v>884</v>
+      </c>
+      <c r="E9" s="33" t="s">
         <v>885</v>
       </c>
-      <c r="E9" s="33" t="s">
+      <c r="F9" s="33" t="s">
         <v>886</v>
       </c>
-      <c r="F9" s="33" t="s">
-        <v>887</v>
-      </c>
       <c r="G9" s="33" t="s">
+        <v>871</v>
+      </c>
+      <c r="H9" s="33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" s="33" t="s">
         <v>872</v>
-      </c>
-      <c r="H9" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" s="33" t="s">
-        <v>873</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.55" outlineLevel="0" r="10">
@@ -10850,19 +10849,19 @@
       <c r="C10" s="33"/>
       <c r="D10" s="33"/>
       <c r="E10" s="33" t="s">
+        <v>879</v>
+      </c>
+      <c r="F10" s="33" t="s">
         <v>880</v>
       </c>
-      <c r="F10" s="33" t="s">
-        <v>881</v>
-      </c>
       <c r="G10" s="33" t="s">
+        <v>871</v>
+      </c>
+      <c r="H10" s="33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" s="33" t="s">
         <v>872</v>
-      </c>
-      <c r="H10" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" s="33" t="s">
-        <v>873</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.55" outlineLevel="0" r="11">
@@ -10871,19 +10870,19 @@
       <c r="C11" s="33"/>
       <c r="D11" s="33"/>
       <c r="E11" s="33" t="s">
+        <v>881</v>
+      </c>
+      <c r="F11" s="33" t="s">
         <v>882</v>
       </c>
-      <c r="F11" s="33" t="s">
-        <v>883</v>
-      </c>
       <c r="G11" s="33" t="s">
+        <v>871</v>
+      </c>
+      <c r="H11" s="33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" s="33" t="s">
         <v>872</v>
-      </c>
-      <c r="H11" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" s="33" t="s">
-        <v>873</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="25.35" outlineLevel="0" r="12">
@@ -10891,26 +10890,26 @@
         <v>739</v>
       </c>
       <c r="B12" s="33" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="C12" s="33"/>
       <c r="D12" s="33" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="E12" s="33" t="s">
+        <v>877</v>
+      </c>
+      <c r="F12" s="33" t="s">
         <v>878</v>
       </c>
-      <c r="F12" s="33" t="s">
-        <v>879</v>
-      </c>
       <c r="G12" s="33" t="s">
+        <v>871</v>
+      </c>
+      <c r="H12" s="33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" s="33" t="s">
         <v>872</v>
-      </c>
-      <c r="H12" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" s="33" t="s">
-        <v>873</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.55" outlineLevel="0" r="13">
@@ -10919,19 +10918,19 @@
       <c r="C13" s="33"/>
       <c r="D13" s="33"/>
       <c r="E13" s="33" t="s">
+        <v>879</v>
+      </c>
+      <c r="F13" s="33" t="s">
         <v>880</v>
       </c>
-      <c r="F13" s="33" t="s">
-        <v>881</v>
-      </c>
       <c r="G13" s="33" t="s">
+        <v>871</v>
+      </c>
+      <c r="H13" s="33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" s="33" t="s">
         <v>872</v>
-      </c>
-      <c r="H13" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" s="33" t="s">
-        <v>873</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.55" outlineLevel="0" r="14">
@@ -10940,19 +10939,19 @@
       <c r="C14" s="33"/>
       <c r="D14" s="33"/>
       <c r="E14" s="33" t="s">
+        <v>881</v>
+      </c>
+      <c r="F14" s="33" t="s">
         <v>882</v>
       </c>
-      <c r="F14" s="33" t="s">
-        <v>883</v>
-      </c>
       <c r="G14" s="33" t="s">
+        <v>871</v>
+      </c>
+      <c r="H14" s="33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" s="33" t="s">
         <v>872</v>
-      </c>
-      <c r="H14" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" s="33" t="s">
-        <v>873</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="25.35" outlineLevel="0" r="15">
@@ -10960,26 +10959,26 @@
         <v>764</v>
       </c>
       <c r="B15" s="33" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="C15" s="33"/>
       <c r="D15" s="33" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="E15" s="33" t="s">
+        <v>885</v>
+      </c>
+      <c r="F15" s="33" t="s">
         <v>886</v>
       </c>
-      <c r="F15" s="33" t="s">
-        <v>887</v>
-      </c>
       <c r="G15" s="33" t="s">
+        <v>871</v>
+      </c>
+      <c r="H15" s="33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" s="33" t="s">
         <v>872</v>
-      </c>
-      <c r="H15" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" s="33" t="s">
-        <v>873</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.55" outlineLevel="0" r="16">
@@ -10988,19 +10987,19 @@
       <c r="C16" s="33"/>
       <c r="D16" s="33"/>
       <c r="E16" s="33" t="s">
+        <v>879</v>
+      </c>
+      <c r="F16" s="33" t="s">
         <v>880</v>
       </c>
-      <c r="F16" s="33" t="s">
-        <v>881</v>
-      </c>
       <c r="G16" s="33" t="s">
+        <v>871</v>
+      </c>
+      <c r="H16" s="33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" s="33" t="s">
         <v>872</v>
-      </c>
-      <c r="H16" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" s="33" t="s">
-        <v>873</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.55" outlineLevel="0" r="17">
@@ -11009,33 +11008,33 @@
       <c r="C17" s="33"/>
       <c r="D17" s="33"/>
       <c r="E17" s="33" t="s">
+        <v>881</v>
+      </c>
+      <c r="F17" s="33" t="s">
         <v>882</v>
       </c>
-      <c r="F17" s="33" t="s">
-        <v>883</v>
-      </c>
       <c r="G17" s="33" t="s">
+        <v>871</v>
+      </c>
+      <c r="H17" s="33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" s="33" t="s">
         <v>872</v>
-      </c>
-      <c r="H17" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" s="33" t="s">
-        <v>873</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="37.3" outlineLevel="0" r="18">
       <c r="A18" s="33" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B18" s="33" t="s">
+        <v>891</v>
+      </c>
+      <c r="C18" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="33" t="s">
         <v>892</v>
-      </c>
-      <c r="C18" s="33" t="s">
-        <v>776</v>
-      </c>
-      <c r="D18" s="33" t="s">
-        <v>893</v>
       </c>
       <c r="E18" s="33"/>
       <c r="F18" s="33"/>
@@ -11045,16 +11044,16 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="61.15" outlineLevel="0" r="19">
       <c r="A19" s="33" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B19" s="33" t="s">
+        <v>893</v>
+      </c>
+      <c r="C19" s="33" t="s">
         <v>894</v>
       </c>
-      <c r="C19" s="33" t="s">
+      <c r="D19" s="33" t="s">
         <v>895</v>
-      </c>
-      <c r="D19" s="33" t="s">
-        <v>896</v>
       </c>
       <c r="E19" s="33"/>
       <c r="F19" s="33"/>
@@ -11064,16 +11063,16 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="25.35" outlineLevel="0" r="20">
       <c r="A20" s="33" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="B20" s="33" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C20" s="33" t="s">
+        <v>896</v>
+      </c>
+      <c r="D20" s="33" t="s">
         <v>897</v>
-      </c>
-      <c r="D20" s="33" t="s">
-        <v>898</v>
       </c>
       <c r="E20" s="33"/>
       <c r="F20" s="33"/>
@@ -11083,16 +11082,16 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="25.35" outlineLevel="0" r="21">
       <c r="A21" s="33" t="s">
+        <v>830</v>
+      </c>
+      <c r="B21" s="33" t="s">
         <v>831</v>
       </c>
-      <c r="B21" s="33" t="s">
-        <v>832</v>
-      </c>
       <c r="C21" s="33" t="s">
+        <v>898</v>
+      </c>
+      <c r="D21" s="33" t="s">
         <v>899</v>
-      </c>
-      <c r="D21" s="33" t="s">
-        <v>900</v>
       </c>
       <c r="E21" s="33"/>
       <c r="F21" s="33"/>
@@ -11102,16 +11101,16 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="25.35" outlineLevel="0" r="22">
       <c r="A22" s="33" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="B22" s="33" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="C22" s="33" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="D22" s="33" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="E22" s="33"/>
       <c r="F22" s="33"/>
@@ -11121,16 +11120,16 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="25.35" outlineLevel="0" r="23">
       <c r="A23" s="33" t="s">
+        <v>838</v>
+      </c>
+      <c r="B23" s="33" t="s">
         <v>839</v>
       </c>
-      <c r="B23" s="33" t="s">
-        <v>840</v>
-      </c>
       <c r="C23" s="33" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="D23" s="33" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="E23" s="33"/>
       <c r="F23" s="33"/>
@@ -11164,16 +11163,16 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.5137254901961"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="32.9843137254902"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.9647058823529"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="31.2117647058824"/>
-    <col collapsed="false" hidden="false" max="257" min="5" style="0" width="11.9647058823529"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.6196078431373"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="33.1490196078431"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.0196078431373"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="31.3647058823529"/>
+    <col collapsed="false" hidden="false" max="257" min="5" style="0" width="12.0196078431373"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="13.55" outlineLevel="0" r="1" s="49">
       <c r="A1" s="15" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="16"/>
@@ -11205,10 +11204,10 @@
         <v>176</v>
       </c>
       <c r="C2" s="40" t="s">
+        <v>903</v>
+      </c>
+      <c r="D2" s="40" t="s">
         <v>904</v>
-      </c>
-      <c r="D2" s="40" t="s">
-        <v>905</v>
       </c>
       <c r="E2" s="40"/>
       <c r="F2" s="40"/>
@@ -11240,7 +11239,7 @@
         <v>697</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="E3" s="18"/>
       <c r="F3" s="18"/>
@@ -11263,58 +11262,58 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.55" outlineLevel="0" r="4">
       <c r="A4" s="33" t="s">
+        <v>906</v>
+      </c>
+      <c r="B4" s="33" t="s">
         <v>907</v>
       </c>
-      <c r="B4" s="33" t="s">
+      <c r="C4" s="33" t="s">
         <v>908</v>
       </c>
-      <c r="C4" s="33" t="s">
+      <c r="D4" s="33" t="s">
         <v>909</v>
-      </c>
-      <c r="D4" s="33" t="s">
-        <v>910</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.55" outlineLevel="0" r="5">
       <c r="A5" s="33" t="s">
+        <v>910</v>
+      </c>
+      <c r="B5" s="33" t="s">
         <v>911</v>
       </c>
-      <c r="B5" s="33" t="s">
+      <c r="C5" s="33" t="s">
         <v>912</v>
       </c>
-      <c r="C5" s="33" t="s">
+      <c r="D5" s="33" t="s">
         <v>913</v>
-      </c>
-      <c r="D5" s="33" t="s">
-        <v>914</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.55" outlineLevel="0" r="6">
       <c r="A6" s="33" t="s">
+        <v>914</v>
+      </c>
+      <c r="B6" s="33" t="s">
         <v>915</v>
       </c>
-      <c r="B6" s="33" t="s">
+      <c r="C6" s="33" t="s">
         <v>916</v>
       </c>
-      <c r="C6" s="33" t="s">
+      <c r="D6" s="33" t="s">
         <v>917</v>
-      </c>
-      <c r="D6" s="33" t="s">
-        <v>918</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.55" outlineLevel="0" r="7">
       <c r="A7" s="33" t="s">
+        <v>918</v>
+      </c>
+      <c r="B7" s="33" t="s">
         <v>919</v>
       </c>
-      <c r="B7" s="33" t="s">
+      <c r="C7" s="33" t="s">
         <v>920</v>
       </c>
-      <c r="C7" s="33" t="s">
+      <c r="D7" s="33" t="s">
         <v>921</v>
-      </c>
-      <c r="D7" s="33" t="s">
-        <v>922</v>
       </c>
     </row>
   </sheetData>
@@ -11340,15 +11339,15 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="6" width="19.643137254902"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="6" width="48.7960784313726"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="6" width="48.2156862745098"/>
-    <col collapsed="false" hidden="false" max="257" min="4" style="6" width="11.9647058823529"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="6" width="19.7450980392157"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="6" width="49.0392156862745"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="6" width="48.4509803921569"/>
+    <col collapsed="false" hidden="false" max="257" min="4" style="6" width="12.0196078431373"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="13.55" outlineLevel="0" r="1" s="11">
       <c r="A1" s="28" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -11430,18 +11429,18 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.55" outlineLevel="0" r="4">
       <c r="A4" s="6" t="s">
+        <v>923</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>924</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>925</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.55" outlineLevel="0" r="5">
       <c r="A5" s="6" t="s">
+        <v>925</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>926</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>927</v>
       </c>
     </row>
   </sheetData>
@@ -11467,24 +11466,24 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="33" width="20.8117647058824"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="33" width="31.6549019607843"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="33" width="11.9647058823529"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="33" width="11.7843137254902"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="33" width="8.33725490196079"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="33" width="6.74901960784314"/>
-    <col collapsed="false" hidden="false" max="257" min="9" style="33" width="11.9647058823529"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="33" width="20.9176470588235"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="33" width="31.8078431372549"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="33" width="12.0196078431373"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="33" width="11.8470588235294"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="33" width="8.37647058823529"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="33" width="6.7843137254902"/>
+    <col collapsed="false" hidden="false" max="257" min="9" style="33" width="12.0196078431373"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="13.55" outlineLevel="0" r="1" s="32">
       <c r="A1" s="28" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
       <c r="D1" s="31"/>
       <c r="E1" s="28" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="F1" s="50"/>
       <c r="G1" s="31"/>
@@ -11513,22 +11512,22 @@
         <v>176</v>
       </c>
       <c r="C2" s="36" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="D2" s="36" t="s">
         <v>547</v>
       </c>
       <c r="E2" s="36" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="F2" s="36" t="s">
         <v>522</v>
       </c>
       <c r="G2" s="36" t="s">
+        <v>931</v>
+      </c>
+      <c r="H2" s="36" t="s">
         <v>932</v>
-      </c>
-      <c r="H2" s="36" t="s">
-        <v>933</v>
       </c>
       <c r="I2" s="36"/>
       <c r="J2" s="36"/>
@@ -11554,22 +11553,22 @@
         <v>179</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="D3" s="12" t="s">
         <v>547</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="F3" s="12" t="s">
+        <v>933</v>
+      </c>
+      <c r="G3" s="12" t="s">
         <v>934</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="H3" s="12" t="s">
         <v>935</v>
-      </c>
-      <c r="H3" s="12" t="s">
-        <v>936</v>
       </c>
       <c r="I3" s="12"/>
       <c r="J3" s="12"/>
@@ -11589,10 +11588,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.55" outlineLevel="0" r="4">
       <c r="A4" s="33" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="C4" s="33" t="b">
         <f aca="false">TRUE()</f>
@@ -11602,7 +11601,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="33" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="F4" s="33" t="n">
         <v>0</v>
@@ -11630,7 +11629,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.55" outlineLevel="0" r="6">
       <c r="E6" s="33" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="F6" s="33" t="n">
         <v>0</v>
@@ -11672,7 +11671,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.55" outlineLevel="0" r="9">
       <c r="E9" s="33" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="F9" s="33" t="n">
         <v>0</v>
@@ -11728,7 +11727,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.55" outlineLevel="0" r="13">
       <c r="E13" s="33" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="F13" s="33" t="n">
         <v>0</v>
@@ -11770,7 +11769,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.55" outlineLevel="0" r="16">
       <c r="E16" s="33" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="F16" s="33" t="n">
         <v>0</v>
@@ -11784,7 +11783,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.55" outlineLevel="0" r="17">
       <c r="E17" s="33" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="F17" s="33" t="n">
         <v>0</v>
@@ -11812,7 +11811,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.55" outlineLevel="0" r="19">
       <c r="E19" s="33" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="F19" s="33" t="n">
         <v>0</v>
@@ -11840,7 +11839,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.55" outlineLevel="0" r="21">
       <c r="E21" s="33" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="F21" s="33" t="n">
         <v>0</v>
@@ -11868,7 +11867,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.55" outlineLevel="0" r="23">
       <c r="E23" s="33" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="F23" s="33" t="n">
         <v>0</v>
@@ -11882,7 +11881,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.55" outlineLevel="0" r="24">
       <c r="E24" s="33" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="F24" s="33" t="n">
         <v>0</v>
@@ -11938,7 +11937,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.55" outlineLevel="0" r="28">
       <c r="E28" s="33" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="F28" s="33" t="n">
         <v>0</v>
@@ -11952,7 +11951,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.55" outlineLevel="0" r="29">
       <c r="E29" s="33" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="F29" s="33" t="n">
         <v>0</v>
@@ -11980,7 +11979,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.55" outlineLevel="0" r="31">
       <c r="E31" s="33" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="F31" s="33" t="n">
         <v>0</v>
@@ -12008,7 +12007,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.55" outlineLevel="0" r="33">
       <c r="E33" s="33" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F33" s="33" t="n">
         <v>0</v>
@@ -12050,7 +12049,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.55" outlineLevel="0" r="36">
       <c r="E36" s="33" t="s">
-        <v>776</v>
+        <v>15</v>
       </c>
       <c r="F36" s="33" t="n">
         <v>0</v>
@@ -12064,7 +12063,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.55" outlineLevel="0" r="37">
       <c r="E37" s="33" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="F37" s="33" t="n">
         <v>0</v>
@@ -12078,7 +12077,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.55" outlineLevel="0" r="38">
       <c r="E38" s="33" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F38" s="33" t="n">
         <v>0</v>
@@ -12106,7 +12105,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.55" outlineLevel="0" r="40">
       <c r="E40" s="33" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="F40" s="33" t="n">
         <v>0</v>
@@ -12120,7 +12119,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.55" outlineLevel="0" r="41">
       <c r="E41" s="33" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="F41" s="33" t="n">
         <v>0</v>
@@ -12134,7 +12133,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.55" outlineLevel="0" r="42">
       <c r="E42" s="33" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="F42" s="33" t="n">
         <v>0</v>
@@ -12162,7 +12161,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.55" outlineLevel="0" r="44">
       <c r="E44" s="33" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="F44" s="33" t="n">
         <v>0</v>
@@ -12176,7 +12175,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.55" outlineLevel="0" r="45">
       <c r="E45" s="33" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="F45" s="33" t="n">
         <v>0</v>
@@ -12190,7 +12189,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.55" outlineLevel="0" r="46">
       <c r="E46" s="33" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="F46" s="33" t="n">
         <v>0</v>
@@ -12204,7 +12203,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.55" outlineLevel="0" r="47">
       <c r="E47" s="33" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="F47" s="33" t="n">
         <v>0</v>
@@ -12218,7 +12217,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.55" outlineLevel="0" r="48">
       <c r="E48" s="33" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="F48" s="33" t="n">
         <v>0</v>
@@ -12232,7 +12231,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.55" outlineLevel="0" r="49">
       <c r="E49" s="33" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="F49" s="33" t="n">
         <v>0</v>
@@ -12246,7 +12245,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.55" outlineLevel="0" r="50">
       <c r="E50" s="33" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="F50" s="33" t="n">
         <v>0</v>
@@ -12260,7 +12259,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.55" outlineLevel="0" r="51">
       <c r="E51" s="33" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="F51" s="33" t="n">
         <v>0</v>
@@ -12274,7 +12273,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.55" outlineLevel="0" r="52">
       <c r="E52" s="33" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="F52" s="33" t="n">
         <v>0</v>
@@ -12288,7 +12287,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.55" outlineLevel="0" r="53">
       <c r="E53" s="33" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="F53" s="33" t="n">
         <v>0</v>
@@ -12302,7 +12301,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.55" outlineLevel="0" r="54">
       <c r="E54" s="33" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="F54" s="33" t="n">
         <v>0</v>
@@ -12316,7 +12315,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.55" outlineLevel="0" r="55">
       <c r="E55" s="33" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="F55" s="33" t="n">
         <v>0</v>
@@ -12330,10 +12329,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.55" outlineLevel="0" r="56">
       <c r="A56" s="33" t="s">
+        <v>937</v>
+      </c>
+      <c r="B56" s="33" t="s">
         <v>938</v>
-      </c>
-      <c r="B56" s="33" t="s">
-        <v>939</v>
       </c>
       <c r="C56" s="33" t="b">
         <f aca="false">FALSE()</f>
@@ -12428,7 +12427,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.55" outlineLevel="0" r="62">
       <c r="E62" s="33" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="F62" s="33" t="n">
         <v>9</v>
@@ -12442,10 +12441,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.55" outlineLevel="0" r="63">
       <c r="A63" s="33" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="B63" s="33" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="C63" s="33" t="b">
         <f aca="false">FALSE()</f>
@@ -12526,7 +12525,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.55" outlineLevel="0" r="68">
       <c r="E68" s="33" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F68" s="33" t="n">
         <v>9</v>
@@ -12540,7 +12539,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.55" outlineLevel="0" r="69">
       <c r="E69" s="33" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="F69" s="33" t="n">
         <v>9</v>
@@ -12554,7 +12553,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.55" outlineLevel="0" r="70">
       <c r="A70" s="33" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="B70" s="33" t="s">
         <v>628</v>
@@ -12638,7 +12637,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.55" outlineLevel="0" r="75">
       <c r="E75" s="33" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F75" s="33" t="n">
         <v>9</v>
@@ -12652,7 +12651,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.55" outlineLevel="0" r="76">
       <c r="E76" s="33" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="F76" s="33" t="n">
         <v>9</v>
@@ -12669,7 +12668,7 @@
         <v>305</v>
       </c>
       <c r="B77" s="33" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="C77" s="33" t="b">
         <f aca="false">FALSE()</f>
@@ -12680,7 +12679,7 @@
         <v>1</v>
       </c>
       <c r="E77" s="33" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="F77" s="33" t="n">
         <v>9</v>
@@ -12694,7 +12693,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.55" outlineLevel="0" r="78">
       <c r="E78" s="33" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="F78" s="33" t="n">
         <v>9</v>
@@ -12708,7 +12707,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.55" outlineLevel="0" r="79">
       <c r="E79" s="33" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="F79" s="33" t="n">
         <v>9</v>
@@ -12743,19 +12742,19 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="38" width="11.5764705882353"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="38" width="18.3254901960784"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="38" width="19.7803921568627"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="38" width="15.5294117647059"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="38" width="15.3764705882353"/>
-    <col collapsed="false" hidden="false" max="8" min="6" style="38" width="11.9647058823529"/>
-    <col collapsed="false" hidden="false" max="10" min="9" style="38" width="28.7176470588235"/>
-    <col collapsed="false" hidden="false" max="257" min="11" style="38" width="11.9647058823529"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="38" width="11.6313725490196"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="38" width="18.4156862745098"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="38" width="19.878431372549"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="38" width="15.6117647058824"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="38" width="15.4549019607843"/>
+    <col collapsed="false" hidden="false" max="8" min="6" style="38" width="12.0196078431373"/>
+    <col collapsed="false" hidden="false" max="10" min="9" style="38" width="28.8588235294118"/>
+    <col collapsed="false" hidden="false" max="257" min="11" style="38" width="12.0196078431373"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.75" outlineLevel="0" r="1" s="39">
       <c r="A1" s="15" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="16"/>
@@ -12817,7 +12816,7 @@
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.75" outlineLevel="0" r="3" s="41">
       <c r="A3" s="18" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="B3" s="18" t="s">
         <v>18</v>
@@ -12855,16 +12854,16 @@
         <v>1</v>
       </c>
       <c r="B4" s="51" t="s">
+        <v>944</v>
+      </c>
+      <c r="C4" s="51" t="s">
         <v>945</v>
       </c>
-      <c r="C4" s="51" t="s">
+      <c r="D4" s="51" t="s">
         <v>946</v>
       </c>
-      <c r="D4" s="51" t="s">
+      <c r="E4" s="51" t="s">
         <v>947</v>
-      </c>
-      <c r="E4" s="51" t="s">
-        <v>948</v>
       </c>
       <c r="F4" s="51"/>
       <c r="G4" s="51"/>
@@ -12877,16 +12876,16 @@
         <v>2</v>
       </c>
       <c r="B5" s="51" t="s">
+        <v>948</v>
+      </c>
+      <c r="C5" s="51" t="s">
         <v>949</v>
       </c>
-      <c r="C5" s="51" t="s">
+      <c r="D5" s="51" t="s">
         <v>950</v>
       </c>
-      <c r="D5" s="51" t="s">
+      <c r="E5" s="51" t="s">
         <v>951</v>
-      </c>
-      <c r="E5" s="51" t="s">
-        <v>952</v>
       </c>
       <c r="F5" s="51"/>
       <c r="G5" s="51"/>
@@ -12899,16 +12898,16 @@
         <v>3</v>
       </c>
       <c r="B6" s="51" t="s">
+        <v>952</v>
+      </c>
+      <c r="C6" s="51" t="s">
         <v>953</v>
       </c>
-      <c r="C6" s="51" t="s">
+      <c r="D6" s="51" t="s">
         <v>954</v>
       </c>
-      <c r="D6" s="51" t="s">
+      <c r="E6" s="51" t="s">
         <v>955</v>
-      </c>
-      <c r="E6" s="51" t="s">
-        <v>956</v>
       </c>
       <c r="F6" s="51"/>
       <c r="G6" s="51"/>
@@ -12939,20 +12938,20 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="38" width="21.9764705882353"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="38" width="18.3254901960784"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="38" width="19.7803921568627"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="38" width="15.5294117647059"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="38" width="15.3764705882353"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="38" width="25.3764705882353"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="38" width="11.9647058823529"/>
-    <col collapsed="false" hidden="false" max="10" min="9" style="38" width="28.7176470588235"/>
-    <col collapsed="false" hidden="false" max="257" min="11" style="38" width="11.9647058823529"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="38" width="22.0862745098039"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="38" width="18.4156862745098"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="38" width="19.878431372549"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="38" width="15.6117647058824"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="38" width="15.4549019607843"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="38" width="25.5058823529412"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="38" width="12.0196078431373"/>
+    <col collapsed="false" hidden="false" max="10" min="9" style="38" width="28.8588235294118"/>
+    <col collapsed="false" hidden="false" max="257" min="11" style="38" width="12.0196078431373"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.75" outlineLevel="0" r="1" s="39">
       <c r="A1" s="15" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="16"/>
@@ -12977,9 +12976,9 @@
       <c r="V1" s="16"/>
       <c r="W1" s="16"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="2" s="41">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.75" outlineLevel="0" r="2" s="41">
       <c r="A2" s="40" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="B2" s="40" t="s">
         <v>44</v>
@@ -13012,7 +13011,7 @@
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.75" outlineLevel="0" r="3" s="41">
       <c r="A3" s="18" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="B3" s="18" t="s">
         <v>108</v>
@@ -13043,62 +13042,62 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.75" outlineLevel="0" r="4">
       <c r="A4" s="51" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="B4" s="51" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="C4" s="51" t="s">
         <v>114</v>
       </c>
       <c r="D4" s="51" t="s">
+        <v>960</v>
+      </c>
+      <c r="E4" s="51" t="s">
         <v>961</v>
       </c>
-      <c r="E4" s="51" t="s">
+      <c r="F4" s="51" t="s">
         <v>962</v>
-      </c>
-      <c r="F4" s="51" t="s">
-        <v>963</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.75" outlineLevel="0" r="5">
       <c r="A5" s="51" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="B5" s="51" t="s">
+        <v>963</v>
+      </c>
+      <c r="C5" s="51" t="s">
         <v>964</v>
       </c>
-      <c r="C5" s="51" t="s">
+      <c r="D5" s="51" t="s">
         <v>965</v>
       </c>
-      <c r="D5" s="51" t="s">
+      <c r="E5" s="51" t="s">
         <v>966</v>
       </c>
-      <c r="E5" s="51" t="s">
+      <c r="F5" s="51" t="s">
         <v>967</v>
-      </c>
-      <c r="F5" s="51" t="s">
-        <v>968</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.75" outlineLevel="0" r="6">
       <c r="A6" s="51" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="B6" s="51" t="s">
+        <v>968</v>
+      </c>
+      <c r="C6" s="51" t="s">
         <v>969</v>
       </c>
-      <c r="C6" s="51" t="s">
+      <c r="D6" s="51" t="s">
         <v>970</v>
       </c>
-      <c r="D6" s="51" t="s">
+      <c r="E6" s="51" t="s">
         <v>971</v>
       </c>
-      <c r="E6" s="51" t="s">
+      <c r="F6" s="51" t="s">
         <v>972</v>
-      </c>
-      <c r="F6" s="51" t="s">
-        <v>973</v>
       </c>
     </row>
   </sheetData>
@@ -13124,13 +13123,13 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="3" width="8.10196078431373"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="3" width="10.5294117647059"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="3" width="11.6235294117647"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="3" width="19.7725490196078"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="3" width="20.1960784313725"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="3" width="10.2392156862745"/>
-    <col collapsed="false" hidden="false" max="257" min="8" style="3" width="11.6235294117647"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="3" width="8.14117647058824"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="3" width="10.5803921568627"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="3" width="11.6745098039216"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="3" width="19.8705882352941"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="3" width="20.2941176470588"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="3" width="10.2941176470588"/>
+    <col collapsed="false" hidden="false" max="257" min="8" style="3" width="11.6745098039216"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="37.3" outlineLevel="0" r="3">
@@ -13197,6 +13196,7 @@
         <v>36</v>
       </c>
       <c r="H4" s="5" t="b">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="I4" s="3" t="s">
@@ -13243,14 +13243,14 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="6" width="19.643137254902"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="6" width="35.4627450980392"/>
-    <col collapsed="false" hidden="false" max="257" min="3" style="6" width="11.9647058823529"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="6" width="19.7450980392157"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="6" width="35.643137254902"/>
+    <col collapsed="false" hidden="false" max="257" min="3" style="6" width="12.0196078431373"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="13.55" outlineLevel="0" r="1" s="11">
       <c r="A1" s="28" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -13332,18 +13332,18 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.55" outlineLevel="0" r="4">
       <c r="A4" s="6" t="s">
+        <v>974</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>975</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>976</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.55" outlineLevel="0" r="5">
       <c r="A5" s="6" t="s">
+        <v>976</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>977</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>978</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.55" outlineLevel="0" r="6">
@@ -13351,15 +13351,15 @@
         <v>444</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="20.85" outlineLevel="0" r="7">
       <c r="A7" s="6" t="s">
+        <v>979</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>980</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>981</v>
       </c>
     </row>
   </sheetData>
@@ -13385,16 +13385,16 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="6" width="39.878431372549"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="6" width="24.4666666666667"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="6" width="11.9647058823529"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="6" width="15.5294117647059"/>
-    <col collapsed="false" hidden="false" max="257" min="6" style="6" width="11.9647058823529"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="6" width="40.0745098039216"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="6" width="24.5843137254902"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="6" width="12.0196078431373"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="6" width="15.6117647058824"/>
+    <col collapsed="false" hidden="false" max="257" min="6" style="6" width="12.0196078431373"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="13.55" outlineLevel="0" r="1" s="11">
       <c r="A1" s="28" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -13426,7 +13426,7 @@
         <v>176</v>
       </c>
       <c r="C2" s="36" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="D2" s="36" t="s">
         <v>702</v>
@@ -13460,13 +13460,13 @@
         <v>179</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="D3" s="12" t="s">
         <v>702</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="F3" s="12"/>
       <c r="G3" s="12"/>
@@ -13488,16 +13488,16 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.55" outlineLevel="0" r="4">
       <c r="A4" s="33" t="s">
+        <v>984</v>
+      </c>
+      <c r="B4" s="33" t="s">
         <v>985</v>
-      </c>
-      <c r="B4" s="33" t="s">
-        <v>986</v>
       </c>
       <c r="C4" s="33" t="n">
         <v>2</v>
       </c>
       <c r="D4" s="33" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="E4" s="33" t="n">
         <v>56</v>
@@ -13505,16 +13505,16 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.55" outlineLevel="0" r="5">
       <c r="A5" s="33" t="s">
+        <v>987</v>
+      </c>
+      <c r="B5" s="33" t="s">
         <v>988</v>
-      </c>
-      <c r="B5" s="33" t="s">
-        <v>989</v>
       </c>
       <c r="C5" s="33" t="n">
         <v>5</v>
       </c>
       <c r="D5" s="33" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="E5" s="33" t="n">
         <v>20</v>
@@ -13522,13 +13522,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.55" outlineLevel="0" r="6">
       <c r="A6" s="33" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="C6" s="33" t="n">
         <v>1</v>
       </c>
       <c r="D6" s="33" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="E6" s="33" t="n">
         <v>30</v>
@@ -13536,16 +13536,16 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.55" outlineLevel="0" r="7">
       <c r="A7" s="33" t="s">
+        <v>990</v>
+      </c>
+      <c r="B7" s="33" t="s">
         <v>991</v>
-      </c>
-      <c r="B7" s="33" t="s">
-        <v>992</v>
       </c>
       <c r="C7" s="33" t="n">
         <v>500</v>
       </c>
       <c r="D7" s="33" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="E7" s="33" t="n">
         <v>35</v>
@@ -13553,16 +13553,16 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.55" outlineLevel="0" r="8">
       <c r="A8" s="33" t="s">
+        <v>993</v>
+      </c>
+      <c r="B8" s="33" t="s">
         <v>994</v>
-      </c>
-      <c r="B8" s="33" t="s">
-        <v>995</v>
       </c>
       <c r="C8" s="33" t="n">
         <v>100</v>
       </c>
       <c r="D8" s="33" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="E8" s="33" t="n">
         <v>55</v>
@@ -13570,7 +13570,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.55" outlineLevel="0" r="9">
       <c r="A9" s="33" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="B9" s="52" t="n">
         <v>0.96</v>
@@ -13579,7 +13579,7 @@
         <v>1000</v>
       </c>
       <c r="D9" s="33" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="E9" s="33" t="n">
         <v>30</v>
@@ -13587,14 +13587,14 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.55" outlineLevel="0" r="10">
       <c r="A10" s="33" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="B10" s="33"/>
       <c r="C10" s="33" t="n">
         <v>1000</v>
       </c>
       <c r="D10" s="33" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="E10" s="33" t="n">
         <v>22.75</v>
@@ -13602,14 +13602,14 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.55" outlineLevel="0" r="11">
       <c r="A11" s="33" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="B11" s="33"/>
       <c r="C11" s="33" t="n">
         <v>500</v>
       </c>
       <c r="D11" s="33" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="E11" s="33" t="n">
         <v>180</v>
@@ -13617,14 +13617,14 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.55" outlineLevel="0" r="12">
       <c r="A12" s="33" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="B12" s="33"/>
       <c r="C12" s="33" t="n">
         <v>500</v>
       </c>
       <c r="D12" s="33" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="E12" s="33" t="n">
         <v>20</v>
@@ -13632,16 +13632,16 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.55" outlineLevel="0" r="13">
       <c r="A13" s="33" t="s">
+        <v>999</v>
+      </c>
+      <c r="B13" s="33" t="s">
         <v>1000</v>
-      </c>
-      <c r="B13" s="33" t="s">
-        <v>1001</v>
       </c>
       <c r="C13" s="33" t="n">
         <v>100</v>
       </c>
       <c r="D13" s="33" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="E13" s="33" t="n">
         <v>20</v>
@@ -13649,14 +13649,14 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.55" outlineLevel="0" r="14">
       <c r="A14" s="33" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="B14" s="33"/>
       <c r="C14" s="33" t="n">
         <v>2.5</v>
       </c>
       <c r="D14" s="33" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="E14" s="33" t="n">
         <v>520</v>
@@ -13664,14 +13664,14 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.55" outlineLevel="0" r="15">
       <c r="A15" s="33" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="B15" s="33"/>
       <c r="C15" s="33" t="n">
         <v>5</v>
       </c>
       <c r="D15" s="33" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="E15" s="33" t="n">
         <v>329</v>
@@ -13679,14 +13679,14 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.55" outlineLevel="0" r="16">
       <c r="A16" s="33" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="B16" s="33"/>
       <c r="C16" s="33" t="n">
         <v>500</v>
       </c>
       <c r="D16" s="33" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="E16" s="33" t="n">
         <v>250</v>
@@ -13694,13 +13694,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.55" outlineLevel="0" r="17">
       <c r="A17" s="33" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="C17" s="33" t="n">
         <v>500</v>
       </c>
       <c r="D17" s="33" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="E17" s="33" t="n">
         <v>180</v>
@@ -13708,14 +13708,14 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.55" outlineLevel="0" r="18">
       <c r="A18" s="33" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="B18" s="33"/>
       <c r="C18" s="33" t="n">
         <v>500</v>
       </c>
       <c r="D18" s="33" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="E18" s="33" t="n">
         <v>245</v>
@@ -13723,14 +13723,14 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.55" outlineLevel="0" r="19">
       <c r="A19" s="33" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="B19" s="33"/>
       <c r="C19" s="33" t="n">
         <v>500</v>
       </c>
       <c r="D19" s="33" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="E19" s="33" t="n">
         <v>186</v>
@@ -13738,16 +13738,16 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.55" outlineLevel="0" r="20">
       <c r="A20" s="33" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B20" s="33" t="s">
         <v>1008</v>
-      </c>
-      <c r="B20" s="33" t="s">
-        <v>1009</v>
       </c>
       <c r="C20" s="33" t="n">
         <v>1</v>
       </c>
       <c r="D20" s="33" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="E20" s="33" t="n">
         <v>20</v>
@@ -13755,16 +13755,16 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.55" outlineLevel="0" r="21">
       <c r="A21" s="33" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="B21" s="33" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="C21" s="33" t="n">
         <v>1</v>
       </c>
       <c r="D21" s="33" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="E21" s="33" t="n">
         <v>13.6</v>
@@ -13772,16 +13772,16 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.55" outlineLevel="0" r="22">
       <c r="A22" s="33" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="B22" s="33" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="C22" s="33" t="n">
         <v>1</v>
       </c>
       <c r="D22" s="33" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="E22" s="33" t="n">
         <v>90</v>
@@ -13789,13 +13789,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.55" outlineLevel="0" r="23">
       <c r="A23" s="33" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="C23" s="33" t="n">
         <v>1</v>
       </c>
       <c r="D23" s="33" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="E23" s="33" t="n">
         <v>35</v>
@@ -13824,23 +13824,23 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="33" width="19.5098039215686"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="33" width="19.7803921568627"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="33" width="24.7647058823529"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="33" width="9.94901960784314"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="33" width="6.90196078431373"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="33" width="21.4"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="33" width="14.0823529411765"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="9.94901960784314"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="6.90196078431373"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="21.4"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="14.0823529411765"/>
-    <col collapsed="false" hidden="false" max="257" min="12" style="33" width="11.9647058823529"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="33" width="19.6078431372549"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="33" width="19.878431372549"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="33" width="24.8901960784314"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="33" width="10.0039215686275"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="33" width="6.93725490196078"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="33" width="21.5058823529412"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="33" width="14.1529411764706"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.0039215686275"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="6.93725490196078"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="21.5058823529412"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="14.1529411764706"/>
+    <col collapsed="false" hidden="false" max="257" min="12" style="33" width="12.0196078431373"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="13.55" outlineLevel="0" r="1" s="32">
       <c r="A1" s="28" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -13868,19 +13868,19 @@
         <v>176</v>
       </c>
       <c r="C2" s="36" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="D2" s="36" t="s">
+        <v>1014</v>
+      </c>
+      <c r="E2" s="36" t="s">
         <v>1015</v>
       </c>
-      <c r="E2" s="36" t="s">
+      <c r="F2" s="36" t="s">
         <v>1016</v>
       </c>
-      <c r="F2" s="36" t="s">
+      <c r="G2" s="36" t="s">
         <v>1017</v>
-      </c>
-      <c r="G2" s="36" t="s">
-        <v>1018</v>
       </c>
       <c r="L2" s="36"/>
       <c r="M2" s="36"/>
@@ -13902,19 +13902,19 @@
         <v>179</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>398</v>
       </c>
       <c r="F3" s="12" t="s">
+        <v>1019</v>
+      </c>
+      <c r="G3" s="12" t="s">
         <v>1020</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>1021</v>
       </c>
       <c r="L3" s="12"/>
       <c r="M3" s="12"/>
@@ -13930,19 +13930,19 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.55" outlineLevel="0" r="4">
       <c r="A4" s="33" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="C4" s="33" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="D4" s="33" t="n">
         <v>1</v>
       </c>
       <c r="E4" s="33" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.55" outlineLevel="0" r="5">
@@ -13950,10 +13950,10 @@
         <v>2</v>
       </c>
       <c r="E5" s="33" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="F5" s="33" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.55" outlineLevel="0" r="6">
@@ -13961,7 +13961,7 @@
         <v>3</v>
       </c>
       <c r="E6" s="33" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.55" outlineLevel="0" r="7">
@@ -13969,7 +13969,7 @@
         <v>4</v>
       </c>
       <c r="E7" s="33" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.55" outlineLevel="0" r="8">
@@ -13977,7 +13977,7 @@
         <v>5</v>
       </c>
       <c r="E8" s="33" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.55" outlineLevel="0" r="9">
@@ -13985,7 +13985,7 @@
         <v>6</v>
       </c>
       <c r="E9" s="33" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.55" outlineLevel="0" r="10">
@@ -13993,7 +13993,7 @@
         <v>7</v>
       </c>
       <c r="E10" s="33" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.55" outlineLevel="0" r="11">
@@ -14001,7 +14001,7 @@
         <v>8</v>
       </c>
       <c r="E11" s="33" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.55" outlineLevel="0" r="12">
@@ -14009,7 +14009,7 @@
         <v>9</v>
       </c>
       <c r="E12" s="33" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.55" outlineLevel="0" r="13">
@@ -14017,7 +14017,7 @@
         <v>10</v>
       </c>
       <c r="E13" s="33" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="G13" s="33" t="n">
         <v>3</v>
@@ -14025,19 +14025,19 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.55" outlineLevel="0" r="14">
       <c r="A14" s="33" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="B14" s="33" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="C14" s="33" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="D14" s="33" t="n">
         <v>1</v>
       </c>
       <c r="E14" s="33" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.55" outlineLevel="0" r="15">
@@ -14045,10 +14045,10 @@
         <v>2</v>
       </c>
       <c r="E15" s="33" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="F15" s="33" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.55" outlineLevel="0" r="16">
@@ -14056,7 +14056,7 @@
         <v>3</v>
       </c>
       <c r="E16" s="33" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.55" outlineLevel="0" r="17">
@@ -14064,7 +14064,7 @@
         <v>4</v>
       </c>
       <c r="E17" s="33" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.55" outlineLevel="0" r="18">
@@ -14072,7 +14072,7 @@
         <v>5</v>
       </c>
       <c r="E18" s="33" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.55" outlineLevel="0" r="19">
@@ -14080,7 +14080,7 @@
         <v>6</v>
       </c>
       <c r="E19" s="33" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.55" outlineLevel="0" r="20">
@@ -14088,7 +14088,7 @@
         <v>7</v>
       </c>
       <c r="E20" s="33" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.55" outlineLevel="0" r="21">
@@ -14096,7 +14096,7 @@
         <v>8</v>
       </c>
       <c r="E21" s="33" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.55" outlineLevel="0" r="22">
@@ -14104,7 +14104,7 @@
         <v>9</v>
       </c>
       <c r="E22" s="33" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.55" outlineLevel="0" r="23">
@@ -14112,7 +14112,7 @@
         <v>10</v>
       </c>
       <c r="E23" s="33" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="G23" s="33" t="n">
         <v>3</v>
@@ -14120,19 +14120,19 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.55" outlineLevel="0" r="24">
       <c r="A24" s="33" t="s">
+        <v>910</v>
+      </c>
+      <c r="B24" s="33" t="s">
         <v>911</v>
       </c>
-      <c r="B24" s="33" t="s">
-        <v>912</v>
-      </c>
       <c r="C24" s="33" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="D24" s="33" t="n">
         <v>1</v>
       </c>
       <c r="E24" s="33" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.55" outlineLevel="0" r="25">
@@ -14140,10 +14140,10 @@
         <v>2</v>
       </c>
       <c r="E25" s="33" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="F25" s="33" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.55" outlineLevel="0" r="26">
@@ -14151,7 +14151,7 @@
         <v>3</v>
       </c>
       <c r="E26" s="33" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.55" outlineLevel="0" r="27">
@@ -14159,7 +14159,7 @@
         <v>4</v>
       </c>
       <c r="E27" s="33" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.55" outlineLevel="0" r="28">
@@ -14167,7 +14167,7 @@
         <v>5</v>
       </c>
       <c r="E28" s="33" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.55" outlineLevel="0" r="29">
@@ -14175,7 +14175,7 @@
         <v>6</v>
       </c>
       <c r="E29" s="33" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.55" outlineLevel="0" r="30">
@@ -14183,7 +14183,7 @@
         <v>7</v>
       </c>
       <c r="E30" s="33" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.55" outlineLevel="0" r="31">
@@ -14191,7 +14191,7 @@
         <v>8</v>
       </c>
       <c r="E31" s="33" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.55" outlineLevel="0" r="32">
@@ -14199,7 +14199,7 @@
         <v>9</v>
       </c>
       <c r="E32" s="33" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.55" outlineLevel="0" r="33">
@@ -14207,7 +14207,7 @@
         <v>10</v>
       </c>
       <c r="E33" s="33" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="G33" s="33" t="n">
         <v>3</v>
@@ -14215,19 +14215,19 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.55" outlineLevel="0" r="34">
       <c r="A34" s="6" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="B34" s="33" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="C34" s="33" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="D34" s="33" t="n">
         <v>1</v>
       </c>
       <c r="E34" s="33" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.55" outlineLevel="0" r="35">
@@ -14235,10 +14235,10 @@
         <v>2</v>
       </c>
       <c r="E35" s="33" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="F35" s="33" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.55" outlineLevel="0" r="36">
@@ -14246,7 +14246,7 @@
         <v>3</v>
       </c>
       <c r="E36" s="33" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.55" outlineLevel="0" r="37">
@@ -14254,7 +14254,7 @@
         <v>4</v>
       </c>
       <c r="E37" s="33" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.55" outlineLevel="0" r="38">
@@ -14262,7 +14262,7 @@
         <v>5</v>
       </c>
       <c r="E38" s="33" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.55" outlineLevel="0" r="39">
@@ -14270,7 +14270,7 @@
         <v>6</v>
       </c>
       <c r="E39" s="33" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.55" outlineLevel="0" r="40">
@@ -14278,7 +14278,7 @@
         <v>7</v>
       </c>
       <c r="E40" s="33" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.55" outlineLevel="0" r="41">
@@ -14286,7 +14286,7 @@
         <v>8</v>
       </c>
       <c r="E41" s="33" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.55" outlineLevel="0" r="42">
@@ -14294,7 +14294,7 @@
         <v>9</v>
       </c>
       <c r="E42" s="33" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.55" outlineLevel="0" r="43">
@@ -14302,7 +14302,7 @@
         <v>10</v>
       </c>
       <c r="E43" s="33" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="G43" s="33" t="n">
         <v>3</v>
@@ -14326,19 +14326,19 @@
   </sheetPr>
   <dimension ref="A1:V11"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100">
+      <selection activeCell="C5" activeCellId="0" pane="topLeft" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="6" width="19.643137254902"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="6" width="13.043137254902"/>
-    <col collapsed="false" hidden="false" max="257" min="3" style="6" width="11.9647058823529"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="6" width="19.7450980392157"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="6" width="13.1058823529412"/>
+    <col collapsed="false" hidden="false" max="257" min="3" style="6" width="12.0196078431373"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="13.55" outlineLevel="0" r="1" s="11">
       <c r="A1" s="28" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -14364,13 +14364,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.55" outlineLevel="0" r="2">
       <c r="A2" s="36" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B2" s="36" t="s">
         <v>1030</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="C2" s="36" t="s">
         <v>1031</v>
-      </c>
-      <c r="C2" s="36" t="s">
-        <v>1032</v>
       </c>
       <c r="D2" s="36"/>
       <c r="E2" s="36"/>
@@ -14394,13 +14394,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.55" outlineLevel="0" r="3">
       <c r="A3" s="12" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B3" s="12" t="s">
         <v>1033</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="C3" s="12" t="s">
         <v>1034</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>1035</v>
       </c>
       <c r="D3" s="12"/>
       <c r="E3" s="12"/>
@@ -14422,23 +14422,23 @@
       <c r="U3" s="12"/>
       <c r="V3" s="12"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.55" outlineLevel="0" r="4">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="4">
       <c r="A4" s="33" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B4" s="33" t="s">
         <v>1036</v>
       </c>
-      <c r="B4" s="33" t="s">
-        <v>1037</v>
-      </c>
       <c r="C4" s="33" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.55" outlineLevel="0" r="5">
       <c r="A5" s="33" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B5" s="33" t="s">
         <v>1038</v>
-      </c>
-      <c r="B5" s="33" t="s">
-        <v>1039</v>
       </c>
       <c r="C5" s="33" t="n">
         <v>4</v>
@@ -14446,10 +14446,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.55" outlineLevel="0" r="6">
       <c r="A6" s="33" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B6" s="33" t="s">
         <v>1040</v>
-      </c>
-      <c r="B6" s="33" t="s">
-        <v>1041</v>
       </c>
       <c r="C6" s="33" t="n">
         <v>3</v>
@@ -14457,10 +14457,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.55" outlineLevel="0" r="7">
       <c r="A7" s="33" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B7" s="33" t="s">
         <v>1042</v>
-      </c>
-      <c r="B7" s="33" t="s">
-        <v>1043</v>
       </c>
       <c r="C7" s="33" t="n">
         <v>3</v>
@@ -14468,10 +14468,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.55" outlineLevel="0" r="8">
       <c r="A8" s="33" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B8" s="33" t="s">
         <v>1044</v>
-      </c>
-      <c r="B8" s="33" t="s">
-        <v>1045</v>
       </c>
       <c r="C8" s="33" t="n">
         <v>4</v>
@@ -14479,10 +14479,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.55" outlineLevel="0" r="9">
       <c r="A9" s="33" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B9" s="33" t="s">
         <v>1046</v>
-      </c>
-      <c r="B9" s="33" t="s">
-        <v>1047</v>
       </c>
       <c r="C9" s="33" t="n">
         <v>3</v>
@@ -14490,10 +14490,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.55" outlineLevel="0" r="10">
       <c r="A10" s="33" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B10" s="33" t="s">
         <v>1048</v>
-      </c>
-      <c r="B10" s="33" t="s">
-        <v>1049</v>
       </c>
       <c r="C10" s="33" t="n">
         <v>4</v>
@@ -14501,10 +14501,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.55" outlineLevel="0" r="11">
       <c r="A11" s="33" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B11" s="33" t="s">
         <v>1050</v>
-      </c>
-      <c r="B11" s="33" t="s">
-        <v>1051</v>
       </c>
       <c r="C11" s="33" t="n">
         <v>4</v>
@@ -14533,14 +14533,14 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="6" width="11.4313725490196"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="6" width="12.0196078431373"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="6" width="11.1333333333333"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="6" width="13.9372549019608"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="6" width="13.6313725490196"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="6" width="25.1960784313725"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="6" width="19.1725490196078"/>
-    <col collapsed="false" hidden="false" max="257" min="8" style="6" width="11.9647058823529"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="6" width="11.4862745098039"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="6" width="12.0823529411765"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="6" width="11.1882352941176"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="6" width="14.0078431372549"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="6" width="13.7019607843137"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="6" width="25.3137254901961"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="6" width="19.2745098039216"/>
+    <col collapsed="false" hidden="false" max="257" min="8" style="6" width="12.0196078431373"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="13.55" outlineLevel="0" r="1" s="8">
@@ -14916,18 +14916,18 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="6" width="14.5882352941176"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="6" width="11.6941176470588"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="6" width="10.6196078431373"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="6" width="22.9254901960784"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="6" width="17.1019607843137"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="6" width="14.4156862745098"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="6" width="16.6941176470588"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="6" width="14.5882352941176"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="6" width="18.5607843137255"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="6" width="14.0627450980392"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="6" width="42.7333333333333"/>
-    <col collapsed="false" hidden="false" max="257" min="12" style="6" width="11.9647058823529"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="6" width="14.6627450980392"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="6" width="11.7490196078431"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="6" width="10.6705882352941"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="6" width="23.0352941176471"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="6" width="17.1843137254902"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="6" width="14.4901960784314"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="6" width="16.7764705882353"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="6" width="14.6627450980392"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="6" width="18.6509803921569"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="6" width="14.1254901960784"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="6" width="42.9529411764706"/>
+    <col collapsed="false" hidden="false" max="257" min="12" style="6" width="12.0196078431373"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="13.55" outlineLevel="0" r="1" s="11">
@@ -15273,10 +15273,10 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="6" width="18.3254901960784"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="6" width="33.2745098039216"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="6" width="24.7098039215686"/>
-    <col collapsed="false" hidden="false" max="257" min="4" style="6" width="11.9647058823529"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="6" width="18.4156862745098"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="6" width="33.4470588235294"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="6" width="24.8352941176471"/>
+    <col collapsed="false" hidden="false" max="257" min="4" style="6" width="12.0196078431373"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="13.55" outlineLevel="0" r="1" s="7">
@@ -15365,13 +15365,13 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="14.9882352941176"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="14" width="20.2313725490196"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="14" width="13.6313725490196"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="14" width="22.5764705882353"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="14" width="13.7764705882353"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="14" width="14.7960784313726"/>
-    <col collapsed="false" hidden="false" max="257" min="7" style="14" width="11.9647058823529"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="15.0666666666667"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="14" width="20.3333333333333"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="14" width="13.7019607843137"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="14" width="22.6941176470588"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="14" width="13.8470588235294"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="14" width="14.8705882352941"/>
+    <col collapsed="false" hidden="false" max="257" min="7" style="14" width="12.0196078431373"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.35" outlineLevel="0" r="1" s="17">
@@ -15636,23 +15636,23 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="14" width="20.2313725490196"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="14" width="11.9647058823529"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="14" width="9.66666666666667"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="14" width="15.5294117647059"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="14" width="19.643137254902"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="14" width="16.9843137254902"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="14" width="13.1764705882353"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="14" width="13.6313725490196"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="14" width="13.321568627451"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="14" width="14.0823529411765"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="14" width="11.1333333333333"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="14" width="16.9843137254902"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="14" width="25.5137254901961"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="14" width="12.0196078431373"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="14" width="11.9647058823529"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="19" width="16.8509803921569"/>
-    <col collapsed="false" hidden="false" max="257" min="17" style="14" width="11.9647058823529"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="14" width="20.3333333333333"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="14" width="12.0196078431373"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="14" width="9.71372549019608"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="14" width="15.6117647058824"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="14" width="19.7450980392157"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="14" width="17.0666666666667"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="14" width="13.2392156862745"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="14" width="13.7019607843137"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="14" width="13.3843137254902"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="14" width="14.1529411764706"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="14" width="11.1882352941176"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="14" width="17.0666666666667"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="14" width="25.6392156862745"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="14" width="12.0823529411765"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="14" width="12.0196078431373"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="19" width="16.9411764705882"/>
+    <col collapsed="false" hidden="false" max="257" min="17" style="14" width="12.0196078431373"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.35" outlineLevel="0" r="1" s="17">
@@ -16718,15 +16718,15 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="22" width="24.7647058823529"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="22" width="35.6078431372549"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="22" width="40.0039215686275"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="22" width="16.5607843137255"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="22" width="28.2823529411765"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="22" width="11.9647058823529"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="22" width="22.2745098039216"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="22" width="20.2666666666667"/>
-    <col collapsed="false" hidden="false" max="257" min="9" style="22" width="11.9647058823529"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="22" width="24.8901960784314"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="22" width="35.7882352941176"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="22" width="40.2039215686275"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="22" width="16.643137254902"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="22" width="28.4156862745098"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="22" width="12.0196078431373"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="22" width="22.3843137254902"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="22" width="20.3686274509804"/>
+    <col collapsed="false" hidden="false" max="257" min="9" style="22" width="12.0196078431373"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="13.55" outlineLevel="0" r="1" s="24">
@@ -17341,16 +17341,16 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="10" width="16.278431372549"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="6" width="24.1843137254902"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="6" width="6.14901960784314"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="6" width="7.18039215686275"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="6" width="9.09019607843137"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="6" width="11.6666666666667"/>
-    <col collapsed="false" hidden="false" max="10" min="7" style="6" width="5.27450980392157"/>
-    <col collapsed="false" hidden="false" max="14" min="11" style="6" width="6.14901960784314"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="6" width="10.9882352941176"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="6" width="11.9647058823529"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="10" width="16.3607843137255"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="6" width="24.3019607843137"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="6" width="6.17647058823529"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="6" width="7.2156862745098"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="6" width="9.13333333333333"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="6" width="11.7294117647059"/>
+    <col collapsed="false" hidden="false" max="10" min="7" style="6" width="5.29803921568627"/>
+    <col collapsed="false" hidden="false" max="14" min="11" style="6" width="6.17647058823529"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="6" width="11.043137254902"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="6" width="12.0196078431373"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="13.05" outlineLevel="0" r="1" s="7">

--- a/bika/lims/test_setup_data.xlsx
+++ b/bika/lims/test_setup_data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="12" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="769" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="12" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="768" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="Setup" sheetId="1" state="visible" r:id="rId2"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4649" uniqueCount="1127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4649" uniqueCount="1126">
   <si>
     <t>Password lifetime</t>
   </si>
@@ -2999,9 +2999,6 @@
   </si>
   <si>
     <t>Ca,Cu,Fe,Mg,Mn,Na,Zn</t>
-  </si>
-  <si>
-    <t>Digestable Energy</t>
   </si>
   <si>
     <t>Feedstuffs energy</t>
@@ -3787,11 +3784,11 @@
   <dimension ref="A2:N4"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="F7" activeCellId="1" pane="topLeft" sqref="V251 F7"/>
+      <selection activeCell="F7" activeCellId="0" pane="topLeft" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="257" min="1" style="1" width="12.443137254902"/>
+    <col collapsed="false" hidden="false" max="257" min="1" style="1" width="12.5098039215686"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="2" s="2"/>
@@ -3899,14 +3896,14 @@
   <dimension ref="A1:L47"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A16" view="normal" windowProtection="false" workbookViewId="0" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100">
-      <selection activeCell="A4" activeCellId="1" pane="topLeft" sqref="V251 A4"/>
+      <selection activeCell="A4" activeCellId="0" pane="topLeft" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="21" width="29.556862745098"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="7" width="39"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="7" width="15.8823529411765"/>
-    <col collapsed="false" hidden="false" max="257" min="4" style="7" width="12.8235294117647"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="21" width="29.7019607843137"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="7" width="39.2"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="7" width="15.9647058823529"/>
+    <col collapsed="false" hidden="false" max="257" min="4" style="7" width="12.8862745098039"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1" s="8">
@@ -4588,14 +4585,14 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="1" pane="topLeft" sqref="V251 A1"/>
+      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="30" width="21.3882352941176"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="30" width="47.4627450980392"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="30" width="25.5686274509804"/>
-    <col collapsed="false" hidden="false" max="257" min="4" style="30" width="12.8235294117647"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="30" width="21.4980392156863"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="30" width="47.6980392156863"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="30" width="25.6941176470588"/>
+    <col collapsed="false" hidden="false" max="257" min="4" style="30" width="12.8862745098039"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="1" s="31">
@@ -4742,14 +4739,14 @@
   <dimension ref="A1:V14"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100">
-      <selection activeCell="A3" activeCellId="1" pane="topLeft" sqref="V251 A3"/>
+      <selection activeCell="A3" activeCellId="0" pane="topLeft" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="7" width="27.8313725490196"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="7" width="72.1647058823529"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="7" width="25.4156862745098"/>
-    <col collapsed="false" hidden="false" max="257" min="5" style="7" width="12.8235294117647"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="7" width="27.9725490196078"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="7" width="72.5254901960784"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="7" width="25.5411764705882"/>
+    <col collapsed="false" hidden="false" max="257" min="5" style="7" width="12.8862745098039"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1" s="8">
@@ -4973,37 +4970,37 @@
   <dimension ref="A1:AB261"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="E211" view="normal" windowProtection="false" workbookViewId="0" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100">
-      <selection activeCell="V251" activeCellId="0" pane="topLeft" sqref="V251"/>
+      <selection activeCell="T235" activeCellId="0" pane="topLeft" sqref="T235"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="20" width="13.2039215686275"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="20" width="19.6274509803922"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="20" width="9.87450980392157"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="20" width="9.43137254901961"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="20" width="12.8862745098039"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="33" width="8.14117647058824"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="20" width="13.5019607843137"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="20" width="8.30196078431373"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="20" width="6.48627450980392"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="20" width="6.61960784313725"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="20" width="7.83137254901961"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="20" width="6.37647058823529"/>
-    <col collapsed="false" hidden="false" max="15" min="14" style="20" width="6.61960784313725"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="20" width="5.34509803921569"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="20" width="8.61176470588235"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="20" width="8.30196078431373"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="20" width="13.6588235294118"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="20" width="10.5372549019608"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="33" width="8.45490196078431"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="20" width="15.6117647058824"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="17" width="11.7764705882353"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="20" width="12.8235294117647"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="7" width="7.52549019607843"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="7" width="35.7333333333333"/>
-    <col collapsed="false" hidden="false" max="28" min="27" style="7" width="12.8235294117647"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="27" width="11.7764705882353"/>
-    <col collapsed="false" hidden="false" max="257" min="30" style="27" width="12.8235294117647"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="20" width="13.2666666666667"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="20" width="19.7254901960784"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="20" width="9.92156862745098"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="20" width="9.47843137254902"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="20" width="12.9529411764706"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="33" width="8.1843137254902"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="20" width="13.5647058823529"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="20" width="8.33725490196079"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="20" width="6.52156862745098"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="20" width="6.64705882352941"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="20" width="7.86666666666667"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="20" width="6.41176470588235"/>
+    <col collapsed="false" hidden="false" max="15" min="14" style="20" width="6.64705882352941"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="20" width="5.37254901960784"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="20" width="8.65490196078431"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="20" width="8.33725490196079"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="20" width="13.7294117647059"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="20" width="10.5921568627451"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="33" width="8.49411764705882"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="20" width="15.6901960784314"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="17" width="11.8313725490196"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="20" width="12.8862745098039"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="7" width="7.56078431372549"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="7" width="35.9137254901961"/>
+    <col collapsed="false" hidden="false" max="28" min="27" style="7" width="12.8862745098039"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="27" width="11.8313725490196"/>
+    <col collapsed="false" hidden="false" max="257" min="30" style="27" width="12.8862745098039"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="24.25" outlineLevel="0" r="1" s="22">
@@ -5044,7 +5041,7 @@
       <c r="AA1" s="10"/>
       <c r="AB1" s="10"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="24.25" outlineLevel="0" r="2" s="2">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="2" s="2">
       <c r="A2" s="2" t="s">
         <v>230</v>
       </c>
@@ -10775,7 +10772,7 @@
         <v>788</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.05" outlineLevel="0" r="235">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="235">
       <c r="A235" s="20" t="s">
         <v>902</v>
       </c>
@@ -10836,7 +10833,7 @@
         <v>906</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.05" outlineLevel="0" r="236">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="236">
       <c r="Y236" s="20" t="s">
         <v>907</v>
       </c>
@@ -10844,7 +10841,7 @@
         <v>908</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.05" outlineLevel="0" r="237">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="237">
       <c r="Y237" s="20" t="s">
         <v>909</v>
       </c>
@@ -10852,7 +10849,7 @@
         <v>910</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.05" outlineLevel="0" r="238">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="238">
       <c r="A238" s="20" t="s">
         <v>911</v>
       </c>
@@ -10913,7 +10910,7 @@
         <v>906</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.05" outlineLevel="0" r="239">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="239">
       <c r="Y239" s="20" t="s">
         <v>907</v>
       </c>
@@ -10921,7 +10918,7 @@
         <v>908</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.05" outlineLevel="0" r="240">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="240">
       <c r="Y240" s="20" t="s">
         <v>909</v>
       </c>
@@ -10929,7 +10926,7 @@
         <v>910</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.05" outlineLevel="0" r="241">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="241">
       <c r="A241" s="20" t="s">
         <v>913</v>
       </c>
@@ -10990,7 +10987,7 @@
         <v>906</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.05" outlineLevel="0" r="242">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="242">
       <c r="Y242" s="20" t="s">
         <v>907</v>
       </c>
@@ -10998,7 +10995,7 @@
         <v>908</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.05" outlineLevel="0" r="243">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="243">
       <c r="Y243" s="20" t="s">
         <v>909</v>
       </c>
@@ -11006,7 +11003,7 @@
         <v>910</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.05" outlineLevel="0" r="244">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="244">
       <c r="A244" s="20" t="s">
         <v>914</v>
       </c>
@@ -11067,7 +11064,7 @@
         <v>906</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.05" outlineLevel="0" r="245">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="245">
       <c r="Y245" s="20" t="s">
         <v>907</v>
       </c>
@@ -11075,7 +11072,7 @@
         <v>908</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.05" outlineLevel="0" r="246">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="246">
       <c r="Y246" s="20" t="s">
         <v>909</v>
       </c>
@@ -11186,7 +11183,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.05" outlineLevel="0" r="251">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="251">
       <c r="E251" s="17"/>
       <c r="F251" s="17"/>
       <c r="V251" s="20" t="s">
@@ -11199,7 +11196,7 @@
         <v>788</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="24.25" outlineLevel="0" r="252">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="252">
       <c r="A252" s="20" t="s">
         <v>918</v>
       </c>
@@ -11447,15 +11444,15 @@
   <dimension ref="A1:E2159"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100">
-      <selection activeCell="A6" activeCellId="1" pane="topLeft" sqref="V251 A6"/>
+      <selection activeCell="A6" activeCellId="0" pane="topLeft" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="20" width="24.4196078431373"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="20" width="19.6274509803922"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="20" width="13.1411764705882"/>
-    <col collapsed="false" hidden="false" max="227" min="4" style="27" width="12.8235294117647"/>
-    <col collapsed="false" hidden="false" max="257" min="228" style="0" width="9.04313725490196"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="20" width="24.5372549019608"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="20" width="19.7254901960784"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="20" width="13.2039215686275"/>
+    <col collapsed="false" hidden="false" max="227" min="4" style="27" width="12.8862745098039"/>
+    <col collapsed="false" hidden="false" max="257" min="228" style="0" width="9.09019607843137"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="24.25" outlineLevel="0" r="1" s="22">
@@ -42782,20 +42779,20 @@
   <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="1" pane="topLeft" sqref="V251 A1"/>
+      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="7" width="19.9254901960784"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="7" width="21.0745098039216"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="7" width="14.6352941176471"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="7" width="44.8039215686275"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="7" width="12.2627450980392"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="7" width="15.4117647058824"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="7" width="6.61960784313725"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="7" width="7.83137254901961"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="7" width="5.71764705882353"/>
-    <col collapsed="false" hidden="false" max="257" min="10" style="7" width="12.8235294117647"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="7" width="20.0235294117647"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="7" width="21.1803921568627"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="7" width="14.7137254901961"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="7" width="45.0313725490196"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="7" width="12.3176470588235"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="7" width="15.4941176470588"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="7" width="6.64705882352941"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="7" width="7.86666666666667"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="7" width="5.75294117647059"/>
+    <col collapsed="false" hidden="false" max="257" min="10" style="7" width="12.8862745098039"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="16.55" outlineLevel="0" r="1" s="8">
@@ -43333,13 +43330,15 @@
   <dimension ref="A1:V7"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100">
-      <selection activeCell="D6" activeCellId="1" pane="topLeft" sqref="V251 D6"/>
+      <selection activeCell="D6" activeCellId="0" pane="topLeft" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.0039215686274"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="35.3450980392157"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="33.4627450980392"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.1137254901961"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="35.5254901960784"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.54509803921569"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="33.6274509803922"/>
+    <col collapsed="false" hidden="false" max="257" min="5" style="0" width="8.54509803921569"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1" s="39">
@@ -43368,7 +43367,7 @@
       <c r="U1" s="14"/>
       <c r="V1" s="14"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="2" s="2">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="2" s="2">
       <c r="A2" s="2" t="s">
         <v>230</v>
       </c>
@@ -43412,44 +43411,44 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="5">
       <c r="A5" s="27" t="s">
+        <v>898</v>
+      </c>
+      <c r="B5" s="27" t="s">
         <v>987</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="C5" s="27" t="s">
         <v>988</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="D5" s="27" t="s">
         <v>989</v>
-      </c>
-      <c r="D5" s="27" t="s">
-        <v>990</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="6">
       <c r="A6" s="27" t="s">
+        <v>990</v>
+      </c>
+      <c r="B6" s="27" t="s">
         <v>991</v>
       </c>
-      <c r="B6" s="27" t="s">
+      <c r="C6" s="27" t="s">
         <v>992</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="D6" s="27" t="s">
         <v>993</v>
-      </c>
-      <c r="D6" s="27" t="s">
-        <v>994</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="7">
       <c r="A7" s="27" t="s">
+        <v>994</v>
+      </c>
+      <c r="B7" s="27" t="s">
         <v>995</v>
       </c>
-      <c r="B7" s="27" t="s">
+      <c r="C7" s="27" t="s">
         <v>996</v>
       </c>
-      <c r="C7" s="27" t="s">
+      <c r="D7" s="27" t="s">
         <v>997</v>
-      </c>
-      <c r="D7" s="27" t="s">
-        <v>998</v>
       </c>
     </row>
   </sheetData>
@@ -43471,19 +43470,19 @@
   <dimension ref="A1:V5"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="1" pane="topLeft" sqref="V251 A1"/>
+      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="7" width="21.0745098039216"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="7" width="52.3019607843137"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="7" width="51.6901960784314"/>
-    <col collapsed="false" hidden="false" max="257" min="4" style="7" width="12.8235294117647"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="7" width="21.1803921568627"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="7" width="52.5647058823529"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="7" width="51.9490196078431"/>
+    <col collapsed="false" hidden="false" max="257" min="4" style="7" width="12.8862745098039"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1" s="10">
       <c r="A1" s="22" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="B1" s="25"/>
       <c r="C1" s="25"/>
@@ -43525,18 +43524,18 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="4">
       <c r="A4" s="7" t="s">
+        <v>999</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>1000</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>1001</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="5">
       <c r="A5" s="7" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>1002</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>1003</v>
       </c>
     </row>
   </sheetData>
@@ -43558,28 +43557,28 @@
   <dimension ref="A1:W79"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100">
-      <selection activeCell="B11" activeCellId="1" pane="topLeft" sqref="V251 B11"/>
+      <selection activeCell="B11" activeCellId="0" pane="topLeft" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="27" width="22.3411764705882"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="27" width="33.9254901960784"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="27" width="12.8235294117647"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="27" width="12.6352941176471"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="27" width="8.92549019607843"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="27" width="7.24313725490196"/>
-    <col collapsed="false" hidden="false" max="257" min="9" style="27" width="12.8235294117647"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="27" width="22.4588235294118"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="27" width="34.0980392156863"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="27" width="12.8862745098039"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="27" width="12.6980392156863"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="27" width="8.97254901960784"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="27" width="7.28235294117647"/>
+    <col collapsed="false" hidden="false" max="257" min="9" style="27" width="12.8862745098039"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1" s="26">
       <c r="A1" s="22" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="B1" s="25"/>
       <c r="C1" s="25"/>
       <c r="D1" s="25"/>
       <c r="E1" s="22" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="F1" s="40"/>
       <c r="G1" s="25"/>
@@ -43608,7 +43607,7 @@
         <v>231</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>601</v>
@@ -43620,7 +43619,7 @@
         <v>576</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>925</v>
@@ -43634,7 +43633,7 @@
         <v>234</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>601</v>
@@ -43646,7 +43645,7 @@
         <v>929</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>930</v>
@@ -43654,10 +43653,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="4">
       <c r="A4" s="27" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B4" s="27" t="s">
         <v>1009</v>
-      </c>
-      <c r="B4" s="27" t="s">
-        <v>1010</v>
       </c>
       <c r="C4" s="27" t="b">
         <f aca="false">TRUE()</f>
@@ -44395,10 +44394,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="56">
       <c r="A56" s="27" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B56" s="27" t="s">
         <v>1011</v>
-      </c>
-      <c r="B56" s="27" t="s">
-        <v>1012</v>
       </c>
       <c r="C56" s="27" t="b">
         <f aca="false">FALSE()</f>
@@ -44507,10 +44506,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="63">
       <c r="A63" s="27" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="B63" s="27" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="C63" s="27" t="b">
         <f aca="false">FALSE()</f>
@@ -44619,7 +44618,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="70">
       <c r="A70" s="27" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="B70" s="27" t="s">
         <v>682</v>
@@ -44734,7 +44733,7 @@
         <v>359</v>
       </c>
       <c r="B77" s="27" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="C77" s="27" t="b">
         <f aca="false">FALSE()</f>
@@ -44804,23 +44803,23 @@
   <dimension ref="A1:W6"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="1" pane="topLeft" sqref="V251 A1"/>
+      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="30" width="12.4196078431373"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="30" width="19.6274509803922"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="30" width="21.2078431372549"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="30" width="16.6509803921569"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="30" width="16.4862745098039"/>
-    <col collapsed="false" hidden="false" max="8" min="6" style="30" width="12.8235294117647"/>
-    <col collapsed="false" hidden="false" max="10" min="9" style="30" width="30.8039215686275"/>
-    <col collapsed="false" hidden="false" max="257" min="11" style="30" width="12.8235294117647"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="30" width="12.4823529411765"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="30" width="19.7254901960784"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="30" width="21.3176470588235"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="30" width="16.7333333333333"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="30" width="16.5686274509804"/>
+    <col collapsed="false" hidden="false" max="8" min="6" style="30" width="12.8862745098039"/>
+    <col collapsed="false" hidden="false" max="10" min="9" style="30" width="30.956862745098"/>
+    <col collapsed="false" hidden="false" max="257" min="11" style="30" width="12.8862745098039"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="1" s="31">
       <c r="A1" s="13" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="B1" s="14"/>
       <c r="C1" s="14"/>
@@ -44864,7 +44863,7 @@
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="3" s="3">
       <c r="A3" s="3" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>18</v>
@@ -44884,16 +44883,16 @@
         <v>1</v>
       </c>
       <c r="B4" s="41" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C4" s="41" t="s">
         <v>1018</v>
       </c>
-      <c r="C4" s="41" t="s">
+      <c r="D4" s="41" t="s">
         <v>1019</v>
       </c>
-      <c r="D4" s="41" t="s">
+      <c r="E4" s="41" t="s">
         <v>1020</v>
-      </c>
-      <c r="E4" s="41" t="s">
-        <v>1021</v>
       </c>
       <c r="F4" s="41"/>
       <c r="G4" s="41"/>
@@ -44906,16 +44905,16 @@
         <v>2</v>
       </c>
       <c r="B5" s="41" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C5" s="41" t="s">
         <v>1022</v>
       </c>
-      <c r="C5" s="41" t="s">
+      <c r="D5" s="41" t="s">
         <v>1023</v>
       </c>
-      <c r="D5" s="41" t="s">
+      <c r="E5" s="41" t="s">
         <v>1024</v>
-      </c>
-      <c r="E5" s="41" t="s">
-        <v>1025</v>
       </c>
       <c r="F5" s="41"/>
       <c r="G5" s="41"/>
@@ -44928,16 +44927,16 @@
         <v>3</v>
       </c>
       <c r="B6" s="41" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C6" s="41" t="s">
         <v>1026</v>
       </c>
-      <c r="C6" s="41" t="s">
+      <c r="D6" s="41" t="s">
         <v>1027</v>
       </c>
-      <c r="D6" s="41" t="s">
+      <c r="E6" s="41" t="s">
         <v>1028</v>
-      </c>
-      <c r="E6" s="41" t="s">
-        <v>1029</v>
       </c>
       <c r="F6" s="41"/>
       <c r="G6" s="41"/>
@@ -44964,17 +44963,17 @@
   <dimension ref="A2:M4"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="H4" activeCellId="1" pane="topLeft" sqref="V251 H4"/>
+      <selection activeCell="H4" activeCellId="0" pane="topLeft" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="8.65490196078431"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="11.2862745098039"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="5" width="12.443137254902"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="21.2"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="21.6705882352941"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="10.9803921568627"/>
-    <col collapsed="false" hidden="false" max="257" min="8" style="5" width="12.443137254902"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="8.70196078431373"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="11.3411764705882"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="5" width="12.5098039215686"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="21.3098039215686"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="21.7803921568627"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="11.0352941176471"/>
+    <col collapsed="false" hidden="false" max="257" min="8" style="5" width="12.5098039215686"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="2" s="2"/>
@@ -45085,24 +45084,24 @@
   <dimension ref="A1:W6"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="1" pane="topLeft" sqref="V251 A1"/>
+      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="30" width="23.5882352941176"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="30" width="19.6274509803922"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="30" width="21.2078431372549"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="30" width="16.6509803921569"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="30" width="16.4862745098039"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="30" width="27.2039215686274"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="30" width="12.8235294117647"/>
-    <col collapsed="false" hidden="false" max="10" min="9" style="30" width="30.8039215686275"/>
-    <col collapsed="false" hidden="false" max="257" min="11" style="30" width="12.8235294117647"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="30" width="23.7058823529412"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="30" width="19.7254901960784"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="30" width="21.3176470588235"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="30" width="16.7333333333333"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="30" width="16.5686274509804"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="30" width="27.3411764705882"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="30" width="12.8862745098039"/>
+    <col collapsed="false" hidden="false" max="10" min="9" style="30" width="30.956862745098"/>
+    <col collapsed="false" hidden="false" max="257" min="11" style="30" width="12.8862745098039"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="1" s="31">
       <c r="A1" s="13" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="B1" s="14"/>
       <c r="C1" s="14"/>
@@ -45129,7 +45128,7 @@
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="2" s="2">
       <c r="A2" s="2" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>44</v>
@@ -45149,7 +45148,7 @@
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="3" s="3">
       <c r="A3" s="3" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>163</v>
@@ -45166,62 +45165,62 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="4">
       <c r="A4" s="41" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="B4" s="41" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="C4" s="41" t="s">
         <v>169</v>
       </c>
       <c r="D4" s="41" t="s">
+        <v>1033</v>
+      </c>
+      <c r="E4" s="41" t="s">
         <v>1034</v>
       </c>
-      <c r="E4" s="41" t="s">
+      <c r="F4" s="41" t="s">
         <v>1035</v>
-      </c>
-      <c r="F4" s="41" t="s">
-        <v>1036</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="5">
       <c r="A5" s="41" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="B5" s="41" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C5" s="41" t="s">
         <v>1037</v>
       </c>
-      <c r="C5" s="41" t="s">
+      <c r="D5" s="41" t="s">
         <v>1038</v>
       </c>
-      <c r="D5" s="41" t="s">
+      <c r="E5" s="41" t="s">
         <v>1039</v>
       </c>
-      <c r="E5" s="41" t="s">
+      <c r="F5" s="41" t="s">
         <v>1040</v>
-      </c>
-      <c r="F5" s="41" t="s">
-        <v>1041</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="6">
       <c r="A6" s="41" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="B6" s="41" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C6" s="41" t="s">
         <v>1042</v>
       </c>
-      <c r="C6" s="41" t="s">
+      <c r="D6" s="41" t="s">
         <v>1043</v>
       </c>
-      <c r="D6" s="41" t="s">
+      <c r="E6" s="41" t="s">
         <v>1044</v>
       </c>
-      <c r="E6" s="41" t="s">
+      <c r="F6" s="41" t="s">
         <v>1045</v>
-      </c>
-      <c r="F6" s="41" t="s">
-        <v>1046</v>
       </c>
     </row>
   </sheetData>
@@ -45243,18 +45242,18 @@
   <dimension ref="A1:V7"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="1" pane="topLeft" sqref="V251 A1"/>
+      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="7" width="21.0745098039216"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="7" width="38.0392156862745"/>
-    <col collapsed="false" hidden="false" max="257" min="3" style="7" width="12.8235294117647"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="7" width="21.1803921568627"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="7" width="38.2313725490196"/>
+    <col collapsed="false" hidden="false" max="257" min="3" style="7" width="12.8862745098039"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1" s="10">
       <c r="A1" s="22" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="B1" s="25"/>
       <c r="C1" s="25"/>
@@ -45296,18 +45295,18 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="4">
       <c r="A4" s="7" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>1048</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>1049</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="5">
       <c r="A5" s="7" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>1050</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>1051</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="6">
@@ -45315,15 +45314,15 @@
         <v>498</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="20.85" outlineLevel="0" r="7">
       <c r="A7" s="7" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>1053</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>1054</v>
       </c>
     </row>
   </sheetData>
@@ -45345,20 +45344,20 @@
   <dimension ref="A1:V23"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="1" pane="topLeft" sqref="V251 A1"/>
+      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="7" width="42.7333333333333"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="7" width="26.2117647058824"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="7" width="12.8235294117647"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="7" width="16.6509803921569"/>
-    <col collapsed="false" hidden="false" max="257" min="6" style="7" width="12.8235294117647"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="7" width="42.9529411764706"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="7" width="26.3450980392157"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="7" width="12.8862745098039"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="7" width="16.7333333333333"/>
+    <col collapsed="false" hidden="false" max="257" min="6" style="7" width="12.8862745098039"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1" s="10">
       <c r="A1" s="22" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="B1" s="25"/>
       <c r="C1" s="25"/>
@@ -45390,7 +45389,7 @@
         <v>231</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>756</v>
@@ -45407,27 +45406,27 @@
         <v>234</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>756</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="4">
       <c r="A4" s="27" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B4" s="27" t="s">
         <v>1058</v>
-      </c>
-      <c r="B4" s="27" t="s">
-        <v>1059</v>
       </c>
       <c r="C4" s="27" t="n">
         <v>2</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="E4" s="27" t="n">
         <v>56</v>
@@ -45435,16 +45434,16 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="5">
       <c r="A5" s="27" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B5" s="27" t="s">
         <v>1061</v>
-      </c>
-      <c r="B5" s="27" t="s">
-        <v>1062</v>
       </c>
       <c r="C5" s="27" t="n">
         <v>5</v>
       </c>
       <c r="D5" s="27" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="E5" s="27" t="n">
         <v>20</v>
@@ -45452,13 +45451,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="6">
       <c r="A6" s="27" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="C6" s="27" t="n">
         <v>1</v>
       </c>
       <c r="D6" s="27" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="E6" s="27" t="n">
         <v>30</v>
@@ -45466,16 +45465,16 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="7">
       <c r="A7" s="27" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B7" s="27" t="s">
         <v>1064</v>
-      </c>
-      <c r="B7" s="27" t="s">
-        <v>1065</v>
       </c>
       <c r="C7" s="27" t="n">
         <v>500</v>
       </c>
       <c r="D7" s="27" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="E7" s="27" t="n">
         <v>35</v>
@@ -45483,10 +45482,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="8">
       <c r="A8" s="27" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B8" s="27" t="s">
         <v>1067</v>
-      </c>
-      <c r="B8" s="27" t="s">
-        <v>1068</v>
       </c>
       <c r="C8" s="27" t="n">
         <v>100</v>
@@ -45500,7 +45499,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="9">
       <c r="A9" s="27" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="B9" s="42" t="n">
         <v>0.96</v>
@@ -45509,7 +45508,7 @@
         <v>1000</v>
       </c>
       <c r="D9" s="27" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="E9" s="27" t="n">
         <v>30</v>
@@ -45517,14 +45516,14 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="10">
       <c r="A10" s="27" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="B10" s="27"/>
       <c r="C10" s="27" t="n">
         <v>1000</v>
       </c>
       <c r="D10" s="27" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="E10" s="27" t="n">
         <v>22.75</v>
@@ -45532,14 +45531,14 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="11">
       <c r="A11" s="27" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="B11" s="27"/>
       <c r="C11" s="27" t="n">
         <v>500</v>
       </c>
       <c r="D11" s="27" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="E11" s="27" t="n">
         <v>180</v>
@@ -45547,14 +45546,14 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="12">
       <c r="A12" s="27" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="B12" s="27"/>
       <c r="C12" s="27" t="n">
         <v>500</v>
       </c>
       <c r="D12" s="27" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="E12" s="27" t="n">
         <v>20</v>
@@ -45562,16 +45561,16 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="13">
       <c r="A13" s="27" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B13" s="27" t="s">
         <v>1073</v>
-      </c>
-      <c r="B13" s="27" t="s">
-        <v>1074</v>
       </c>
       <c r="C13" s="27" t="n">
         <v>100</v>
       </c>
       <c r="D13" s="27" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="E13" s="27" t="n">
         <v>20</v>
@@ -45579,14 +45578,14 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="14">
       <c r="A14" s="27" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="B14" s="27"/>
       <c r="C14" s="27" t="n">
         <v>2.5</v>
       </c>
       <c r="D14" s="27" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="E14" s="27" t="n">
         <v>520</v>
@@ -45594,7 +45593,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="15">
       <c r="A15" s="27" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="B15" s="27"/>
       <c r="C15" s="27" t="n">
@@ -45609,7 +45608,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="16">
       <c r="A16" s="27" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="B16" s="27"/>
       <c r="C16" s="27" t="n">
@@ -45624,7 +45623,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="17">
       <c r="A17" s="27" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="C17" s="27" t="n">
         <v>500</v>
@@ -45638,7 +45637,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="18">
       <c r="A18" s="27" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="B18" s="27"/>
       <c r="C18" s="27" t="n">
@@ -45653,7 +45652,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="19">
       <c r="A19" s="27" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="B19" s="27"/>
       <c r="C19" s="27" t="n">
@@ -45668,16 +45667,16 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="20">
       <c r="A20" s="27" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B20" s="27" t="s">
         <v>1081</v>
-      </c>
-      <c r="B20" s="27" t="s">
-        <v>1082</v>
       </c>
       <c r="C20" s="27" t="n">
         <v>1</v>
       </c>
       <c r="D20" s="27" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="E20" s="27" t="n">
         <v>20</v>
@@ -45685,16 +45684,16 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="21">
       <c r="A21" s="27" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="B21" s="27" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="C21" s="27" t="n">
         <v>1</v>
       </c>
       <c r="D21" s="27" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="E21" s="27" t="n">
         <v>13.6</v>
@@ -45702,16 +45701,16 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="22">
       <c r="A22" s="27" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="B22" s="27" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="C22" s="27" t="n">
         <v>1</v>
       </c>
       <c r="D22" s="27" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="E22" s="27" t="n">
         <v>90</v>
@@ -45719,13 +45718,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="23">
       <c r="A23" s="27" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="C23" s="27" t="n">
         <v>1</v>
       </c>
       <c r="D23" s="27" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="E23" s="27" t="n">
         <v>35</v>
@@ -45750,25 +45749,25 @@
   <dimension ref="A1:V43"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100">
-      <selection activeCell="G3" activeCellId="1" pane="topLeft" sqref="V251 G3"/>
+      <selection activeCell="G3" activeCellId="0" pane="topLeft" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="27" width="20.9176470588235"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="27" width="21.2078431372549"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="27" width="26.5529411764706"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="27" width="10.6705882352941"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="27" width="7.4078431372549"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="27" width="22.9647058823529"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="27" width="15.1058823529412"/>
-    <col collapsed="false" hidden="false" max="10" min="9" style="0" width="22.9647058823529"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="15.1058823529412"/>
-    <col collapsed="false" hidden="false" max="257" min="12" style="27" width="12.8235294117647"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="27" width="21.0196078431373"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="27" width="21.3176470588235"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="27" width="26.6823529411765"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="27" width="10.7176470588235"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="27" width="7.44313725490196"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="27" width="23.0823529411765"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="27" width="15.1843137254902"/>
+    <col collapsed="false" hidden="false" max="10" min="9" style="0" width="23.0823529411765"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="15.1843137254902"/>
+    <col collapsed="false" hidden="false" max="257" min="12" style="27" width="12.8862745098039"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1" s="26">
       <c r="A1" s="22" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="B1" s="25"/>
       <c r="C1" s="25"/>
@@ -45800,19 +45799,19 @@
         <v>981</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>1087</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>1088</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>1089</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>1090</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>1091</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>1092</v>
       </c>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="32.8" outlineLevel="0" r="3" s="3">
@@ -45826,27 +45825,27 @@
         <v>982</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>452</v>
       </c>
       <c r="F3" s="3" t="s">
+        <v>1093</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>1094</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>1095</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>1096</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="4">
       <c r="A4" s="27" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="C4" s="27" t="s">
         <v>986</v>
@@ -45855,10 +45854,10 @@
         <v>1</v>
       </c>
       <c r="E4" s="27" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="G4" s="27" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="5">
@@ -45866,10 +45865,10 @@
         <v>2</v>
       </c>
       <c r="E5" s="27" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="F5" s="27" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="6">
@@ -45877,7 +45876,7 @@
         <v>3</v>
       </c>
       <c r="E6" s="27" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="7">
@@ -45885,7 +45884,7 @@
         <v>4</v>
       </c>
       <c r="E7" s="27" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="8">
@@ -45893,7 +45892,7 @@
         <v>5</v>
       </c>
       <c r="E8" s="27" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="9">
@@ -45901,7 +45900,7 @@
         <v>6</v>
       </c>
       <c r="E9" s="27" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="10">
@@ -45909,7 +45908,7 @@
         <v>7</v>
       </c>
       <c r="E10" s="27" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="11">
@@ -45917,7 +45916,7 @@
         <v>8</v>
       </c>
       <c r="E11" s="27" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="12">
@@ -45925,7 +45924,7 @@
         <v>9</v>
       </c>
       <c r="E12" s="27" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="13">
@@ -45933,7 +45932,7 @@
         <v>10</v>
       </c>
       <c r="E13" s="27" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="H13" s="27" t="n">
         <v>3</v>
@@ -45941,10 +45940,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="14">
       <c r="A14" s="27" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="B14" s="27" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="C14" s="27" t="s">
         <v>986</v>
@@ -45953,10 +45952,10 @@
         <v>1</v>
       </c>
       <c r="E14" s="27" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="G14" s="27" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="15">
@@ -45964,10 +45963,10 @@
         <v>2</v>
       </c>
       <c r="E15" s="27" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="F15" s="27" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="16">
@@ -45975,7 +45974,7 @@
         <v>3</v>
       </c>
       <c r="E16" s="27" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="17">
@@ -45983,7 +45982,7 @@
         <v>4</v>
       </c>
       <c r="E17" s="27" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="18">
@@ -45991,7 +45990,7 @@
         <v>5</v>
       </c>
       <c r="E18" s="27" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="19">
@@ -45999,7 +45998,7 @@
         <v>6</v>
       </c>
       <c r="E19" s="27" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="20">
@@ -46007,7 +46006,7 @@
         <v>7</v>
       </c>
       <c r="E20" s="27" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="21">
@@ -46015,7 +46014,7 @@
         <v>8</v>
       </c>
       <c r="E21" s="27" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="22">
@@ -46023,7 +46022,7 @@
         <v>9</v>
       </c>
       <c r="E22" s="27" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="23">
@@ -46031,7 +46030,7 @@
         <v>10</v>
       </c>
       <c r="E23" s="27" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="H23" s="27" t="n">
         <v>3</v>
@@ -46039,22 +46038,22 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="24">
       <c r="A24" s="27" t="s">
+        <v>898</v>
+      </c>
+      <c r="B24" s="27" t="s">
         <v>987</v>
       </c>
-      <c r="B24" s="27" t="s">
-        <v>988</v>
-      </c>
       <c r="C24" s="27" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="D24" s="27" t="n">
         <v>1</v>
       </c>
       <c r="E24" s="27" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="G24" s="27" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="25">
@@ -46062,10 +46061,10 @@
         <v>2</v>
       </c>
       <c r="E25" s="27" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="F25" s="27" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="26">
@@ -46073,7 +46072,7 @@
         <v>3</v>
       </c>
       <c r="E26" s="27" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="27">
@@ -46081,7 +46080,7 @@
         <v>4</v>
       </c>
       <c r="E27" s="27" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="28">
@@ -46089,7 +46088,7 @@
         <v>5</v>
       </c>
       <c r="E28" s="27" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="29">
@@ -46097,7 +46096,7 @@
         <v>6</v>
       </c>
       <c r="E29" s="27" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="30">
@@ -46105,7 +46104,7 @@
         <v>7</v>
       </c>
       <c r="E30" s="27" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="31">
@@ -46113,7 +46112,7 @@
         <v>8</v>
       </c>
       <c r="E31" s="27" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="32">
@@ -46121,7 +46120,7 @@
         <v>9</v>
       </c>
       <c r="E32" s="27" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="33">
@@ -46129,7 +46128,7 @@
         <v>10</v>
       </c>
       <c r="E33" s="27" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="H33" s="27" t="n">
         <v>3</v>
@@ -46140,19 +46139,19 @@
         <v>890</v>
       </c>
       <c r="B34" s="27" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="C34" s="27" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="D34" s="27" t="n">
         <v>1</v>
       </c>
       <c r="E34" s="27" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="G34" s="27" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="35">
@@ -46160,10 +46159,10 @@
         <v>2</v>
       </c>
       <c r="E35" s="27" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="F35" s="27" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="36">
@@ -46171,7 +46170,7 @@
         <v>3</v>
       </c>
       <c r="E36" s="27" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="37">
@@ -46179,7 +46178,7 @@
         <v>4</v>
       </c>
       <c r="E37" s="27" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="38">
@@ -46187,7 +46186,7 @@
         <v>5</v>
       </c>
       <c r="E38" s="27" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="39">
@@ -46195,7 +46194,7 @@
         <v>6</v>
       </c>
       <c r="E39" s="27" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="40">
@@ -46203,7 +46202,7 @@
         <v>7</v>
       </c>
       <c r="E40" s="27" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="41">
@@ -46211,7 +46210,7 @@
         <v>8</v>
       </c>
       <c r="E41" s="27" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="42">
@@ -46219,7 +46218,7 @@
         <v>9</v>
       </c>
       <c r="E42" s="27" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="43">
@@ -46227,7 +46226,7 @@
         <v>10</v>
       </c>
       <c r="E43" s="27" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="H43" s="27" t="n">
         <v>3</v>
@@ -46252,18 +46251,18 @@
   <dimension ref="A1:V11"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100">
-      <selection activeCell="C5" activeCellId="1" pane="topLeft" sqref="V251 C5"/>
+      <selection activeCell="C5" activeCellId="0" pane="topLeft" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="7" width="21.0745098039216"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="7" width="13.9921568627451"/>
-    <col collapsed="false" hidden="false" max="257" min="3" style="7" width="12.8235294117647"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="7" width="21.1803921568627"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="7" width="14.0627450980392"/>
+    <col collapsed="false" hidden="false" max="257" min="3" style="7" width="12.8862745098039"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1" s="10">
       <c r="A1" s="22" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="B1" s="25"/>
       <c r="C1" s="25"/>
@@ -46289,32 +46288,32 @@
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="2" s="2">
       <c r="A2" s="2" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>1105</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>1106</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>1107</v>
       </c>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="3" s="3">
       <c r="A3" s="3" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>1108</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>1109</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>1110</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="4">
       <c r="A4" s="27" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B4" s="27" t="s">
         <v>1111</v>
-      </c>
-      <c r="B4" s="27" t="s">
-        <v>1112</v>
       </c>
       <c r="C4" s="27" t="n">
         <v>2</v>
@@ -46322,10 +46321,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="5">
       <c r="A5" s="27" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B5" s="27" t="s">
         <v>1113</v>
-      </c>
-      <c r="B5" s="27" t="s">
-        <v>1114</v>
       </c>
       <c r="C5" s="27" t="n">
         <v>4</v>
@@ -46333,10 +46332,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="6">
       <c r="A6" s="27" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B6" s="27" t="s">
         <v>1115</v>
-      </c>
-      <c r="B6" s="27" t="s">
-        <v>1116</v>
       </c>
       <c r="C6" s="27" t="n">
         <v>3</v>
@@ -46344,10 +46343,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="7">
       <c r="A7" s="27" t="s">
+        <v>1116</v>
+      </c>
+      <c r="B7" s="27" t="s">
         <v>1117</v>
-      </c>
-      <c r="B7" s="27" t="s">
-        <v>1118</v>
       </c>
       <c r="C7" s="27" t="n">
         <v>3</v>
@@ -46355,10 +46354,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="8">
       <c r="A8" s="27" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B8" s="27" t="s">
         <v>1119</v>
-      </c>
-      <c r="B8" s="27" t="s">
-        <v>1120</v>
       </c>
       <c r="C8" s="27" t="n">
         <v>4</v>
@@ -46366,10 +46365,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="9">
       <c r="A9" s="27" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B9" s="27" t="s">
         <v>1121</v>
-      </c>
-      <c r="B9" s="27" t="s">
-        <v>1122</v>
       </c>
       <c r="C9" s="27" t="n">
         <v>3</v>
@@ -46377,10 +46376,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="10">
       <c r="A10" s="27" t="s">
+        <v>1122</v>
+      </c>
+      <c r="B10" s="27" t="s">
         <v>1123</v>
-      </c>
-      <c r="B10" s="27" t="s">
-        <v>1124</v>
       </c>
       <c r="C10" s="27" t="n">
         <v>4</v>
@@ -46388,10 +46387,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="11">
       <c r="A11" s="27" t="s">
+        <v>1124</v>
+      </c>
+      <c r="B11" s="27" t="s">
         <v>1125</v>
-      </c>
-      <c r="B11" s="27" t="s">
-        <v>1126</v>
       </c>
       <c r="C11" s="27" t="n">
         <v>4</v>
@@ -46416,18 +46415,18 @@
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100">
-      <selection activeCell="F22" activeCellId="1" pane="topLeft" sqref="V251 F22"/>
+      <selection activeCell="F22" activeCellId="0" pane="topLeft" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="7" width="12.2627450980392"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="7" width="12.8862745098039"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="7" width="11.956862745098"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="7" width="14.9490196078431"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="7" width="14.6352941176471"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="7" width="27.0235294117647"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="7" width="20.5686274509804"/>
-    <col collapsed="false" hidden="false" max="257" min="8" style="7" width="12.8235294117647"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="7" width="12.3176470588235"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="7" width="12.9529411764706"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="7" width="12.0196078431373"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="7" width="15.0235294117647"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="7" width="14.7137254901961"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="7" width="27.1607843137255"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="7" width="20.6666666666667"/>
+    <col collapsed="false" hidden="false" max="257" min="8" style="7" width="12.8862745098039"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1" s="9">
@@ -47121,22 +47120,22 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100">
-      <selection activeCell="J5" activeCellId="1" pane="topLeft" sqref="V251 J5"/>
+      <selection activeCell="J5" activeCellId="0" pane="topLeft" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="7" width="15.6470588235294"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="7" width="12.5450980392157"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="7" width="11.3764705882353"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="7" width="24.5725490196078"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="7" width="18.3411764705882"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="7" width="15.4549019607843"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="7" width="17.8901960784314"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="7" width="15.6470588235294"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="7" width="19.8980392156863"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="7" width="15.078431372549"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="7" width="45.8274509803922"/>
-    <col collapsed="false" hidden="false" max="257" min="12" style="7" width="12.8235294117647"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="7" width="15.7294117647059"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="7" width="12.6078431372549"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="7" width="11.4313725490196"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="7" width="24.6901960784314"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="7" width="18.4313725490196"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="7" width="15.5294117647059"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="7" width="17.9803921568627"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="7" width="15.7294117647059"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="7" width="19.9960784313725"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="7" width="15.1490196078431"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="7" width="46.0549019607843"/>
+    <col collapsed="false" hidden="false" max="257" min="12" style="7" width="12.8862745098039"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1" s="10">
@@ -47478,14 +47477,14 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100">
-      <selection activeCell="F16" activeCellId="1" pane="topLeft" sqref="V251 F16"/>
+      <selection activeCell="F16" activeCellId="0" pane="topLeft" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="7" width="19.6274509803922"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="7" width="35.6901960784314"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="7" width="26.4823529411765"/>
-    <col collapsed="false" hidden="false" max="257" min="4" style="7" width="12.8235294117647"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="7" width="19.7254901960784"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="7" width="35.8705882352941"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="7" width="26.6156862745098"/>
+    <col collapsed="false" hidden="false" max="257" min="4" style="7" width="12.8862745098039"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1" s="8">
@@ -47570,17 +47569,17 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="1" pane="topLeft" sqref="V251 A1"/>
+      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="11" width="16.0823529411765"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="12" width="21.6901960784314"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="12" width="14.6352941176471"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="12" width="24.2117647058823"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="12" width="14.7882352941176"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="12" width="15.8823529411765"/>
-    <col collapsed="false" hidden="false" max="257" min="7" style="12" width="12.8235294117647"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="11" width="16.1607843137255"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="12" width="21.7960784313725"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="12" width="14.7137254901961"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="12" width="24.3372549019608"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="12" width="14.8588235294118"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="12" width="15.9647058823529"/>
+    <col collapsed="false" hidden="false" max="257" min="7" style="12" width="12.8862745098039"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="11.6" outlineLevel="0" r="1" s="15">
@@ -47841,27 +47840,27 @@
   <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100">
-      <selection activeCell="C11" activeCellId="1" pane="topLeft" sqref="V251 C11"/>
+      <selection activeCell="C11" activeCellId="0" pane="topLeft" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="12" width="21.6901960784314"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="12" width="12.8235294117647"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="12" width="10.3647058823529"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="12" width="16.6509803921569"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="12" width="21.0745098039216"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="12" width="18.2235294117647"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="12" width="14.1254901960784"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="12" width="14.6352941176471"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="12" width="14.2980392156863"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="12" width="15.1058823529412"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="12" width="11.956862745098"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="12" width="18.2235294117647"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="12" width="27.3607843137255"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="12" width="12.8862745098039"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="12" width="12.8235294117647"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="16" width="18.0705882352941"/>
-    <col collapsed="false" hidden="false" max="257" min="17" style="12" width="12.8235294117647"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="12" width="21.7960784313725"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="12" width="12.8862745098039"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="12" width="10.4117647058824"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="12" width="16.7333333333333"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="12" width="21.1803921568627"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="12" width="18.3137254901961"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="12" width="14.2"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="12" width="14.7137254901961"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="12" width="14.3725490196078"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="12" width="15.1843137254902"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="12" width="12.0196078431373"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="12" width="18.3137254901961"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="12" width="27.4941176470588"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="12" width="12.9529411764706"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="12" width="12.8862745098039"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="16" width="18.1607843137255"/>
+    <col collapsed="false" hidden="false" max="257" min="17" style="12" width="12.8862745098039"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="11.6" outlineLevel="0" r="1" s="15">
@@ -48923,19 +48922,19 @@
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="1" pane="topLeft" sqref="V251 A1"/>
+      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="17" width="26.5529411764706"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="17" width="38.1960784313725"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="17" width="42.8901960784314"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="17" width="17.7725490196078"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="17" width="30.3450980392157"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="17" width="12.8235294117647"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="17" width="23.9058823529412"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="17" width="21.7333333333333"/>
-    <col collapsed="false" hidden="false" max="257" min="9" style="17" width="12.8235294117647"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="17" width="26.6823529411765"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="17" width="38.3843137254902"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="17" width="43.1058823529412"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="17" width="17.8627450980392"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="17" width="30.4980392156863"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="17" width="12.8862745098039"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="17" width="24.0313725490196"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="17" width="21.843137254902"/>
+    <col collapsed="false" hidden="false" max="257" min="9" style="17" width="12.8862745098039"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1" s="19">
@@ -49534,20 +49533,20 @@
   <dimension ref="A1:T14"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="1" pane="topLeft" sqref="V251 A1"/>
+      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="21" width="17.4392156862745"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="7" width="25.9019607843137"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="7" width="6.61960784313725"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="7" width="7.68627450980392"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="7" width="9.74117647058823"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="7" width="12.5098039215686"/>
-    <col collapsed="false" hidden="false" max="10" min="7" style="7" width="5.64313725490196"/>
-    <col collapsed="false" hidden="false" max="14" min="11" style="7" width="6.61960784313725"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="7" width="11.7764705882353"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="7" width="12.8235294117647"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="21" width="17.5294117647059"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="7" width="26.0313725490196"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="7" width="6.64705882352941"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="7" width="7.72549019607843"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="7" width="9.7843137254902"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="7" width="12.5725490196078"/>
+    <col collapsed="false" hidden="false" max="10" min="7" style="7" width="5.67058823529412"/>
+    <col collapsed="false" hidden="false" max="14" min="11" style="7" width="6.64705882352941"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="7" width="11.8313725490196"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="7" width="12.8862745098039"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="13.05" outlineLevel="0" r="1" s="8">

--- a/bika/lims/test_setup_data.xlsx
+++ b/bika/lims/test_setup_data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="23" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="900" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="23" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="899" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="Setup" sheetId="1" state="visible" r:id="rId2"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4775" uniqueCount="1208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4775" uniqueCount="1207">
   <si>
     <t>Password lifetime</t>
   </si>
@@ -3631,37 +3631,34 @@
     <t>Worksheet</t>
   </si>
   <si>
-    <t>WS-</t>
+    <t>WS</t>
   </si>
   <si>
     <t>SupplyOrder</t>
   </si>
   <si>
-    <t>O-</t>
-  </si>
-  <si>
     <t>Invoice</t>
   </si>
   <si>
-    <t>I-</t>
+    <t>I</t>
   </si>
   <si>
     <t>ARImport</t>
   </si>
   <si>
-    <t>B-</t>
+    <t>B</t>
   </si>
   <si>
     <t>ReferenceSample</t>
   </si>
   <si>
-    <t>RS-</t>
+    <t>RS</t>
   </si>
   <si>
     <t>ReferenceAnalysis</t>
   </si>
   <si>
-    <t>RA-</t>
+    <t>RA</t>
   </si>
 </sst>
 </file>
@@ -4034,7 +4031,7 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="257" min="1" style="1" width="13.2666666666667"/>
+    <col collapsed="false" hidden="false" max="257" min="1" style="1" width="13.3294117647059"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="2" s="2"/>
@@ -4146,10 +4143,10 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="21" width="31.5450980392157"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="7" width="41.6039215686275"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="7" width="16.9411764705882"/>
-    <col collapsed="false" hidden="false" max="257" min="5" style="7" width="13.6588235294118"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="21" width="31.7019607843137"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="7" width="41.8117647058824"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="7" width="17.0196078431373"/>
+    <col collapsed="false" hidden="false" max="257" min="5" style="7" width="13.7294117647059"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1" s="8">
@@ -4974,10 +4971,10 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="30" width="22.8470588235294"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="30" width="50.6117647058824"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="30" width="27.2941176470588"/>
-    <col collapsed="false" hidden="false" max="257" min="4" style="30" width="13.6588235294118"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="30" width="22.9647058823529"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="30" width="50.8666666666667"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="30" width="27.4313725490196"/>
+    <col collapsed="false" hidden="false" max="257" min="4" style="30" width="13.7294117647059"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="1" s="31">
@@ -5128,10 +5125,10 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="7" width="29.7019607843137"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="7" width="76.9764705882353"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="7" width="27.1254901960784"/>
-    <col collapsed="false" hidden="false" max="257" min="5" style="7" width="13.6588235294118"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="7" width="29.8549019607843"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="7" width="77.356862745098"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="7" width="27.2588235294118"/>
+    <col collapsed="false" hidden="false" max="257" min="5" style="7" width="13.7294117647059"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1" s="8">
@@ -5359,33 +5356,33 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="20" width="14.0823529411765"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="20" width="20.9450980392157"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="20" width="10.5372549019608"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="20" width="10.0588235294118"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="20" width="13.7294117647059"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="33" width="8.65490196078431"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="20" width="14.4156862745098"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="20" width="8.83529411764706"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="20" width="6.93725490196078"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="20" width="7.08235294117647"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="20" width="8.33725490196079"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="20" width="6.82745098039216"/>
-    <col collapsed="false" hidden="false" max="15" min="14" style="20" width="7.08235294117647"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="20" width="5.69803921568628"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="20" width="9.2"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="20" width="8.83529411764706"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="20" width="14.5882352941176"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="20" width="11.243137254902"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="33" width="9.0156862745098"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="20" width="16.6509803921569"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="17" width="12.5725490196078"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="20" width="13.6588235294118"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="7" width="8.02352941176471"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="7" width="38.1294117647059"/>
-    <col collapsed="false" hidden="false" max="28" min="27" style="7" width="13.6588235294118"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="27" width="12.5725490196078"/>
-    <col collapsed="false" hidden="false" max="257" min="30" style="27" width="13.6588235294118"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="20" width="14.1529411764706"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="20" width="21.0470588235294"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="20" width="10.5921568627451"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="20" width="10.1098039215686"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="20" width="13.8"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="33" width="8.70196078431373"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="20" width="14.4901960784314"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="20" width="8.88235294117647"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="20" width="6.97254901960784"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="20" width="7.11764705882353"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="20" width="8.37647058823529"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="20" width="6.86274509803922"/>
+    <col collapsed="false" hidden="false" max="15" min="14" style="20" width="7.11764705882353"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="20" width="5.72549019607843"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="20" width="9.24313725490196"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="20" width="8.88235294117647"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="20" width="14.6627450980392"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="20" width="11.3058823529412"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="33" width="9.06274509803922"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="20" width="16.7333333333333"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="17" width="12.6352941176471"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="20" width="13.7294117647059"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="7" width="8.06666666666667"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="7" width="38.321568627451"/>
+    <col collapsed="false" hidden="false" max="28" min="27" style="7" width="13.7294117647059"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="27" width="12.6352941176471"/>
+    <col collapsed="false" hidden="false" max="257" min="30" style="27" width="13.7294117647059"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="24.25" outlineLevel="0" r="1" s="22">
@@ -11833,11 +11830,11 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="20" width="26.0313725490196"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="20" width="20.9450980392157"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="20" width="14.0078431372549"/>
-    <col collapsed="false" hidden="false" max="227" min="4" style="27" width="13.6588235294118"/>
-    <col collapsed="false" hidden="false" max="257" min="228" style="0" width="9.64313725490196"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="20" width="26.156862745098"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="20" width="21.0470588235294"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="20" width="14.0823529411765"/>
+    <col collapsed="false" hidden="false" max="227" min="4" style="27" width="13.7294117647059"/>
+    <col collapsed="false" hidden="false" max="257" min="228" style="0" width="9.68627450980392"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="24.25" outlineLevel="0" r="1" s="22">
@@ -43168,16 +43165,16 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="7" width="21.2549019607843"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="7" width="22.4941176470588"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="7" width="15.6117647058824"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="7" width="47.8156862745098"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="7" width="13.078431372549"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="7" width="16.443137254902"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="7" width="7.08235294117647"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="7" width="8.33725490196079"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="7" width="6.12156862745098"/>
-    <col collapsed="false" hidden="false" max="257" min="10" style="7" width="13.6588235294118"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="7" width="21.3607843137255"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="7" width="22.6117647058824"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="7" width="15.6901960784314"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="7" width="48.0509803921569"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="7" width="13.1411764705882"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="7" width="16.5254901960784"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="7" width="7.11764705882353"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="7" width="8.37647058823529"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="7" width="6.14901960784314"/>
+    <col collapsed="false" hidden="false" max="257" min="10" style="7" width="13.7294117647059"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="16.55" outlineLevel="0" r="1" s="8">
@@ -43719,11 +43716,11 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.5058823529412"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="37.7254901960784"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.54509803921569"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="35.7058823529412"/>
-    <col collapsed="false" hidden="false" max="257" min="5" style="0" width="8.54509803921569"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.6235294117647"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="37.9137254901961"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.5921568627451"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="35.878431372549"/>
+    <col collapsed="false" hidden="false" max="257" min="5" style="0" width="8.5921568627451"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1" s="39">
@@ -43859,10 +43856,10 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="7" width="22.4941176470588"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="7" width="55.7960784313726"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="7" width="55.1529411764706"/>
-    <col collapsed="false" hidden="false" max="257" min="4" style="7" width="13.6588235294118"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="7" width="22.6117647058824"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="7" width="56.0745098039216"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="7" width="55.4313725490196"/>
+    <col collapsed="false" hidden="false" max="257" min="4" style="7" width="13.7294117647059"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1" s="10">
@@ -43946,13 +43943,13 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="27" width="23.8588235294118"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="27" width="36.2039215686274"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="27" width="13.6588235294118"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="27" width="13.4666666666667"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="27" width="9.52549019607843"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="27" width="7.71372549019608"/>
-    <col collapsed="false" hidden="false" max="257" min="9" style="27" width="13.6588235294118"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="27" width="23.9764705882353"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="27" width="36.3843137254902"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="27" width="13.7294117647059"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="27" width="13.5294117647059"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="27" width="9.56862745098039"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="27" width="7.75294117647059"/>
+    <col collapsed="false" hidden="false" max="257" min="9" style="27" width="13.7294117647059"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1" s="26">
@@ -45192,14 +45189,14 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="30" width="13.2392156862745"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="30" width="20.9450980392157"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="30" width="22.6196078431373"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="30" width="17.7725490196078"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="30" width="17.5921568627451"/>
-    <col collapsed="false" hidden="false" max="8" min="6" style="30" width="13.6588235294118"/>
-    <col collapsed="false" hidden="false" max="10" min="9" style="30" width="32.8392156862745"/>
-    <col collapsed="false" hidden="false" max="257" min="11" style="30" width="13.6588235294118"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="30" width="13.3058823529412"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="30" width="21.0470588235294"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="30" width="22.7294117647059"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="30" width="17.8627450980392"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="30" width="17.6823529411765"/>
+    <col collapsed="false" hidden="false" max="8" min="6" style="30" width="13.7294117647059"/>
+    <col collapsed="false" hidden="false" max="10" min="9" style="30" width="33.0039215686275"/>
+    <col collapsed="false" hidden="false" max="257" min="11" style="30" width="13.7294117647059"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="1" s="31">
@@ -45352,13 +45349,13 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="9.24313725490196"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="12.0470588235294"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="5" width="13.2666666666667"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="22.6117647058824"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="23.1529411764706"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="11.7137254901961"/>
-    <col collapsed="false" hidden="false" max="257" min="8" style="5" width="13.2666666666667"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="9.29019607843137"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="12.1098039215686"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="5" width="13.3294117647059"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="22.7294117647059"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="23.2705882352941"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="11.7764705882353"/>
+    <col collapsed="false" hidden="false" max="257" min="8" style="5" width="13.3294117647059"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="2" s="2"/>
@@ -45473,15 +45470,15 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="30" width="25.1333333333333"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="30" width="20.9450980392157"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="30" width="22.6196078431373"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="30" width="17.7725490196078"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="30" width="17.5921568627451"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="30" width="29.0039215686275"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="30" width="13.6588235294118"/>
-    <col collapsed="false" hidden="false" max="10" min="9" style="30" width="32.8392156862745"/>
-    <col collapsed="false" hidden="false" max="257" min="11" style="30" width="13.6588235294118"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="30" width="25.2627450980392"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="30" width="21.0470588235294"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="30" width="22.7294117647059"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="30" width="17.8627450980392"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="30" width="17.6823529411765"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="30" width="29.1490196078431"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="30" width="13.7294117647059"/>
+    <col collapsed="false" hidden="false" max="10" min="9" style="30" width="33.0039215686275"/>
+    <col collapsed="false" hidden="false" max="257" min="11" style="30" width="13.7294117647059"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="1" s="31">
@@ -45631,9 +45628,9 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="7" width="22.4941176470588"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="7" width="40.5921568627451"/>
-    <col collapsed="false" hidden="false" max="257" min="3" style="7" width="13.6588235294118"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="7" width="22.6117647058824"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="7" width="40.7882352941177"/>
+    <col collapsed="false" hidden="false" max="257" min="3" style="7" width="13.7294117647059"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1" s="10">
@@ -45733,11 +45730,11 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="7" width="45.6"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="7" width="27.9725490196078"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="7" width="13.6588235294118"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="7" width="17.7725490196078"/>
-    <col collapsed="false" hidden="false" max="257" min="6" style="7" width="13.6588235294118"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="7" width="45.8274509803922"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="7" width="28.1098039215686"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="7" width="13.7294117647059"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="7" width="17.8627450980392"/>
+    <col collapsed="false" hidden="false" max="257" min="6" style="7" width="13.7294117647059"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1" s="10">
@@ -46138,16 +46135,16 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="27" width="22.3411764705882"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="27" width="22.6196078431373"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="27" width="28.3176470588235"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="27" width="11.3764705882353"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="27" width="7.87843137254902"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="27" width="24.5019607843137"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="27" width="16.1176470588235"/>
-    <col collapsed="false" hidden="false" max="10" min="9" style="0" width="24.5019607843137"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="16.1176470588235"/>
-    <col collapsed="false" hidden="false" max="257" min="12" style="27" width="13.6588235294118"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="27" width="22.4588235294118"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="27" width="22.7294117647059"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="27" width="28.4549019607843"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="27" width="11.4313725490196"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="27" width="7.91372549019608"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="27" width="24.6196078431373"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="27" width="16.2"/>
+    <col collapsed="false" hidden="false" max="10" min="9" style="0" width="24.6196078431373"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="16.2"/>
+    <col collapsed="false" hidden="false" max="257" min="12" style="27" width="13.7294117647059"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1" s="26">
@@ -46636,13 +46633,13 @@
   <dimension ref="A1:V9"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A4" activeCellId="0" pane="topLeft" sqref="A4"/>
+      <selection activeCell="B2" activeCellId="0" pane="topLeft" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="7" width="22.4941176470588"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="7" width="14.9333333333333"/>
-    <col collapsed="false" hidden="false" max="257" min="3" style="7" width="13.6588235294118"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="7" width="22.6117647058824"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="7" width="15.0039215686275"/>
+    <col collapsed="false" hidden="false" max="257" min="3" style="7" width="13.7294117647059"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1" s="10">
@@ -46709,7 +46706,7 @@
         <v>1198</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>1199</v>
+        <v>769</v>
       </c>
       <c r="C5" s="27" t="n">
         <v>3</v>
@@ -46717,10 +46714,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="6">
       <c r="A6" s="27" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B6" s="27" t="s">
         <v>1200</v>
-      </c>
-      <c r="B6" s="27" t="s">
-        <v>1201</v>
       </c>
       <c r="C6" s="27" t="n">
         <v>4</v>
@@ -46728,10 +46725,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="7">
       <c r="A7" s="27" t="s">
+        <v>1201</v>
+      </c>
+      <c r="B7" s="27" t="s">
         <v>1202</v>
-      </c>
-      <c r="B7" s="27" t="s">
-        <v>1203</v>
       </c>
       <c r="C7" s="27" t="n">
         <v>3</v>
@@ -46739,10 +46736,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="8">
       <c r="A8" s="27" t="s">
+        <v>1203</v>
+      </c>
+      <c r="B8" s="27" t="s">
         <v>1204</v>
-      </c>
-      <c r="B8" s="27" t="s">
-        <v>1205</v>
       </c>
       <c r="C8" s="27" t="n">
         <v>4</v>
@@ -46750,10 +46747,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="9">
       <c r="A9" s="27" t="s">
+        <v>1205</v>
+      </c>
+      <c r="B9" s="27" t="s">
         <v>1206</v>
-      </c>
-      <c r="B9" s="27" t="s">
-        <v>1207</v>
       </c>
       <c r="C9" s="27" t="n">
         <v>4</v>
@@ -46782,14 +46779,14 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="7" width="13.078431372549"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="7" width="13.7294117647059"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="7" width="20.1607843137255"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="7" width="15.9647058823529"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="7" width="15.6117647058824"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="7" width="35"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="7" width="21.9490196078431"/>
-    <col collapsed="false" hidden="false" max="257" min="8" style="7" width="13.6588235294118"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="7" width="13.1411764705882"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="7" width="13.8"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="7" width="20.2666666666667"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="7" width="16.043137254902"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="7" width="15.6901960784314"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="7" width="35.1725490196078"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="7" width="22.0588235294118"/>
+    <col collapsed="false" hidden="false" max="257" min="8" style="7" width="13.7294117647059"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1" s="9">
@@ -47763,18 +47760,18 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="7" width="16.6862745098039"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="7" width="13.3764705882353"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="7" width="12.1372549019608"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="7" width="26.1843137254902"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="7" width="19.5647058823529"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="7" width="16.4862745098039"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="7" width="19.0823529411765"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="7" width="16.6862745098039"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="7" width="21.2352941176471"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="7" width="16.0823529411765"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="7" width="48.8862745098039"/>
-    <col collapsed="false" hidden="false" max="257" min="12" style="7" width="13.6588235294118"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="7" width="16.7686274509804"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="7" width="13.4392156862745"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="7" width="12.2"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="7" width="26.3098039215686"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="7" width="19.6627450980392"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="7" width="16.5686274509804"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="7" width="19.1725490196078"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="7" width="16.7686274509804"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="7" width="21.3450980392157"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="7" width="16.1607843137255"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="7" width="49.1294117647059"/>
+    <col collapsed="false" hidden="false" max="257" min="12" style="7" width="13.7294117647059"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1" s="10">
@@ -48120,10 +48117,10 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="7" width="20.9450980392157"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="7" width="38.0862745098039"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="7" width="28.2549019607843"/>
-    <col collapsed="false" hidden="false" max="257" min="4" style="7" width="13.6588235294118"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="7" width="21.0470588235294"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="7" width="38.2745098039216"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="7" width="28.4"/>
+    <col collapsed="false" hidden="false" max="257" min="4" style="7" width="13.7294117647059"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1" s="8">
@@ -48212,13 +48209,13 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="11" width="17.1490196078431"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="12" width="23.1529411764706"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="12" width="15.6117647058824"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="12" width="25.7960784313725"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="12" width="15.7647058823529"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="12" width="16.9411764705882"/>
-    <col collapsed="false" hidden="false" max="257" min="7" style="12" width="13.6588235294118"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="11" width="17.2313725490196"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="12" width="23.2705882352941"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="12" width="15.6901960784314"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="12" width="25.921568627451"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="12" width="15.8470588235294"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="12" width="17.0196078431373"/>
+    <col collapsed="false" hidden="false" max="257" min="7" style="12" width="13.7294117647059"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="11.6" outlineLevel="0" r="1" s="15">
@@ -48483,23 +48480,23 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="12" width="23.1529411764706"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="12" width="13.6588235294118"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="12" width="11.043137254902"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="12" width="17.7725490196078"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="12" width="22.4941176470588"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="12" width="19.4352941176471"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="12" width="15.078431372549"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="12" width="15.6117647058824"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="12" width="15.2588235294118"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="12" width="16.1176470588235"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="12" width="12.7607843137255"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="12" width="19.4352941176471"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="12" width="29.1764705882353"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="12" width="13.7294117647059"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="12" width="13.6588235294118"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="16" width="19.2745098039216"/>
-    <col collapsed="false" hidden="false" max="257" min="17" style="12" width="13.6588235294118"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="12" width="23.2705882352941"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="12" width="13.7294117647059"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="12" width="11.0980392156863"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="12" width="17.8627450980392"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="12" width="22.6117647058824"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="12" width="19.5254901960784"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="12" width="15.1490196078431"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="12" width="15.6901960784314"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="12" width="15.3372549019608"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="12" width="16.2"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="12" width="12.8235294117647"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="12" width="19.5254901960784"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="12" width="29.321568627451"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="12" width="13.8"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="12" width="13.7294117647059"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="16" width="19.3725490196078"/>
+    <col collapsed="false" hidden="false" max="257" min="17" style="12" width="13.7294117647059"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="11.6" outlineLevel="0" r="1" s="15">
@@ -49565,15 +49562,15 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="17" width="28.3176470588235"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="17" width="40.7529411764706"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="17" width="45.756862745098"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="17" width="18.9647058823529"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="17" width="32.3529411764706"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="17" width="13.6588235294118"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="17" width="25.4941176470588"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="17" width="23.2"/>
-    <col collapsed="false" hidden="false" max="257" min="9" style="17" width="13.6588235294118"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="17" width="28.4549019607843"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="17" width="40.9607843137255"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="17" width="45.9803921568627"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="17" width="19.0549019607843"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="17" width="32.5137254901961"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="17" width="13.7294117647059"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="17" width="25.6235294117647"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="17" width="23.3176470588235"/>
+    <col collapsed="false" hidden="false" max="257" min="9" style="17" width="13.7294117647059"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1" s="19">
@@ -50176,16 +50173,16 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="21" width="18.6117647058824"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="7" width="27.6313725490196"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="7" width="7.08235294117647"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="7" width="8.1843137254902"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="7" width="10.3843137254902"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="7" width="13.3294117647059"/>
-    <col collapsed="false" hidden="false" max="10" min="7" style="7" width="6.02352941176471"/>
-    <col collapsed="false" hidden="false" max="14" min="11" style="7" width="7.08235294117647"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="7" width="12.5725490196078"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="7" width="13.6588235294118"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="21" width="18.7019607843137"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="7" width="27.7647058823529"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="7" width="7.11764705882353"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="7" width="8.21960784313725"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="7" width="10.4352941176471"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="7" width="13.3960784313726"/>
+    <col collapsed="false" hidden="false" max="10" min="7" style="7" width="6.05882352941176"/>
+    <col collapsed="false" hidden="false" max="14" min="11" style="7" width="7.11764705882353"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="7" width="12.6352941176471"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="7" width="13.7294117647059"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="13.05" outlineLevel="0" r="1" s="8">
